--- a/Documentação/Planilhas/Conferencia_follow_Relatorio.xlsx
+++ b/Documentação/Planilhas/Conferencia_follow_Relatorio.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
-    <sheet name="Plan2" sheetId="2" r:id="rId2"/>
-    <sheet name="Plan3" sheetId="3" r:id="rId3"/>
+    <sheet name="stg_follow_rascunho" sheetId="3" r:id="rId2"/>
+    <sheet name="stg_follow_compra" sheetId="4" r:id="rId3"/>
+    <sheet name="Plan2" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="357">
   <si>
     <t>ds_chave</t>
   </si>
@@ -647,13 +648,467 @@
   </si>
   <si>
     <t>Fazer o detalhamento da Ordem desejada. Na aba inferior "Monitor", aba "Parceiros de Negócios" pegar a informação da coluna "Data planejada de Recebimento Atual"</t>
+  </si>
+  <si>
+    <t>nr_id_rascunho</t>
+  </si>
+  <si>
+    <t>nr_id_nf</t>
+  </si>
+  <si>
+    <t>nr_quantidade</t>
+  </si>
+  <si>
+    <t>PR0001341</t>
+  </si>
+  <si>
+    <t>254.16</t>
+  </si>
+  <si>
+    <t>1524.96</t>
+  </si>
+  <si>
+    <t>1482.25</t>
+  </si>
+  <si>
+    <t>348.16</t>
+  </si>
+  <si>
+    <t>7811.70</t>
+  </si>
+  <si>
+    <t>7611.40</t>
+  </si>
+  <si>
+    <t>8012.00</t>
+  </si>
+  <si>
+    <t>2603.90</t>
+  </si>
+  <si>
+    <t>C200012131640909</t>
+  </si>
+  <si>
+    <t>PR0001342</t>
+  </si>
+  <si>
+    <t>740.40</t>
+  </si>
+  <si>
+    <t>C200012131640912</t>
+  </si>
+  <si>
+    <t>1234.00</t>
+  </si>
+  <si>
+    <t>100000041900002716</t>
+  </si>
+  <si>
+    <t>100000041900002717</t>
+  </si>
+  <si>
+    <t>100000041900002718</t>
+  </si>
+  <si>
+    <t>100000041900002719</t>
+  </si>
+  <si>
+    <t>Pegar a Informação da coluna "Referência fiscal"</t>
+  </si>
+  <si>
+    <t>Pegar a Informação da coluna "Status"</t>
+  </si>
+  <si>
+    <t>Fazer o detalhamento da referência desejada. Na aba superior "Geral", seção "Documento", pegar a informação do "Nr Docto Fiscal"</t>
+  </si>
+  <si>
+    <t>É a junção da Ordem de Compra com o código do item.
+Fazer o detalhamento da referência desejada. Na aba inferior "Linhas", detalhar o item desejado. Na aba inferior "Ordens Origem por Linha Pré Recebimento", pegar a Ordem de Venda na coluna "Ordem".
+Concatenar o Nr Ordem com o Cód Item para compor o DS_CHAVE</t>
+  </si>
+  <si>
+    <t>Sessão "brnfel504m00l" (Recebimento Fiscal NFE (Pré-Nota))</t>
+  </si>
+  <si>
+    <t>Sessão "tdpur4100m000" (Ordens de Compra)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Informar a Ordem de Compra na coluna Ordem. Pedir o detalhamentno da linha apresentada. Na aba inferior "Linha de Ordem", pegar a informação da coluna "Quantidade Ordenada" de cada item </t>
+  </si>
+  <si>
+    <t>MIS_STAGING</t>
+  </si>
+  <si>
+    <t>com.stg_follow_rascunho</t>
+  </si>
+  <si>
+    <t>BANCO :</t>
+  </si>
+  <si>
+    <t>Tabela :</t>
+  </si>
+  <si>
+    <t>nr_seq_natope</t>
+  </si>
+  <si>
+    <t>nr_cond_pagto</t>
+  </si>
+  <si>
+    <t>nr_inedoneo</t>
+  </si>
+  <si>
+    <t>com.stg_follow_compra</t>
+  </si>
+  <si>
+    <t>SARAIVA S/A LIVREIROS EDITORES</t>
+  </si>
+  <si>
+    <t>SG0000004</t>
+  </si>
+  <si>
+    <t>O QUE A VIDA ME ENSINOU</t>
+  </si>
+  <si>
+    <t>ED ECONOMIA ADMINISTRACAO NEG</t>
+  </si>
+  <si>
+    <t>2014-12-15 14:07:00.000</t>
+  </si>
+  <si>
+    <t>Dev. Total - Compra p/ Revenda</t>
+  </si>
+  <si>
+    <t>janaina</t>
+  </si>
+  <si>
+    <t>A VISTA</t>
+  </si>
+  <si>
+    <t>SG00000041948939</t>
+  </si>
+  <si>
+    <t>BULLYING E A PREVENCAO DA VIOLENCIA NAS ESCOLAS</t>
+  </si>
+  <si>
+    <t>EDITORA J CURSOS</t>
+  </si>
+  <si>
+    <t>SG00000042171017</t>
+  </si>
+  <si>
+    <t>DIREITO CIVIL 2 CONTRATOS EM ESPECIE DIREITO</t>
+  </si>
+  <si>
+    <t>J CURSOS</t>
+  </si>
+  <si>
+    <t>SG00000042177147</t>
+  </si>
+  <si>
+    <t>60500139000711</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1948939</t>
+  </si>
+  <si>
+    <t>60500139000126</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>-17.9400</t>
+  </si>
+  <si>
+    <t>17.9400</t>
+  </si>
+  <si>
+    <t>6202</t>
+  </si>
+  <si>
+    <t>2014-12-15</t>
+  </si>
+  <si>
+    <t>2171017</t>
+  </si>
+  <si>
+    <t>-54.4000</t>
+  </si>
+  <si>
+    <t>54.4050</t>
+  </si>
+  <si>
+    <t>2177147</t>
+  </si>
+  <si>
+    <t>-2</t>
+  </si>
+  <si>
+    <t>-219.0500</t>
+  </si>
+  <si>
+    <t>109.5250</t>
+  </si>
+  <si>
+    <t>EDITORA ESCALA LTDA</t>
+  </si>
+  <si>
+    <t>SG0000002</t>
+  </si>
+  <si>
+    <t>BOTA SPIKES 01 BERGAMO PRETO 35 ZATS</t>
+  </si>
+  <si>
+    <t>INDUSTRIA COM CALCADOS ALA LTD</t>
+  </si>
+  <si>
+    <t>Moda</t>
+  </si>
+  <si>
+    <t>2014-12-11 13:57:00.000</t>
+  </si>
+  <si>
+    <t>SG00000022986305</t>
+  </si>
+  <si>
+    <t>BOTA SPIKES 04 BERGAMO MALBEC 35 ZATS</t>
+  </si>
+  <si>
+    <t>SG00000022986311</t>
+  </si>
+  <si>
+    <t>BOTA FIVELA C TACHAS WHISKY 35 PICCADILLY</t>
+  </si>
+  <si>
+    <t>A GRINGS S A</t>
+  </si>
+  <si>
+    <t>SG00000022996507</t>
+  </si>
+  <si>
+    <t>BOTA DUAS FIVELAS MICRO FIBRA MARROM 35 PICCADILLY</t>
+  </si>
+  <si>
+    <t>SG00000022996573</t>
+  </si>
+  <si>
+    <t>BOTA DUAS FIVELAS MICRO FIBRA PRETO 35 PICCADILLY</t>
+  </si>
+  <si>
+    <t>SG00000022996714</t>
+  </si>
+  <si>
+    <t>BOTA CANO ALTO LISA NAPA CASTOR 35 PICCADILLY</t>
+  </si>
+  <si>
+    <t>SG00000022996726</t>
+  </si>
+  <si>
+    <t>SAPATO FIVELA FRONTAL MICROF PR 35 PICCADILLY</t>
+  </si>
+  <si>
+    <t>SG00000022996778</t>
+  </si>
+  <si>
+    <t>SAPATILHA PEEP TOE MIC NOZNP TAUP 35 PICCADILLY</t>
+  </si>
+  <si>
+    <t>SG00000022996808</t>
+  </si>
+  <si>
+    <t>1228546000167</t>
+  </si>
+  <si>
+    <t>2986305</t>
+  </si>
+  <si>
+    <t>78658846000100</t>
+  </si>
+  <si>
+    <t>1734</t>
+  </si>
+  <si>
+    <t>-70.0000</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>2014-12-11</t>
+  </si>
+  <si>
+    <t>2986311</t>
+  </si>
+  <si>
+    <t>2996507</t>
+  </si>
+  <si>
+    <t>97755177000300</t>
+  </si>
+  <si>
+    <t>-93.0100</t>
+  </si>
+  <si>
+    <t>93.0100</t>
+  </si>
+  <si>
+    <t>2996573</t>
+  </si>
+  <si>
+    <t>-89.2400</t>
+  </si>
+  <si>
+    <t>89.2400</t>
+  </si>
+  <si>
+    <t>2996714</t>
+  </si>
+  <si>
+    <t>2996726</t>
+  </si>
+  <si>
+    <t>-79.8600</t>
+  </si>
+  <si>
+    <t>79.8600</t>
+  </si>
+  <si>
+    <t>2996778</t>
+  </si>
+  <si>
+    <t>-61.1800</t>
+  </si>
+  <si>
+    <t>61.1800</t>
+  </si>
+  <si>
+    <t>2996808</t>
+  </si>
+  <si>
+    <t>-46.9700</t>
+  </si>
+  <si>
+    <t>46.9700</t>
+  </si>
+  <si>
+    <t>Sessão tdpur4100m000 (Ordens de Compra)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pegar a informação da coluna "Ordem de Compra" </t>
+  </si>
+  <si>
+    <t>Pegar a segunda informação da coluna "Parceiro de negócios Faturador"</t>
+  </si>
+  <si>
+    <t>Pegar a primeira informação da coluna "Parceiro de negócios Faturador". 
+Ir para a sessão "tccom4520m000" (Parceiro de Negócio Fornecedores) e informar o código na primeira coluna de "Parceiro de negócio fornecedor". Pegar a informação da coluna "Entidade Fiscal" [sem qualquer separador]</t>
+  </si>
+  <si>
+    <t>Pegar a informação da coluna "Dep Compras". Ir para a sessão "tdpur0112m000" (Departamentos de Compras). Informar o código na coluna Departamento e pegar a informação da coluna "Unidade Empresarial". Ir para a sessão "tcemm0130m000" (unidades Empresariais). Informar o código da Unidade empresarial na coluna "Unid Empresarial"  e pegar ainformação da coluna "Cat da Uni Empresarial"</t>
+  </si>
+  <si>
+    <t>Fazer o detalhamento  do Pedido. Na aba inferior "Linha da Ordem", pegar a informação da segunda coluna do "Item"</t>
+  </si>
+  <si>
+    <t>Fazer o detalhamento  do Pedido. Na aba inferior "Linha da Ordem", pegar a informação da terceira coluna do "Item"</t>
+  </si>
+  <si>
+    <t>Ir para a sessão "tcibd0501m000" (Itens Geral) e informar o código do item na segunda coluna do "Item". Pedir o detalhamento do mesmo. Na aba superior "Dados do Item I", sessão "Estrutura Mercadológica", pegar a primeira informação do Grupo de Item</t>
+  </si>
+  <si>
+    <t>Ir para a sessão "tcibd0501m000" (Itens Geral) e informar o código do item na segunda coluna do "Item". Pedir o detalhamento do mesmo. Na aba superior "Dados do Item I", sessão "Estrutura Mercadológica", pegar a segunda informação do Grupo de Item</t>
+  </si>
+  <si>
+    <t>Fazer o detalhamento  do Pedido. Na aba inferior "Recebimentos", pegar a informação das colunas "Qtd Aprovada" + "Qtd Rejeitada" do item desejado</t>
+  </si>
+  <si>
+    <t>Fazer o detalhamento do Pedido. Na aba inferior "Linha da Ordem", pegar a  informação da coluna "Preço" do item desejado. Ir para a aba inferior "Recebimentos" e multiplicar o Preço pelo resultado da soma de "Qtd Aprovada" + "Qtd Rejeitada"  para cada item desejado</t>
+  </si>
+  <si>
+    <t>Fazer o detalhamento da referência desejada. Na aba inferior "Linhas",  pegar a informação da coluna "Preço" de cada item.
+Ir para a aba inferior "Recebimento" e pegar as informações das colunas: Qtd Recebida, Qtd Rejeitada e Qtd Aprovada de cada item
+Executar a seguinte regra para compor o valor Saldo:
+Preço * (Qtd Ordenada - Qtd Recebida - Qtd Rejeitada - Qtd Aprovada)</t>
+  </si>
+  <si>
+    <t>Fazer o detalhamento do Pedido desejado. Na aba inferior "Linhas da Ordem",  pegar as informações das colunas "Qtd Ordenada" e "Preço" de cada item.
+Ir para a aba inferior "Recebimento" e pegar as informações das colunas: Qtd Recebida, Qtd Rejeitada e Qtd Aprovada de cada item
+Executar a seguinte regra para compor o valor Saldo:
+Preço * (Qtd Ordenada - Qtd Recebida - Qtd Rejeitada - Qtd Aprovada)</t>
+  </si>
+  <si>
+    <t>Fazer o detalhamento do Pedido desejado. Na aba inferior "Linhas da Ordem",  pegar as informações da coluna "Qtd Ordenada" de cada item.
+Ir para a aba inferior "Recebimento" e pegar as informações das colunas: Qtd Recebida, Qtd Rejeitada e Qtd Aprovada de cada item
+Executar a seguinte regra para compor o valor Saldo:
+(Qtd Ordenada - Qtd Recebida - Qtd Rejeitada - Qtd Aprovada)</t>
+  </si>
+  <si>
+    <t>Fazer o detalhamento do Pedido. Na aba inferior "Linha da Ordem", pegar a  informação da coluna "Preço" do item desejado.</t>
+  </si>
+  <si>
+    <t>Fazer o detalhamento do Pedido. Na aba inferior "Linha da Ordem", pegar a  informação da coluna "Quantidade Ordenada" do item desejado.</t>
+  </si>
+  <si>
+    <t>É a multiplicação da "QTD_TOTAL" pelo "VL_UNIT_PED"</t>
+  </si>
+  <si>
+    <t>Fazer o detalhamento  do Pedido. Na aba inferior "Linha da Ordem", selecionar o item desejado. No menu Specifc, selecionar "Linhas da Precisão de Impostos". Na seção "Dados Fiscais", pegar a informação do CFO</t>
+  </si>
+  <si>
+    <t>Não tem dados para a sequência</t>
+  </si>
+  <si>
+    <t>Fazer o detalhamento do Pedido desejada. Na aba inferior "Monitor", aba "Parceiros de Negócios" pegar a informação da coluna "Data planejada de Recebimento Atual" de cada item desejado</t>
+  </si>
+  <si>
+    <t>Selecionar a ordem desejada e com o botão direito do mouse, escolher "Text" e em seguida "Texto do Cabeçalho"</t>
+  </si>
+  <si>
+    <t>Selecionar a ordem desejada e no menu "Specific", selecionar "Histórico de Ordem". Novamente no menu "Specific", desmarcar a opção "Última Entrada por Ordem". Pegar o código do login para a data mais antiga apresentada para a ordem desejada</t>
+  </si>
+  <si>
+    <t>Pegar a informação da primeira coluna da "Condições de Pagamento" [este campo pode estar oculto na tela. É só pedir a sua apresentação nas configurações da tela]</t>
+  </si>
+  <si>
+    <t>Pegar a informação da segunda coluna da "Condições de Pagamento" [este campo pode estar oculto na tela. É só pedir a sua apresentação nas configurações da tela]</t>
+  </si>
+  <si>
+    <t>Selecionar a ordem desejada e no menu "Specific", selecionar "Histórico de Ordem". Novamente no menu "Specific", desmarcar a opção "Última Entrada por Ordem". Pegar a data mais antiga apresentada para a ordem desejada na coluna "Data da Trans."</t>
+  </si>
+  <si>
+    <t>Fazer o detalhamento do pedido desejado. Na aba superior "Ordem",  seção "Controle", pegar a segunda informação do "Tipo Ordem Compra"</t>
+  </si>
+  <si>
+    <t>Pegar a primeira informação da coluna "Status" . 
+Se status &lt;&gt; 25 then "Aberto" else "Liquidado"</t>
+  </si>
+  <si>
+    <t>Aberto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">case </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  when pd.QT_ENTREGUE = 0 then 'Sem Rec.'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  when pd.QT_ENTREGUE = pd.QT_PEDIDO then 'Rec.Total'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  else 'Rec.Parcial'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> end status_rec</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -676,8 +1131,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -702,8 +1173,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -726,11 +1209,104 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -741,12 +1317,6 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -756,6 +1326,111 @@
     <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -764,8 +1439,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFFCC"/>
       <color rgb="FFFF9F9F"/>
-      <color rgb="FFFFFFCC"/>
     </mruColors>
   </colors>
 </styleSheet>
@@ -1056,10 +1731,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:AV33"/>
+  <dimension ref="A2:AV40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I2" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:AF40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -1120,149 +1795,149 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:48" s="6" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:48" s="4" customFormat="1" ht="27.75" customHeight="1">
+      <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="L4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="M4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="N4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="O4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="P4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="Q4" s="7" t="s">
+      <c r="Q4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="R4" s="7" t="s">
+      <c r="R4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="S4" s="7" t="s">
+      <c r="S4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="T4" s="7" t="s">
+      <c r="T4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="U4" s="7" t="s">
+      <c r="U4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="V4" s="7" t="s">
+      <c r="V4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="W4" s="7" t="s">
+      <c r="W4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="X4" s="7" t="s">
+      <c r="X4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="Y4" s="7" t="s">
+      <c r="Y4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Z4" s="7" t="s">
+      <c r="Z4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="AA4" s="7" t="s">
+      <c r="AA4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AB4" s="7" t="s">
+      <c r="AB4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AC4" s="7" t="s">
+      <c r="AC4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AD4" s="7" t="s">
+      <c r="AD4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AE4" s="7" t="s">
+      <c r="AE4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AF4" s="7" t="s">
+      <c r="AF4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AG4" s="7" t="s">
+      <c r="AG4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AH4" s="7" t="s">
+      <c r="AH4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AI4" s="7" t="s">
+      <c r="AI4" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="AJ4" s="7" t="s">
+      <c r="AJ4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="AK4" s="7" t="s">
+      <c r="AK4" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="AL4" s="7" t="s">
+      <c r="AL4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="AM4" s="7" t="s">
+      <c r="AM4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="AN4" s="7" t="s">
+      <c r="AN4" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AO4" s="7" t="s">
+      <c r="AO4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="AP4" s="7" t="s">
+      <c r="AP4" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="AQ4" s="7" t="s">
+      <c r="AQ4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="AR4" s="7" t="s">
+      <c r="AR4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="AS4" s="7" t="s">
+      <c r="AS4" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="AT4" s="7" t="s">
+      <c r="AT4" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="AU4" s="7" t="s">
+      <c r="AU4" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="AV4" s="7" t="s">
+      <c r="AV4" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2611,7 +3286,7 @@
       <c r="J14" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="K14" s="6" t="s">
         <v>161</v>
       </c>
       <c r="L14" s="1" t="s">
@@ -2757,7 +3432,7 @@
       <c r="J15" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="K15" s="6" t="s">
         <v>161</v>
       </c>
       <c r="L15" s="1" t="s">
@@ -2903,7 +3578,7 @@
       <c r="J16" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="K16" s="8" t="s">
+      <c r="K16" s="6" t="s">
         <v>161</v>
       </c>
       <c r="L16" s="1" t="s">
@@ -3049,7 +3724,7 @@
       <c r="J17" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="K17" s="8" t="s">
+      <c r="K17" s="6" t="s">
         <v>161</v>
       </c>
       <c r="L17" s="1" t="s">
@@ -3165,152 +3840,250 @@
       </c>
     </row>
     <row r="20" spans="1:48">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H20" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="I20" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="J20" s="4" t="s">
+      <c r="J20" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="K20" s="4" t="s">
+      <c r="K20" s="7" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="21" spans="1:48">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
     </row>
     <row r="22" spans="1:48">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
     </row>
     <row r="23" spans="1:48">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
     </row>
     <row r="24" spans="1:48">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
     </row>
     <row r="25" spans="1:48">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
     </row>
     <row r="27" spans="1:48">
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="8" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="28" spans="1:48">
-      <c r="D28" s="4"/>
-      <c r="E28" s="5"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="8"/>
     </row>
     <row r="29" spans="1:48">
-      <c r="D29" s="4"/>
-      <c r="E29" s="5"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="8"/>
     </row>
     <row r="30" spans="1:48">
-      <c r="D30" s="4"/>
-      <c r="E30" s="5"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="8"/>
     </row>
     <row r="31" spans="1:48">
-      <c r="D31" s="4"/>
-      <c r="E31" s="5"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="8"/>
     </row>
     <row r="32" spans="1:48">
-      <c r="D32" s="4"/>
-      <c r="E32" s="5"/>
-    </row>
-    <row r="33" spans="4:5">
-      <c r="D33" s="4"/>
-      <c r="E33" s="5"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="8"/>
+    </row>
+    <row r="33" spans="1:32">
+      <c r="D33" s="7"/>
+      <c r="E33" s="8"/>
+    </row>
+    <row r="40" spans="1:32" ht="15">
+      <c r="A40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40" t="s">
+        <v>5</v>
+      </c>
+      <c r="F40" t="s">
+        <v>7</v>
+      </c>
+      <c r="G40" t="s">
+        <v>28</v>
+      </c>
+      <c r="H40" t="s">
+        <v>30</v>
+      </c>
+      <c r="I40" t="s">
+        <v>27</v>
+      </c>
+      <c r="J40" t="s">
+        <v>29</v>
+      </c>
+      <c r="K40" t="s">
+        <v>46</v>
+      </c>
+      <c r="L40" t="s">
+        <v>47</v>
+      </c>
+      <c r="M40" t="s">
+        <v>8</v>
+      </c>
+      <c r="N40" t="s">
+        <v>10</v>
+      </c>
+      <c r="O40" t="s">
+        <v>11</v>
+      </c>
+      <c r="P40" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>12</v>
+      </c>
+      <c r="R40" t="s">
+        <v>14</v>
+      </c>
+      <c r="S40" t="s">
+        <v>15</v>
+      </c>
+      <c r="T40" t="s">
+        <v>31</v>
+      </c>
+      <c r="U40" t="s">
+        <v>32</v>
+      </c>
+      <c r="V40" t="s">
+        <v>33</v>
+      </c>
+      <c r="W40" t="s">
+        <v>34</v>
+      </c>
+      <c r="X40" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>243</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>244</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="D27:D33"/>
+    <mergeCell ref="E20:E25"/>
+    <mergeCell ref="E27:E33"/>
+    <mergeCell ref="K20:K25"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="C20:C25"/>
+    <mergeCell ref="D20:D25"/>
     <mergeCell ref="F20:F25"/>
     <mergeCell ref="G20:G25"/>
     <mergeCell ref="H20:H25"/>
     <mergeCell ref="I20:I25"/>
     <mergeCell ref="J20:J25"/>
-    <mergeCell ref="K20:K25"/>
-    <mergeCell ref="A20:A25"/>
-    <mergeCell ref="B20:B25"/>
-    <mergeCell ref="C20:C25"/>
-    <mergeCell ref="D20:D25"/>
-    <mergeCell ref="D27:D33"/>
-    <mergeCell ref="E20:E25"/>
-    <mergeCell ref="E27:E33"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3319,459 +4092,2848 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C2:F49"/>
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A3:F35"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22:F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
+  <cols>
+    <col min="1" max="1" width="22" style="9" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="26.42578125" style="9" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="9"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="3:6">
-      <c r="C2" t="s">
+    <row r="3" spans="1:6" s="27" customFormat="1" ht="18.75">
+      <c r="B3" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="27" customFormat="1" ht="18.75">
+      <c r="B4" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="27.75" customHeight="1">
+      <c r="A6" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" s="13">
+        <v>51821</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E7" s="23">
+        <v>2</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="C8" s="13">
+        <v>51821</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E8" s="23">
+        <v>12</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="C9" s="13">
+        <v>51821</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E9" s="23">
+        <v>35</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="C10" s="13">
+        <v>51821</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E10" s="23">
         <v>4</v>
       </c>
-      <c r="F2" t="str">
-        <f>CONCATENATE(C2,",")</f>
-        <v>nr_pedido,</v>
-      </c>
-    </row>
-    <row r="3" spans="3:6">
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" t="str">
-        <f t="shared" ref="F3:F49" si="0">CONCATENATE(C3,",")</f>
-        <v>nr_id_sku,</v>
-      </c>
-    </row>
-    <row r="4" spans="3:6">
-      <c r="C4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" t="str">
-        <f t="shared" si="0"/>
-        <v>ds_chave,</v>
-      </c>
-    </row>
-    <row r="5" spans="3:6">
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" t="str">
-        <f t="shared" si="0"/>
-        <v>ds_cliente,</v>
-      </c>
-    </row>
-    <row r="6" spans="3:6">
-      <c r="C6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" t="str">
-        <f t="shared" si="0"/>
-        <v>nr_id_fornecedor,</v>
-      </c>
-    </row>
-    <row r="7" spans="3:6">
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" t="str">
-        <f t="shared" si="0"/>
-        <v>dt_emissao,</v>
-      </c>
-    </row>
-    <row r="8" spans="3:6">
-      <c r="C8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" t="str">
-        <f t="shared" si="0"/>
-        <v>nr_id_filial,</v>
-      </c>
-    </row>
-    <row r="9" spans="3:6">
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" t="str">
-        <f t="shared" si="0"/>
-        <v>ds_produto,</v>
-      </c>
-    </row>
-    <row r="10" spans="3:6">
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" t="str">
-        <f t="shared" si="0"/>
-        <v>dt_entrega,</v>
-      </c>
-    </row>
-    <row r="11" spans="3:6">
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" t="str">
-        <f t="shared" si="0"/>
-        <v>qtd_saldo,</v>
-      </c>
-    </row>
-    <row r="12" spans="3:6">
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" t="str">
-        <f t="shared" si="0"/>
-        <v>qtd_total,</v>
-      </c>
-    </row>
-    <row r="13" spans="3:6">
-      <c r="C13" t="s">
+      <c r="F10" s="23" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="C11" s="13">
+        <v>4999</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="E11" s="13">
+        <v>39</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="C12" s="13">
+        <v>4999</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="E12" s="13">
+        <v>38</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="C13" s="13">
+        <v>4999</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="E13" s="13">
+        <v>40</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="C14" s="13">
+        <v>4999</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="E14" s="13">
+        <v>13</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C15" s="12">
+        <v>5606</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E15" s="23">
+        <v>6</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C16" s="12">
+        <v>5606</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E16" s="23">
         <v>10</v>
       </c>
-      <c r="F13" t="str">
-        <f t="shared" si="0"/>
-        <v>vl_saldo,</v>
-      </c>
-    </row>
-    <row r="14" spans="3:6">
-      <c r="C14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="str">
-        <f t="shared" si="0"/>
-        <v>vl_unit_ped,</v>
-      </c>
-    </row>
-    <row r="15" spans="3:6">
-      <c r="C15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" t="str">
-        <f t="shared" si="0"/>
-        <v>vl_total,</v>
-      </c>
-    </row>
-    <row r="16" spans="3:6">
-      <c r="C16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" t="str">
-        <f t="shared" si="0"/>
-        <v>ds_ean,</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6">
-      <c r="C17" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" t="str">
-        <f t="shared" si="0"/>
-        <v>ds_abc,</v>
-      </c>
-    </row>
-    <row r="18" spans="3:6">
-      <c r="C18" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" t="str">
-        <f t="shared" si="0"/>
-        <v>qtd_estoque,</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6">
-      <c r="C19" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" t="str">
-        <f t="shared" si="0"/>
-        <v>ds_cobertura,</v>
-      </c>
-    </row>
-    <row r="20" spans="3:6">
-      <c r="C20" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20" t="str">
-        <f t="shared" si="0"/>
-        <v>ds_prioridade,</v>
-      </c>
-    </row>
-    <row r="21" spans="3:6">
-      <c r="C21" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" t="str">
-        <f t="shared" si="0"/>
-        <v>ds_rascunho_consolidado,</v>
-      </c>
-    </row>
-    <row r="22" spans="3:6">
-      <c r="C22" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22" t="str">
-        <f t="shared" si="0"/>
-        <v>ds_sit_analise,</v>
-      </c>
-    </row>
-    <row r="23" spans="3:6">
-      <c r="C23" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23" t="str">
-        <f t="shared" si="0"/>
-        <v>ds_nf_consolidado,</v>
-      </c>
-    </row>
-    <row r="24" spans="3:6">
-      <c r="C24" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24" t="str">
-        <f t="shared" si="0"/>
-        <v>ds_saldo_si_consolidado,</v>
-      </c>
-    </row>
-    <row r="25" spans="3:6">
-      <c r="C25" t="s">
-        <v>24</v>
-      </c>
-      <c r="F25" t="str">
-        <f t="shared" si="0"/>
-        <v>nr_soma_rascunho,</v>
-      </c>
-    </row>
-    <row r="26" spans="3:6">
-      <c r="C26" t="s">
-        <v>25</v>
-      </c>
-      <c r="F26" t="str">
-        <f t="shared" si="0"/>
-        <v>ds_quantidade_consolidado,</v>
-      </c>
-    </row>
-    <row r="27" spans="3:6">
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="F27" t="str">
-        <f t="shared" si="0"/>
-        <v>ds_kit,</v>
-      </c>
-    </row>
-    <row r="28" spans="3:6">
-      <c r="C28" t="s">
-        <v>27</v>
-      </c>
-      <c r="F28" t="str">
-        <f t="shared" si="0"/>
-        <v>nr_id_depto,</v>
-      </c>
-    </row>
-    <row r="29" spans="3:6">
-      <c r="C29" t="s">
-        <v>28</v>
-      </c>
-      <c r="F29" t="str">
-        <f t="shared" si="0"/>
-        <v>nr_cnpj_fabricante,</v>
-      </c>
-    </row>
-    <row r="30" spans="3:6">
-      <c r="C30" t="s">
-        <v>29</v>
-      </c>
-      <c r="F30" t="str">
-        <f t="shared" si="0"/>
-        <v>ds_depto,</v>
-      </c>
-    </row>
-    <row r="31" spans="3:6">
-      <c r="C31" t="s">
-        <v>30</v>
-      </c>
-      <c r="F31" t="str">
-        <f t="shared" si="0"/>
-        <v>ds_fabricante,</v>
-      </c>
-    </row>
-    <row r="32" spans="3:6">
-      <c r="C32" t="s">
-        <v>31</v>
-      </c>
-      <c r="F32" t="str">
-        <f t="shared" si="0"/>
-        <v>ds_geracao,</v>
-      </c>
-    </row>
-    <row r="33" spans="3:6">
-      <c r="C33" t="s">
-        <v>32</v>
-      </c>
-      <c r="F33" t="str">
-        <f t="shared" si="0"/>
-        <v>ds_situacao,</v>
-      </c>
-    </row>
-    <row r="34" spans="3:6">
-      <c r="C34" t="s">
-        <v>33</v>
-      </c>
-      <c r="F34" t="str">
-        <f t="shared" si="0"/>
-        <v>ds_status_rec,</v>
-      </c>
-    </row>
-    <row r="35" spans="3:6">
-      <c r="C35" t="s">
-        <v>34</v>
-      </c>
-      <c r="F35" t="str">
-        <f t="shared" si="0"/>
-        <v>nr_id_natope,</v>
-      </c>
-    </row>
-    <row r="36" spans="3:6">
-      <c r="C36" t="s">
-        <v>35</v>
-      </c>
-      <c r="F36" t="str">
-        <f t="shared" si="0"/>
-        <v>ds_observacao,</v>
-      </c>
-    </row>
-    <row r="37" spans="3:6">
-      <c r="C37" t="s">
-        <v>36</v>
-      </c>
-      <c r="F37" t="str">
-        <f t="shared" si="0"/>
-        <v>dt_inclusao,</v>
-      </c>
-    </row>
-    <row r="38" spans="3:6">
-      <c r="C38" t="s">
-        <v>37</v>
-      </c>
-      <c r="F38" t="str">
-        <f t="shared" si="0"/>
-        <v>ds_user_inclusao,</v>
-      </c>
-    </row>
-    <row r="39" spans="3:6">
-      <c r="C39" t="s">
-        <v>38</v>
-      </c>
-      <c r="F39" t="str">
-        <f t="shared" si="0"/>
-        <v>ds_cond_pagto,</v>
-      </c>
-    </row>
-    <row r="40" spans="3:6">
-      <c r="C40" t="s">
-        <v>39</v>
-      </c>
-      <c r="F40" t="str">
-        <f t="shared" si="0"/>
-        <v>vl_cmv_unitario,</v>
-      </c>
-    </row>
-    <row r="41" spans="3:6">
-      <c r="C41" t="s">
-        <v>40</v>
-      </c>
-      <c r="F41" t="str">
-        <f t="shared" si="0"/>
-        <v>nr_qtd_divergencia,</v>
-      </c>
-    </row>
-    <row r="42" spans="3:6">
-      <c r="C42" t="s">
-        <v>41</v>
-      </c>
-      <c r="F42" t="str">
-        <f t="shared" si="0"/>
-        <v>ds_atraso,</v>
-      </c>
-    </row>
-    <row r="43" spans="3:6">
-      <c r="C43" t="s">
-        <v>42</v>
-      </c>
-      <c r="F43" t="str">
-        <f t="shared" si="0"/>
-        <v>vl_preco_custo,</v>
-      </c>
-    </row>
-    <row r="44" spans="3:6">
-      <c r="C44" t="s">
-        <v>43</v>
-      </c>
-      <c r="F44" t="str">
-        <f t="shared" si="0"/>
-        <v>vl_divergencia_custo,</v>
-      </c>
-    </row>
-    <row r="45" spans="3:6">
-      <c r="C45" t="s">
-        <v>44</v>
-      </c>
-      <c r="F45" t="str">
-        <f t="shared" si="0"/>
-        <v>ds_ok_fiscal,</v>
-      </c>
-    </row>
-    <row r="46" spans="3:6">
-      <c r="C46" t="s">
-        <v>45</v>
-      </c>
-      <c r="F46" t="str">
-        <f t="shared" si="0"/>
-        <v>ds_sku_produzido,</v>
-      </c>
-    </row>
-    <row r="47" spans="3:6">
-      <c r="C47" t="s">
-        <v>46</v>
-      </c>
-      <c r="F47" t="str">
-        <f t="shared" si="0"/>
-        <v>qtd_liquidado,</v>
-      </c>
-    </row>
-    <row r="48" spans="3:6">
-      <c r="C48" t="s">
-        <v>47</v>
-      </c>
-      <c r="F48" t="str">
-        <f t="shared" si="0"/>
-        <v>vl_liquidado,</v>
-      </c>
-    </row>
-    <row r="49" spans="3:6">
-      <c r="C49" t="s">
-        <v>6</v>
-      </c>
-      <c r="F49" t="str">
-        <f t="shared" si="0"/>
-        <v>ds_cod_fornecedor,</v>
-      </c>
+      <c r="F16" s="23" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="F19" s="16"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="17"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="19"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="20"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="22"/>
+    </row>
+    <row r="22" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A22" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="25"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="25"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="25"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="25"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="25"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="25"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="25"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="25"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="25"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="25"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="25"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="D29" s="25"/>
+      <c r="F29" s="25"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="D30" s="25"/>
+      <c r="F30" s="25"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="D31" s="25"/>
+      <c r="F31" s="25"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="D32" s="25"/>
+      <c r="F32" s="25"/>
+    </row>
+    <row r="33" spans="4:6">
+      <c r="D33" s="25"/>
+      <c r="F33" s="25"/>
+    </row>
+    <row r="34" spans="4:6">
+      <c r="D34" s="25"/>
+      <c r="F34" s="25"/>
+    </row>
+    <row r="35" spans="4:6">
+      <c r="D35" s="25"/>
+      <c r="F35" s="25"/>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="E22:E28"/>
+    <mergeCell ref="D22:D35"/>
+    <mergeCell ref="A19:D21"/>
+    <mergeCell ref="E19:F21"/>
+    <mergeCell ref="F22:F35"/>
+    <mergeCell ref="A22:A28"/>
+    <mergeCell ref="B22:B28"/>
+    <mergeCell ref="C22:C28"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A3:AF50"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="U23" sqref="U23:U31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25"/>
+  <cols>
+    <col min="1" max="1" width="22" style="9" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" style="12" customWidth="1"/>
+    <col min="6" max="7" width="18.42578125" style="12" customWidth="1"/>
+    <col min="8" max="8" width="27.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35" style="9" customWidth="1"/>
+    <col min="11" max="11" width="27.42578125" style="9" customWidth="1"/>
+    <col min="12" max="12" width="27.85546875" style="12" customWidth="1"/>
+    <col min="13" max="13" width="28.42578125" style="9" customWidth="1"/>
+    <col min="14" max="14" width="39.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26" style="12" customWidth="1"/>
+    <col min="16" max="16" width="24.28515625" style="12" customWidth="1"/>
+    <col min="17" max="17" width="23.85546875" style="12" customWidth="1"/>
+    <col min="18" max="18" width="24.140625" style="12" customWidth="1"/>
+    <col min="19" max="19" width="18.42578125" style="12" customWidth="1"/>
+    <col min="20" max="20" width="24.85546875" style="12" customWidth="1"/>
+    <col min="21" max="21" width="18.42578125" style="12" customWidth="1"/>
+    <col min="22" max="22" width="27" style="12" customWidth="1"/>
+    <col min="23" max="23" width="27.42578125" style="12" customWidth="1"/>
+    <col min="24" max="24" width="18.42578125" style="12" customWidth="1"/>
+    <col min="25" max="25" width="20.7109375" style="12" customWidth="1"/>
+    <col min="26" max="26" width="18.42578125" style="12" customWidth="1"/>
+    <col min="27" max="27" width="21.42578125" style="12" customWidth="1"/>
+    <col min="28" max="30" width="18.42578125" style="12" customWidth="1"/>
+    <col min="31" max="31" width="13.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="24.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:32" s="27" customFormat="1" ht="18.75">
+      <c r="B3" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="C3" s="31"/>
+      <c r="D3" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="31"/>
+      <c r="V3" s="31"/>
+      <c r="W3" s="31"/>
+      <c r="X3" s="31"/>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="31"/>
+      <c r="AA3" s="31"/>
+      <c r="AB3" s="31"/>
+      <c r="AC3" s="31"/>
+      <c r="AD3" s="31"/>
+      <c r="AE3" s="31"/>
+      <c r="AF3" s="31"/>
+    </row>
+    <row r="4" spans="1:32" s="27" customFormat="1" ht="18.75">
+      <c r="B4" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="C4" s="31"/>
+      <c r="D4" s="27" t="s">
+        <v>245</v>
+      </c>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="31"/>
+      <c r="Z4" s="31"/>
+      <c r="AA4" s="31"/>
+      <c r="AB4" s="31"/>
+      <c r="AC4" s="31"/>
+      <c r="AD4" s="31"/>
+      <c r="AE4" s="31"/>
+      <c r="AF4" s="31"/>
+    </row>
+    <row r="6" spans="1:32" ht="27.75" customHeight="1">
+      <c r="A6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="P6" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q6" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="R6" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="S6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="T6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="U6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="V6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="W6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="X6" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z6" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="AA6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC6" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="AE6" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF6" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" s="30" customFormat="1">
+      <c r="A7" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>351</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="I7" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="J7" s="24" t="s">
+        <v>261</v>
+      </c>
+      <c r="K7" s="24" t="s">
+        <v>262</v>
+      </c>
+      <c r="L7" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="M7" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="N7" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="O7" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="P7" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q7" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="R7" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="S7" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="T7" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="U7" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="V7" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="W7" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="X7" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y7" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="Z7" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA7" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="AB7" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC7" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="AD7" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE7" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="AF7" s="29" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" s="30" customFormat="1">
+      <c r="A8" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>351</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="I8" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="J8" s="24" t="s">
+        <v>261</v>
+      </c>
+      <c r="K8" s="24" t="s">
+        <v>262</v>
+      </c>
+      <c r="L8" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="M8" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="N8" s="24" t="s">
+        <v>255</v>
+      </c>
+      <c r="O8" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="P8" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q8" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="R8" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="S8" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="T8" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="U8" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="V8" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="W8" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="X8" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y8" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="Z8" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA8" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="AB8" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC8" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="AD8" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE8" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="AF8" s="29" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" s="30" customFormat="1">
+      <c r="A9" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>351</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="I9" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="J9" s="24" t="s">
+        <v>261</v>
+      </c>
+      <c r="K9" s="24" t="s">
+        <v>262</v>
+      </c>
+      <c r="L9" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="M9" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="N9" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="O9" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="P9" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q9" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="R9" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="S9" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="T9" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="U9" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="V9" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="W9" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="X9" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y9" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="Z9" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA9" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="AB9" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC9" s="29" t="s">
+        <v>260</v>
+      </c>
+      <c r="AD9" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE9" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="AF9" s="29" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" s="30" customFormat="1">
+      <c r="A10" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>351</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>305</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="I10" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="J10" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="K10" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="L10" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="M10" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="N10" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="O10" s="29" t="s">
+        <v>302</v>
+      </c>
+      <c r="P10" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q10" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="R10" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="S10" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="T10" s="29" t="s">
+        <v>304</v>
+      </c>
+      <c r="U10" s="29" t="s">
+        <v>303</v>
+      </c>
+      <c r="V10" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="W10" s="29" t="s">
+        <v>303</v>
+      </c>
+      <c r="X10" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y10" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="Z10" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA10" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="AB10" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC10" s="29" t="s">
+        <v>283</v>
+      </c>
+      <c r="AD10" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE10" s="29" t="s">
+        <v>301</v>
+      </c>
+      <c r="AF10" s="29" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" s="30" customFormat="1">
+      <c r="A11" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>351</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>305</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="H11" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="I11" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="J11" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="K11" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="L11" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="M11" s="29" t="s">
+        <v>306</v>
+      </c>
+      <c r="N11" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="O11" s="29" t="s">
+        <v>302</v>
+      </c>
+      <c r="P11" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q11" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="R11" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="S11" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="T11" s="29" t="s">
+        <v>304</v>
+      </c>
+      <c r="U11" s="29" t="s">
+        <v>303</v>
+      </c>
+      <c r="V11" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="W11" s="29" t="s">
+        <v>303</v>
+      </c>
+      <c r="X11" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y11" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="Z11" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA11" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="AB11" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC11" s="29" t="s">
+        <v>285</v>
+      </c>
+      <c r="AD11" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE11" s="29" t="s">
+        <v>301</v>
+      </c>
+      <c r="AF11" s="29" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" s="30" customFormat="1">
+      <c r="A12" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>351</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>305</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="H12" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="I12" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="J12" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="K12" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="L12" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="M12" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="N12" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="O12" s="29" t="s">
+        <v>302</v>
+      </c>
+      <c r="P12" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q12" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="R12" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="S12" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="T12" s="29" t="s">
+        <v>310</v>
+      </c>
+      <c r="U12" s="29" t="s">
+        <v>309</v>
+      </c>
+      <c r="V12" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="W12" s="29" t="s">
+        <v>309</v>
+      </c>
+      <c r="X12" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y12" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="Z12" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA12" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="AB12" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC12" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="AD12" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE12" s="29" t="s">
+        <v>308</v>
+      </c>
+      <c r="AF12" s="29" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" s="30" customFormat="1">
+      <c r="A13" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>351</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>305</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="H13" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="I13" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="J13" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="K13" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="L13" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="M13" s="29" t="s">
+        <v>311</v>
+      </c>
+      <c r="N13" s="29" t="s">
+        <v>289</v>
+      </c>
+      <c r="O13" s="29" t="s">
+        <v>302</v>
+      </c>
+      <c r="P13" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q13" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="R13" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="S13" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="T13" s="29" t="s">
+        <v>313</v>
+      </c>
+      <c r="U13" s="29" t="s">
+        <v>312</v>
+      </c>
+      <c r="V13" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="W13" s="29" t="s">
+        <v>312</v>
+      </c>
+      <c r="X13" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y13" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="Z13" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA13" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="AB13" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC13" s="29" t="s">
+        <v>290</v>
+      </c>
+      <c r="AD13" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE13" s="29" t="s">
+        <v>308</v>
+      </c>
+      <c r="AF13" s="29" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" s="30" customFormat="1">
+      <c r="A14" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>351</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>305</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="H14" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="I14" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="J14" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="K14" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="L14" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="M14" s="29" t="s">
+        <v>314</v>
+      </c>
+      <c r="N14" s="29" t="s">
+        <v>291</v>
+      </c>
+      <c r="O14" s="29" t="s">
+        <v>302</v>
+      </c>
+      <c r="P14" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q14" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="R14" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="S14" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="T14" s="29" t="s">
+        <v>313</v>
+      </c>
+      <c r="U14" s="29" t="s">
+        <v>312</v>
+      </c>
+      <c r="V14" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="W14" s="29" t="s">
+        <v>312</v>
+      </c>
+      <c r="X14" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y14" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="Z14" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA14" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="AB14" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC14" s="29" t="s">
+        <v>292</v>
+      </c>
+      <c r="AD14" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE14" s="29" t="s">
+        <v>308</v>
+      </c>
+      <c r="AF14" s="29" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" s="30" customFormat="1">
+      <c r="A15" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>351</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>305</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="H15" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="I15" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="J15" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="K15" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="L15" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="M15" s="29" t="s">
+        <v>315</v>
+      </c>
+      <c r="N15" s="29" t="s">
+        <v>293</v>
+      </c>
+      <c r="O15" s="29" t="s">
+        <v>302</v>
+      </c>
+      <c r="P15" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q15" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="R15" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="S15" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="T15" s="29" t="s">
+        <v>317</v>
+      </c>
+      <c r="U15" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="V15" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="W15" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="X15" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y15" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="Z15" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA15" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="AB15" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC15" s="29" t="s">
+        <v>294</v>
+      </c>
+      <c r="AD15" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE15" s="29" t="s">
+        <v>308</v>
+      </c>
+      <c r="AF15" s="29" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" s="30" customFormat="1">
+      <c r="A16" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>351</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>305</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="H16" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="I16" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="J16" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="K16" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="L16" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="M16" s="29" t="s">
+        <v>318</v>
+      </c>
+      <c r="N16" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="O16" s="29" t="s">
+        <v>302</v>
+      </c>
+      <c r="P16" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q16" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="R16" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="S16" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="T16" s="29" t="s">
+        <v>320</v>
+      </c>
+      <c r="U16" s="29" t="s">
+        <v>319</v>
+      </c>
+      <c r="V16" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="W16" s="29" t="s">
+        <v>319</v>
+      </c>
+      <c r="X16" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y16" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="Z16" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA16" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="AB16" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC16" s="29" t="s">
+        <v>296</v>
+      </c>
+      <c r="AD16" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE16" s="29" t="s">
+        <v>308</v>
+      </c>
+      <c r="AF16" s="29" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" s="30" customFormat="1">
+      <c r="A17" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>351</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>305</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="H17" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="I17" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="J17" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="K17" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="L17" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="M17" s="29" t="s">
+        <v>321</v>
+      </c>
+      <c r="N17" s="29" t="s">
+        <v>297</v>
+      </c>
+      <c r="O17" s="29" t="s">
+        <v>302</v>
+      </c>
+      <c r="P17" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q17" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="R17" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="S17" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="T17" s="29" t="s">
+        <v>323</v>
+      </c>
+      <c r="U17" s="29" t="s">
+        <v>322</v>
+      </c>
+      <c r="V17" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="W17" s="29" t="s">
+        <v>322</v>
+      </c>
+      <c r="X17" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y17" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="Z17" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA17" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="AB17" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC17" s="29" t="s">
+        <v>298</v>
+      </c>
+      <c r="AD17" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE17" s="29" t="s">
+        <v>308</v>
+      </c>
+      <c r="AF17" s="29" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" s="30" customFormat="1">
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="29"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="29"/>
+      <c r="T18" s="29"/>
+      <c r="U18" s="29"/>
+      <c r="V18" s="29"/>
+      <c r="W18" s="29"/>
+      <c r="X18" s="29"/>
+      <c r="Y18" s="29"/>
+      <c r="Z18" s="29"/>
+      <c r="AA18" s="29"/>
+      <c r="AB18" s="29"/>
+      <c r="AC18" s="29"/>
+      <c r="AD18" s="29"/>
+      <c r="AE18" s="29"/>
+      <c r="AF18" s="29"/>
+    </row>
+    <row r="19" spans="1:32">
+      <c r="A19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="12"/>
+      <c r="M19" s="12"/>
+    </row>
+    <row r="20" spans="1:32" ht="11.25" customHeight="1">
+      <c r="A20" s="32" t="s">
+        <v>324</v>
+      </c>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="33"/>
+      <c r="P20" s="33"/>
+      <c r="Q20" s="33"/>
+      <c r="R20" s="33"/>
+      <c r="S20" s="33"/>
+      <c r="T20" s="33"/>
+      <c r="U20" s="33"/>
+      <c r="V20" s="33"/>
+      <c r="W20" s="34"/>
+    </row>
+    <row r="21" spans="1:32" ht="11.25" customHeight="1">
+      <c r="A21" s="35"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
+      <c r="S21" s="36"/>
+      <c r="T21" s="36"/>
+      <c r="U21" s="36"/>
+      <c r="V21" s="36"/>
+      <c r="W21" s="37"/>
+    </row>
+    <row r="22" spans="1:32" ht="11.25" customHeight="1">
+      <c r="A22" s="38"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="39"/>
+      <c r="R22" s="39"/>
+      <c r="S22" s="39"/>
+      <c r="T22" s="39"/>
+      <c r="U22" s="39"/>
+      <c r="V22" s="39"/>
+      <c r="W22" s="40"/>
+    </row>
+    <row r="23" spans="1:32" ht="11.25" customHeight="1">
+      <c r="A23" s="25" t="s">
+        <v>325</v>
+      </c>
+      <c r="B23" s="42" t="s">
+        <v>344</v>
+      </c>
+      <c r="C23" s="42" t="s">
+        <v>350</v>
+      </c>
+      <c r="D23" s="43" t="s">
+        <v>345</v>
+      </c>
+      <c r="E23" s="43" t="s">
+        <v>348</v>
+      </c>
+      <c r="F23" s="42" t="s">
+        <v>346</v>
+      </c>
+      <c r="G23" s="42" t="s">
+        <v>347</v>
+      </c>
+      <c r="H23" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="I23" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="J23" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="K23" s="41" t="s">
+        <v>328</v>
+      </c>
+      <c r="L23" s="42" t="s">
+        <v>349</v>
+      </c>
+      <c r="M23" s="25" t="s">
+        <v>329</v>
+      </c>
+      <c r="N23" s="25" t="s">
+        <v>330</v>
+      </c>
+      <c r="O23" s="25" t="s">
+        <v>331</v>
+      </c>
+      <c r="P23" s="25" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q23" s="25" t="s">
+        <v>333</v>
+      </c>
+      <c r="R23" s="43" t="s">
+        <v>334</v>
+      </c>
+      <c r="S23" s="43" t="s">
+        <v>339</v>
+      </c>
+      <c r="T23" s="43" t="s">
+        <v>338</v>
+      </c>
+      <c r="U23" s="43" t="s">
+        <v>340</v>
+      </c>
+      <c r="V23" s="25" t="s">
+        <v>337</v>
+      </c>
+      <c r="W23" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y23" s="25" t="s">
+        <v>341</v>
+      </c>
+      <c r="Z23" s="25" t="s">
+        <v>342</v>
+      </c>
+      <c r="AA23" s="25" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" ht="11.25" customHeight="1">
+      <c r="A24" s="25"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="25"/>
+      <c r="R24" s="43"/>
+      <c r="S24" s="43"/>
+      <c r="T24" s="43"/>
+      <c r="U24" s="43"/>
+      <c r="V24" s="25"/>
+      <c r="W24" s="25"/>
+      <c r="Y24" s="25"/>
+      <c r="Z24" s="25"/>
+      <c r="AA24" s="25"/>
+    </row>
+    <row r="25" spans="1:32">
+      <c r="A25" s="25"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="25"/>
+      <c r="Q25" s="25"/>
+      <c r="R25" s="43"/>
+      <c r="S25" s="43"/>
+      <c r="T25" s="43"/>
+      <c r="U25" s="43"/>
+      <c r="V25" s="25"/>
+      <c r="W25" s="25"/>
+      <c r="Y25" s="25"/>
+      <c r="Z25" s="25"/>
+      <c r="AA25" s="25"/>
+    </row>
+    <row r="26" spans="1:32">
+      <c r="A26" s="25"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="25"/>
+      <c r="Q26" s="25"/>
+      <c r="R26" s="43"/>
+      <c r="S26" s="43"/>
+      <c r="T26" s="43"/>
+      <c r="U26" s="43"/>
+      <c r="V26" s="25"/>
+      <c r="W26" s="25"/>
+      <c r="Y26" s="25"/>
+      <c r="Z26" s="25"/>
+      <c r="AA26" s="25"/>
+    </row>
+    <row r="27" spans="1:32">
+      <c r="A27" s="25"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="25"/>
+      <c r="P27" s="25"/>
+      <c r="Q27" s="25"/>
+      <c r="R27" s="43"/>
+      <c r="S27" s="43"/>
+      <c r="T27" s="43"/>
+      <c r="U27" s="43"/>
+      <c r="V27" s="25"/>
+      <c r="W27" s="25"/>
+      <c r="Y27" s="25"/>
+      <c r="Z27" s="25"/>
+      <c r="AA27" s="25"/>
+    </row>
+    <row r="28" spans="1:32">
+      <c r="A28" s="25"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="25"/>
+      <c r="O28" s="25"/>
+      <c r="P28" s="25"/>
+      <c r="Q28" s="25"/>
+      <c r="R28" s="43"/>
+      <c r="S28" s="43"/>
+      <c r="T28" s="43"/>
+      <c r="U28" s="43"/>
+      <c r="V28" s="25"/>
+      <c r="W28" s="25"/>
+      <c r="Y28" s="25"/>
+      <c r="Z28" s="25"/>
+      <c r="AA28" s="25"/>
+    </row>
+    <row r="29" spans="1:32">
+      <c r="A29" s="25"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="42"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="25"/>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="25"/>
+      <c r="R29" s="43"/>
+      <c r="S29" s="43"/>
+      <c r="T29" s="43"/>
+      <c r="U29" s="43"/>
+      <c r="V29" s="25"/>
+      <c r="W29" s="25"/>
+      <c r="Y29" s="25"/>
+      <c r="Z29" s="25"/>
+      <c r="AA29" s="25"/>
+    </row>
+    <row r="30" spans="1:32">
+      <c r="A30" s="25"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="42"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="25"/>
+      <c r="P30" s="25"/>
+      <c r="Q30" s="25"/>
+      <c r="R30" s="43"/>
+      <c r="S30" s="43"/>
+      <c r="T30" s="43"/>
+      <c r="U30" s="43"/>
+      <c r="V30" s="25"/>
+      <c r="W30" s="25"/>
+      <c r="Y30" s="25"/>
+      <c r="Z30" s="25"/>
+      <c r="AA30" s="25"/>
+    </row>
+    <row r="31" spans="1:32">
+      <c r="A31" s="25"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="42"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="25"/>
+      <c r="O31" s="25"/>
+      <c r="P31" s="25"/>
+      <c r="Q31" s="25"/>
+      <c r="R31" s="43"/>
+      <c r="S31" s="43"/>
+      <c r="T31" s="43"/>
+      <c r="U31" s="43"/>
+      <c r="V31" s="25"/>
+      <c r="W31" s="25"/>
+      <c r="Y31" s="25"/>
+      <c r="Z31" s="25"/>
+      <c r="AA31" s="25"/>
+    </row>
+    <row r="32" spans="1:32">
+      <c r="K32" s="41"/>
+      <c r="V32" s="25"/>
+      <c r="W32" s="25"/>
+      <c r="X32" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="AD32" s="9"/>
+      <c r="AE32" s="9"/>
+      <c r="AF32" s="9"/>
+    </row>
+    <row r="33" spans="11:32">
+      <c r="K33" s="41"/>
+      <c r="V33" s="25"/>
+      <c r="W33" s="25"/>
+      <c r="X33" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="AD33" s="9"/>
+      <c r="AE33" s="9"/>
+      <c r="AF33" s="9"/>
+    </row>
+    <row r="34" spans="11:32">
+      <c r="V34" s="25"/>
+      <c r="W34" s="25"/>
+      <c r="X34" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="AD34" s="9"/>
+      <c r="AE34" s="9"/>
+      <c r="AF34" s="9"/>
+    </row>
+    <row r="35" spans="11:32">
+      <c r="V35" s="25"/>
+      <c r="W35" s="25"/>
+      <c r="X35" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="AD35" s="9"/>
+      <c r="AE35" s="9"/>
+      <c r="AF35" s="9"/>
+    </row>
+    <row r="36" spans="11:32">
+      <c r="V36" s="25"/>
+      <c r="W36" s="25"/>
+      <c r="X36" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="AD36" s="9"/>
+      <c r="AE36" s="9"/>
+      <c r="AF36" s="9"/>
+    </row>
+    <row r="37" spans="11:32">
+      <c r="AD37" s="9"/>
+      <c r="AE37" s="9"/>
+      <c r="AF37" s="9"/>
+    </row>
+    <row r="38" spans="11:32">
+      <c r="AD38" s="9"/>
+      <c r="AE38" s="9"/>
+      <c r="AF38" s="9"/>
+    </row>
+    <row r="39" spans="11:32">
+      <c r="AD39" s="9"/>
+      <c r="AE39" s="9"/>
+      <c r="AF39" s="9"/>
+    </row>
+    <row r="40" spans="11:32">
+      <c r="AD40" s="9"/>
+      <c r="AE40" s="9"/>
+      <c r="AF40" s="9"/>
+    </row>
+    <row r="41" spans="11:32">
+      <c r="AD41" s="9"/>
+      <c r="AE41" s="9"/>
+      <c r="AF41" s="9"/>
+    </row>
+    <row r="42" spans="11:32">
+      <c r="AD42" s="9"/>
+      <c r="AE42" s="9"/>
+      <c r="AF42" s="9"/>
+    </row>
+    <row r="43" spans="11:32">
+      <c r="AD43" s="9"/>
+      <c r="AE43" s="9"/>
+      <c r="AF43" s="9"/>
+    </row>
+    <row r="44" spans="11:32">
+      <c r="AD44" s="9"/>
+      <c r="AE44" s="9"/>
+      <c r="AF44" s="9"/>
+    </row>
+    <row r="45" spans="11:32">
+      <c r="AD45" s="9"/>
+      <c r="AE45" s="9"/>
+      <c r="AF45" s="9"/>
+    </row>
+    <row r="46" spans="11:32">
+      <c r="AD46" s="9"/>
+      <c r="AE46" s="9"/>
+      <c r="AF46" s="9"/>
+    </row>
+    <row r="47" spans="11:32">
+      <c r="AD47" s="9"/>
+      <c r="AE47" s="9"/>
+      <c r="AF47" s="9"/>
+    </row>
+    <row r="48" spans="11:32">
+      <c r="AD48" s="9"/>
+      <c r="AE48" s="9"/>
+      <c r="AF48" s="9"/>
+    </row>
+    <row r="49" spans="30:32">
+      <c r="AD49" s="9"/>
+      <c r="AE49" s="9"/>
+      <c r="AF49" s="9"/>
+    </row>
+    <row r="50" spans="30:32">
+      <c r="AD50" s="9"/>
+      <c r="AE50" s="9"/>
+      <c r="AF50" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="C23:C31"/>
+    <mergeCell ref="D23:D31"/>
+    <mergeCell ref="F23:F31"/>
+    <mergeCell ref="G23:G31"/>
+    <mergeCell ref="E23:E31"/>
+    <mergeCell ref="L23:L31"/>
+    <mergeCell ref="Y23:Y31"/>
+    <mergeCell ref="Z23:Z31"/>
+    <mergeCell ref="AA23:AA31"/>
+    <mergeCell ref="B23:B31"/>
+    <mergeCell ref="V23:V36"/>
+    <mergeCell ref="W23:W36"/>
+    <mergeCell ref="T23:T31"/>
+    <mergeCell ref="S23:S31"/>
+    <mergeCell ref="U23:U31"/>
+    <mergeCell ref="R23:R31"/>
+    <mergeCell ref="Q23:Q31"/>
+    <mergeCell ref="N23:N31"/>
+    <mergeCell ref="M23:M31"/>
+    <mergeCell ref="O23:O31"/>
+    <mergeCell ref="P23:P31"/>
+    <mergeCell ref="J23:J31"/>
+    <mergeCell ref="A23:A31"/>
+    <mergeCell ref="H23:H31"/>
+    <mergeCell ref="I23:I31"/>
+    <mergeCell ref="K23:K33"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="C2:AR49"/>
+  <sheetViews>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="3:13">
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="str">
+        <f>CONCATENATE(C2,",")</f>
+        <v>nr_pedido,</v>
+      </c>
+      <c r="M2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="3:13">
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F49" si="0">CONCATENATE(C3,",")</f>
+        <v>ds_observacao,</v>
+      </c>
+      <c r="M3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="3:13">
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>ds_situacao,</v>
+      </c>
+      <c r="M4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="3:13">
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>ds_user_inclusao,</v>
+      </c>
+      <c r="M5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="3:13">
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>dt_inclusao,</v>
+      </c>
+      <c r="M6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="3:13">
+      <c r="C7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>nr_cond_pagto,</v>
+      </c>
+      <c r="M7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="3:13">
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>ds_cond_pagto,</v>
+      </c>
+      <c r="M8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="3:13">
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>dt_emissao,</v>
+      </c>
+      <c r="M9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="3:13">
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>ds_cliente,</v>
+      </c>
+      <c r="M10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="3:13">
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>nr_id_fornecedor,</v>
+      </c>
+      <c r="M11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="3:13">
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>nr_id_filial,</v>
+      </c>
+      <c r="M12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="3:13">
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>ds_geracao,</v>
+      </c>
+      <c r="M13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="3:13">
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>nr_id_sku,</v>
+      </c>
+      <c r="M14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="3:13">
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>ds_produto,</v>
+      </c>
+      <c r="M15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="3:13">
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>nr_id_depto,</v>
+      </c>
+      <c r="M16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="3:13">
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>ds_depto,</v>
+      </c>
+      <c r="M17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13">
+      <c r="C18" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>qtd_liquidado,</v>
+      </c>
+      <c r="M18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13">
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>vl_liquidado,</v>
+      </c>
+      <c r="M19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="3:13">
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>qtd_total,</v>
+      </c>
+      <c r="M20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13">
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>vl_unit_ped,</v>
+      </c>
+      <c r="M21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13">
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>vl_total,</v>
+      </c>
+      <c r="M22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13">
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v>qtd_saldo,</v>
+      </c>
+      <c r="M23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13">
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v>vl_saldo,</v>
+      </c>
+      <c r="M24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13">
+      <c r="C25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="0"/>
+        <v>nr_id_natope,</v>
+      </c>
+      <c r="M25" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13">
+      <c r="C26" t="s">
+        <v>242</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="0"/>
+        <v>nr_seq_natope,</v>
+      </c>
+      <c r="M26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13">
+      <c r="C27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="0"/>
+        <v>dt_entrega,</v>
+      </c>
+      <c r="M27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13">
+      <c r="C28" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="0"/>
+        <v>ds_status_rec,</v>
+      </c>
+      <c r="M28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13">
+      <c r="C29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="0"/>
+        <v>ds_abc,</v>
+      </c>
+      <c r="M29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13">
+      <c r="C30" t="s">
+        <v>0</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="0"/>
+        <v>ds_chave,</v>
+      </c>
+      <c r="M30" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13">
+      <c r="C31" t="s">
+        <v>244</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="0"/>
+        <v>nr_inedoneo,</v>
+      </c>
+      <c r="M31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13">
+      <c r="C32" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="0"/>
+        <v>nr_cnpj_fabricante,</v>
+      </c>
+      <c r="M32" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="3:44">
+      <c r="C33" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="0"/>
+        <v>ds_fabricante,</v>
+      </c>
+      <c r="M33" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="34" spans="3:44">
+      <c r="F34" t="str">
+        <f t="shared" si="0"/>
+        <v>,</v>
+      </c>
+    </row>
+    <row r="35" spans="3:44">
+      <c r="F35" t="str">
+        <f t="shared" si="0"/>
+        <v>,</v>
+      </c>
+      <c r="M35" t="s">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" t="s">
+        <v>2</v>
+      </c>
+      <c r="P35" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>5</v>
+      </c>
+      <c r="R35" t="s">
+        <v>7</v>
+      </c>
+      <c r="S35" t="s">
+        <v>28</v>
+      </c>
+      <c r="T35" t="s">
+        <v>30</v>
+      </c>
+      <c r="U35" t="s">
+        <v>27</v>
+      </c>
+      <c r="V35" t="s">
+        <v>29</v>
+      </c>
+      <c r="W35" t="s">
+        <v>46</v>
+      </c>
+      <c r="X35" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI35" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ35" t="s">
+        <v>242</v>
+      </c>
+      <c r="AK35" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL35" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM35" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN35" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO35" t="s">
+        <v>243</v>
+      </c>
+      <c r="AP35" t="s">
+        <v>38</v>
+      </c>
+      <c r="AQ35" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR35" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="36" spans="3:44">
+      <c r="F36" t="str">
+        <f t="shared" si="0"/>
+        <v>,</v>
+      </c>
+    </row>
+    <row r="37" spans="3:44">
+      <c r="F37" t="str">
+        <f t="shared" si="0"/>
+        <v>,</v>
+      </c>
+    </row>
+    <row r="38" spans="3:44">
+      <c r="F38" t="str">
+        <f t="shared" si="0"/>
+        <v>,</v>
+      </c>
+    </row>
+    <row r="39" spans="3:44">
+      <c r="F39" t="str">
+        <f t="shared" si="0"/>
+        <v>,</v>
+      </c>
+    </row>
+    <row r="40" spans="3:44">
+      <c r="F40" t="str">
+        <f t="shared" si="0"/>
+        <v>,</v>
+      </c>
+    </row>
+    <row r="41" spans="3:44">
+      <c r="F41" t="str">
+        <f t="shared" si="0"/>
+        <v>,</v>
+      </c>
+    </row>
+    <row r="42" spans="3:44">
+      <c r="F42" t="str">
+        <f t="shared" si="0"/>
+        <v>,</v>
+      </c>
+    </row>
+    <row r="43" spans="3:44">
+      <c r="F43" t="str">
+        <f t="shared" si="0"/>
+        <v>,</v>
+      </c>
+    </row>
+    <row r="44" spans="3:44">
+      <c r="F44" t="str">
+        <f t="shared" si="0"/>
+        <v>,</v>
+      </c>
+    </row>
+    <row r="45" spans="3:44">
+      <c r="F45" t="str">
+        <f t="shared" si="0"/>
+        <v>,</v>
+      </c>
+    </row>
+    <row r="46" spans="3:44">
+      <c r="F46" t="str">
+        <f t="shared" si="0"/>
+        <v>,</v>
+      </c>
+    </row>
+    <row r="47" spans="3:44">
+      <c r="F47" t="str">
+        <f t="shared" si="0"/>
+        <v>,</v>
+      </c>
+    </row>
+    <row r="48" spans="3:44">
+      <c r="F48" t="str">
+        <f t="shared" si="0"/>
+        <v>,</v>
+      </c>
+    </row>
+    <row r="49" spans="6:6">
+      <c r="F49" t="str">
+        <f t="shared" si="0"/>
+        <v>,</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/Documentação/Planilhas/Conferencia_follow_Relatorio.xlsx
+++ b/Documentação/Planilhas/Conferencia_follow_Relatorio.xlsx
@@ -7,17 +7,18 @@
     <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
-    <sheet name="stg_follow_rascunho" sheetId="3" r:id="rId2"/>
-    <sheet name="stg_follow_compra" sheetId="4" r:id="rId3"/>
-    <sheet name="Plan2" sheetId="2" r:id="rId4"/>
+    <sheet name="stg_follow_rascunho" sheetId="3" r:id="rId1"/>
+    <sheet name="stg_follow_compra" sheetId="4" r:id="rId2"/>
+    <sheet name="stg_follow_kit_sige" sheetId="5" r:id="rId3"/>
+    <sheet name="Conf_antiga" sheetId="1" r:id="rId4"/>
+    <sheet name="Plan2" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="362">
   <si>
     <t>ds_chave</t>
   </si>
@@ -992,9 +993,6 @@
   </si>
   <si>
     <t>46.9700</t>
-  </si>
-  <si>
-    <t>Sessão tdpur4100m000 (Ordens de Compra)</t>
   </si>
   <si>
     <t xml:space="preserve">Pegar a informação da coluna "Ordem de Compra" </t>
@@ -1058,9 +1056,6 @@
     <t>Fazer o detalhamento  do Pedido. Na aba inferior "Linha da Ordem", selecionar o item desejado. No menu Specifc, selecionar "Linhas da Precisão de Impostos". Na seção "Dados Fiscais", pegar a informação do CFO</t>
   </si>
   <si>
-    <t>Não tem dados para a sequência</t>
-  </si>
-  <si>
     <t>Fazer o detalhamento do Pedido desejada. Na aba inferior "Monitor", aba "Parceiros de Negócios" pegar a informação da coluna "Data planejada de Recebimento Atual" de cada item desejado</t>
   </si>
   <si>
@@ -1089,19 +1084,45 @@
     <t>Aberto</t>
   </si>
   <si>
-    <t xml:space="preserve">case </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  when pd.QT_ENTREGUE = 0 then 'Sem Rec.'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  when pd.QT_ENTREGUE = pd.QT_PEDIDO then 'Rec.Total'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  else 'Rec.Parcial'</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> end status_rec</t>
+    <t xml:space="preserve">Fazer o detalhamento do Pedido desejado. Na aba inferior "Linhas da Ordem",  pegar a informação da coluna "Qtd Ordenada" e na aba inferior "Recebimento" e pegar a informação da coluna "Qtd Recebida" para o item trabalhado.
+Executar a seguinte regra para compor a informação:
+case  when "Qtd Recebida" = 0 then 'Sem Rec.'
+  when "Qtd Recebida" = "Qtd Ordenada" then 'Rec.Total'  else 'Rec.Parcial' end
+</t>
+  </si>
+  <si>
+    <t>Pegar a primeira informação da coluna "Parceiro de negócios Faturador". 
+Ir para a sessão "tccom4520m000" (Parceiro de Negócio Fornecedores) e informar o código na primeira coluna de "Parceiro de negócio fornecedor". Fazer o detalhamento do parceiro. No cabeçalho da tela, a opção OK Fiscal [1-Sim (está ticado), 2-Não (não está ticado)]</t>
+  </si>
+  <si>
+    <t>Concatenação do NR_PEDIDO + NR_ID_SKU</t>
+  </si>
+  <si>
+    <t>Não tem dados para a sequência da natureza da operação</t>
+  </si>
+  <si>
+    <t>Não consegui encontrar essas informações no LN]</t>
+  </si>
+  <si>
+    <t>com.stg_follow_kit_sige</t>
+  </si>
+  <si>
+    <t>nr_kit_sige</t>
+  </si>
+  <si>
+    <t>nr_item_sku</t>
+  </si>
+  <si>
+    <t>Sessão "tibom1110m000" (Lista de Material)</t>
+  </si>
+  <si>
+    <t>Na lupinha informar o Cód Item, limpando primeiramente todos os campos. Pegar a informação do Item no cabeçalho da tela</t>
+  </si>
+  <si>
+    <t>Na lupinha informar o Cód Item, limpando primeiramente todos os campos. Pegar a informação da segunda coluna do item no detalhe da tela</t>
+  </si>
+  <si>
+    <t>Não tem dados. Na tabela MIS_SHARED_DIMENSION.dim.ods_produto o campo ds_item_ativo está como "Não" ou "Não se aplica"</t>
   </si>
 </sst>
 </file>
@@ -1148,7 +1169,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1182,6 +1203,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1306,7 +1333,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1326,12 +1353,6 @@
     <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1344,6 +1365,35 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1372,63 +1422,73 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1731,9 +1791,3485 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A2:F34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25"/>
+  <cols>
+    <col min="1" max="1" width="22" style="7" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="26.42578125" style="7" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" s="14" customFormat="1" ht="18.75">
+      <c r="B2" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="14" customFormat="1" ht="18.75">
+      <c r="B3" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="27.75" customHeight="1">
+      <c r="A5" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" s="11">
+        <v>51821</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E6" s="12">
+        <v>2</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" s="11">
+        <v>51821</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E7" s="12">
+        <v>12</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C8" s="11">
+        <v>51821</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E8" s="12">
+        <v>35</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C9" s="11">
+        <v>51821</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E9" s="12">
+        <v>4</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C10" s="11">
+        <v>4999</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="E10" s="11">
+        <v>39</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C11" s="11">
+        <v>4999</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="E11" s="11">
+        <v>38</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C12" s="11">
+        <v>4999</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="E12" s="11">
+        <v>40</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C13" s="11">
+        <v>4999</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="E13" s="11">
+        <v>13</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C14" s="10">
+        <v>5606</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E14" s="12">
+        <v>6</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C15" s="10">
+        <v>5606</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E15" s="12">
+        <v>10</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="F18" s="25"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="26"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="28"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="29"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="31"/>
+    </row>
+    <row r="21" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A21" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="22"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="22"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="22"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="22"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="22"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="22"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="22"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="22"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="22"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="22"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="D28" s="22"/>
+      <c r="F28" s="22"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="D29" s="22"/>
+      <c r="F29" s="22"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="D30" s="22"/>
+      <c r="F30" s="22"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="D31" s="22"/>
+      <c r="F31" s="22"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="D32" s="22"/>
+      <c r="F32" s="22"/>
+    </row>
+    <row r="33" spans="4:6">
+      <c r="D33" s="22"/>
+      <c r="F33" s="22"/>
+    </row>
+    <row r="34" spans="4:6">
+      <c r="D34" s="22"/>
+      <c r="F34" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="E21:E27"/>
+    <mergeCell ref="D21:D34"/>
+    <mergeCell ref="A18:D20"/>
+    <mergeCell ref="E18:F20"/>
+    <mergeCell ref="F21:F34"/>
+    <mergeCell ref="A21:A27"/>
+    <mergeCell ref="B21:B27"/>
+    <mergeCell ref="C21:C27"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A2:AF49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:AC21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25"/>
+  <cols>
+    <col min="1" max="1" width="22" style="7" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" style="10" customWidth="1"/>
+    <col min="6" max="7" width="18.42578125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="27.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35" style="7" customWidth="1"/>
+    <col min="11" max="11" width="30.28515625" style="10" customWidth="1"/>
+    <col min="12" max="12" width="27.42578125" style="7" customWidth="1"/>
+    <col min="13" max="13" width="27.85546875" style="10" customWidth="1"/>
+    <col min="14" max="14" width="22" style="10" customWidth="1"/>
+    <col min="15" max="15" width="28.42578125" style="7" customWidth="1"/>
+    <col min="16" max="16" width="39.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="26" style="10" customWidth="1"/>
+    <col min="18" max="18" width="24.28515625" style="10" customWidth="1"/>
+    <col min="19" max="19" width="23.85546875" style="10" customWidth="1"/>
+    <col min="20" max="20" width="24.140625" style="10" customWidth="1"/>
+    <col min="21" max="21" width="18.42578125" style="10" customWidth="1"/>
+    <col min="22" max="22" width="24.85546875" style="10" customWidth="1"/>
+    <col min="23" max="23" width="18.42578125" style="10" customWidth="1"/>
+    <col min="24" max="24" width="27" style="10" customWidth="1"/>
+    <col min="25" max="25" width="27.42578125" style="10" customWidth="1"/>
+    <col min="26" max="26" width="32.28515625" style="10" customWidth="1"/>
+    <col min="27" max="27" width="20.7109375" style="10" customWidth="1"/>
+    <col min="28" max="28" width="18.42578125" style="10" customWidth="1"/>
+    <col min="29" max="29" width="21.42578125" style="10" customWidth="1"/>
+    <col min="30" max="30" width="18.42578125" style="10" customWidth="1"/>
+    <col min="31" max="31" width="13.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="24.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:32" s="14" customFormat="1" ht="18.75">
+      <c r="B2" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="18"/>
+      <c r="AA2" s="18"/>
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="18"/>
+      <c r="AD2" s="18"/>
+      <c r="AE2" s="18"/>
+      <c r="AF2" s="18"/>
+    </row>
+    <row r="3" spans="1:32" s="14" customFormat="1" ht="18.75">
+      <c r="B3" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="18"/>
+      <c r="Z3" s="18"/>
+      <c r="AA3" s="18"/>
+      <c r="AB3" s="18"/>
+      <c r="AC3" s="18"/>
+      <c r="AD3" s="18"/>
+      <c r="AE3" s="18"/>
+      <c r="AF3" s="18"/>
+    </row>
+    <row r="5" spans="1:32" ht="27.75" customHeight="1">
+      <c r="A5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="S5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="T5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="U5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="V5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="W5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="X5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB5" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="AC5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF5" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" s="17" customFormat="1">
+      <c r="A6" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="N6" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="O6" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="P6" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q6" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="R6" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="S6" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="T6" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="U6" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="V6" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="W6" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="X6" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="Y6" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="Z6" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA6" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="AB6" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC6" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="AD6" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE6" s="44" t="s">
+        <v>264</v>
+      </c>
+      <c r="AF6" s="44" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" s="17" customFormat="1">
+      <c r="A7" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="N7" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="O7" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="P7" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q7" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="R7" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="S7" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="T7" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="U7" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="V7" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="W7" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="X7" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="Y7" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="Z7" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA7" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="AB7" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC7" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="AD7" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE7" s="44" t="s">
+        <v>264</v>
+      </c>
+      <c r="AF7" s="44" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" s="17" customFormat="1">
+      <c r="A8" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="M8" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="O8" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="P8" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q8" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="R8" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="S8" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="T8" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="U8" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="V8" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="W8" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="X8" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y8" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="Z8" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA8" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="AB8" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC8" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="AD8" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE8" s="44" t="s">
+        <v>264</v>
+      </c>
+      <c r="AF8" s="44" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" s="17" customFormat="1">
+      <c r="A9" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="J9" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="M9" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="O9" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="P9" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q9" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="R9" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="S9" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="T9" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U9" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="V9" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="W9" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="X9" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="Y9" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="Z9" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA9" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="AB9" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC9" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="AD9" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE9" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="AF9" s="16" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" s="17" customFormat="1">
+      <c r="A10" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="M10" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="O10" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="P10" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q10" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="R10" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="S10" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="T10" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U10" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="V10" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="W10" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="X10" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="Y10" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="Z10" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA10" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="AB10" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC10" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="AD10" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE10" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="AF10" s="16" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" s="17" customFormat="1">
+      <c r="A11" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="J11" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="M11" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="N11" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="O11" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="P11" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q11" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="R11" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="S11" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="T11" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U11" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="V11" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="W11" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="X11" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="Y11" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="Z11" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA11" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="AB11" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC11" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="AD11" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE11" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="AF11" s="16" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" s="17" customFormat="1">
+      <c r="A12" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="J12" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="K12" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="L12" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="M12" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="N12" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="O12" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="P12" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q12" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="R12" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="S12" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="T12" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U12" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="V12" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="W12" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="X12" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="Y12" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="Z12" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA12" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="AB12" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC12" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="AD12" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE12" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="AF12" s="16" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" s="17" customFormat="1">
+      <c r="A13" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="J13" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="K13" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="L13" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="M13" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="N13" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="O13" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="P13" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q13" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="R13" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="S13" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="T13" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U13" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="V13" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="W13" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="X13" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="Y13" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="Z13" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA13" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="AB13" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC13" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="AD13" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE13" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="AF13" s="16" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" s="17" customFormat="1">
+      <c r="A14" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="J14" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="K14" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="L14" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="M14" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="N14" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="O14" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="P14" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q14" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="R14" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="S14" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="T14" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U14" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="V14" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="W14" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="X14" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="Y14" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="Z14" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA14" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="AB14" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC14" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="AD14" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE14" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="AF14" s="16" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" s="17" customFormat="1">
+      <c r="A15" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="J15" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="K15" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="L15" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="M15" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="N15" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="O15" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="P15" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q15" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="R15" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="S15" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="T15" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U15" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="V15" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="W15" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="X15" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="Y15" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="Z15" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA15" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="AB15" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC15" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="AD15" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE15" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="AF15" s="16" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" s="17" customFormat="1">
+      <c r="A16" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="J16" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="K16" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="L16" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="M16" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="N16" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="O16" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="P16" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q16" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="R16" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="S16" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="T16" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U16" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="V16" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="W16" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="X16" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="Y16" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z16" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA16" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="AB16" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC16" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="AD16" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE16" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="AF16" s="16" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" s="17" customFormat="1">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="16"/>
+      <c r="V17" s="16"/>
+      <c r="W17" s="16"/>
+      <c r="X17" s="16"/>
+      <c r="Y17" s="16"/>
+      <c r="Z17" s="16"/>
+      <c r="AA17" s="16"/>
+      <c r="AB17" s="16"/>
+      <c r="AC17" s="16"/>
+      <c r="AD17" s="16"/>
+      <c r="AE17" s="16"/>
+      <c r="AF17" s="16"/>
+    </row>
+    <row r="18" spans="1:32">
+      <c r="A18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="1"/>
+      <c r="L18" s="10"/>
+      <c r="O18" s="10"/>
+    </row>
+    <row r="19" spans="1:32" ht="11.25" customHeight="1">
+      <c r="A19" s="39" t="s">
+        <v>236</v>
+      </c>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="40"/>
+      <c r="S19" s="40"/>
+      <c r="T19" s="40"/>
+      <c r="U19" s="40"/>
+      <c r="V19" s="40"/>
+      <c r="W19" s="40"/>
+      <c r="X19" s="40"/>
+      <c r="Y19" s="40"/>
+      <c r="Z19" s="40"/>
+      <c r="AA19" s="40"/>
+      <c r="AB19" s="40"/>
+      <c r="AC19" s="41"/>
+    </row>
+    <row r="20" spans="1:32" ht="11.25" customHeight="1">
+      <c r="A20" s="35"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
+      <c r="S20" s="36"/>
+      <c r="T20" s="36"/>
+      <c r="U20" s="36"/>
+      <c r="V20" s="36"/>
+      <c r="W20" s="36"/>
+      <c r="X20" s="36"/>
+      <c r="Y20" s="36"/>
+      <c r="Z20" s="36"/>
+      <c r="AA20" s="36"/>
+      <c r="AB20" s="36"/>
+      <c r="AC20" s="42"/>
+    </row>
+    <row r="21" spans="1:32" ht="11.25" customHeight="1">
+      <c r="A21" s="37"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="38"/>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="38"/>
+      <c r="R21" s="38"/>
+      <c r="S21" s="38"/>
+      <c r="T21" s="38"/>
+      <c r="U21" s="38"/>
+      <c r="V21" s="38"/>
+      <c r="W21" s="38"/>
+      <c r="X21" s="38"/>
+      <c r="Y21" s="38"/>
+      <c r="Z21" s="38"/>
+      <c r="AA21" s="38"/>
+      <c r="AB21" s="38"/>
+      <c r="AC21" s="43"/>
+    </row>
+    <row r="22" spans="1:32" ht="11.25" customHeight="1">
+      <c r="A22" s="22" t="s">
+        <v>324</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>342</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>348</v>
+      </c>
+      <c r="D22" s="33" t="s">
+        <v>343</v>
+      </c>
+      <c r="E22" s="33" t="s">
+        <v>346</v>
+      </c>
+      <c r="F22" s="32" t="s">
+        <v>344</v>
+      </c>
+      <c r="G22" s="32" t="s">
+        <v>345</v>
+      </c>
+      <c r="H22" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="I22" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="J22" s="22" t="s">
+        <v>326</v>
+      </c>
+      <c r="K22" s="22" t="s">
+        <v>351</v>
+      </c>
+      <c r="L22" s="34" t="s">
+        <v>327</v>
+      </c>
+      <c r="M22" s="32" t="s">
+        <v>347</v>
+      </c>
+      <c r="N22" s="32" t="s">
+        <v>352</v>
+      </c>
+      <c r="O22" s="22" t="s">
+        <v>328</v>
+      </c>
+      <c r="P22" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q22" s="22" t="s">
+        <v>330</v>
+      </c>
+      <c r="R22" s="22" t="s">
+        <v>331</v>
+      </c>
+      <c r="S22" s="22" t="s">
+        <v>332</v>
+      </c>
+      <c r="T22" s="33" t="s">
+        <v>333</v>
+      </c>
+      <c r="U22" s="33" t="s">
+        <v>338</v>
+      </c>
+      <c r="V22" s="33" t="s">
+        <v>337</v>
+      </c>
+      <c r="W22" s="33" t="s">
+        <v>339</v>
+      </c>
+      <c r="X22" s="22" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y22" s="22" t="s">
+        <v>335</v>
+      </c>
+      <c r="Z22" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="AA22" s="22" t="s">
+        <v>340</v>
+      </c>
+      <c r="AB22" s="22" t="s">
+        <v>353</v>
+      </c>
+      <c r="AC22" s="22" t="s">
+        <v>341</v>
+      </c>
+      <c r="AD22" s="45" t="s">
+        <v>354</v>
+      </c>
+      <c r="AE22" s="46"/>
+      <c r="AF22" s="47"/>
+    </row>
+    <row r="23" spans="1:32" ht="11.25" customHeight="1">
+      <c r="A23" s="22"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="22"/>
+      <c r="S23" s="22"/>
+      <c r="T23" s="33"/>
+      <c r="U23" s="33"/>
+      <c r="V23" s="33"/>
+      <c r="W23" s="33"/>
+      <c r="X23" s="22"/>
+      <c r="Y23" s="22"/>
+      <c r="Z23" s="22"/>
+      <c r="AA23" s="22"/>
+      <c r="AB23" s="22"/>
+      <c r="AC23" s="22"/>
+      <c r="AD23" s="48"/>
+      <c r="AE23" s="49"/>
+      <c r="AF23" s="50"/>
+    </row>
+    <row r="24" spans="1:32">
+      <c r="A24" s="22"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="32"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="22"/>
+      <c r="S24" s="22"/>
+      <c r="T24" s="33"/>
+      <c r="U24" s="33"/>
+      <c r="V24" s="33"/>
+      <c r="W24" s="33"/>
+      <c r="X24" s="22"/>
+      <c r="Y24" s="22"/>
+      <c r="Z24" s="22"/>
+      <c r="AA24" s="22"/>
+      <c r="AB24" s="22"/>
+      <c r="AC24" s="22"/>
+      <c r="AD24" s="48"/>
+      <c r="AE24" s="49"/>
+      <c r="AF24" s="50"/>
+    </row>
+    <row r="25" spans="1:32">
+      <c r="A25" s="22"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="32"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="22"/>
+      <c r="S25" s="22"/>
+      <c r="T25" s="33"/>
+      <c r="U25" s="33"/>
+      <c r="V25" s="33"/>
+      <c r="W25" s="33"/>
+      <c r="X25" s="22"/>
+      <c r="Y25" s="22"/>
+      <c r="Z25" s="22"/>
+      <c r="AA25" s="22"/>
+      <c r="AB25" s="22"/>
+      <c r="AC25" s="22"/>
+      <c r="AD25" s="48"/>
+      <c r="AE25" s="49"/>
+      <c r="AF25" s="50"/>
+    </row>
+    <row r="26" spans="1:32">
+      <c r="A26" s="22"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="22"/>
+      <c r="S26" s="22"/>
+      <c r="T26" s="33"/>
+      <c r="U26" s="33"/>
+      <c r="V26" s="33"/>
+      <c r="W26" s="33"/>
+      <c r="X26" s="22"/>
+      <c r="Y26" s="22"/>
+      <c r="Z26" s="22"/>
+      <c r="AA26" s="22"/>
+      <c r="AB26" s="22"/>
+      <c r="AC26" s="22"/>
+      <c r="AD26" s="48"/>
+      <c r="AE26" s="49"/>
+      <c r="AF26" s="50"/>
+    </row>
+    <row r="27" spans="1:32">
+      <c r="A27" s="22"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="22"/>
+      <c r="S27" s="22"/>
+      <c r="T27" s="33"/>
+      <c r="U27" s="33"/>
+      <c r="V27" s="33"/>
+      <c r="W27" s="33"/>
+      <c r="X27" s="22"/>
+      <c r="Y27" s="22"/>
+      <c r="Z27" s="22"/>
+      <c r="AA27" s="22"/>
+      <c r="AB27" s="22"/>
+      <c r="AC27" s="22"/>
+      <c r="AD27" s="48"/>
+      <c r="AE27" s="49"/>
+      <c r="AF27" s="50"/>
+    </row>
+    <row r="28" spans="1:32">
+      <c r="A28" s="22"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="32"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="22"/>
+      <c r="R28" s="22"/>
+      <c r="S28" s="22"/>
+      <c r="T28" s="33"/>
+      <c r="U28" s="33"/>
+      <c r="V28" s="33"/>
+      <c r="W28" s="33"/>
+      <c r="X28" s="22"/>
+      <c r="Y28" s="22"/>
+      <c r="Z28" s="22"/>
+      <c r="AA28" s="22"/>
+      <c r="AB28" s="22"/>
+      <c r="AC28" s="22"/>
+      <c r="AD28" s="48"/>
+      <c r="AE28" s="49"/>
+      <c r="AF28" s="50"/>
+    </row>
+    <row r="29" spans="1:32">
+      <c r="A29" s="22"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="32"/>
+      <c r="N29" s="32"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="22"/>
+      <c r="S29" s="22"/>
+      <c r="T29" s="33"/>
+      <c r="U29" s="33"/>
+      <c r="V29" s="33"/>
+      <c r="W29" s="33"/>
+      <c r="X29" s="22"/>
+      <c r="Y29" s="22"/>
+      <c r="Z29" s="22"/>
+      <c r="AA29" s="22"/>
+      <c r="AB29" s="22"/>
+      <c r="AC29" s="22"/>
+      <c r="AD29" s="48"/>
+      <c r="AE29" s="49"/>
+      <c r="AF29" s="50"/>
+    </row>
+    <row r="30" spans="1:32">
+      <c r="A30" s="22"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="32"/>
+      <c r="N30" s="32"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="22"/>
+      <c r="Q30" s="22"/>
+      <c r="R30" s="22"/>
+      <c r="S30" s="22"/>
+      <c r="T30" s="33"/>
+      <c r="U30" s="33"/>
+      <c r="V30" s="33"/>
+      <c r="W30" s="33"/>
+      <c r="X30" s="22"/>
+      <c r="Y30" s="22"/>
+      <c r="Z30" s="22"/>
+      <c r="AA30" s="22"/>
+      <c r="AB30" s="22"/>
+      <c r="AC30" s="22"/>
+      <c r="AD30" s="51"/>
+      <c r="AE30" s="52"/>
+      <c r="AF30" s="53"/>
+    </row>
+    <row r="31" spans="1:32">
+      <c r="K31" s="7"/>
+      <c r="L31" s="34"/>
+      <c r="X31" s="22"/>
+      <c r="Y31" s="22"/>
+      <c r="Z31" s="22"/>
+      <c r="AE31" s="7"/>
+      <c r="AF31" s="7"/>
+    </row>
+    <row r="32" spans="1:32">
+      <c r="K32" s="7"/>
+      <c r="L32" s="34"/>
+      <c r="X32" s="22"/>
+      <c r="Y32" s="22"/>
+      <c r="Z32" s="22"/>
+      <c r="AE32" s="7"/>
+      <c r="AF32" s="7"/>
+    </row>
+    <row r="33" spans="11:32">
+      <c r="K33" s="7"/>
+      <c r="X33" s="22"/>
+      <c r="Y33" s="22"/>
+      <c r="Z33" s="22"/>
+      <c r="AE33" s="7"/>
+      <c r="AF33" s="7"/>
+    </row>
+    <row r="34" spans="11:32">
+      <c r="K34" s="7"/>
+      <c r="X34" s="22"/>
+      <c r="Y34" s="22"/>
+      <c r="Z34" s="22"/>
+      <c r="AE34" s="7"/>
+      <c r="AF34" s="7"/>
+    </row>
+    <row r="35" spans="11:32">
+      <c r="K35" s="7"/>
+      <c r="X35" s="22"/>
+      <c r="Y35" s="22"/>
+      <c r="Z35" s="22"/>
+      <c r="AE35" s="7"/>
+      <c r="AF35" s="7"/>
+    </row>
+    <row r="36" spans="11:32">
+      <c r="K36" s="7"/>
+      <c r="AE36" s="7"/>
+      <c r="AF36" s="7"/>
+    </row>
+    <row r="37" spans="11:32">
+      <c r="K37" s="7"/>
+      <c r="AE37" s="7"/>
+      <c r="AF37" s="7"/>
+    </row>
+    <row r="38" spans="11:32">
+      <c r="K38" s="7"/>
+      <c r="AE38" s="7"/>
+      <c r="AF38" s="7"/>
+    </row>
+    <row r="39" spans="11:32">
+      <c r="K39" s="7"/>
+      <c r="AE39" s="7"/>
+      <c r="AF39" s="7"/>
+    </row>
+    <row r="40" spans="11:32">
+      <c r="K40" s="7"/>
+      <c r="AE40" s="7"/>
+      <c r="AF40" s="7"/>
+    </row>
+    <row r="41" spans="11:32">
+      <c r="K41" s="7"/>
+      <c r="AE41" s="7"/>
+      <c r="AF41" s="7"/>
+    </row>
+    <row r="42" spans="11:32">
+      <c r="K42" s="7"/>
+      <c r="AE42" s="7"/>
+      <c r="AF42" s="7"/>
+    </row>
+    <row r="43" spans="11:32">
+      <c r="K43" s="7"/>
+      <c r="AE43" s="7"/>
+      <c r="AF43" s="7"/>
+    </row>
+    <row r="44" spans="11:32">
+      <c r="K44" s="7"/>
+      <c r="AE44" s="7"/>
+      <c r="AF44" s="7"/>
+    </row>
+    <row r="45" spans="11:32">
+      <c r="K45" s="7"/>
+      <c r="AE45" s="7"/>
+      <c r="AF45" s="7"/>
+    </row>
+    <row r="46" spans="11:32">
+      <c r="K46" s="7"/>
+      <c r="AE46" s="7"/>
+      <c r="AF46" s="7"/>
+    </row>
+    <row r="47" spans="11:32">
+      <c r="K47" s="7"/>
+      <c r="AE47" s="7"/>
+      <c r="AF47" s="7"/>
+    </row>
+    <row r="48" spans="11:32">
+      <c r="K48" s="7"/>
+      <c r="AE48" s="7"/>
+      <c r="AF48" s="7"/>
+    </row>
+    <row r="49" spans="11:32">
+      <c r="K49" s="7"/>
+      <c r="AE49" s="7"/>
+      <c r="AF49" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="31">
+    <mergeCell ref="Z22:Z35"/>
+    <mergeCell ref="K22:K30"/>
+    <mergeCell ref="N22:N30"/>
+    <mergeCell ref="A19:AC21"/>
+    <mergeCell ref="AD22:AF30"/>
+    <mergeCell ref="J22:J30"/>
+    <mergeCell ref="A22:A30"/>
+    <mergeCell ref="H22:H30"/>
+    <mergeCell ref="I22:I30"/>
+    <mergeCell ref="L22:L32"/>
+    <mergeCell ref="M22:M30"/>
+    <mergeCell ref="AA22:AA30"/>
+    <mergeCell ref="AB22:AB30"/>
+    <mergeCell ref="AC22:AC30"/>
+    <mergeCell ref="B22:B30"/>
+    <mergeCell ref="X22:X35"/>
+    <mergeCell ref="Y22:Y35"/>
+    <mergeCell ref="V22:V30"/>
+    <mergeCell ref="U22:U30"/>
+    <mergeCell ref="W22:W30"/>
+    <mergeCell ref="T22:T30"/>
+    <mergeCell ref="S22:S30"/>
+    <mergeCell ref="P22:P30"/>
+    <mergeCell ref="O22:O30"/>
+    <mergeCell ref="Q22:Q30"/>
+    <mergeCell ref="R22:R30"/>
+    <mergeCell ref="C22:C30"/>
+    <mergeCell ref="D22:D30"/>
+    <mergeCell ref="F22:F30"/>
+    <mergeCell ref="G22:G30"/>
+    <mergeCell ref="E22:E30"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A2:AF49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25"/>
+  <cols>
+    <col min="1" max="1" width="19.140625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" style="10" customWidth="1"/>
+    <col min="6" max="7" width="18.42578125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="27.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35" style="7" customWidth="1"/>
+    <col min="11" max="11" width="30.28515625" style="10" customWidth="1"/>
+    <col min="12" max="12" width="27.42578125" style="7" customWidth="1"/>
+    <col min="13" max="13" width="27.85546875" style="10" customWidth="1"/>
+    <col min="14" max="14" width="22" style="10" customWidth="1"/>
+    <col min="15" max="15" width="28.42578125" style="7" customWidth="1"/>
+    <col min="16" max="16" width="39.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="26" style="10" customWidth="1"/>
+    <col min="18" max="18" width="24.28515625" style="10" customWidth="1"/>
+    <col min="19" max="19" width="23.85546875" style="10" customWidth="1"/>
+    <col min="20" max="20" width="24.140625" style="10" customWidth="1"/>
+    <col min="21" max="21" width="18.42578125" style="10" customWidth="1"/>
+    <col min="22" max="22" width="24.85546875" style="10" customWidth="1"/>
+    <col min="23" max="23" width="18.42578125" style="10" customWidth="1"/>
+    <col min="24" max="24" width="27" style="10" customWidth="1"/>
+    <col min="25" max="25" width="27.42578125" style="10" customWidth="1"/>
+    <col min="26" max="26" width="32.28515625" style="10" customWidth="1"/>
+    <col min="27" max="27" width="20.7109375" style="10" customWidth="1"/>
+    <col min="28" max="28" width="18.42578125" style="10" customWidth="1"/>
+    <col min="29" max="29" width="21.42578125" style="10" customWidth="1"/>
+    <col min="30" max="30" width="18.42578125" style="10" customWidth="1"/>
+    <col min="31" max="31" width="13.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="24.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:32" s="14" customFormat="1" ht="18.75">
+      <c r="B2" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="18"/>
+      <c r="AA2" s="18"/>
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="18"/>
+      <c r="AD2" s="18"/>
+      <c r="AE2" s="18"/>
+      <c r="AF2" s="18"/>
+    </row>
+    <row r="3" spans="1:32" s="14" customFormat="1" ht="18.75">
+      <c r="B3" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>355</v>
+      </c>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="18"/>
+      <c r="Z3" s="18"/>
+      <c r="AA3" s="18"/>
+      <c r="AB3" s="18"/>
+      <c r="AC3" s="18"/>
+      <c r="AD3" s="18"/>
+      <c r="AE3" s="18"/>
+      <c r="AF3" s="18"/>
+    </row>
+    <row r="5" spans="1:32" ht="27.75" customHeight="1">
+      <c r="A5" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="7"/>
+    </row>
+    <row r="6" spans="1:32" s="17" customFormat="1">
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="54" t="s">
+        <v>361</v>
+      </c>
+      <c r="D6" s="54"/>
+    </row>
+    <row r="7" spans="1:32" s="17" customFormat="1">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+    </row>
+    <row r="8" spans="1:32" s="17" customFormat="1">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+    </row>
+    <row r="9" spans="1:32" s="17" customFormat="1">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+    </row>
+    <row r="10" spans="1:32" s="17" customFormat="1">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+    </row>
+    <row r="11" spans="1:32" s="17" customFormat="1">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+    </row>
+    <row r="12" spans="1:32" s="17" customFormat="1">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+    </row>
+    <row r="13" spans="1:32" s="17" customFormat="1">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+    </row>
+    <row r="14" spans="1:32" s="17" customFormat="1">
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+    </row>
+    <row r="15" spans="1:32" s="17" customFormat="1">
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+    </row>
+    <row r="16" spans="1:32" s="17" customFormat="1">
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+    </row>
+    <row r="17" spans="1:32" s="17" customFormat="1">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+    </row>
+    <row r="18" spans="1:32">
+      <c r="A18" s="10"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="7"/>
+      <c r="AA18" s="7"/>
+      <c r="AB18" s="7"/>
+      <c r="AC18" s="7"/>
+      <c r="AD18" s="7"/>
+      <c r="AE18" s="7"/>
+      <c r="AF18" s="7"/>
+    </row>
+    <row r="19" spans="1:32" ht="11.25" customHeight="1">
+      <c r="A19" s="23" t="s">
+        <v>358</v>
+      </c>
+      <c r="B19" s="25"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="7"/>
+      <c r="AB19" s="7"/>
+      <c r="AC19" s="7"/>
+      <c r="AD19" s="7"/>
+      <c r="AE19" s="7"/>
+      <c r="AF19" s="7"/>
+    </row>
+    <row r="20" spans="1:32" ht="11.25" customHeight="1">
+      <c r="A20" s="26"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="7"/>
+      <c r="AB20" s="7"/>
+      <c r="AC20" s="7"/>
+      <c r="AD20" s="7"/>
+      <c r="AE20" s="7"/>
+      <c r="AF20" s="7"/>
+    </row>
+    <row r="21" spans="1:32" ht="11.25" customHeight="1">
+      <c r="A21" s="29"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="7"/>
+      <c r="AA21" s="7"/>
+      <c r="AB21" s="7"/>
+      <c r="AC21" s="7"/>
+      <c r="AD21" s="7"/>
+      <c r="AE21" s="7"/>
+      <c r="AF21" s="7"/>
+    </row>
+    <row r="22" spans="1:32" ht="11.25" customHeight="1">
+      <c r="A22" s="22" t="s">
+        <v>359</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="7"/>
+      <c r="AB22" s="7"/>
+      <c r="AC22" s="7"/>
+      <c r="AD22" s="7"/>
+      <c r="AE22" s="7"/>
+      <c r="AF22" s="7"/>
+    </row>
+    <row r="23" spans="1:32" ht="11.25" customHeight="1">
+      <c r="A23" s="22"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="7"/>
+      <c r="AA23" s="7"/>
+      <c r="AB23" s="7"/>
+      <c r="AC23" s="7"/>
+      <c r="AD23" s="7"/>
+      <c r="AE23" s="7"/>
+      <c r="AF23" s="7"/>
+    </row>
+    <row r="24" spans="1:32">
+      <c r="A24" s="22"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="7"/>
+      <c r="X24" s="7"/>
+      <c r="Y24" s="7"/>
+      <c r="Z24" s="7"/>
+      <c r="AA24" s="7"/>
+      <c r="AB24" s="7"/>
+      <c r="AC24" s="7"/>
+      <c r="AD24" s="7"/>
+      <c r="AE24" s="7"/>
+      <c r="AF24" s="7"/>
+    </row>
+    <row r="25" spans="1:32">
+      <c r="A25" s="22"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="7"/>
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="7"/>
+      <c r="AA25" s="7"/>
+      <c r="AB25" s="7"/>
+      <c r="AC25" s="7"/>
+      <c r="AD25" s="7"/>
+      <c r="AE25" s="7"/>
+      <c r="AF25" s="7"/>
+    </row>
+    <row r="26" spans="1:32">
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="7"/>
+      <c r="X26" s="7"/>
+      <c r="Y26" s="7"/>
+      <c r="Z26" s="7"/>
+      <c r="AA26" s="7"/>
+      <c r="AB26" s="7"/>
+      <c r="AC26" s="7"/>
+      <c r="AD26" s="7"/>
+      <c r="AE26" s="7"/>
+      <c r="AF26" s="7"/>
+    </row>
+    <row r="27" spans="1:32">
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="7"/>
+      <c r="X27" s="7"/>
+      <c r="Y27" s="7"/>
+      <c r="Z27" s="7"/>
+      <c r="AA27" s="7"/>
+      <c r="AB27" s="7"/>
+      <c r="AC27" s="7"/>
+      <c r="AD27" s="7"/>
+      <c r="AE27" s="7"/>
+      <c r="AF27" s="7"/>
+    </row>
+    <row r="28" spans="1:32">
+      <c r="A28" s="22"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="7"/>
+      <c r="V28" s="7"/>
+      <c r="W28" s="7"/>
+      <c r="X28" s="7"/>
+      <c r="Y28" s="7"/>
+      <c r="Z28" s="7"/>
+      <c r="AA28" s="7"/>
+      <c r="AB28" s="7"/>
+      <c r="AC28" s="7"/>
+      <c r="AD28" s="7"/>
+      <c r="AE28" s="7"/>
+      <c r="AF28" s="7"/>
+    </row>
+    <row r="29" spans="1:32">
+      <c r="A29" s="22"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
+      <c r="S29" s="7"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="7"/>
+      <c r="V29" s="7"/>
+      <c r="W29" s="7"/>
+      <c r="X29" s="7"/>
+      <c r="Y29" s="7"/>
+      <c r="Z29" s="7"/>
+      <c r="AA29" s="7"/>
+      <c r="AB29" s="7"/>
+      <c r="AC29" s="7"/>
+      <c r="AD29" s="7"/>
+      <c r="AE29" s="7"/>
+      <c r="AF29" s="7"/>
+    </row>
+    <row r="30" spans="1:32">
+      <c r="A30" s="22"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="7"/>
+      <c r="T30" s="7"/>
+      <c r="U30" s="7"/>
+      <c r="V30" s="7"/>
+      <c r="W30" s="7"/>
+      <c r="X30" s="7"/>
+      <c r="Y30" s="7"/>
+      <c r="Z30" s="7"/>
+      <c r="AA30" s="7"/>
+      <c r="AB30" s="7"/>
+      <c r="AC30" s="7"/>
+      <c r="AD30" s="7"/>
+      <c r="AE30" s="7"/>
+      <c r="AF30" s="7"/>
+    </row>
+    <row r="31" spans="1:32">
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7"/>
+      <c r="S31" s="7"/>
+      <c r="T31" s="7"/>
+      <c r="U31" s="7"/>
+      <c r="V31" s="7"/>
+      <c r="W31" s="7"/>
+      <c r="X31" s="7"/>
+      <c r="Y31" s="7"/>
+      <c r="Z31" s="7"/>
+      <c r="AA31" s="7"/>
+      <c r="AB31" s="7"/>
+      <c r="AC31" s="7"/>
+      <c r="AD31" s="7"/>
+      <c r="AE31" s="7"/>
+      <c r="AF31" s="7"/>
+    </row>
+    <row r="32" spans="1:32">
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="7"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="7"/>
+      <c r="V32" s="7"/>
+      <c r="W32" s="7"/>
+      <c r="X32" s="7"/>
+      <c r="Y32" s="7"/>
+      <c r="Z32" s="7"/>
+      <c r="AA32" s="7"/>
+      <c r="AB32" s="7"/>
+      <c r="AC32" s="7"/>
+      <c r="AD32" s="7"/>
+      <c r="AE32" s="7"/>
+      <c r="AF32" s="7"/>
+    </row>
+    <row r="33" spans="3:32">
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
+      <c r="S33" s="7"/>
+      <c r="T33" s="7"/>
+      <c r="U33" s="7"/>
+      <c r="V33" s="7"/>
+      <c r="W33" s="7"/>
+      <c r="X33" s="7"/>
+      <c r="Y33" s="7"/>
+      <c r="Z33" s="7"/>
+      <c r="AA33" s="7"/>
+      <c r="AB33" s="7"/>
+      <c r="AC33" s="7"/>
+      <c r="AD33" s="7"/>
+      <c r="AE33" s="7"/>
+      <c r="AF33" s="7"/>
+    </row>
+    <row r="34" spans="3:32">
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="7"/>
+      <c r="T34" s="7"/>
+      <c r="U34" s="7"/>
+      <c r="V34" s="7"/>
+      <c r="W34" s="7"/>
+      <c r="X34" s="7"/>
+      <c r="Y34" s="7"/>
+      <c r="Z34" s="7"/>
+      <c r="AA34" s="7"/>
+      <c r="AB34" s="7"/>
+      <c r="AC34" s="7"/>
+      <c r="AD34" s="7"/>
+      <c r="AE34" s="7"/>
+      <c r="AF34" s="7"/>
+    </row>
+    <row r="35" spans="3:32">
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7"/>
+      <c r="S35" s="7"/>
+      <c r="T35" s="7"/>
+      <c r="U35" s="7"/>
+      <c r="V35" s="7"/>
+      <c r="W35" s="7"/>
+      <c r="X35" s="7"/>
+      <c r="Y35" s="7"/>
+      <c r="Z35" s="7"/>
+      <c r="AA35" s="7"/>
+      <c r="AB35" s="7"/>
+      <c r="AC35" s="7"/>
+      <c r="AD35" s="7"/>
+      <c r="AE35" s="7"/>
+      <c r="AF35" s="7"/>
+    </row>
+    <row r="36" spans="3:32">
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="7"/>
+      <c r="S36" s="7"/>
+      <c r="T36" s="7"/>
+      <c r="U36" s="7"/>
+      <c r="V36" s="7"/>
+      <c r="W36" s="7"/>
+      <c r="X36" s="7"/>
+      <c r="Y36" s="7"/>
+      <c r="Z36" s="7"/>
+      <c r="AA36" s="7"/>
+      <c r="AB36" s="7"/>
+      <c r="AC36" s="7"/>
+      <c r="AD36" s="7"/>
+      <c r="AE36" s="7"/>
+      <c r="AF36" s="7"/>
+    </row>
+    <row r="37" spans="3:32">
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="7"/>
+      <c r="S37" s="7"/>
+      <c r="T37" s="7"/>
+      <c r="U37" s="7"/>
+      <c r="V37" s="7"/>
+      <c r="W37" s="7"/>
+      <c r="X37" s="7"/>
+      <c r="Y37" s="7"/>
+      <c r="Z37" s="7"/>
+      <c r="AA37" s="7"/>
+      <c r="AB37" s="7"/>
+      <c r="AC37" s="7"/>
+      <c r="AD37" s="7"/>
+      <c r="AE37" s="7"/>
+      <c r="AF37" s="7"/>
+    </row>
+    <row r="38" spans="3:32">
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7"/>
+      <c r="S38" s="7"/>
+      <c r="T38" s="7"/>
+      <c r="U38" s="7"/>
+      <c r="V38" s="7"/>
+      <c r="W38" s="7"/>
+      <c r="X38" s="7"/>
+      <c r="Y38" s="7"/>
+      <c r="Z38" s="7"/>
+      <c r="AA38" s="7"/>
+      <c r="AB38" s="7"/>
+      <c r="AC38" s="7"/>
+      <c r="AD38" s="7"/>
+      <c r="AE38" s="7"/>
+      <c r="AF38" s="7"/>
+    </row>
+    <row r="39" spans="3:32">
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7"/>
+      <c r="S39" s="7"/>
+      <c r="T39" s="7"/>
+      <c r="U39" s="7"/>
+      <c r="V39" s="7"/>
+      <c r="W39" s="7"/>
+      <c r="X39" s="7"/>
+      <c r="Y39" s="7"/>
+      <c r="Z39" s="7"/>
+      <c r="AA39" s="7"/>
+      <c r="AB39" s="7"/>
+      <c r="AC39" s="7"/>
+      <c r="AD39" s="7"/>
+      <c r="AE39" s="7"/>
+      <c r="AF39" s="7"/>
+    </row>
+    <row r="40" spans="3:32">
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="7"/>
+      <c r="S40" s="7"/>
+      <c r="T40" s="7"/>
+      <c r="U40" s="7"/>
+      <c r="V40" s="7"/>
+      <c r="W40" s="7"/>
+      <c r="X40" s="7"/>
+      <c r="Y40" s="7"/>
+      <c r="Z40" s="7"/>
+      <c r="AA40" s="7"/>
+      <c r="AB40" s="7"/>
+      <c r="AC40" s="7"/>
+      <c r="AD40" s="7"/>
+      <c r="AE40" s="7"/>
+      <c r="AF40" s="7"/>
+    </row>
+    <row r="41" spans="3:32">
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="7"/>
+      <c r="S41" s="7"/>
+      <c r="T41" s="7"/>
+      <c r="U41" s="7"/>
+      <c r="V41" s="7"/>
+      <c r="W41" s="7"/>
+      <c r="X41" s="7"/>
+      <c r="Y41" s="7"/>
+      <c r="Z41" s="7"/>
+      <c r="AA41" s="7"/>
+      <c r="AB41" s="7"/>
+      <c r="AC41" s="7"/>
+      <c r="AD41" s="7"/>
+      <c r="AE41" s="7"/>
+      <c r="AF41" s="7"/>
+    </row>
+    <row r="42" spans="3:32">
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="7"/>
+      <c r="S42" s="7"/>
+      <c r="T42" s="7"/>
+      <c r="U42" s="7"/>
+      <c r="V42" s="7"/>
+      <c r="W42" s="7"/>
+      <c r="X42" s="7"/>
+      <c r="Y42" s="7"/>
+      <c r="Z42" s="7"/>
+      <c r="AA42" s="7"/>
+      <c r="AB42" s="7"/>
+      <c r="AC42" s="7"/>
+      <c r="AD42" s="7"/>
+      <c r="AE42" s="7"/>
+      <c r="AF42" s="7"/>
+    </row>
+    <row r="43" spans="3:32">
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="7"/>
+      <c r="S43" s="7"/>
+      <c r="T43" s="7"/>
+      <c r="U43" s="7"/>
+      <c r="V43" s="7"/>
+      <c r="W43" s="7"/>
+      <c r="X43" s="7"/>
+      <c r="Y43" s="7"/>
+      <c r="Z43" s="7"/>
+      <c r="AA43" s="7"/>
+      <c r="AB43" s="7"/>
+      <c r="AC43" s="7"/>
+      <c r="AD43" s="7"/>
+      <c r="AE43" s="7"/>
+      <c r="AF43" s="7"/>
+    </row>
+    <row r="44" spans="3:32">
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="7"/>
+      <c r="R44" s="7"/>
+      <c r="S44" s="7"/>
+      <c r="T44" s="7"/>
+      <c r="U44" s="7"/>
+      <c r="V44" s="7"/>
+      <c r="W44" s="7"/>
+      <c r="X44" s="7"/>
+      <c r="Y44" s="7"/>
+      <c r="Z44" s="7"/>
+      <c r="AA44" s="7"/>
+      <c r="AB44" s="7"/>
+      <c r="AC44" s="7"/>
+      <c r="AD44" s="7"/>
+      <c r="AE44" s="7"/>
+      <c r="AF44" s="7"/>
+    </row>
+    <row r="45" spans="3:32">
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="7"/>
+      <c r="R45" s="7"/>
+      <c r="S45" s="7"/>
+      <c r="T45" s="7"/>
+      <c r="U45" s="7"/>
+      <c r="V45" s="7"/>
+      <c r="W45" s="7"/>
+      <c r="X45" s="7"/>
+      <c r="Y45" s="7"/>
+      <c r="Z45" s="7"/>
+      <c r="AA45" s="7"/>
+      <c r="AB45" s="7"/>
+      <c r="AC45" s="7"/>
+      <c r="AD45" s="7"/>
+      <c r="AE45" s="7"/>
+      <c r="AF45" s="7"/>
+    </row>
+    <row r="46" spans="3:32">
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="7"/>
+      <c r="R46" s="7"/>
+      <c r="S46" s="7"/>
+      <c r="T46" s="7"/>
+      <c r="U46" s="7"/>
+      <c r="V46" s="7"/>
+      <c r="W46" s="7"/>
+      <c r="X46" s="7"/>
+      <c r="Y46" s="7"/>
+      <c r="Z46" s="7"/>
+      <c r="AA46" s="7"/>
+      <c r="AB46" s="7"/>
+      <c r="AC46" s="7"/>
+      <c r="AD46" s="7"/>
+      <c r="AE46" s="7"/>
+      <c r="AF46" s="7"/>
+    </row>
+    <row r="47" spans="3:32">
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="7"/>
+      <c r="S47" s="7"/>
+      <c r="T47" s="7"/>
+      <c r="U47" s="7"/>
+      <c r="V47" s="7"/>
+      <c r="W47" s="7"/>
+      <c r="X47" s="7"/>
+      <c r="Y47" s="7"/>
+      <c r="Z47" s="7"/>
+      <c r="AA47" s="7"/>
+      <c r="AB47" s="7"/>
+      <c r="AC47" s="7"/>
+      <c r="AD47" s="7"/>
+      <c r="AE47" s="7"/>
+      <c r="AF47" s="7"/>
+    </row>
+    <row r="48" spans="3:32">
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+      <c r="P48" s="7"/>
+      <c r="Q48" s="7"/>
+      <c r="R48" s="7"/>
+      <c r="S48" s="7"/>
+      <c r="T48" s="7"/>
+      <c r="U48" s="7"/>
+      <c r="V48" s="7"/>
+      <c r="W48" s="7"/>
+      <c r="X48" s="7"/>
+      <c r="Y48" s="7"/>
+      <c r="Z48" s="7"/>
+      <c r="AA48" s="7"/>
+      <c r="AB48" s="7"/>
+      <c r="AC48" s="7"/>
+      <c r="AD48" s="7"/>
+      <c r="AE48" s="7"/>
+      <c r="AF48" s="7"/>
+    </row>
+    <row r="49" spans="3:32">
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
+      <c r="P49" s="7"/>
+      <c r="Q49" s="7"/>
+      <c r="R49" s="7"/>
+      <c r="S49" s="7"/>
+      <c r="T49" s="7"/>
+      <c r="U49" s="7"/>
+      <c r="V49" s="7"/>
+      <c r="W49" s="7"/>
+      <c r="X49" s="7"/>
+      <c r="Y49" s="7"/>
+      <c r="Z49" s="7"/>
+      <c r="AA49" s="7"/>
+      <c r="AB49" s="7"/>
+      <c r="AC49" s="7"/>
+      <c r="AD49" s="7"/>
+      <c r="AE49" s="7"/>
+      <c r="AF49" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A19:B21"/>
+    <mergeCell ref="C6:D17"/>
+    <mergeCell ref="A22:A30"/>
+    <mergeCell ref="B22:B30"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:AV40"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A40" sqref="A40:AF40"/>
     </sheetView>
   </sheetViews>
@@ -3840,136 +7376,136 @@
       </c>
     </row>
     <row r="20" spans="1:48">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="H20" s="7" t="s">
+      <c r="H20" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="I20" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="J20" s="7" t="s">
+      <c r="J20" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="K20" s="19" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="21" spans="1:48">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
     </row>
     <row r="22" spans="1:48">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
     </row>
     <row r="23" spans="1:48">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
     </row>
     <row r="24" spans="1:48">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
     </row>
     <row r="25" spans="1:48">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
     </row>
     <row r="27" spans="1:48">
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="20" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="28" spans="1:48">
-      <c r="D28" s="7"/>
-      <c r="E28" s="8"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="20"/>
     </row>
     <row r="29" spans="1:48">
-      <c r="D29" s="7"/>
-      <c r="E29" s="8"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="20"/>
     </row>
     <row r="30" spans="1:48">
-      <c r="D30" s="7"/>
-      <c r="E30" s="8"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="20"/>
     </row>
     <row r="31" spans="1:48">
-      <c r="D31" s="7"/>
-      <c r="E31" s="8"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="20"/>
     </row>
     <row r="32" spans="1:48">
-      <c r="D32" s="7"/>
-      <c r="E32" s="8"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="20"/>
     </row>
     <row r="33" spans="1:32">
-      <c r="D33" s="7"/>
-      <c r="E33" s="8"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="20"/>
     </row>
     <row r="40" spans="1:32" ht="15">
       <c r="A40" t="s">
@@ -4090,2264 +7626,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
-  <dimension ref="A3:F35"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22:F35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
-  <cols>
-    <col min="1" max="1" width="22" style="9" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="27.42578125" style="9" customWidth="1"/>
-    <col min="6" max="6" width="26.42578125" style="9" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="9"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:6" s="27" customFormat="1" ht="18.75">
-      <c r="B3" s="28" t="s">
-        <v>240</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="27" customFormat="1" ht="18.75">
-      <c r="B4" s="28" t="s">
-        <v>241</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A6" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="C7" s="13">
-        <v>51821</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="E7" s="23">
-        <v>2</v>
-      </c>
-      <c r="F7" s="23" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="C8" s="13">
-        <v>51821</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="E8" s="23">
-        <v>12</v>
-      </c>
-      <c r="F8" s="23" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="C9" s="13">
-        <v>51821</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E9" s="23">
-        <v>35</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="C10" s="13">
-        <v>51821</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="E10" s="23">
-        <v>4</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="C11" s="13">
-        <v>4999</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="E11" s="13">
-        <v>39</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="C12" s="13">
-        <v>4999</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="E12" s="13">
-        <v>38</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="C13" s="13">
-        <v>4999</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>182</v>
-      </c>
-      <c r="E13" s="13">
-        <v>40</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="C14" s="13">
-        <v>4999</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="E14" s="13">
-        <v>13</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="C15" s="12">
-        <v>5606</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="E15" s="23">
-        <v>6</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="C16" s="12">
-        <v>5606</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E16" s="23">
-        <v>10</v>
-      </c>
-      <c r="F16" s="23" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="14" t="s">
-        <v>235</v>
-      </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="F19" s="16"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="17"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="19"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="20"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="22"/>
-    </row>
-    <row r="22" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A22" s="25" t="s">
-        <v>231</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>232</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>233</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>234</v>
-      </c>
-      <c r="E22" s="26" t="s">
-        <v>237</v>
-      </c>
-      <c r="F22" s="25" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="25"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="25"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="25"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="25"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="25"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="25"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="25"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="25"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="25"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="25"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="25"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="25"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="D29" s="25"/>
-      <c r="F29" s="25"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="D30" s="25"/>
-      <c r="F30" s="25"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="D31" s="25"/>
-      <c r="F31" s="25"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="D32" s="25"/>
-      <c r="F32" s="25"/>
-    </row>
-    <row r="33" spans="4:6">
-      <c r="D33" s="25"/>
-      <c r="F33" s="25"/>
-    </row>
-    <row r="34" spans="4:6">
-      <c r="D34" s="25"/>
-      <c r="F34" s="25"/>
-    </row>
-    <row r="35" spans="4:6">
-      <c r="D35" s="25"/>
-      <c r="F35" s="25"/>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="E22:E28"/>
-    <mergeCell ref="D22:D35"/>
-    <mergeCell ref="A19:D21"/>
-    <mergeCell ref="E19:F21"/>
-    <mergeCell ref="F22:F35"/>
-    <mergeCell ref="A22:A28"/>
-    <mergeCell ref="B22:B28"/>
-    <mergeCell ref="C22:C28"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
-  <dimension ref="A3:AF50"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="U23" sqref="U23:U31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
-  <cols>
-    <col min="1" max="1" width="22" style="9" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" style="12" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" style="12" customWidth="1"/>
-    <col min="6" max="7" width="18.42578125" style="12" customWidth="1"/>
-    <col min="8" max="8" width="27.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35" style="9" customWidth="1"/>
-    <col min="11" max="11" width="27.42578125" style="9" customWidth="1"/>
-    <col min="12" max="12" width="27.85546875" style="12" customWidth="1"/>
-    <col min="13" max="13" width="28.42578125" style="9" customWidth="1"/>
-    <col min="14" max="14" width="39.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26" style="12" customWidth="1"/>
-    <col min="16" max="16" width="24.28515625" style="12" customWidth="1"/>
-    <col min="17" max="17" width="23.85546875" style="12" customWidth="1"/>
-    <col min="18" max="18" width="24.140625" style="12" customWidth="1"/>
-    <col min="19" max="19" width="18.42578125" style="12" customWidth="1"/>
-    <col min="20" max="20" width="24.85546875" style="12" customWidth="1"/>
-    <col min="21" max="21" width="18.42578125" style="12" customWidth="1"/>
-    <col min="22" max="22" width="27" style="12" customWidth="1"/>
-    <col min="23" max="23" width="27.42578125" style="12" customWidth="1"/>
-    <col min="24" max="24" width="18.42578125" style="12" customWidth="1"/>
-    <col min="25" max="25" width="20.7109375" style="12" customWidth="1"/>
-    <col min="26" max="26" width="18.42578125" style="12" customWidth="1"/>
-    <col min="27" max="27" width="21.42578125" style="12" customWidth="1"/>
-    <col min="28" max="30" width="18.42578125" style="12" customWidth="1"/>
-    <col min="31" max="31" width="13.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="24.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="33" max="16384" width="9.140625" style="9"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:32" s="27" customFormat="1" ht="18.75">
-      <c r="B3" s="28" t="s">
-        <v>240</v>
-      </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="27" t="s">
-        <v>238</v>
-      </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31"/>
-      <c r="U3" s="31"/>
-      <c r="V3" s="31"/>
-      <c r="W3" s="31"/>
-      <c r="X3" s="31"/>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="31"/>
-      <c r="AA3" s="31"/>
-      <c r="AB3" s="31"/>
-      <c r="AC3" s="31"/>
-      <c r="AD3" s="31"/>
-      <c r="AE3" s="31"/>
-      <c r="AF3" s="31"/>
-    </row>
-    <row r="4" spans="1:32" s="27" customFormat="1" ht="18.75">
-      <c r="B4" s="28" t="s">
-        <v>241</v>
-      </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="27" t="s">
-        <v>245</v>
-      </c>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="31"/>
-      <c r="Z4" s="31"/>
-      <c r="AA4" s="31"/>
-      <c r="AB4" s="31"/>
-      <c r="AC4" s="31"/>
-      <c r="AD4" s="31"/>
-      <c r="AE4" s="31"/>
-      <c r="AF4" s="31"/>
-    </row>
-    <row r="6" spans="1:32" ht="27.75" customHeight="1">
-      <c r="A6" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="L6" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="M6" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="N6" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="O6" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="P6" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q6" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="R6" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="S6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="T6" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="U6" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="V6" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="W6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="X6" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y6" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z6" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="AA6" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB6" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC6" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="AE6" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF6" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" s="30" customFormat="1">
-      <c r="A7" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>351</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>269</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="G7" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="H7" s="24" t="s">
-        <v>250</v>
-      </c>
-      <c r="I7" s="24" t="s">
-        <v>246</v>
-      </c>
-      <c r="J7" s="24" t="s">
-        <v>261</v>
-      </c>
-      <c r="K7" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="L7" s="24" t="s">
-        <v>251</v>
-      </c>
-      <c r="M7" s="24" t="s">
-        <v>263</v>
-      </c>
-      <c r="N7" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="O7" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="P7" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q7" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="R7" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="S7" s="24" t="s">
-        <v>265</v>
-      </c>
-      <c r="T7" s="24" t="s">
-        <v>267</v>
-      </c>
-      <c r="U7" s="24" t="s">
-        <v>266</v>
-      </c>
-      <c r="V7" s="24" t="s">
-        <v>265</v>
-      </c>
-      <c r="W7" s="24" t="s">
-        <v>266</v>
-      </c>
-      <c r="X7" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y7" s="24" t="s">
-        <v>268</v>
-      </c>
-      <c r="Z7" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA7" s="24" t="s">
-        <v>250</v>
-      </c>
-      <c r="AB7" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC7" s="29" t="s">
-        <v>254</v>
-      </c>
-      <c r="AD7" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE7" s="29" t="s">
-        <v>264</v>
-      </c>
-      <c r="AF7" s="29" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" s="30" customFormat="1">
-      <c r="A8" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>351</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>269</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="G8" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="H8" s="24" t="s">
-        <v>250</v>
-      </c>
-      <c r="I8" s="24" t="s">
-        <v>246</v>
-      </c>
-      <c r="J8" s="24" t="s">
-        <v>261</v>
-      </c>
-      <c r="K8" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="L8" s="24" t="s">
-        <v>251</v>
-      </c>
-      <c r="M8" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="N8" s="24" t="s">
-        <v>255</v>
-      </c>
-      <c r="O8" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="P8" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q8" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="R8" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="S8" s="24" t="s">
-        <v>265</v>
-      </c>
-      <c r="T8" s="24" t="s">
-        <v>272</v>
-      </c>
-      <c r="U8" s="24" t="s">
-        <v>271</v>
-      </c>
-      <c r="V8" s="24" t="s">
-        <v>265</v>
-      </c>
-      <c r="W8" s="24" t="s">
-        <v>271</v>
-      </c>
-      <c r="X8" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y8" s="24" t="s">
-        <v>268</v>
-      </c>
-      <c r="Z8" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA8" s="24" t="s">
-        <v>250</v>
-      </c>
-      <c r="AB8" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC8" s="29" t="s">
-        <v>257</v>
-      </c>
-      <c r="AD8" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE8" s="29" t="s">
-        <v>264</v>
-      </c>
-      <c r="AF8" s="29" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" s="30" customFormat="1">
-      <c r="A9" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>351</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>269</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="H9" s="24" t="s">
-        <v>250</v>
-      </c>
-      <c r="I9" s="24" t="s">
-        <v>246</v>
-      </c>
-      <c r="J9" s="24" t="s">
-        <v>261</v>
-      </c>
-      <c r="K9" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="L9" s="24" t="s">
-        <v>251</v>
-      </c>
-      <c r="M9" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="N9" s="24" t="s">
-        <v>258</v>
-      </c>
-      <c r="O9" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="P9" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q9" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="R9" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="S9" s="24" t="s">
-        <v>274</v>
-      </c>
-      <c r="T9" s="24" t="s">
-        <v>276</v>
-      </c>
-      <c r="U9" s="24" t="s">
-        <v>275</v>
-      </c>
-      <c r="V9" s="24" t="s">
-        <v>274</v>
-      </c>
-      <c r="W9" s="24" t="s">
-        <v>275</v>
-      </c>
-      <c r="X9" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y9" s="24" t="s">
-        <v>268</v>
-      </c>
-      <c r="Z9" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA9" s="24" t="s">
-        <v>250</v>
-      </c>
-      <c r="AB9" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC9" s="29" t="s">
-        <v>260</v>
-      </c>
-      <c r="AD9" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE9" s="29" t="s">
-        <v>264</v>
-      </c>
-      <c r="AF9" s="29" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="10" spans="1:32" s="30" customFormat="1">
-      <c r="A10" s="29" t="s">
-        <v>278</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>351</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>252</v>
-      </c>
-      <c r="E10" s="29" t="s">
-        <v>305</v>
-      </c>
-      <c r="F10" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" s="29" t="s">
-        <v>253</v>
-      </c>
-      <c r="H10" s="29" t="s">
-        <v>282</v>
-      </c>
-      <c r="I10" s="29" t="s">
-        <v>277</v>
-      </c>
-      <c r="J10" s="29" t="s">
-        <v>299</v>
-      </c>
-      <c r="K10" s="29" t="s">
-        <v>262</v>
-      </c>
-      <c r="L10" s="29" t="s">
-        <v>251</v>
-      </c>
-      <c r="M10" s="29" t="s">
-        <v>300</v>
-      </c>
-      <c r="N10" s="29" t="s">
-        <v>279</v>
-      </c>
-      <c r="O10" s="29" t="s">
-        <v>302</v>
-      </c>
-      <c r="P10" s="29" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q10" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="R10" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="S10" s="29" t="s">
-        <v>265</v>
-      </c>
-      <c r="T10" s="29" t="s">
-        <v>304</v>
-      </c>
-      <c r="U10" s="29" t="s">
-        <v>303</v>
-      </c>
-      <c r="V10" s="29" t="s">
-        <v>265</v>
-      </c>
-      <c r="W10" s="29" t="s">
-        <v>303</v>
-      </c>
-      <c r="X10" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y10" s="29" t="s">
-        <v>268</v>
-      </c>
-      <c r="Z10" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA10" s="29" t="s">
-        <v>282</v>
-      </c>
-      <c r="AB10" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC10" s="29" t="s">
-        <v>283</v>
-      </c>
-      <c r="AD10" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE10" s="29" t="s">
-        <v>301</v>
-      </c>
-      <c r="AF10" s="29" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32" s="30" customFormat="1">
-      <c r="A11" s="29" t="s">
-        <v>278</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>351</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>252</v>
-      </c>
-      <c r="E11" s="29" t="s">
-        <v>305</v>
-      </c>
-      <c r="F11" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G11" s="29" t="s">
-        <v>253</v>
-      </c>
-      <c r="H11" s="29" t="s">
-        <v>282</v>
-      </c>
-      <c r="I11" s="29" t="s">
-        <v>277</v>
-      </c>
-      <c r="J11" s="29" t="s">
-        <v>299</v>
-      </c>
-      <c r="K11" s="29" t="s">
-        <v>262</v>
-      </c>
-      <c r="L11" s="29" t="s">
-        <v>251</v>
-      </c>
-      <c r="M11" s="29" t="s">
-        <v>306</v>
-      </c>
-      <c r="N11" s="29" t="s">
-        <v>284</v>
-      </c>
-      <c r="O11" s="29" t="s">
-        <v>302</v>
-      </c>
-      <c r="P11" s="29" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q11" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="R11" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="S11" s="29" t="s">
-        <v>265</v>
-      </c>
-      <c r="T11" s="29" t="s">
-        <v>304</v>
-      </c>
-      <c r="U11" s="29" t="s">
-        <v>303</v>
-      </c>
-      <c r="V11" s="29" t="s">
-        <v>265</v>
-      </c>
-      <c r="W11" s="29" t="s">
-        <v>303</v>
-      </c>
-      <c r="X11" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y11" s="29" t="s">
-        <v>268</v>
-      </c>
-      <c r="Z11" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA11" s="29" t="s">
-        <v>282</v>
-      </c>
-      <c r="AB11" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC11" s="29" t="s">
-        <v>285</v>
-      </c>
-      <c r="AD11" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE11" s="29" t="s">
-        <v>301</v>
-      </c>
-      <c r="AF11" s="29" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="12" spans="1:32" s="30" customFormat="1">
-      <c r="A12" s="29" t="s">
-        <v>278</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>351</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>252</v>
-      </c>
-      <c r="E12" s="29" t="s">
-        <v>305</v>
-      </c>
-      <c r="F12" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G12" s="29" t="s">
-        <v>253</v>
-      </c>
-      <c r="H12" s="29" t="s">
-        <v>282</v>
-      </c>
-      <c r="I12" s="29" t="s">
-        <v>277</v>
-      </c>
-      <c r="J12" s="29" t="s">
-        <v>299</v>
-      </c>
-      <c r="K12" s="29" t="s">
-        <v>262</v>
-      </c>
-      <c r="L12" s="29" t="s">
-        <v>251</v>
-      </c>
-      <c r="M12" s="29" t="s">
-        <v>307</v>
-      </c>
-      <c r="N12" s="29" t="s">
-        <v>286</v>
-      </c>
-      <c r="O12" s="29" t="s">
-        <v>302</v>
-      </c>
-      <c r="P12" s="29" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q12" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="R12" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="S12" s="29" t="s">
-        <v>265</v>
-      </c>
-      <c r="T12" s="29" t="s">
-        <v>310</v>
-      </c>
-      <c r="U12" s="29" t="s">
-        <v>309</v>
-      </c>
-      <c r="V12" s="29" t="s">
-        <v>265</v>
-      </c>
-      <c r="W12" s="29" t="s">
-        <v>309</v>
-      </c>
-      <c r="X12" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y12" s="29" t="s">
-        <v>268</v>
-      </c>
-      <c r="Z12" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA12" s="29" t="s">
-        <v>282</v>
-      </c>
-      <c r="AB12" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC12" s="29" t="s">
-        <v>288</v>
-      </c>
-      <c r="AD12" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE12" s="29" t="s">
-        <v>308</v>
-      </c>
-      <c r="AF12" s="29" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32" s="30" customFormat="1">
-      <c r="A13" s="29" t="s">
-        <v>278</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>351</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>252</v>
-      </c>
-      <c r="E13" s="29" t="s">
-        <v>305</v>
-      </c>
-      <c r="F13" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G13" s="29" t="s">
-        <v>253</v>
-      </c>
-      <c r="H13" s="29" t="s">
-        <v>282</v>
-      </c>
-      <c r="I13" s="29" t="s">
-        <v>277</v>
-      </c>
-      <c r="J13" s="29" t="s">
-        <v>299</v>
-      </c>
-      <c r="K13" s="29" t="s">
-        <v>262</v>
-      </c>
-      <c r="L13" s="29" t="s">
-        <v>251</v>
-      </c>
-      <c r="M13" s="29" t="s">
-        <v>311</v>
-      </c>
-      <c r="N13" s="29" t="s">
-        <v>289</v>
-      </c>
-      <c r="O13" s="29" t="s">
-        <v>302</v>
-      </c>
-      <c r="P13" s="29" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q13" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="R13" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="S13" s="29" t="s">
-        <v>265</v>
-      </c>
-      <c r="T13" s="29" t="s">
-        <v>313</v>
-      </c>
-      <c r="U13" s="29" t="s">
-        <v>312</v>
-      </c>
-      <c r="V13" s="29" t="s">
-        <v>265</v>
-      </c>
-      <c r="W13" s="29" t="s">
-        <v>312</v>
-      </c>
-      <c r="X13" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y13" s="29" t="s">
-        <v>268</v>
-      </c>
-      <c r="Z13" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA13" s="29" t="s">
-        <v>282</v>
-      </c>
-      <c r="AB13" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC13" s="29" t="s">
-        <v>290</v>
-      </c>
-      <c r="AD13" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE13" s="29" t="s">
-        <v>308</v>
-      </c>
-      <c r="AF13" s="29" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="14" spans="1:32" s="30" customFormat="1">
-      <c r="A14" s="29" t="s">
-        <v>278</v>
-      </c>
-      <c r="B14" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>351</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>252</v>
-      </c>
-      <c r="E14" s="29" t="s">
-        <v>305</v>
-      </c>
-      <c r="F14" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G14" s="29" t="s">
-        <v>253</v>
-      </c>
-      <c r="H14" s="29" t="s">
-        <v>282</v>
-      </c>
-      <c r="I14" s="29" t="s">
-        <v>277</v>
-      </c>
-      <c r="J14" s="29" t="s">
-        <v>299</v>
-      </c>
-      <c r="K14" s="29" t="s">
-        <v>262</v>
-      </c>
-      <c r="L14" s="29" t="s">
-        <v>251</v>
-      </c>
-      <c r="M14" s="29" t="s">
-        <v>314</v>
-      </c>
-      <c r="N14" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="O14" s="29" t="s">
-        <v>302</v>
-      </c>
-      <c r="P14" s="29" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q14" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="R14" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="S14" s="29" t="s">
-        <v>265</v>
-      </c>
-      <c r="T14" s="29" t="s">
-        <v>313</v>
-      </c>
-      <c r="U14" s="29" t="s">
-        <v>312</v>
-      </c>
-      <c r="V14" s="29" t="s">
-        <v>265</v>
-      </c>
-      <c r="W14" s="29" t="s">
-        <v>312</v>
-      </c>
-      <c r="X14" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y14" s="29" t="s">
-        <v>268</v>
-      </c>
-      <c r="Z14" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA14" s="29" t="s">
-        <v>282</v>
-      </c>
-      <c r="AB14" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC14" s="29" t="s">
-        <v>292</v>
-      </c>
-      <c r="AD14" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE14" s="29" t="s">
-        <v>308</v>
-      </c>
-      <c r="AF14" s="29" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32" s="30" customFormat="1">
-      <c r="A15" s="29" t="s">
-        <v>278</v>
-      </c>
-      <c r="B15" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>351</v>
-      </c>
-      <c r="D15" s="29" t="s">
-        <v>252</v>
-      </c>
-      <c r="E15" s="29" t="s">
-        <v>305</v>
-      </c>
-      <c r="F15" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G15" s="29" t="s">
-        <v>253</v>
-      </c>
-      <c r="H15" s="29" t="s">
-        <v>282</v>
-      </c>
-      <c r="I15" s="29" t="s">
-        <v>277</v>
-      </c>
-      <c r="J15" s="29" t="s">
-        <v>299</v>
-      </c>
-      <c r="K15" s="29" t="s">
-        <v>262</v>
-      </c>
-      <c r="L15" s="29" t="s">
-        <v>251</v>
-      </c>
-      <c r="M15" s="29" t="s">
-        <v>315</v>
-      </c>
-      <c r="N15" s="29" t="s">
-        <v>293</v>
-      </c>
-      <c r="O15" s="29" t="s">
-        <v>302</v>
-      </c>
-      <c r="P15" s="29" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q15" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="R15" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="S15" s="29" t="s">
-        <v>265</v>
-      </c>
-      <c r="T15" s="29" t="s">
-        <v>317</v>
-      </c>
-      <c r="U15" s="29" t="s">
-        <v>316</v>
-      </c>
-      <c r="V15" s="29" t="s">
-        <v>265</v>
-      </c>
-      <c r="W15" s="29" t="s">
-        <v>316</v>
-      </c>
-      <c r="X15" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y15" s="29" t="s">
-        <v>268</v>
-      </c>
-      <c r="Z15" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA15" s="29" t="s">
-        <v>282</v>
-      </c>
-      <c r="AB15" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC15" s="29" t="s">
-        <v>294</v>
-      </c>
-      <c r="AD15" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE15" s="29" t="s">
-        <v>308</v>
-      </c>
-      <c r="AF15" s="29" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="16" spans="1:32" s="30" customFormat="1">
-      <c r="A16" s="29" t="s">
-        <v>278</v>
-      </c>
-      <c r="B16" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>351</v>
-      </c>
-      <c r="D16" s="29" t="s">
-        <v>252</v>
-      </c>
-      <c r="E16" s="29" t="s">
-        <v>305</v>
-      </c>
-      <c r="F16" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G16" s="29" t="s">
-        <v>253</v>
-      </c>
-      <c r="H16" s="29" t="s">
-        <v>282</v>
-      </c>
-      <c r="I16" s="29" t="s">
-        <v>277</v>
-      </c>
-      <c r="J16" s="29" t="s">
-        <v>299</v>
-      </c>
-      <c r="K16" s="29" t="s">
-        <v>262</v>
-      </c>
-      <c r="L16" s="29" t="s">
-        <v>251</v>
-      </c>
-      <c r="M16" s="29" t="s">
-        <v>318</v>
-      </c>
-      <c r="N16" s="29" t="s">
-        <v>295</v>
-      </c>
-      <c r="O16" s="29" t="s">
-        <v>302</v>
-      </c>
-      <c r="P16" s="29" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q16" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="R16" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="S16" s="29" t="s">
-        <v>265</v>
-      </c>
-      <c r="T16" s="29" t="s">
-        <v>320</v>
-      </c>
-      <c r="U16" s="29" t="s">
-        <v>319</v>
-      </c>
-      <c r="V16" s="29" t="s">
-        <v>265</v>
-      </c>
-      <c r="W16" s="29" t="s">
-        <v>319</v>
-      </c>
-      <c r="X16" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y16" s="29" t="s">
-        <v>268</v>
-      </c>
-      <c r="Z16" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA16" s="29" t="s">
-        <v>282</v>
-      </c>
-      <c r="AB16" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC16" s="29" t="s">
-        <v>296</v>
-      </c>
-      <c r="AD16" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE16" s="29" t="s">
-        <v>308</v>
-      </c>
-      <c r="AF16" s="29" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="17" spans="1:32" s="30" customFormat="1">
-      <c r="A17" s="29" t="s">
-        <v>278</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>351</v>
-      </c>
-      <c r="D17" s="29" t="s">
-        <v>252</v>
-      </c>
-      <c r="E17" s="29" t="s">
-        <v>305</v>
-      </c>
-      <c r="F17" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G17" s="29" t="s">
-        <v>253</v>
-      </c>
-      <c r="H17" s="29" t="s">
-        <v>282</v>
-      </c>
-      <c r="I17" s="29" t="s">
-        <v>277</v>
-      </c>
-      <c r="J17" s="29" t="s">
-        <v>299</v>
-      </c>
-      <c r="K17" s="29" t="s">
-        <v>262</v>
-      </c>
-      <c r="L17" s="29" t="s">
-        <v>251</v>
-      </c>
-      <c r="M17" s="29" t="s">
-        <v>321</v>
-      </c>
-      <c r="N17" s="29" t="s">
-        <v>297</v>
-      </c>
-      <c r="O17" s="29" t="s">
-        <v>302</v>
-      </c>
-      <c r="P17" s="29" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q17" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="R17" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="S17" s="29" t="s">
-        <v>265</v>
-      </c>
-      <c r="T17" s="29" t="s">
-        <v>323</v>
-      </c>
-      <c r="U17" s="29" t="s">
-        <v>322</v>
-      </c>
-      <c r="V17" s="29" t="s">
-        <v>265</v>
-      </c>
-      <c r="W17" s="29" t="s">
-        <v>322</v>
-      </c>
-      <c r="X17" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y17" s="29" t="s">
-        <v>268</v>
-      </c>
-      <c r="Z17" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA17" s="29" t="s">
-        <v>282</v>
-      </c>
-      <c r="AB17" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC17" s="29" t="s">
-        <v>298</v>
-      </c>
-      <c r="AD17" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE17" s="29" t="s">
-        <v>308</v>
-      </c>
-      <c r="AF17" s="29" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="18" spans="1:32" s="30" customFormat="1">
-      <c r="A18" s="29"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="29"/>
-      <c r="S18" s="29"/>
-      <c r="T18" s="29"/>
-      <c r="U18" s="29"/>
-      <c r="V18" s="29"/>
-      <c r="W18" s="29"/>
-      <c r="X18" s="29"/>
-      <c r="Y18" s="29"/>
-      <c r="Z18" s="29"/>
-      <c r="AA18" s="29"/>
-      <c r="AB18" s="29"/>
-      <c r="AC18" s="29"/>
-      <c r="AD18" s="29"/>
-      <c r="AE18" s="29"/>
-      <c r="AF18" s="29"/>
-    </row>
-    <row r="19" spans="1:32">
-      <c r="A19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="12"/>
-      <c r="M19" s="12"/>
-    </row>
-    <row r="20" spans="1:32" ht="11.25" customHeight="1">
-      <c r="A20" s="32" t="s">
-        <v>324</v>
-      </c>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="33"/>
-      <c r="O20" s="33"/>
-      <c r="P20" s="33"/>
-      <c r="Q20" s="33"/>
-      <c r="R20" s="33"/>
-      <c r="S20" s="33"/>
-      <c r="T20" s="33"/>
-      <c r="U20" s="33"/>
-      <c r="V20" s="33"/>
-      <c r="W20" s="34"/>
-    </row>
-    <row r="21" spans="1:32" ht="11.25" customHeight="1">
-      <c r="A21" s="35"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="36"/>
-      <c r="S21" s="36"/>
-      <c r="T21" s="36"/>
-      <c r="U21" s="36"/>
-      <c r="V21" s="36"/>
-      <c r="W21" s="37"/>
-    </row>
-    <row r="22" spans="1:32" ht="11.25" customHeight="1">
-      <c r="A22" s="38"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="39"/>
-      <c r="O22" s="39"/>
-      <c r="P22" s="39"/>
-      <c r="Q22" s="39"/>
-      <c r="R22" s="39"/>
-      <c r="S22" s="39"/>
-      <c r="T22" s="39"/>
-      <c r="U22" s="39"/>
-      <c r="V22" s="39"/>
-      <c r="W22" s="40"/>
-    </row>
-    <row r="23" spans="1:32" ht="11.25" customHeight="1">
-      <c r="A23" s="25" t="s">
-        <v>325</v>
-      </c>
-      <c r="B23" s="42" t="s">
-        <v>344</v>
-      </c>
-      <c r="C23" s="42" t="s">
-        <v>350</v>
-      </c>
-      <c r="D23" s="43" t="s">
-        <v>345</v>
-      </c>
-      <c r="E23" s="43" t="s">
-        <v>348</v>
-      </c>
-      <c r="F23" s="42" t="s">
-        <v>346</v>
-      </c>
-      <c r="G23" s="42" t="s">
-        <v>347</v>
-      </c>
-      <c r="H23" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="I23" s="25" t="s">
-        <v>326</v>
-      </c>
-      <c r="J23" s="25" t="s">
-        <v>327</v>
-      </c>
-      <c r="K23" s="41" t="s">
-        <v>328</v>
-      </c>
-      <c r="L23" s="42" t="s">
-        <v>349</v>
-      </c>
-      <c r="M23" s="25" t="s">
-        <v>329</v>
-      </c>
-      <c r="N23" s="25" t="s">
-        <v>330</v>
-      </c>
-      <c r="O23" s="25" t="s">
-        <v>331</v>
-      </c>
-      <c r="P23" s="25" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q23" s="25" t="s">
-        <v>333</v>
-      </c>
-      <c r="R23" s="43" t="s">
-        <v>334</v>
-      </c>
-      <c r="S23" s="43" t="s">
-        <v>339</v>
-      </c>
-      <c r="T23" s="43" t="s">
-        <v>338</v>
-      </c>
-      <c r="U23" s="43" t="s">
-        <v>340</v>
-      </c>
-      <c r="V23" s="25" t="s">
-        <v>337</v>
-      </c>
-      <c r="W23" s="25" t="s">
-        <v>336</v>
-      </c>
-      <c r="Y23" s="25" t="s">
-        <v>341</v>
-      </c>
-      <c r="Z23" s="25" t="s">
-        <v>342</v>
-      </c>
-      <c r="AA23" s="25" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="24" spans="1:32" ht="11.25" customHeight="1">
-      <c r="A24" s="25"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="25"/>
-      <c r="Q24" s="25"/>
-      <c r="R24" s="43"/>
-      <c r="S24" s="43"/>
-      <c r="T24" s="43"/>
-      <c r="U24" s="43"/>
-      <c r="V24" s="25"/>
-      <c r="W24" s="25"/>
-      <c r="Y24" s="25"/>
-      <c r="Z24" s="25"/>
-      <c r="AA24" s="25"/>
-    </row>
-    <row r="25" spans="1:32">
-      <c r="A25" s="25"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="25"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="25"/>
-      <c r="Q25" s="25"/>
-      <c r="R25" s="43"/>
-      <c r="S25" s="43"/>
-      <c r="T25" s="43"/>
-      <c r="U25" s="43"/>
-      <c r="V25" s="25"/>
-      <c r="W25" s="25"/>
-      <c r="Y25" s="25"/>
-      <c r="Z25" s="25"/>
-      <c r="AA25" s="25"/>
-    </row>
-    <row r="26" spans="1:32">
-      <c r="A26" s="25"/>
-      <c r="B26" s="42"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="41"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="25"/>
-      <c r="P26" s="25"/>
-      <c r="Q26" s="25"/>
-      <c r="R26" s="43"/>
-      <c r="S26" s="43"/>
-      <c r="T26" s="43"/>
-      <c r="U26" s="43"/>
-      <c r="V26" s="25"/>
-      <c r="W26" s="25"/>
-      <c r="Y26" s="25"/>
-      <c r="Z26" s="25"/>
-      <c r="AA26" s="25"/>
-    </row>
-    <row r="27" spans="1:32">
-      <c r="A27" s="25"/>
-      <c r="B27" s="42"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="41"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="25"/>
-      <c r="N27" s="25"/>
-      <c r="O27" s="25"/>
-      <c r="P27" s="25"/>
-      <c r="Q27" s="25"/>
-      <c r="R27" s="43"/>
-      <c r="S27" s="43"/>
-      <c r="T27" s="43"/>
-      <c r="U27" s="43"/>
-      <c r="V27" s="25"/>
-      <c r="W27" s="25"/>
-      <c r="Y27" s="25"/>
-      <c r="Z27" s="25"/>
-      <c r="AA27" s="25"/>
-    </row>
-    <row r="28" spans="1:32">
-      <c r="A28" s="25"/>
-      <c r="B28" s="42"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="42"/>
-      <c r="M28" s="25"/>
-      <c r="N28" s="25"/>
-      <c r="O28" s="25"/>
-      <c r="P28" s="25"/>
-      <c r="Q28" s="25"/>
-      <c r="R28" s="43"/>
-      <c r="S28" s="43"/>
-      <c r="T28" s="43"/>
-      <c r="U28" s="43"/>
-      <c r="V28" s="25"/>
-      <c r="W28" s="25"/>
-      <c r="Y28" s="25"/>
-      <c r="Z28" s="25"/>
-      <c r="AA28" s="25"/>
-    </row>
-    <row r="29" spans="1:32">
-      <c r="A29" s="25"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="41"/>
-      <c r="L29" s="42"/>
-      <c r="M29" s="25"/>
-      <c r="N29" s="25"/>
-      <c r="O29" s="25"/>
-      <c r="P29" s="25"/>
-      <c r="Q29" s="25"/>
-      <c r="R29" s="43"/>
-      <c r="S29" s="43"/>
-      <c r="T29" s="43"/>
-      <c r="U29" s="43"/>
-      <c r="V29" s="25"/>
-      <c r="W29" s="25"/>
-      <c r="Y29" s="25"/>
-      <c r="Z29" s="25"/>
-      <c r="AA29" s="25"/>
-    </row>
-    <row r="30" spans="1:32">
-      <c r="A30" s="25"/>
-      <c r="B30" s="42"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="41"/>
-      <c r="L30" s="42"/>
-      <c r="M30" s="25"/>
-      <c r="N30" s="25"/>
-      <c r="O30" s="25"/>
-      <c r="P30" s="25"/>
-      <c r="Q30" s="25"/>
-      <c r="R30" s="43"/>
-      <c r="S30" s="43"/>
-      <c r="T30" s="43"/>
-      <c r="U30" s="43"/>
-      <c r="V30" s="25"/>
-      <c r="W30" s="25"/>
-      <c r="Y30" s="25"/>
-      <c r="Z30" s="25"/>
-      <c r="AA30" s="25"/>
-    </row>
-    <row r="31" spans="1:32">
-      <c r="A31" s="25"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="42"/>
-      <c r="M31" s="25"/>
-      <c r="N31" s="25"/>
-      <c r="O31" s="25"/>
-      <c r="P31" s="25"/>
-      <c r="Q31" s="25"/>
-      <c r="R31" s="43"/>
-      <c r="S31" s="43"/>
-      <c r="T31" s="43"/>
-      <c r="U31" s="43"/>
-      <c r="V31" s="25"/>
-      <c r="W31" s="25"/>
-      <c r="Y31" s="25"/>
-      <c r="Z31" s="25"/>
-      <c r="AA31" s="25"/>
-    </row>
-    <row r="32" spans="1:32">
-      <c r="K32" s="41"/>
-      <c r="V32" s="25"/>
-      <c r="W32" s="25"/>
-      <c r="X32" s="12" t="s">
-        <v>352</v>
-      </c>
-      <c r="AD32" s="9"/>
-      <c r="AE32" s="9"/>
-      <c r="AF32" s="9"/>
-    </row>
-    <row r="33" spans="11:32">
-      <c r="K33" s="41"/>
-      <c r="V33" s="25"/>
-      <c r="W33" s="25"/>
-      <c r="X33" s="12" t="s">
-        <v>353</v>
-      </c>
-      <c r="AD33" s="9"/>
-      <c r="AE33" s="9"/>
-      <c r="AF33" s="9"/>
-    </row>
-    <row r="34" spans="11:32">
-      <c r="V34" s="25"/>
-      <c r="W34" s="25"/>
-      <c r="X34" s="12" t="s">
-        <v>354</v>
-      </c>
-      <c r="AD34" s="9"/>
-      <c r="AE34" s="9"/>
-      <c r="AF34" s="9"/>
-    </row>
-    <row r="35" spans="11:32">
-      <c r="V35" s="25"/>
-      <c r="W35" s="25"/>
-      <c r="X35" s="12" t="s">
-        <v>355</v>
-      </c>
-      <c r="AD35" s="9"/>
-      <c r="AE35" s="9"/>
-      <c r="AF35" s="9"/>
-    </row>
-    <row r="36" spans="11:32">
-      <c r="V36" s="25"/>
-      <c r="W36" s="25"/>
-      <c r="X36" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="AD36" s="9"/>
-      <c r="AE36" s="9"/>
-      <c r="AF36" s="9"/>
-    </row>
-    <row r="37" spans="11:32">
-      <c r="AD37" s="9"/>
-      <c r="AE37" s="9"/>
-      <c r="AF37" s="9"/>
-    </row>
-    <row r="38" spans="11:32">
-      <c r="AD38" s="9"/>
-      <c r="AE38" s="9"/>
-      <c r="AF38" s="9"/>
-    </row>
-    <row r="39" spans="11:32">
-      <c r="AD39" s="9"/>
-      <c r="AE39" s="9"/>
-      <c r="AF39" s="9"/>
-    </row>
-    <row r="40" spans="11:32">
-      <c r="AD40" s="9"/>
-      <c r="AE40" s="9"/>
-      <c r="AF40" s="9"/>
-    </row>
-    <row r="41" spans="11:32">
-      <c r="AD41" s="9"/>
-      <c r="AE41" s="9"/>
-      <c r="AF41" s="9"/>
-    </row>
-    <row r="42" spans="11:32">
-      <c r="AD42" s="9"/>
-      <c r="AE42" s="9"/>
-      <c r="AF42" s="9"/>
-    </row>
-    <row r="43" spans="11:32">
-      <c r="AD43" s="9"/>
-      <c r="AE43" s="9"/>
-      <c r="AF43" s="9"/>
-    </row>
-    <row r="44" spans="11:32">
-      <c r="AD44" s="9"/>
-      <c r="AE44" s="9"/>
-      <c r="AF44" s="9"/>
-    </row>
-    <row r="45" spans="11:32">
-      <c r="AD45" s="9"/>
-      <c r="AE45" s="9"/>
-      <c r="AF45" s="9"/>
-    </row>
-    <row r="46" spans="11:32">
-      <c r="AD46" s="9"/>
-      <c r="AE46" s="9"/>
-      <c r="AF46" s="9"/>
-    </row>
-    <row r="47" spans="11:32">
-      <c r="AD47" s="9"/>
-      <c r="AE47" s="9"/>
-      <c r="AF47" s="9"/>
-    </row>
-    <row r="48" spans="11:32">
-      <c r="AD48" s="9"/>
-      <c r="AE48" s="9"/>
-      <c r="AF48" s="9"/>
-    </row>
-    <row r="49" spans="30:32">
-      <c r="AD49" s="9"/>
-      <c r="AE49" s="9"/>
-      <c r="AF49" s="9"/>
-    </row>
-    <row r="50" spans="30:32">
-      <c r="AD50" s="9"/>
-      <c r="AE50" s="9"/>
-      <c r="AF50" s="9"/>
-    </row>
-  </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="C23:C31"/>
-    <mergeCell ref="D23:D31"/>
-    <mergeCell ref="F23:F31"/>
-    <mergeCell ref="G23:G31"/>
-    <mergeCell ref="E23:E31"/>
-    <mergeCell ref="L23:L31"/>
-    <mergeCell ref="Y23:Y31"/>
-    <mergeCell ref="Z23:Z31"/>
-    <mergeCell ref="AA23:AA31"/>
-    <mergeCell ref="B23:B31"/>
-    <mergeCell ref="V23:V36"/>
-    <mergeCell ref="W23:W36"/>
-    <mergeCell ref="T23:T31"/>
-    <mergeCell ref="S23:S31"/>
-    <mergeCell ref="U23:U31"/>
-    <mergeCell ref="R23:R31"/>
-    <mergeCell ref="Q23:Q31"/>
-    <mergeCell ref="N23:N31"/>
-    <mergeCell ref="M23:M31"/>
-    <mergeCell ref="O23:O31"/>
-    <mergeCell ref="P23:P31"/>
-    <mergeCell ref="J23:J31"/>
-    <mergeCell ref="A23:A31"/>
-    <mergeCell ref="H23:H31"/>
-    <mergeCell ref="I23:I31"/>
-    <mergeCell ref="K23:K33"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C2:AR49"/>
   <sheetViews>

--- a/Documentação/Planilhas/Conferencia_follow_Relatorio.xlsx
+++ b/Documentação/Planilhas/Conferencia_follow_Relatorio.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="stg_follow_rascunho" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="366">
   <si>
     <t>ds_chave</t>
   </si>
@@ -1101,9 +1101,6 @@
     <t>Não tem dados para a sequência da natureza da operação</t>
   </si>
   <si>
-    <t>Não consegui encontrar essas informações no LN]</t>
-  </si>
-  <si>
     <t>com.stg_follow_kit_sige</t>
   </si>
   <si>
@@ -1123,6 +1120,21 @@
   </si>
   <si>
     <t>Não tem dados. Na tabela MIS_SHARED_DIMENSION.dim.ods_produto o campo ds_item_ativo está como "Não" ou "Não se aplica"</t>
+  </si>
+  <si>
+    <t>Não consegui encontrar essas informações no LN</t>
+  </si>
+  <si>
+    <t>Sessão "whwmd4500m000" (Itens Armazenamento"</t>
+  </si>
+  <si>
+    <t>Informar o CD_ITEM na segunda lacuma da coluna "Item" e pedir o detalhamento do mesmo. Na aba superior "Inventário", seção "Dados de Baixa", pegar a informação de "Código ABC"</t>
+  </si>
+  <si>
+    <t>D / B</t>
+  </si>
+  <si>
+    <t>D / C</t>
   </si>
 </sst>
 </file>
@@ -1333,7 +1345,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1383,11 +1395,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1425,24 +1434,6 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1452,43 +1443,58 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1797,7 +1803,7 @@
   <dimension ref="A2:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -2064,128 +2070,128 @@
       <c r="F17" s="10"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="22" t="s">
         <v>235</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="23" t="s">
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="F18" s="25"/>
+      <c r="F18" s="24"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="26"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="28"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="27"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="29"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="31"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="30"/>
     </row>
     <row r="21" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="21" t="s">
         <v>232</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="E21" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="F21" s="21" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="22"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="22"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="21"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="22"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="22"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="21"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="22"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="22"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="21"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="22"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="22"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="21"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="22"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="22"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="21"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="22"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="22"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="21"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="D28" s="22"/>
-      <c r="F28" s="22"/>
+      <c r="D28" s="21"/>
+      <c r="F28" s="21"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="D29" s="22"/>
-      <c r="F29" s="22"/>
+      <c r="D29" s="21"/>
+      <c r="F29" s="21"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="D30" s="22"/>
-      <c r="F30" s="22"/>
+      <c r="D30" s="21"/>
+      <c r="F30" s="21"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="D31" s="22"/>
-      <c r="F31" s="22"/>
+      <c r="D31" s="21"/>
+      <c r="F31" s="21"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="D32" s="22"/>
-      <c r="F32" s="22"/>
+      <c r="D32" s="21"/>
+      <c r="F32" s="21"/>
     </row>
     <row r="33" spans="4:6">
-      <c r="D33" s="22"/>
-      <c r="F33" s="22"/>
+      <c r="D33" s="21"/>
+      <c r="F33" s="21"/>
     </row>
     <row r="34" spans="4:6">
-      <c r="D34" s="22"/>
-      <c r="F34" s="22"/>
+      <c r="D34" s="21"/>
+      <c r="F34" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2210,8 +2216,8 @@
   </sheetPr>
   <dimension ref="A2:AF49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:AC21"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -2230,7 +2236,7 @@
     <col min="13" max="13" width="27.85546875" style="10" customWidth="1"/>
     <col min="14" max="14" width="22" style="10" customWidth="1"/>
     <col min="15" max="15" width="28.42578125" style="7" customWidth="1"/>
-    <col min="16" max="16" width="39.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="39.42578125" style="10" customWidth="1"/>
     <col min="17" max="17" width="26" style="10" customWidth="1"/>
     <col min="18" max="18" width="24.28515625" style="10" customWidth="1"/>
     <col min="19" max="19" width="23.85546875" style="10" customWidth="1"/>
@@ -2244,7 +2250,7 @@
     <col min="27" max="27" width="20.7109375" style="10" customWidth="1"/>
     <col min="28" max="28" width="18.42578125" style="10" customWidth="1"/>
     <col min="29" max="29" width="21.42578125" style="10" customWidth="1"/>
-    <col min="30" max="30" width="18.42578125" style="10" customWidth="1"/>
+    <col min="30" max="30" width="31.7109375" style="10" customWidth="1"/>
     <col min="31" max="31" width="13.5703125" style="10" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="24.7109375" style="10" bestFit="1" customWidth="1"/>
     <col min="33" max="16384" width="9.140625" style="7"/>
@@ -2450,7 +2456,7 @@
       <c r="M6" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="N6" s="16" t="s">
+      <c r="N6" s="13" t="s">
         <v>254</v>
       </c>
       <c r="O6" s="13" t="s">
@@ -2498,13 +2504,13 @@
       <c r="AC6" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="AD6" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE6" s="44" t="s">
+      <c r="AD6" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="AE6" s="19" t="s">
         <v>264</v>
       </c>
-      <c r="AF6" s="44" t="s">
+      <c r="AF6" s="19" t="s">
         <v>249</v>
       </c>
     </row>
@@ -2548,7 +2554,7 @@
       <c r="M7" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="N7" s="16" t="s">
+      <c r="N7" s="13" t="s">
         <v>257</v>
       </c>
       <c r="O7" s="13" t="s">
@@ -2596,13 +2602,13 @@
       <c r="AC7" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="AD7" s="44" t="s">
+      <c r="AD7" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="AE7" s="44" t="s">
+      <c r="AE7" s="19" t="s">
         <v>264</v>
       </c>
-      <c r="AF7" s="44" t="s">
+      <c r="AF7" s="19" t="s">
         <v>256</v>
       </c>
     </row>
@@ -2646,7 +2652,7 @@
       <c r="M8" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="N8" s="16" t="s">
+      <c r="N8" s="13" t="s">
         <v>260</v>
       </c>
       <c r="O8" s="13" t="s">
@@ -2694,13 +2700,13 @@
       <c r="AC8" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="AD8" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE8" s="44" t="s">
+      <c r="AD8" s="19" t="s">
+        <v>364</v>
+      </c>
+      <c r="AE8" s="19" t="s">
         <v>264</v>
       </c>
-      <c r="AF8" s="44" t="s">
+      <c r="AF8" s="19" t="s">
         <v>259</v>
       </c>
     </row>
@@ -3531,37 +3537,40 @@
       <c r="O18" s="10"/>
     </row>
     <row r="19" spans="1:32" ht="11.25" customHeight="1">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="32" t="s">
         <v>236</v>
       </c>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="40"/>
-      <c r="Q19" s="40"/>
-      <c r="R19" s="40"/>
-      <c r="S19" s="40"/>
-      <c r="T19" s="40"/>
-      <c r="U19" s="40"/>
-      <c r="V19" s="40"/>
-      <c r="W19" s="40"/>
-      <c r="X19" s="40"/>
-      <c r="Y19" s="40"/>
-      <c r="Z19" s="40"/>
-      <c r="AA19" s="40"/>
-      <c r="AB19" s="40"/>
-      <c r="AC19" s="41"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="33"/>
+      <c r="R19" s="33"/>
+      <c r="S19" s="33"/>
+      <c r="T19" s="33"/>
+      <c r="U19" s="33"/>
+      <c r="V19" s="33"/>
+      <c r="W19" s="33"/>
+      <c r="X19" s="33"/>
+      <c r="Y19" s="33"/>
+      <c r="Z19" s="33"/>
+      <c r="AA19" s="33"/>
+      <c r="AB19" s="33"/>
+      <c r="AC19" s="34"/>
+      <c r="AD19" s="52" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="20" spans="1:32" ht="11.25" customHeight="1">
       <c r="A20" s="35"/>
@@ -3592,444 +3601,448 @@
       <c r="Z20" s="36"/>
       <c r="AA20" s="36"/>
       <c r="AB20" s="36"/>
-      <c r="AC20" s="42"/>
+      <c r="AC20" s="37"/>
+      <c r="AD20" s="52"/>
     </row>
     <row r="21" spans="1:32" ht="11.25" customHeight="1">
-      <c r="A21" s="37"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="38"/>
-      <c r="O21" s="38"/>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="38"/>
-      <c r="R21" s="38"/>
-      <c r="S21" s="38"/>
-      <c r="T21" s="38"/>
-      <c r="U21" s="38"/>
-      <c r="V21" s="38"/>
-      <c r="W21" s="38"/>
-      <c r="X21" s="38"/>
-      <c r="Y21" s="38"/>
-      <c r="Z21" s="38"/>
-      <c r="AA21" s="38"/>
-      <c r="AB21" s="38"/>
-      <c r="AC21" s="43"/>
+      <c r="A21" s="38"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="39"/>
+      <c r="R21" s="39"/>
+      <c r="S21" s="39"/>
+      <c r="T21" s="39"/>
+      <c r="U21" s="39"/>
+      <c r="V21" s="39"/>
+      <c r="W21" s="39"/>
+      <c r="X21" s="39"/>
+      <c r="Y21" s="39"/>
+      <c r="Z21" s="39"/>
+      <c r="AA21" s="39"/>
+      <c r="AB21" s="39"/>
+      <c r="AC21" s="40"/>
+      <c r="AD21" s="52"/>
     </row>
     <row r="22" spans="1:32" ht="11.25" customHeight="1">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="21" t="s">
         <v>324</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="31" t="s">
         <v>342</v>
       </c>
-      <c r="C22" s="32" t="s">
+      <c r="C22" s="31" t="s">
         <v>348</v>
       </c>
-      <c r="D22" s="33" t="s">
+      <c r="D22" s="42" t="s">
         <v>343</v>
       </c>
-      <c r="E22" s="33" t="s">
+      <c r="E22" s="42" t="s">
         <v>346</v>
       </c>
-      <c r="F22" s="32" t="s">
+      <c r="F22" s="31" t="s">
         <v>344</v>
       </c>
-      <c r="G22" s="32" t="s">
+      <c r="G22" s="31" t="s">
         <v>345</v>
       </c>
-      <c r="H22" s="22" t="s">
+      <c r="H22" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="I22" s="22" t="s">
+      <c r="I22" s="21" t="s">
         <v>325</v>
       </c>
-      <c r="J22" s="22" t="s">
+      <c r="J22" s="21" t="s">
         <v>326</v>
       </c>
-      <c r="K22" s="22" t="s">
+      <c r="K22" s="21" t="s">
         <v>351</v>
       </c>
-      <c r="L22" s="34" t="s">
+      <c r="L22" s="41" t="s">
         <v>327</v>
       </c>
-      <c r="M22" s="32" t="s">
+      <c r="M22" s="31" t="s">
         <v>347</v>
       </c>
-      <c r="N22" s="32" t="s">
+      <c r="N22" s="31" t="s">
         <v>352</v>
       </c>
-      <c r="O22" s="22" t="s">
+      <c r="O22" s="21" t="s">
         <v>328</v>
       </c>
-      <c r="P22" s="22" t="s">
+      <c r="P22" s="21" t="s">
         <v>329</v>
       </c>
-      <c r="Q22" s="22" t="s">
+      <c r="Q22" s="21" t="s">
         <v>330</v>
       </c>
-      <c r="R22" s="22" t="s">
+      <c r="R22" s="21" t="s">
         <v>331</v>
       </c>
-      <c r="S22" s="22" t="s">
+      <c r="S22" s="21" t="s">
         <v>332</v>
       </c>
-      <c r="T22" s="33" t="s">
+      <c r="T22" s="42" t="s">
         <v>333</v>
       </c>
-      <c r="U22" s="33" t="s">
+      <c r="U22" s="42" t="s">
         <v>338</v>
       </c>
-      <c r="V22" s="33" t="s">
+      <c r="V22" s="42" t="s">
         <v>337</v>
       </c>
-      <c r="W22" s="33" t="s">
+      <c r="W22" s="42" t="s">
         <v>339</v>
       </c>
-      <c r="X22" s="22" t="s">
+      <c r="X22" s="21" t="s">
         <v>336</v>
       </c>
-      <c r="Y22" s="22" t="s">
+      <c r="Y22" s="21" t="s">
         <v>335</v>
       </c>
-      <c r="Z22" s="22" t="s">
+      <c r="Z22" s="21" t="s">
         <v>350</v>
       </c>
-      <c r="AA22" s="22" t="s">
+      <c r="AA22" s="21" t="s">
         <v>340</v>
       </c>
-      <c r="AB22" s="22" t="s">
+      <c r="AB22" s="21" t="s">
         <v>353</v>
       </c>
-      <c r="AC22" s="22" t="s">
+      <c r="AC22" s="21" t="s">
         <v>341</v>
       </c>
-      <c r="AD22" s="45" t="s">
-        <v>354</v>
-      </c>
-      <c r="AE22" s="46"/>
+      <c r="AD22" s="21" t="s">
+        <v>363</v>
+      </c>
+      <c r="AE22" s="46" t="s">
+        <v>361</v>
+      </c>
       <c r="AF22" s="47"/>
     </row>
     <row r="23" spans="1:32" ht="11.25" customHeight="1">
-      <c r="A23" s="22"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="32"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="22"/>
-      <c r="R23" s="22"/>
-      <c r="S23" s="22"/>
-      <c r="T23" s="33"/>
-      <c r="U23" s="33"/>
-      <c r="V23" s="33"/>
-      <c r="W23" s="33"/>
-      <c r="X23" s="22"/>
-      <c r="Y23" s="22"/>
-      <c r="Z23" s="22"/>
-      <c r="AA23" s="22"/>
-      <c r="AB23" s="22"/>
-      <c r="AC23" s="22"/>
-      <c r="AD23" s="48"/>
-      <c r="AE23" s="49"/>
-      <c r="AF23" s="50"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="21"/>
+      <c r="S23" s="21"/>
+      <c r="T23" s="42"/>
+      <c r="U23" s="42"/>
+      <c r="V23" s="42"/>
+      <c r="W23" s="42"/>
+      <c r="X23" s="21"/>
+      <c r="Y23" s="21"/>
+      <c r="Z23" s="21"/>
+      <c r="AA23" s="21"/>
+      <c r="AB23" s="21"/>
+      <c r="AC23" s="21"/>
+      <c r="AD23" s="21"/>
+      <c r="AE23" s="48"/>
+      <c r="AF23" s="49"/>
     </row>
     <row r="24" spans="1:32">
-      <c r="A24" s="22"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="34"/>
-      <c r="M24" s="32"/>
-      <c r="N24" s="32"/>
-      <c r="O24" s="22"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="22"/>
-      <c r="R24" s="22"/>
-      <c r="S24" s="22"/>
-      <c r="T24" s="33"/>
-      <c r="U24" s="33"/>
-      <c r="V24" s="33"/>
-      <c r="W24" s="33"/>
-      <c r="X24" s="22"/>
-      <c r="Y24" s="22"/>
-      <c r="Z24" s="22"/>
-      <c r="AA24" s="22"/>
-      <c r="AB24" s="22"/>
-      <c r="AC24" s="22"/>
-      <c r="AD24" s="48"/>
-      <c r="AE24" s="49"/>
-      <c r="AF24" s="50"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="21"/>
+      <c r="R24" s="21"/>
+      <c r="S24" s="21"/>
+      <c r="T24" s="42"/>
+      <c r="U24" s="42"/>
+      <c r="V24" s="42"/>
+      <c r="W24" s="42"/>
+      <c r="X24" s="21"/>
+      <c r="Y24" s="21"/>
+      <c r="Z24" s="21"/>
+      <c r="AA24" s="21"/>
+      <c r="AB24" s="21"/>
+      <c r="AC24" s="21"/>
+      <c r="AD24" s="21"/>
+      <c r="AE24" s="48"/>
+      <c r="AF24" s="49"/>
     </row>
     <row r="25" spans="1:32">
-      <c r="A25" s="22"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="32"/>
-      <c r="O25" s="22"/>
-      <c r="P25" s="22"/>
-      <c r="Q25" s="22"/>
-      <c r="R25" s="22"/>
-      <c r="S25" s="22"/>
-      <c r="T25" s="33"/>
-      <c r="U25" s="33"/>
-      <c r="V25" s="33"/>
-      <c r="W25" s="33"/>
-      <c r="X25" s="22"/>
-      <c r="Y25" s="22"/>
-      <c r="Z25" s="22"/>
-      <c r="AA25" s="22"/>
-      <c r="AB25" s="22"/>
-      <c r="AC25" s="22"/>
-      <c r="AD25" s="48"/>
-      <c r="AE25" s="49"/>
-      <c r="AF25" s="50"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="21"/>
+      <c r="S25" s="21"/>
+      <c r="T25" s="42"/>
+      <c r="U25" s="42"/>
+      <c r="V25" s="42"/>
+      <c r="W25" s="42"/>
+      <c r="X25" s="21"/>
+      <c r="Y25" s="21"/>
+      <c r="Z25" s="21"/>
+      <c r="AA25" s="21"/>
+      <c r="AB25" s="21"/>
+      <c r="AC25" s="21"/>
+      <c r="AD25" s="21"/>
+      <c r="AE25" s="48"/>
+      <c r="AF25" s="49"/>
     </row>
     <row r="26" spans="1:32">
-      <c r="A26" s="22"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="32"/>
-      <c r="N26" s="32"/>
-      <c r="O26" s="22"/>
-      <c r="P26" s="22"/>
-      <c r="Q26" s="22"/>
-      <c r="R26" s="22"/>
-      <c r="S26" s="22"/>
-      <c r="T26" s="33"/>
-      <c r="U26" s="33"/>
-      <c r="V26" s="33"/>
-      <c r="W26" s="33"/>
-      <c r="X26" s="22"/>
-      <c r="Y26" s="22"/>
-      <c r="Z26" s="22"/>
-      <c r="AA26" s="22"/>
-      <c r="AB26" s="22"/>
-      <c r="AC26" s="22"/>
-      <c r="AD26" s="48"/>
-      <c r="AE26" s="49"/>
-      <c r="AF26" s="50"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="21"/>
+      <c r="R26" s="21"/>
+      <c r="S26" s="21"/>
+      <c r="T26" s="42"/>
+      <c r="U26" s="42"/>
+      <c r="V26" s="42"/>
+      <c r="W26" s="42"/>
+      <c r="X26" s="21"/>
+      <c r="Y26" s="21"/>
+      <c r="Z26" s="21"/>
+      <c r="AA26" s="21"/>
+      <c r="AB26" s="21"/>
+      <c r="AC26" s="21"/>
+      <c r="AD26" s="21"/>
+      <c r="AE26" s="48"/>
+      <c r="AF26" s="49"/>
     </row>
     <row r="27" spans="1:32">
-      <c r="A27" s="22"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="32"/>
-      <c r="N27" s="32"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="22"/>
-      <c r="Q27" s="22"/>
-      <c r="R27" s="22"/>
-      <c r="S27" s="22"/>
-      <c r="T27" s="33"/>
-      <c r="U27" s="33"/>
-      <c r="V27" s="33"/>
-      <c r="W27" s="33"/>
-      <c r="X27" s="22"/>
-      <c r="Y27" s="22"/>
-      <c r="Z27" s="22"/>
-      <c r="AA27" s="22"/>
-      <c r="AB27" s="22"/>
-      <c r="AC27" s="22"/>
-      <c r="AD27" s="48"/>
-      <c r="AE27" s="49"/>
-      <c r="AF27" s="50"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="21"/>
+      <c r="R27" s="21"/>
+      <c r="S27" s="21"/>
+      <c r="T27" s="42"/>
+      <c r="U27" s="42"/>
+      <c r="V27" s="42"/>
+      <c r="W27" s="42"/>
+      <c r="X27" s="21"/>
+      <c r="Y27" s="21"/>
+      <c r="Z27" s="21"/>
+      <c r="AA27" s="21"/>
+      <c r="AB27" s="21"/>
+      <c r="AC27" s="21"/>
+      <c r="AD27" s="21"/>
+      <c r="AE27" s="48"/>
+      <c r="AF27" s="49"/>
     </row>
     <row r="28" spans="1:32">
-      <c r="A28" s="22"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="34"/>
-      <c r="M28" s="32"/>
-      <c r="N28" s="32"/>
-      <c r="O28" s="22"/>
-      <c r="P28" s="22"/>
-      <c r="Q28" s="22"/>
-      <c r="R28" s="22"/>
-      <c r="S28" s="22"/>
-      <c r="T28" s="33"/>
-      <c r="U28" s="33"/>
-      <c r="V28" s="33"/>
-      <c r="W28" s="33"/>
-      <c r="X28" s="22"/>
-      <c r="Y28" s="22"/>
-      <c r="Z28" s="22"/>
-      <c r="AA28" s="22"/>
-      <c r="AB28" s="22"/>
-      <c r="AC28" s="22"/>
-      <c r="AD28" s="48"/>
-      <c r="AE28" s="49"/>
-      <c r="AF28" s="50"/>
+      <c r="A28" s="21"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="21"/>
+      <c r="S28" s="21"/>
+      <c r="T28" s="42"/>
+      <c r="U28" s="42"/>
+      <c r="V28" s="42"/>
+      <c r="W28" s="42"/>
+      <c r="X28" s="21"/>
+      <c r="Y28" s="21"/>
+      <c r="Z28" s="21"/>
+      <c r="AA28" s="21"/>
+      <c r="AB28" s="21"/>
+      <c r="AC28" s="21"/>
+      <c r="AD28" s="21"/>
+      <c r="AE28" s="48"/>
+      <c r="AF28" s="49"/>
     </row>
     <row r="29" spans="1:32">
-      <c r="A29" s="22"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="34"/>
-      <c r="M29" s="32"/>
-      <c r="N29" s="32"/>
-      <c r="O29" s="22"/>
-      <c r="P29" s="22"/>
-      <c r="Q29" s="22"/>
-      <c r="R29" s="22"/>
-      <c r="S29" s="22"/>
-      <c r="T29" s="33"/>
-      <c r="U29" s="33"/>
-      <c r="V29" s="33"/>
-      <c r="W29" s="33"/>
-      <c r="X29" s="22"/>
-      <c r="Y29" s="22"/>
-      <c r="Z29" s="22"/>
-      <c r="AA29" s="22"/>
-      <c r="AB29" s="22"/>
-      <c r="AC29" s="22"/>
-      <c r="AD29" s="48"/>
-      <c r="AE29" s="49"/>
-      <c r="AF29" s="50"/>
+      <c r="A29" s="21"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="21"/>
+      <c r="S29" s="21"/>
+      <c r="T29" s="42"/>
+      <c r="U29" s="42"/>
+      <c r="V29" s="42"/>
+      <c r="W29" s="42"/>
+      <c r="X29" s="21"/>
+      <c r="Y29" s="21"/>
+      <c r="Z29" s="21"/>
+      <c r="AA29" s="21"/>
+      <c r="AB29" s="21"/>
+      <c r="AC29" s="21"/>
+      <c r="AD29" s="21"/>
+      <c r="AE29" s="48"/>
+      <c r="AF29" s="49"/>
     </row>
     <row r="30" spans="1:32">
-      <c r="A30" s="22"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="34"/>
-      <c r="M30" s="32"/>
-      <c r="N30" s="32"/>
-      <c r="O30" s="22"/>
-      <c r="P30" s="22"/>
-      <c r="Q30" s="22"/>
-      <c r="R30" s="22"/>
-      <c r="S30" s="22"/>
-      <c r="T30" s="33"/>
-      <c r="U30" s="33"/>
-      <c r="V30" s="33"/>
-      <c r="W30" s="33"/>
-      <c r="X30" s="22"/>
-      <c r="Y30" s="22"/>
-      <c r="Z30" s="22"/>
-      <c r="AA30" s="22"/>
-      <c r="AB30" s="22"/>
-      <c r="AC30" s="22"/>
-      <c r="AD30" s="51"/>
-      <c r="AE30" s="52"/>
-      <c r="AF30" s="53"/>
+      <c r="A30" s="21"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="41"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="21"/>
+      <c r="R30" s="21"/>
+      <c r="S30" s="21"/>
+      <c r="T30" s="42"/>
+      <c r="U30" s="42"/>
+      <c r="V30" s="42"/>
+      <c r="W30" s="42"/>
+      <c r="X30" s="21"/>
+      <c r="Y30" s="21"/>
+      <c r="Z30" s="21"/>
+      <c r="AA30" s="21"/>
+      <c r="AB30" s="21"/>
+      <c r="AC30" s="21"/>
+      <c r="AD30" s="21"/>
+      <c r="AE30" s="50"/>
+      <c r="AF30" s="51"/>
     </row>
     <row r="31" spans="1:32">
       <c r="K31" s="7"/>
-      <c r="L31" s="34"/>
-      <c r="X31" s="22"/>
-      <c r="Y31" s="22"/>
-      <c r="Z31" s="22"/>
+      <c r="L31" s="41"/>
+      <c r="X31" s="21"/>
+      <c r="Y31" s="21"/>
+      <c r="Z31" s="21"/>
       <c r="AE31" s="7"/>
       <c r="AF31" s="7"/>
     </row>
     <row r="32" spans="1:32">
       <c r="K32" s="7"/>
-      <c r="L32" s="34"/>
-      <c r="X32" s="22"/>
-      <c r="Y32" s="22"/>
-      <c r="Z32" s="22"/>
+      <c r="L32" s="41"/>
+      <c r="X32" s="21"/>
+      <c r="Y32" s="21"/>
+      <c r="Z32" s="21"/>
       <c r="AE32" s="7"/>
       <c r="AF32" s="7"/>
     </row>
     <row r="33" spans="11:32">
       <c r="K33" s="7"/>
-      <c r="X33" s="22"/>
-      <c r="Y33" s="22"/>
-      <c r="Z33" s="22"/>
+      <c r="X33" s="21"/>
+      <c r="Y33" s="21"/>
+      <c r="Z33" s="21"/>
       <c r="AE33" s="7"/>
       <c r="AF33" s="7"/>
     </row>
     <row r="34" spans="11:32">
       <c r="K34" s="7"/>
-      <c r="X34" s="22"/>
-      <c r="Y34" s="22"/>
-      <c r="Z34" s="22"/>
+      <c r="X34" s="21"/>
+      <c r="Y34" s="21"/>
+      <c r="Z34" s="21"/>
       <c r="AE34" s="7"/>
       <c r="AF34" s="7"/>
     </row>
     <row r="35" spans="11:32">
       <c r="K35" s="7"/>
-      <c r="X35" s="22"/>
-      <c r="Y35" s="22"/>
-      <c r="Z35" s="22"/>
+      <c r="X35" s="21"/>
+      <c r="Y35" s="21"/>
+      <c r="Z35" s="21"/>
       <c r="AE35" s="7"/>
       <c r="AF35" s="7"/>
     </row>
@@ -4104,12 +4117,29 @@
       <c r="AF49" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="33">
+    <mergeCell ref="AE22:AF30"/>
+    <mergeCell ref="AD19:AD21"/>
+    <mergeCell ref="AD22:AD30"/>
+    <mergeCell ref="C22:C30"/>
+    <mergeCell ref="D22:D30"/>
+    <mergeCell ref="F22:F30"/>
+    <mergeCell ref="G22:G30"/>
+    <mergeCell ref="E22:E30"/>
+    <mergeCell ref="S22:S30"/>
+    <mergeCell ref="P22:P30"/>
+    <mergeCell ref="O22:O30"/>
+    <mergeCell ref="Q22:Q30"/>
+    <mergeCell ref="R22:R30"/>
+    <mergeCell ref="Y22:Y35"/>
+    <mergeCell ref="V22:V30"/>
+    <mergeCell ref="U22:U30"/>
+    <mergeCell ref="W22:W30"/>
+    <mergeCell ref="T22:T30"/>
     <mergeCell ref="Z22:Z35"/>
     <mergeCell ref="K22:K30"/>
     <mergeCell ref="N22:N30"/>
     <mergeCell ref="A19:AC21"/>
-    <mergeCell ref="AD22:AF30"/>
     <mergeCell ref="J22:J30"/>
     <mergeCell ref="A22:A30"/>
     <mergeCell ref="H22:H30"/>
@@ -4121,21 +4151,6 @@
     <mergeCell ref="AC22:AC30"/>
     <mergeCell ref="B22:B30"/>
     <mergeCell ref="X22:X35"/>
-    <mergeCell ref="Y22:Y35"/>
-    <mergeCell ref="V22:V30"/>
-    <mergeCell ref="U22:U30"/>
-    <mergeCell ref="W22:W30"/>
-    <mergeCell ref="T22:T30"/>
-    <mergeCell ref="S22:S30"/>
-    <mergeCell ref="P22:P30"/>
-    <mergeCell ref="O22:O30"/>
-    <mergeCell ref="Q22:Q30"/>
-    <mergeCell ref="R22:R30"/>
-    <mergeCell ref="C22:C30"/>
-    <mergeCell ref="D22:D30"/>
-    <mergeCell ref="F22:F30"/>
-    <mergeCell ref="G22:G30"/>
-    <mergeCell ref="E22:E30"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4149,8 +4164,8 @@
   </sheetPr>
   <dimension ref="A2:AF49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -4225,7 +4240,7 @@
         <v>241</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E3" s="18"/>
       <c r="F3" s="18"/>
@@ -4253,10 +4268,10 @@
     </row>
     <row r="5" spans="1:32" ht="27.75" customHeight="1">
       <c r="A5" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>356</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>357</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -4287,76 +4302,76 @@
     <row r="6" spans="1:32" s="17" customFormat="1">
       <c r="A6" s="16"/>
       <c r="B6" s="16"/>
-      <c r="C6" s="54" t="s">
-        <v>361</v>
-      </c>
-      <c r="D6" s="54"/>
+      <c r="C6" s="43" t="s">
+        <v>360</v>
+      </c>
+      <c r="D6" s="43"/>
     </row>
     <row r="7" spans="1:32" s="17" customFormat="1">
       <c r="A7" s="16"/>
       <c r="B7" s="16"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
     </row>
     <row r="8" spans="1:32" s="17" customFormat="1">
       <c r="A8" s="16"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
     </row>
     <row r="9" spans="1:32" s="17" customFormat="1">
       <c r="A9" s="16"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
     </row>
     <row r="10" spans="1:32" s="17" customFormat="1">
       <c r="A10" s="16"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
     </row>
     <row r="11" spans="1:32" s="17" customFormat="1">
       <c r="A11" s="16"/>
       <c r="B11" s="16"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
     </row>
     <row r="12" spans="1:32" s="17" customFormat="1">
       <c r="A12" s="16"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
     </row>
     <row r="13" spans="1:32" s="17" customFormat="1">
       <c r="A13" s="16"/>
       <c r="B13" s="16"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
     </row>
     <row r="14" spans="1:32" s="17" customFormat="1">
       <c r="A14" s="16"/>
       <c r="B14" s="16"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
     </row>
     <row r="15" spans="1:32" s="17" customFormat="1">
       <c r="A15" s="16"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
     </row>
     <row r="16" spans="1:32" s="17" customFormat="1">
       <c r="A16" s="16"/>
       <c r="B16" s="16"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
     </row>
     <row r="17" spans="1:32" s="17" customFormat="1">
       <c r="A17" s="16"/>
       <c r="B17" s="16"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
     </row>
     <row r="18" spans="1:32">
       <c r="A18" s="10"/>
@@ -4387,10 +4402,10 @@
       <c r="AF18" s="7"/>
     </row>
     <row r="19" spans="1:32" ht="11.25" customHeight="1">
-      <c r="A19" s="23" t="s">
-        <v>358</v>
-      </c>
-      <c r="B19" s="25"/>
+      <c r="A19" s="22" t="s">
+        <v>357</v>
+      </c>
+      <c r="B19" s="24"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
@@ -4418,8 +4433,8 @@
       <c r="AF19" s="7"/>
     </row>
     <row r="20" spans="1:32" ht="11.25" customHeight="1">
-      <c r="A20" s="26"/>
-      <c r="B20" s="28"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="27"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
@@ -4447,8 +4462,8 @@
       <c r="AF20" s="7"/>
     </row>
     <row r="21" spans="1:32" ht="11.25" customHeight="1">
-      <c r="A21" s="29"/>
-      <c r="B21" s="31"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="30"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
@@ -4476,11 +4491,11 @@
       <c r="AF21" s="7"/>
     </row>
     <row r="22" spans="1:32" ht="11.25" customHeight="1">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="B22" s="21" t="s">
         <v>359</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>360</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -4509,8 +4524,8 @@
       <c r="AF22" s="7"/>
     </row>
     <row r="23" spans="1:32" ht="11.25" customHeight="1">
-      <c r="A23" s="22"/>
-      <c r="B23" s="22"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
@@ -4538,8 +4553,8 @@
       <c r="AF23" s="7"/>
     </row>
     <row r="24" spans="1:32">
-      <c r="A24" s="22"/>
-      <c r="B24" s="22"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
@@ -4567,8 +4582,8 @@
       <c r="AF24" s="7"/>
     </row>
     <row r="25" spans="1:32">
-      <c r="A25" s="22"/>
-      <c r="B25" s="22"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
@@ -4596,8 +4611,8 @@
       <c r="AF25" s="7"/>
     </row>
     <row r="26" spans="1:32">
-      <c r="A26" s="22"/>
-      <c r="B26" s="22"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
@@ -4625,8 +4640,8 @@
       <c r="AF26" s="7"/>
     </row>
     <row r="27" spans="1:32">
-      <c r="A27" s="22"/>
-      <c r="B27" s="22"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
@@ -4654,8 +4669,8 @@
       <c r="AF27" s="7"/>
     </row>
     <row r="28" spans="1:32">
-      <c r="A28" s="22"/>
-      <c r="B28" s="22"/>
+      <c r="A28" s="21"/>
+      <c r="B28" s="21"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
@@ -4683,8 +4698,8 @@
       <c r="AF28" s="7"/>
     </row>
     <row r="29" spans="1:32">
-      <c r="A29" s="22"/>
-      <c r="B29" s="22"/>
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
@@ -4712,8 +4727,8 @@
       <c r="AF29" s="7"/>
     </row>
     <row r="30" spans="1:32">
-      <c r="A30" s="22"/>
-      <c r="B30" s="22"/>
+      <c r="A30" s="21"/>
+      <c r="B30" s="21"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
@@ -7376,136 +7391,136 @@
       </c>
     </row>
     <row r="20" spans="1:48">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="44" t="s">
         <v>196</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="44" t="s">
         <v>197</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="44" t="s">
         <v>198</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="44" t="s">
         <v>199</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="44" t="s">
         <v>201</v>
       </c>
-      <c r="F20" s="19" t="s">
+      <c r="F20" s="44" t="s">
         <v>203</v>
       </c>
-      <c r="G20" s="19" t="s">
+      <c r="G20" s="44" t="s">
         <v>204</v>
       </c>
-      <c r="H20" s="19" t="s">
+      <c r="H20" s="44" t="s">
         <v>205</v>
       </c>
-      <c r="I20" s="19" t="s">
+      <c r="I20" s="44" t="s">
         <v>206</v>
       </c>
-      <c r="J20" s="19" t="s">
+      <c r="J20" s="44" t="s">
         <v>208</v>
       </c>
-      <c r="K20" s="19" t="s">
+      <c r="K20" s="44" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="21" spans="1:48">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
+      <c r="A21" s="44"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
     </row>
     <row r="22" spans="1:48">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
+      <c r="A22" s="44"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
     </row>
     <row r="23" spans="1:48">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
+      <c r="A23" s="44"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
     </row>
     <row r="24" spans="1:48">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
+      <c r="A24" s="44"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
     </row>
     <row r="25" spans="1:48">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
+      <c r="A25" s="44"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
     </row>
     <row r="27" spans="1:48">
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="44" t="s">
         <v>200</v>
       </c>
-      <c r="E27" s="20" t="s">
+      <c r="E27" s="45" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="28" spans="1:48">
-      <c r="D28" s="19"/>
-      <c r="E28" s="20"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="45"/>
     </row>
     <row r="29" spans="1:48">
-      <c r="D29" s="19"/>
-      <c r="E29" s="20"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="45"/>
     </row>
     <row r="30" spans="1:48">
-      <c r="D30" s="19"/>
-      <c r="E30" s="20"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="45"/>
     </row>
     <row r="31" spans="1:48">
-      <c r="D31" s="19"/>
-      <c r="E31" s="20"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="45"/>
     </row>
     <row r="32" spans="1:48">
-      <c r="D32" s="19"/>
-      <c r="E32" s="20"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="45"/>
     </row>
     <row r="33" spans="1:32">
-      <c r="D33" s="19"/>
-      <c r="E33" s="20"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="45"/>
     </row>
     <row r="40" spans="1:32" ht="15">
       <c r="A40" t="s">

--- a/Documentação/Planilhas/Conferencia_follow_Relatorio.xlsx
+++ b/Documentação/Planilhas/Conferencia_follow_Relatorio.xlsx
@@ -4,21 +4,22 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="stg_follow_rascunho" sheetId="3" r:id="rId1"/>
     <sheet name="stg_follow_compra" sheetId="4" r:id="rId2"/>
     <sheet name="stg_follow_kit_sige" sheetId="5" r:id="rId3"/>
-    <sheet name="Conf_antiga" sheetId="1" r:id="rId4"/>
-    <sheet name="Plan2" sheetId="2" r:id="rId5"/>
+    <sheet name="ods_follow" sheetId="6" r:id="rId4"/>
+    <sheet name="Conf_antiga" sheetId="1" r:id="rId5"/>
+    <sheet name="Plan2" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1607" uniqueCount="416">
   <si>
     <t>ds_chave</t>
   </si>
@@ -1135,6 +1136,156 @@
   </si>
   <si>
     <t>D / C</t>
+  </si>
+  <si>
+    <t>C200045902142</t>
+  </si>
+  <si>
+    <t>Whilpool S A</t>
+  </si>
+  <si>
+    <t>C20004590</t>
+  </si>
+  <si>
+    <t>SECADOR SMART 1300W PRETO 110</t>
+  </si>
+  <si>
+    <t>2015-01-20 15:01:00.000</t>
+  </si>
+  <si>
+    <t>2015-01-20 14:01:00.000</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Beleza &amp; Saúde</t>
+  </si>
+  <si>
+    <t>Rec.Parcial</t>
+  </si>
+  <si>
+    <t>ATÉ 60 DIAS</t>
+  </si>
+  <si>
+    <t>C200046332142</t>
+  </si>
+  <si>
+    <t>LG ELETRONICS DO BRASIL LTDA</t>
+  </si>
+  <si>
+    <t>C20004633</t>
+  </si>
+  <si>
+    <t>2015-01-22 16:52:00.000</t>
+  </si>
+  <si>
+    <t>2015-01-22 15:52:00.000</t>
+  </si>
+  <si>
+    <t>alynef</t>
+  </si>
+  <si>
+    <t>C100002582142</t>
+  </si>
+  <si>
+    <t>DIGISA COM TEC LTDA</t>
+  </si>
+  <si>
+    <t>C10000258</t>
+  </si>
+  <si>
+    <t>2015-01-12 16:19:00.000</t>
+  </si>
+  <si>
+    <t>2015-01-12 15:19:00.000</t>
+  </si>
+  <si>
+    <t>C200022932142</t>
+  </si>
+  <si>
+    <t>TAIFF-PROART DISTRIB PRODUTOS DE BE</t>
+  </si>
+  <si>
+    <t>C20002293</t>
+  </si>
+  <si>
+    <t>2014-07-04 14:58:00.000</t>
+  </si>
+  <si>
+    <t>Rec.Total</t>
+  </si>
+  <si>
+    <t>rsantos</t>
+  </si>
+  <si>
+    <t>C200022942142</t>
+  </si>
+  <si>
+    <t>C20002294</t>
+  </si>
+  <si>
+    <t>2014-07-04 15:43:00.000</t>
+  </si>
+  <si>
+    <t>C200045292142</t>
+  </si>
+  <si>
+    <t>C20004529</t>
+  </si>
+  <si>
+    <t>2014-11-10 10:00:00.000</t>
+  </si>
+  <si>
+    <t>59105999003959</t>
+  </si>
+  <si>
+    <t>1166372000155</t>
+  </si>
+  <si>
+    <t>4370561000303</t>
+  </si>
+  <si>
+    <t>MIS_RELATORIO</t>
+  </si>
+  <si>
+    <t>dbo.ods_follow</t>
+  </si>
+  <si>
+    <t>C20000732</t>
+  </si>
+  <si>
+    <t>C20004500</t>
+  </si>
+  <si>
+    <t>qtde</t>
+  </si>
+  <si>
+    <t>C20004507</t>
+  </si>
+  <si>
+    <t>C20004556</t>
+  </si>
+  <si>
+    <t>C20004587</t>
+  </si>
+  <si>
+    <t>C20004642</t>
+  </si>
+  <si>
+    <t>C20004649</t>
+  </si>
+  <si>
+    <t>C20004654</t>
+  </si>
+  <si>
+    <t>C20004655</t>
+  </si>
+  <si>
+    <t>realmente tem 2 registros no LN</t>
+  </si>
+  <si>
+    <t>tem e registros na tabela MIS_SHARED_DIMENSION.dim.ods_produto, mas no LN só tem 1 registro na tabela de item</t>
   </si>
 </sst>
 </file>
@@ -1181,7 +1332,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1221,6 +1372,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1345,7 +1502,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1398,6 +1555,9 @@
     <xf numFmtId="49" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1431,7 +1591,31 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1464,9 +1648,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1476,26 +1657,20 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1803,7 +1978,7 @@
   <dimension ref="A2:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="D21" sqref="D21:D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -2070,128 +2245,128 @@
       <c r="F17" s="10"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="23" t="s">
         <v>235</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="22" t="s">
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="23" t="s">
         <v>236</v>
       </c>
-      <c r="F18" s="24"/>
+      <c r="F18" s="25"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="25"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="27"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="28"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="28"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="30"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="31"/>
     </row>
     <row r="21" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="22" t="s">
         <v>231</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="22" t="s">
         <v>234</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="E21" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="F21" s="21" t="s">
+      <c r="F21" s="22" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="21"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="21"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="22"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="21"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="21"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="22"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="21"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="21"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="22"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="21"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="21"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="22"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="21"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="21"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="22"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="21"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="21"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="22"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="D28" s="21"/>
-      <c r="F28" s="21"/>
+      <c r="D28" s="22"/>
+      <c r="F28" s="22"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="D29" s="21"/>
-      <c r="F29" s="21"/>
+      <c r="D29" s="22"/>
+      <c r="F29" s="22"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="D30" s="21"/>
-      <c r="F30" s="21"/>
+      <c r="D30" s="22"/>
+      <c r="F30" s="22"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="D31" s="21"/>
-      <c r="F31" s="21"/>
+      <c r="D31" s="22"/>
+      <c r="F31" s="22"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="D32" s="21"/>
-      <c r="F32" s="21"/>
+      <c r="D32" s="22"/>
+      <c r="F32" s="22"/>
     </row>
     <row r="33" spans="4:6">
-      <c r="D33" s="21"/>
-      <c r="F33" s="21"/>
+      <c r="D33" s="22"/>
+      <c r="F33" s="22"/>
     </row>
     <row r="34" spans="4:6">
-      <c r="D34" s="21"/>
-      <c r="F34" s="21"/>
+      <c r="D34" s="22"/>
+      <c r="F34" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2216,8 +2391,8 @@
   </sheetPr>
   <dimension ref="A2:AF49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView topLeftCell="V4" workbookViewId="0">
+      <selection activeCell="X22" sqref="X22:X35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -3537,512 +3712,512 @@
       <c r="O18" s="10"/>
     </row>
     <row r="19" spans="1:32" ht="11.25" customHeight="1">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="41" t="s">
         <v>236</v>
       </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="33"/>
-      <c r="N19" s="33"/>
-      <c r="O19" s="33"/>
-      <c r="P19" s="33"/>
-      <c r="Q19" s="33"/>
-      <c r="R19" s="33"/>
-      <c r="S19" s="33"/>
-      <c r="T19" s="33"/>
-      <c r="U19" s="33"/>
-      <c r="V19" s="33"/>
-      <c r="W19" s="33"/>
-      <c r="X19" s="33"/>
-      <c r="Y19" s="33"/>
-      <c r="Z19" s="33"/>
-      <c r="AA19" s="33"/>
-      <c r="AB19" s="33"/>
-      <c r="AC19" s="34"/>
-      <c r="AD19" s="52" t="s">
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="42"/>
+      <c r="S19" s="42"/>
+      <c r="T19" s="42"/>
+      <c r="U19" s="42"/>
+      <c r="V19" s="42"/>
+      <c r="W19" s="42"/>
+      <c r="X19" s="42"/>
+      <c r="Y19" s="42"/>
+      <c r="Z19" s="42"/>
+      <c r="AA19" s="42"/>
+      <c r="AB19" s="42"/>
+      <c r="AC19" s="43"/>
+      <c r="AD19" s="38" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="20" spans="1:32" ht="11.25" customHeight="1">
-      <c r="A20" s="35"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="36"/>
-      <c r="S20" s="36"/>
-      <c r="T20" s="36"/>
-      <c r="U20" s="36"/>
-      <c r="V20" s="36"/>
-      <c r="W20" s="36"/>
-      <c r="X20" s="36"/>
-      <c r="Y20" s="36"/>
-      <c r="Z20" s="36"/>
-      <c r="AA20" s="36"/>
-      <c r="AB20" s="36"/>
-      <c r="AC20" s="37"/>
-      <c r="AD20" s="52"/>
+      <c r="A20" s="44"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="45"/>
+      <c r="P20" s="45"/>
+      <c r="Q20" s="45"/>
+      <c r="R20" s="45"/>
+      <c r="S20" s="45"/>
+      <c r="T20" s="45"/>
+      <c r="U20" s="45"/>
+      <c r="V20" s="45"/>
+      <c r="W20" s="45"/>
+      <c r="X20" s="45"/>
+      <c r="Y20" s="45"/>
+      <c r="Z20" s="45"/>
+      <c r="AA20" s="45"/>
+      <c r="AB20" s="45"/>
+      <c r="AC20" s="46"/>
+      <c r="AD20" s="38"/>
     </row>
     <row r="21" spans="1:32" ht="11.25" customHeight="1">
-      <c r="A21" s="38"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="39"/>
-      <c r="O21" s="39"/>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="39"/>
-      <c r="R21" s="39"/>
-      <c r="S21" s="39"/>
-      <c r="T21" s="39"/>
-      <c r="U21" s="39"/>
-      <c r="V21" s="39"/>
-      <c r="W21" s="39"/>
-      <c r="X21" s="39"/>
-      <c r="Y21" s="39"/>
-      <c r="Z21" s="39"/>
-      <c r="AA21" s="39"/>
-      <c r="AB21" s="39"/>
-      <c r="AC21" s="40"/>
-      <c r="AD21" s="52"/>
+      <c r="A21" s="47"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="48"/>
+      <c r="O21" s="48"/>
+      <c r="P21" s="48"/>
+      <c r="Q21" s="48"/>
+      <c r="R21" s="48"/>
+      <c r="S21" s="48"/>
+      <c r="T21" s="48"/>
+      <c r="U21" s="48"/>
+      <c r="V21" s="48"/>
+      <c r="W21" s="48"/>
+      <c r="X21" s="48"/>
+      <c r="Y21" s="48"/>
+      <c r="Z21" s="48"/>
+      <c r="AA21" s="48"/>
+      <c r="AB21" s="48"/>
+      <c r="AC21" s="49"/>
+      <c r="AD21" s="38"/>
     </row>
     <row r="22" spans="1:32" ht="11.25" customHeight="1">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="39" t="s">
         <v>342</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="39" t="s">
         <v>348</v>
       </c>
-      <c r="D22" s="42" t="s">
+      <c r="D22" s="40" t="s">
         <v>343</v>
       </c>
-      <c r="E22" s="42" t="s">
+      <c r="E22" s="40" t="s">
         <v>346</v>
       </c>
-      <c r="F22" s="31" t="s">
+      <c r="F22" s="39" t="s">
         <v>344</v>
       </c>
-      <c r="G22" s="31" t="s">
+      <c r="G22" s="39" t="s">
         <v>345</v>
       </c>
-      <c r="H22" s="21" t="s">
+      <c r="H22" s="22" t="s">
         <v>197</v>
       </c>
-      <c r="I22" s="21" t="s">
+      <c r="I22" s="22" t="s">
         <v>325</v>
       </c>
-      <c r="J22" s="21" t="s">
+      <c r="J22" s="22" t="s">
         <v>326</v>
       </c>
-      <c r="K22" s="21" t="s">
+      <c r="K22" s="22" t="s">
         <v>351</v>
       </c>
-      <c r="L22" s="41" t="s">
+      <c r="L22" s="50" t="s">
         <v>327</v>
       </c>
-      <c r="M22" s="31" t="s">
+      <c r="M22" s="39" t="s">
         <v>347</v>
       </c>
-      <c r="N22" s="31" t="s">
+      <c r="N22" s="39" t="s">
         <v>352</v>
       </c>
-      <c r="O22" s="21" t="s">
+      <c r="O22" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="P22" s="21" t="s">
+      <c r="P22" s="22" t="s">
         <v>329</v>
       </c>
-      <c r="Q22" s="21" t="s">
+      <c r="Q22" s="22" t="s">
         <v>330</v>
       </c>
-      <c r="R22" s="21" t="s">
+      <c r="R22" s="22" t="s">
         <v>331</v>
       </c>
-      <c r="S22" s="21" t="s">
+      <c r="S22" s="22" t="s">
         <v>332</v>
       </c>
-      <c r="T22" s="42" t="s">
+      <c r="T22" s="40" t="s">
         <v>333</v>
       </c>
-      <c r="U22" s="42" t="s">
+      <c r="U22" s="40" t="s">
         <v>338</v>
       </c>
-      <c r="V22" s="42" t="s">
+      <c r="V22" s="40" t="s">
         <v>337</v>
       </c>
-      <c r="W22" s="42" t="s">
+      <c r="W22" s="40" t="s">
         <v>339</v>
       </c>
-      <c r="X22" s="21" t="s">
+      <c r="X22" s="22" t="s">
         <v>336</v>
       </c>
-      <c r="Y22" s="21" t="s">
+      <c r="Y22" s="22" t="s">
         <v>335</v>
       </c>
-      <c r="Z22" s="21" t="s">
+      <c r="Z22" s="22" t="s">
         <v>350</v>
       </c>
-      <c r="AA22" s="21" t="s">
+      <c r="AA22" s="22" t="s">
         <v>340</v>
       </c>
-      <c r="AB22" s="21" t="s">
+      <c r="AB22" s="22" t="s">
         <v>353</v>
       </c>
-      <c r="AC22" s="21" t="s">
+      <c r="AC22" s="22" t="s">
         <v>341</v>
       </c>
-      <c r="AD22" s="21" t="s">
+      <c r="AD22" s="22" t="s">
         <v>363</v>
       </c>
-      <c r="AE22" s="46" t="s">
+      <c r="AE22" s="32" t="s">
         <v>361</v>
       </c>
-      <c r="AF22" s="47"/>
+      <c r="AF22" s="33"/>
     </row>
     <row r="23" spans="1:32" ht="11.25" customHeight="1">
-      <c r="A23" s="21"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="21"/>
-      <c r="R23" s="21"/>
-      <c r="S23" s="21"/>
-      <c r="T23" s="42"/>
-      <c r="U23" s="42"/>
-      <c r="V23" s="42"/>
-      <c r="W23" s="42"/>
-      <c r="X23" s="21"/>
-      <c r="Y23" s="21"/>
-      <c r="Z23" s="21"/>
-      <c r="AA23" s="21"/>
-      <c r="AB23" s="21"/>
-      <c r="AC23" s="21"/>
-      <c r="AD23" s="21"/>
-      <c r="AE23" s="48"/>
-      <c r="AF23" s="49"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="39"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="22"/>
+      <c r="S23" s="22"/>
+      <c r="T23" s="40"/>
+      <c r="U23" s="40"/>
+      <c r="V23" s="40"/>
+      <c r="W23" s="40"/>
+      <c r="X23" s="22"/>
+      <c r="Y23" s="22"/>
+      <c r="Z23" s="22"/>
+      <c r="AA23" s="22"/>
+      <c r="AB23" s="22"/>
+      <c r="AC23" s="22"/>
+      <c r="AD23" s="22"/>
+      <c r="AE23" s="34"/>
+      <c r="AF23" s="35"/>
     </row>
     <row r="24" spans="1:32">
-      <c r="A24" s="21"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="21"/>
-      <c r="R24" s="21"/>
-      <c r="S24" s="21"/>
-      <c r="T24" s="42"/>
-      <c r="U24" s="42"/>
-      <c r="V24" s="42"/>
-      <c r="W24" s="42"/>
-      <c r="X24" s="21"/>
-      <c r="Y24" s="21"/>
-      <c r="Z24" s="21"/>
-      <c r="AA24" s="21"/>
-      <c r="AB24" s="21"/>
-      <c r="AC24" s="21"/>
-      <c r="AD24" s="21"/>
-      <c r="AE24" s="48"/>
-      <c r="AF24" s="49"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="22"/>
+      <c r="S24" s="22"/>
+      <c r="T24" s="40"/>
+      <c r="U24" s="40"/>
+      <c r="V24" s="40"/>
+      <c r="W24" s="40"/>
+      <c r="X24" s="22"/>
+      <c r="Y24" s="22"/>
+      <c r="Z24" s="22"/>
+      <c r="AA24" s="22"/>
+      <c r="AB24" s="22"/>
+      <c r="AC24" s="22"/>
+      <c r="AD24" s="22"/>
+      <c r="AE24" s="34"/>
+      <c r="AF24" s="35"/>
     </row>
     <row r="25" spans="1:32">
-      <c r="A25" s="21"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="31"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="21"/>
-      <c r="R25" s="21"/>
-      <c r="S25" s="21"/>
-      <c r="T25" s="42"/>
-      <c r="U25" s="42"/>
-      <c r="V25" s="42"/>
-      <c r="W25" s="42"/>
-      <c r="X25" s="21"/>
-      <c r="Y25" s="21"/>
-      <c r="Z25" s="21"/>
-      <c r="AA25" s="21"/>
-      <c r="AB25" s="21"/>
-      <c r="AC25" s="21"/>
-      <c r="AD25" s="21"/>
-      <c r="AE25" s="48"/>
-      <c r="AF25" s="49"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="22"/>
+      <c r="S25" s="22"/>
+      <c r="T25" s="40"/>
+      <c r="U25" s="40"/>
+      <c r="V25" s="40"/>
+      <c r="W25" s="40"/>
+      <c r="X25" s="22"/>
+      <c r="Y25" s="22"/>
+      <c r="Z25" s="22"/>
+      <c r="AA25" s="22"/>
+      <c r="AB25" s="22"/>
+      <c r="AC25" s="22"/>
+      <c r="AD25" s="22"/>
+      <c r="AE25" s="34"/>
+      <c r="AF25" s="35"/>
     </row>
     <row r="26" spans="1:32">
-      <c r="A26" s="21"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="41"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="31"/>
-      <c r="O26" s="21"/>
-      <c r="P26" s="21"/>
-      <c r="Q26" s="21"/>
-      <c r="R26" s="21"/>
-      <c r="S26" s="21"/>
-      <c r="T26" s="42"/>
-      <c r="U26" s="42"/>
-      <c r="V26" s="42"/>
-      <c r="W26" s="42"/>
-      <c r="X26" s="21"/>
-      <c r="Y26" s="21"/>
-      <c r="Z26" s="21"/>
-      <c r="AA26" s="21"/>
-      <c r="AB26" s="21"/>
-      <c r="AC26" s="21"/>
-      <c r="AD26" s="21"/>
-      <c r="AE26" s="48"/>
-      <c r="AF26" s="49"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="39"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="22"/>
+      <c r="S26" s="22"/>
+      <c r="T26" s="40"/>
+      <c r="U26" s="40"/>
+      <c r="V26" s="40"/>
+      <c r="W26" s="40"/>
+      <c r="X26" s="22"/>
+      <c r="Y26" s="22"/>
+      <c r="Z26" s="22"/>
+      <c r="AA26" s="22"/>
+      <c r="AB26" s="22"/>
+      <c r="AC26" s="22"/>
+      <c r="AD26" s="22"/>
+      <c r="AE26" s="34"/>
+      <c r="AF26" s="35"/>
     </row>
     <row r="27" spans="1:32">
-      <c r="A27" s="21"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="31"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="21"/>
-      <c r="R27" s="21"/>
-      <c r="S27" s="21"/>
-      <c r="T27" s="42"/>
-      <c r="U27" s="42"/>
-      <c r="V27" s="42"/>
-      <c r="W27" s="42"/>
-      <c r="X27" s="21"/>
-      <c r="Y27" s="21"/>
-      <c r="Z27" s="21"/>
-      <c r="AA27" s="21"/>
-      <c r="AB27" s="21"/>
-      <c r="AC27" s="21"/>
-      <c r="AD27" s="21"/>
-      <c r="AE27" s="48"/>
-      <c r="AF27" s="49"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="39"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="22"/>
+      <c r="S27" s="22"/>
+      <c r="T27" s="40"/>
+      <c r="U27" s="40"/>
+      <c r="V27" s="40"/>
+      <c r="W27" s="40"/>
+      <c r="X27" s="22"/>
+      <c r="Y27" s="22"/>
+      <c r="Z27" s="22"/>
+      <c r="AA27" s="22"/>
+      <c r="AB27" s="22"/>
+      <c r="AC27" s="22"/>
+      <c r="AD27" s="22"/>
+      <c r="AE27" s="34"/>
+      <c r="AF27" s="35"/>
     </row>
     <row r="28" spans="1:32">
-      <c r="A28" s="21"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="41"/>
-      <c r="M28" s="31"/>
-      <c r="N28" s="31"/>
-      <c r="O28" s="21"/>
-      <c r="P28" s="21"/>
-      <c r="Q28" s="21"/>
-      <c r="R28" s="21"/>
-      <c r="S28" s="21"/>
-      <c r="T28" s="42"/>
-      <c r="U28" s="42"/>
-      <c r="V28" s="42"/>
-      <c r="W28" s="42"/>
-      <c r="X28" s="21"/>
-      <c r="Y28" s="21"/>
-      <c r="Z28" s="21"/>
-      <c r="AA28" s="21"/>
-      <c r="AB28" s="21"/>
-      <c r="AC28" s="21"/>
-      <c r="AD28" s="21"/>
-      <c r="AE28" s="48"/>
-      <c r="AF28" s="49"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="39"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="22"/>
+      <c r="R28" s="22"/>
+      <c r="S28" s="22"/>
+      <c r="T28" s="40"/>
+      <c r="U28" s="40"/>
+      <c r="V28" s="40"/>
+      <c r="W28" s="40"/>
+      <c r="X28" s="22"/>
+      <c r="Y28" s="22"/>
+      <c r="Z28" s="22"/>
+      <c r="AA28" s="22"/>
+      <c r="AB28" s="22"/>
+      <c r="AC28" s="22"/>
+      <c r="AD28" s="22"/>
+      <c r="AE28" s="34"/>
+      <c r="AF28" s="35"/>
     </row>
     <row r="29" spans="1:32">
-      <c r="A29" s="21"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="41"/>
-      <c r="M29" s="31"/>
-      <c r="N29" s="31"/>
-      <c r="O29" s="21"/>
-      <c r="P29" s="21"/>
-      <c r="Q29" s="21"/>
-      <c r="R29" s="21"/>
-      <c r="S29" s="21"/>
-      <c r="T29" s="42"/>
-      <c r="U29" s="42"/>
-      <c r="V29" s="42"/>
-      <c r="W29" s="42"/>
-      <c r="X29" s="21"/>
-      <c r="Y29" s="21"/>
-      <c r="Z29" s="21"/>
-      <c r="AA29" s="21"/>
-      <c r="AB29" s="21"/>
-      <c r="AC29" s="21"/>
-      <c r="AD29" s="21"/>
-      <c r="AE29" s="48"/>
-      <c r="AF29" s="49"/>
+      <c r="A29" s="22"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="50"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="39"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="22"/>
+      <c r="S29" s="22"/>
+      <c r="T29" s="40"/>
+      <c r="U29" s="40"/>
+      <c r="V29" s="40"/>
+      <c r="W29" s="40"/>
+      <c r="X29" s="22"/>
+      <c r="Y29" s="22"/>
+      <c r="Z29" s="22"/>
+      <c r="AA29" s="22"/>
+      <c r="AB29" s="22"/>
+      <c r="AC29" s="22"/>
+      <c r="AD29" s="22"/>
+      <c r="AE29" s="34"/>
+      <c r="AF29" s="35"/>
     </row>
     <row r="30" spans="1:32">
-      <c r="A30" s="21"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="41"/>
-      <c r="M30" s="31"/>
-      <c r="N30" s="31"/>
-      <c r="O30" s="21"/>
-      <c r="P30" s="21"/>
-      <c r="Q30" s="21"/>
-      <c r="R30" s="21"/>
-      <c r="S30" s="21"/>
-      <c r="T30" s="42"/>
-      <c r="U30" s="42"/>
-      <c r="V30" s="42"/>
-      <c r="W30" s="42"/>
-      <c r="X30" s="21"/>
-      <c r="Y30" s="21"/>
-      <c r="Z30" s="21"/>
-      <c r="AA30" s="21"/>
-      <c r="AB30" s="21"/>
-      <c r="AC30" s="21"/>
-      <c r="AD30" s="21"/>
-      <c r="AE30" s="50"/>
-      <c r="AF30" s="51"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="50"/>
+      <c r="M30" s="39"/>
+      <c r="N30" s="39"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="22"/>
+      <c r="Q30" s="22"/>
+      <c r="R30" s="22"/>
+      <c r="S30" s="22"/>
+      <c r="T30" s="40"/>
+      <c r="U30" s="40"/>
+      <c r="V30" s="40"/>
+      <c r="W30" s="40"/>
+      <c r="X30" s="22"/>
+      <c r="Y30" s="22"/>
+      <c r="Z30" s="22"/>
+      <c r="AA30" s="22"/>
+      <c r="AB30" s="22"/>
+      <c r="AC30" s="22"/>
+      <c r="AD30" s="22"/>
+      <c r="AE30" s="36"/>
+      <c r="AF30" s="37"/>
     </row>
     <row r="31" spans="1:32">
       <c r="K31" s="7"/>
-      <c r="L31" s="41"/>
-      <c r="X31" s="21"/>
-      <c r="Y31" s="21"/>
-      <c r="Z31" s="21"/>
+      <c r="L31" s="50"/>
+      <c r="X31" s="22"/>
+      <c r="Y31" s="22"/>
+      <c r="Z31" s="22"/>
       <c r="AE31" s="7"/>
       <c r="AF31" s="7"/>
     </row>
     <row r="32" spans="1:32">
       <c r="K32" s="7"/>
-      <c r="L32" s="41"/>
-      <c r="X32" s="21"/>
-      <c r="Y32" s="21"/>
-      <c r="Z32" s="21"/>
+      <c r="L32" s="50"/>
+      <c r="X32" s="22"/>
+      <c r="Y32" s="22"/>
+      <c r="Z32" s="22"/>
       <c r="AE32" s="7"/>
       <c r="AF32" s="7"/>
     </row>
     <row r="33" spans="11:32">
       <c r="K33" s="7"/>
-      <c r="X33" s="21"/>
-      <c r="Y33" s="21"/>
-      <c r="Z33" s="21"/>
+      <c r="X33" s="22"/>
+      <c r="Y33" s="22"/>
+      <c r="Z33" s="22"/>
       <c r="AE33" s="7"/>
       <c r="AF33" s="7"/>
     </row>
     <row r="34" spans="11:32">
       <c r="K34" s="7"/>
-      <c r="X34" s="21"/>
-      <c r="Y34" s="21"/>
-      <c r="Z34" s="21"/>
+      <c r="X34" s="22"/>
+      <c r="Y34" s="22"/>
+      <c r="Z34" s="22"/>
       <c r="AE34" s="7"/>
       <c r="AF34" s="7"/>
     </row>
     <row r="35" spans="11:32">
       <c r="K35" s="7"/>
-      <c r="X35" s="21"/>
-      <c r="Y35" s="21"/>
-      <c r="Z35" s="21"/>
+      <c r="X35" s="22"/>
+      <c r="Y35" s="22"/>
+      <c r="Z35" s="22"/>
       <c r="AE35" s="7"/>
       <c r="AF35" s="7"/>
     </row>
@@ -4118,6 +4293,23 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="A19:AC21"/>
+    <mergeCell ref="J22:J30"/>
+    <mergeCell ref="A22:A30"/>
+    <mergeCell ref="H22:H30"/>
+    <mergeCell ref="I22:I30"/>
+    <mergeCell ref="L22:L32"/>
+    <mergeCell ref="M22:M30"/>
+    <mergeCell ref="AA22:AA30"/>
+    <mergeCell ref="AB22:AB30"/>
+    <mergeCell ref="AC22:AC30"/>
+    <mergeCell ref="B22:B30"/>
+    <mergeCell ref="X22:X35"/>
+    <mergeCell ref="W22:W30"/>
+    <mergeCell ref="T22:T30"/>
+    <mergeCell ref="Z22:Z35"/>
+    <mergeCell ref="K22:K30"/>
+    <mergeCell ref="N22:N30"/>
     <mergeCell ref="AE22:AF30"/>
     <mergeCell ref="AD19:AD21"/>
     <mergeCell ref="AD22:AD30"/>
@@ -4134,23 +4326,6 @@
     <mergeCell ref="Y22:Y35"/>
     <mergeCell ref="V22:V30"/>
     <mergeCell ref="U22:U30"/>
-    <mergeCell ref="W22:W30"/>
-    <mergeCell ref="T22:T30"/>
-    <mergeCell ref="Z22:Z35"/>
-    <mergeCell ref="K22:K30"/>
-    <mergeCell ref="N22:N30"/>
-    <mergeCell ref="A19:AC21"/>
-    <mergeCell ref="J22:J30"/>
-    <mergeCell ref="A22:A30"/>
-    <mergeCell ref="H22:H30"/>
-    <mergeCell ref="I22:I30"/>
-    <mergeCell ref="L22:L32"/>
-    <mergeCell ref="M22:M30"/>
-    <mergeCell ref="AA22:AA30"/>
-    <mergeCell ref="AB22:AB30"/>
-    <mergeCell ref="AC22:AC30"/>
-    <mergeCell ref="B22:B30"/>
-    <mergeCell ref="X22:X35"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4165,7 +4340,7 @@
   <dimension ref="A2:AF49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -4302,76 +4477,76 @@
     <row r="6" spans="1:32" s="17" customFormat="1">
       <c r="A6" s="16"/>
       <c r="B6" s="16"/>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="51" t="s">
         <v>360</v>
       </c>
-      <c r="D6" s="43"/>
+      <c r="D6" s="51"/>
     </row>
     <row r="7" spans="1:32" s="17" customFormat="1">
       <c r="A7" s="16"/>
       <c r="B7" s="16"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
     </row>
     <row r="8" spans="1:32" s="17" customFormat="1">
       <c r="A8" s="16"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
     </row>
     <row r="9" spans="1:32" s="17" customFormat="1">
       <c r="A9" s="16"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
     </row>
     <row r="10" spans="1:32" s="17" customFormat="1">
       <c r="A10" s="16"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
     </row>
     <row r="11" spans="1:32" s="17" customFormat="1">
       <c r="A11" s="16"/>
       <c r="B11" s="16"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
     </row>
     <row r="12" spans="1:32" s="17" customFormat="1">
       <c r="A12" s="16"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
     </row>
     <row r="13" spans="1:32" s="17" customFormat="1">
       <c r="A13" s="16"/>
       <c r="B13" s="16"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
     </row>
     <row r="14" spans="1:32" s="17" customFormat="1">
       <c r="A14" s="16"/>
       <c r="B14" s="16"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
     </row>
     <row r="15" spans="1:32" s="17" customFormat="1">
       <c r="A15" s="16"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
     </row>
     <row r="16" spans="1:32" s="17" customFormat="1">
       <c r="A16" s="16"/>
       <c r="B16" s="16"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
     </row>
     <row r="17" spans="1:32" s="17" customFormat="1">
       <c r="A17" s="16"/>
       <c r="B17" s="16"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
     </row>
     <row r="18" spans="1:32">
       <c r="A18" s="10"/>
@@ -4402,10 +4577,10 @@
       <c r="AF18" s="7"/>
     </row>
     <row r="19" spans="1:32" ht="11.25" customHeight="1">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="23" t="s">
         <v>357</v>
       </c>
-      <c r="B19" s="24"/>
+      <c r="B19" s="25"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
@@ -4433,8 +4608,8 @@
       <c r="AF19" s="7"/>
     </row>
     <row r="20" spans="1:32" ht="11.25" customHeight="1">
-      <c r="A20" s="25"/>
-      <c r="B20" s="27"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="28"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
@@ -4462,8 +4637,8 @@
       <c r="AF20" s="7"/>
     </row>
     <row r="21" spans="1:32" ht="11.25" customHeight="1">
-      <c r="A21" s="28"/>
-      <c r="B21" s="30"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="31"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
@@ -4491,10 +4666,10 @@
       <c r="AF21" s="7"/>
     </row>
     <row r="22" spans="1:32" ht="11.25" customHeight="1">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="22" t="s">
         <v>358</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="22" t="s">
         <v>359</v>
       </c>
       <c r="C22" s="7"/>
@@ -4524,8 +4699,8 @@
       <c r="AF22" s="7"/>
     </row>
     <row r="23" spans="1:32" ht="11.25" customHeight="1">
-      <c r="A23" s="21"/>
-      <c r="B23" s="21"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="22"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
@@ -4553,8 +4728,8 @@
       <c r="AF23" s="7"/>
     </row>
     <row r="24" spans="1:32">
-      <c r="A24" s="21"/>
-      <c r="B24" s="21"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="22"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
@@ -4582,8 +4757,8 @@
       <c r="AF24" s="7"/>
     </row>
     <row r="25" spans="1:32">
-      <c r="A25" s="21"/>
-      <c r="B25" s="21"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="22"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
@@ -4611,8 +4786,8 @@
       <c r="AF25" s="7"/>
     </row>
     <row r="26" spans="1:32">
-      <c r="A26" s="21"/>
-      <c r="B26" s="21"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
@@ -4640,8 +4815,8 @@
       <c r="AF26" s="7"/>
     </row>
     <row r="27" spans="1:32">
-      <c r="A27" s="21"/>
-      <c r="B27" s="21"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
@@ -4669,8 +4844,8 @@
       <c r="AF27" s="7"/>
     </row>
     <row r="28" spans="1:32">
-      <c r="A28" s="21"/>
-      <c r="B28" s="21"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="22"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
@@ -4698,8 +4873,8 @@
       <c r="AF28" s="7"/>
     </row>
     <row r="29" spans="1:32">
-      <c r="A29" s="21"/>
-      <c r="B29" s="21"/>
+      <c r="A29" s="22"/>
+      <c r="B29" s="22"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
@@ -4727,8 +4902,8 @@
       <c r="AF29" s="7"/>
     </row>
     <row r="30" spans="1:32">
-      <c r="A30" s="21"/>
-      <c r="B30" s="21"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="22"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
@@ -5281,6 +5456,1312 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:AV30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25"/>
+  <cols>
+    <col min="1" max="1" width="15" style="10" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" style="10" customWidth="1"/>
+    <col min="6" max="8" width="27.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="18.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10" style="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11" style="10" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="22.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="8.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="9.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9" style="10" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="11.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="14" style="10" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="12.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="11" style="10" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="15" style="10" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="8.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="12.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="10.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="9.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="49" max="16384" width="9.140625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:48" s="14" customFormat="1" ht="18.75">
+      <c r="B2" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="18"/>
+      <c r="AA2" s="18"/>
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="18"/>
+      <c r="AD2" s="18"/>
+      <c r="AE2" s="18"/>
+      <c r="AF2" s="18"/>
+    </row>
+    <row r="3" spans="1:48" s="14" customFormat="1" ht="18.75">
+      <c r="B3" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="18"/>
+      <c r="Z3" s="18"/>
+      <c r="AA3" s="18"/>
+      <c r="AB3" s="18"/>
+      <c r="AC3" s="18"/>
+      <c r="AD3" s="18"/>
+      <c r="AE3" s="18"/>
+      <c r="AF3" s="18"/>
+    </row>
+    <row r="5" spans="1:48" ht="27" customHeight="1">
+      <c r="A5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="S5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="T5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="U5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="V5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="W5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="X5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ5" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL5" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM5" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP5" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ5" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR5" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS5" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU5" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV5" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:48">
+      <c r="A6" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="B6" s="11">
+        <v>2142</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="D6" s="11">
+        <v>1</v>
+      </c>
+      <c r="E6" s="10">
+        <v>-199</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="G6" s="10">
+        <v>2</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="K6" s="54">
+        <v>-199000000</v>
+      </c>
+      <c r="L6" s="54">
+        <v>1000000</v>
+      </c>
+      <c r="M6" s="54">
+        <v>1000000</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="P6" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q6" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="R6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="S6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="T6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="U6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="V6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="W6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="X6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA6" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB6" s="10">
+        <v>102</v>
+      </c>
+      <c r="AC6" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="AE6" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF6" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG6" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="AH6" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="AI6" s="10">
+        <v>2403</v>
+      </c>
+      <c r="AJ6" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK6" s="55">
+        <v>42024</v>
+      </c>
+      <c r="AL6" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="AM6" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AO6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AP6" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="AQ6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AR6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AS6" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AU6" s="10">
+        <v>100</v>
+      </c>
+      <c r="AV6" s="54">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:48">
+      <c r="A7" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="B7" s="10">
+        <v>2142</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="D7" s="10">
+        <v>10</v>
+      </c>
+      <c r="E7" s="10">
+        <v>-6</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="G7" s="10">
+        <v>2</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="K7" s="54">
+        <v>-3000000</v>
+      </c>
+      <c r="L7" s="54">
+        <v>500000</v>
+      </c>
+      <c r="M7" s="54">
+        <v>5000000</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="O7" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="P7" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q7" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="R7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="S7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="T7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="U7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="V7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="W7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="X7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA7" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB7" s="10">
+        <v>102</v>
+      </c>
+      <c r="AC7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="AE7" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF7" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG7" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH7" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="AI7" s="10">
+        <v>1403</v>
+      </c>
+      <c r="AJ7" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK7" s="55">
+        <v>42026</v>
+      </c>
+      <c r="AL7" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="AM7" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AO7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AP7" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="AQ7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AR7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AS7" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AU7" s="10">
+        <v>8</v>
+      </c>
+      <c r="AV7" s="54">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:48">
+      <c r="A8" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="B8" s="10">
+        <v>2142</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="D8" s="10">
+        <v>-1</v>
+      </c>
+      <c r="E8" s="10">
+        <v>-1</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="G8" s="10">
+        <v>1</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="K8" s="54">
+        <v>-100000</v>
+      </c>
+      <c r="L8" s="54">
+        <v>100000</v>
+      </c>
+      <c r="M8" s="54">
+        <v>-100000</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="O8" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="P8" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q8" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="R8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="S8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="T8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="U8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="V8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="W8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="X8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA8" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB8" s="10">
+        <v>102</v>
+      </c>
+      <c r="AC8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="AE8" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF8" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="AG8" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="AH8" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI8" s="10">
+        <v>6202</v>
+      </c>
+      <c r="AJ8" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK8" s="55">
+        <v>42016</v>
+      </c>
+      <c r="AL8" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="AM8" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="AN8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AO8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AP8" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="AQ8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AR8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AS8" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AU8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:48">
+      <c r="A9" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="B9" s="10">
+        <v>2142</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="D9" s="10">
+        <v>1000</v>
+      </c>
+      <c r="E9" s="10">
+        <v>-1000</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="G9" s="10">
+        <v>2</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="K9" s="54">
+        <v>-500000000</v>
+      </c>
+      <c r="L9" s="54">
+        <v>500000</v>
+      </c>
+      <c r="M9" s="54">
+        <v>500000000</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="O9" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="P9" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q9" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="R9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="S9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="T9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="U9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="V9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="W9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="X9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA9" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB9" s="10">
+        <v>102</v>
+      </c>
+      <c r="AC9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="AE9" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF9" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG9" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH9" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="AI9" s="10">
+        <v>1403</v>
+      </c>
+      <c r="AJ9" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK9" s="55">
+        <v>41824</v>
+      </c>
+      <c r="AL9" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="AM9" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AO9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AP9" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AR9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AS9" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AU9" s="10">
+        <v>1000</v>
+      </c>
+      <c r="AV9" s="54">
+        <v>500000000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:48">
+      <c r="A10" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="B10" s="10">
+        <v>2142</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="D10" s="10">
+        <v>1000</v>
+      </c>
+      <c r="E10" s="10">
+        <v>-1000</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="G10" s="10">
+        <v>2</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="K10" s="54">
+        <v>-500000000</v>
+      </c>
+      <c r="L10" s="54">
+        <v>500000</v>
+      </c>
+      <c r="M10" s="54">
+        <v>500000000</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="O10" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="P10" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="Q10" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="R10" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="S10" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="T10" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="U10" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="V10" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="W10" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="X10" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y10" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z10" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA10" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB10" s="10">
+        <v>102</v>
+      </c>
+      <c r="AC10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="AE10" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF10" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG10" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH10" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="AI10" s="10">
+        <v>1403</v>
+      </c>
+      <c r="AJ10" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK10" s="55">
+        <v>41824</v>
+      </c>
+      <c r="AL10" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="AM10" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN10" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AO10" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AP10" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ10" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AR10" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AS10" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT10" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AU10" s="10">
+        <v>1000</v>
+      </c>
+      <c r="AV10" s="54">
+        <v>500000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:48">
+      <c r="A11" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="B11" s="10">
+        <v>2142</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="D11" s="10">
+        <v>100</v>
+      </c>
+      <c r="E11" s="10">
+        <v>-100</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="G11" s="10">
+        <v>2</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="K11" s="54">
+        <v>-50000000</v>
+      </c>
+      <c r="L11" s="54">
+        <v>500000</v>
+      </c>
+      <c r="M11" s="54">
+        <v>50000000</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="O11" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="P11" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q11" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="R11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="S11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="T11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="U11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="V11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="W11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="X11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA11" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB11" s="10">
+        <v>102</v>
+      </c>
+      <c r="AC11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="AE11" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF11" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG11" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="AH11" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="AI11" s="10">
+        <v>1403</v>
+      </c>
+      <c r="AJ11" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK11" s="55">
+        <v>41991</v>
+      </c>
+      <c r="AL11" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="AM11" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AO11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AP11" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AR11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AS11" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AU11" s="10">
+        <v>100</v>
+      </c>
+      <c r="AV11" s="54">
+        <v>50000000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:48" ht="135">
+      <c r="A13" s="56" t="s">
+        <v>207</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="B21" s="10">
+        <v>68176</v>
+      </c>
+      <c r="C21" s="10">
+        <v>2</v>
+      </c>
+      <c r="E21" s="58" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="B22" s="10">
+        <v>100035</v>
+      </c>
+      <c r="C22" s="10">
+        <v>2</v>
+      </c>
+      <c r="E22" s="58" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="B23" s="10">
+        <v>2142</v>
+      </c>
+      <c r="C23" s="10">
+        <v>2</v>
+      </c>
+      <c r="E23" s="58" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="57" t="s">
+        <v>408</v>
+      </c>
+      <c r="B24" s="57">
+        <v>1806011</v>
+      </c>
+      <c r="C24" s="10">
+        <v>2</v>
+      </c>
+      <c r="E24" s="58" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="57" t="s">
+        <v>408</v>
+      </c>
+      <c r="B25" s="57">
+        <v>1806012</v>
+      </c>
+      <c r="C25" s="10">
+        <v>2</v>
+      </c>
+      <c r="E25" s="58" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="B26" s="10">
+        <v>100003</v>
+      </c>
+      <c r="C26" s="10">
+        <v>2</v>
+      </c>
+      <c r="E26" s="58" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="B27" s="10">
+        <v>8133</v>
+      </c>
+      <c r="C27" s="10">
+        <v>2</v>
+      </c>
+      <c r="E27" s="58" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="B28" s="10">
+        <v>8133</v>
+      </c>
+      <c r="C28" s="10">
+        <v>2</v>
+      </c>
+      <c r="E28" s="58" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="B29" s="10">
+        <v>8133</v>
+      </c>
+      <c r="C29" s="10">
+        <v>2</v>
+      </c>
+      <c r="E29" s="58" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="B30" s="10">
+        <v>1687034</v>
+      </c>
+      <c r="C30" s="10">
+        <v>2</v>
+      </c>
+      <c r="E30" s="58" t="s">
+        <v>414</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:AV40"/>
   <sheetViews>
@@ -7391,136 +8872,136 @@
       </c>
     </row>
     <row r="20" spans="1:48">
-      <c r="A20" s="44" t="s">
+      <c r="A20" s="52" t="s">
         <v>196</v>
       </c>
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="52" t="s">
         <v>197</v>
       </c>
-      <c r="C20" s="44" t="s">
+      <c r="C20" s="52" t="s">
         <v>198</v>
       </c>
-      <c r="D20" s="44" t="s">
+      <c r="D20" s="52" t="s">
         <v>199</v>
       </c>
-      <c r="E20" s="44" t="s">
+      <c r="E20" s="52" t="s">
         <v>201</v>
       </c>
-      <c r="F20" s="44" t="s">
+      <c r="F20" s="52" t="s">
         <v>203</v>
       </c>
-      <c r="G20" s="44" t="s">
+      <c r="G20" s="52" t="s">
         <v>204</v>
       </c>
-      <c r="H20" s="44" t="s">
+      <c r="H20" s="52" t="s">
         <v>205</v>
       </c>
-      <c r="I20" s="44" t="s">
+      <c r="I20" s="52" t="s">
         <v>206</v>
       </c>
-      <c r="J20" s="44" t="s">
+      <c r="J20" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="K20" s="44" t="s">
+      <c r="K20" s="52" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="21" spans="1:48">
-      <c r="A21" s="44"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="44"/>
+      <c r="A21" s="52"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
     </row>
     <row r="22" spans="1:48">
-      <c r="A22" s="44"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="44"/>
+      <c r="A22" s="52"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
     </row>
     <row r="23" spans="1:48">
-      <c r="A23" s="44"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="44"/>
+      <c r="A23" s="52"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
     </row>
     <row r="24" spans="1:48">
-      <c r="A24" s="44"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="44"/>
+      <c r="A24" s="52"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
     </row>
     <row r="25" spans="1:48">
-      <c r="A25" s="44"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="44"/>
+      <c r="A25" s="52"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="52"/>
     </row>
     <row r="27" spans="1:48">
-      <c r="D27" s="44" t="s">
+      <c r="D27" s="52" t="s">
         <v>200</v>
       </c>
-      <c r="E27" s="45" t="s">
+      <c r="E27" s="53" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="28" spans="1:48">
-      <c r="D28" s="44"/>
-      <c r="E28" s="45"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="53"/>
     </row>
     <row r="29" spans="1:48">
-      <c r="D29" s="44"/>
-      <c r="E29" s="45"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="53"/>
     </row>
     <row r="30" spans="1:48">
-      <c r="D30" s="44"/>
-      <c r="E30" s="45"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="53"/>
     </row>
     <row r="31" spans="1:48">
-      <c r="D31" s="44"/>
-      <c r="E31" s="45"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="53"/>
     </row>
     <row r="32" spans="1:48">
-      <c r="D32" s="44"/>
-      <c r="E32" s="45"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="53"/>
     </row>
     <row r="33" spans="1:32">
-      <c r="D33" s="44"/>
-      <c r="E33" s="45"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="53"/>
     </row>
     <row r="40" spans="1:32" ht="15">
       <c r="A40" t="s">
@@ -7641,12 +9122,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C2:AR49"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F49" sqref="F2:F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7665,11 +9146,11 @@
     </row>
     <row r="3" spans="3:13">
       <c r="C3" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" ref="F3:F49" si="0">CONCATENATE(C3,",")</f>
-        <v>ds_observacao,</v>
+        <v>nr_id_sku,</v>
       </c>
       <c r="M3" t="s">
         <v>3</v>
@@ -7677,11 +9158,11 @@
     </row>
     <row r="4" spans="3:13">
       <c r="C4" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="0"/>
-        <v>ds_situacao,</v>
+        <v>ds_chave,</v>
       </c>
       <c r="M4" t="s">
         <v>2</v>
@@ -7689,11 +9170,11 @@
     </row>
     <row r="5" spans="3:13">
       <c r="C5" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
-        <v>ds_user_inclusao,</v>
+        <v>qtd_total,</v>
       </c>
       <c r="M5" t="s">
         <v>4</v>
@@ -7701,11 +9182,11 @@
     </row>
     <row r="6" spans="3:13">
       <c r="C6" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
-        <v>dt_inclusao,</v>
+        <v>qtd_saldo,</v>
       </c>
       <c r="M6" t="s">
         <v>5</v>
@@ -7713,11 +9194,11 @@
     </row>
     <row r="7" spans="3:13">
       <c r="C7" t="s">
-        <v>243</v>
+        <v>1</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
-        <v>nr_cond_pagto,</v>
+        <v>nr_id_fornecedor,</v>
       </c>
       <c r="M7" t="s">
         <v>7</v>
@@ -7725,11 +9206,11 @@
     </row>
     <row r="8" spans="3:13">
       <c r="C8" t="s">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
-        <v>ds_cond_pagto,</v>
+        <v>nr_id_filial,</v>
       </c>
       <c r="M8" t="s">
         <v>28</v>
@@ -7737,11 +9218,11 @@
     </row>
     <row r="9" spans="3:13">
       <c r="C9" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
-        <v>dt_emissao,</v>
+        <v>ds_cliente,</v>
       </c>
       <c r="M9" t="s">
         <v>30</v>
@@ -7749,11 +9230,11 @@
     </row>
     <row r="10" spans="3:13">
       <c r="C10" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
-        <v>ds_cliente,</v>
+        <v>ds_cod_fornecedor,</v>
       </c>
       <c r="M10" t="s">
         <v>27</v>
@@ -7761,11 +9242,11 @@
     </row>
     <row r="11" spans="3:13">
       <c r="C11" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
-        <v>nr_id_fornecedor,</v>
+        <v>ds_produto,</v>
       </c>
       <c r="M11" t="s">
         <v>29</v>
@@ -7773,11 +9254,11 @@
     </row>
     <row r="12" spans="3:13">
       <c r="C12" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
-        <v>nr_id_filial,</v>
+        <v>vl_saldo,</v>
       </c>
       <c r="M12" t="s">
         <v>46</v>
@@ -7785,11 +9266,11 @@
     </row>
     <row r="13" spans="3:13">
       <c r="C13" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
-        <v>ds_geracao,</v>
+        <v>vl_unit_ped,</v>
       </c>
       <c r="M13" t="s">
         <v>47</v>
@@ -7797,11 +9278,11 @@
     </row>
     <row r="14" spans="3:13">
       <c r="C14" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
-        <v>nr_id_sku,</v>
+        <v>vl_total,</v>
       </c>
       <c r="M14" t="s">
         <v>8</v>
@@ -7809,11 +9290,11 @@
     </row>
     <row r="15" spans="3:13">
       <c r="C15" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="0"/>
-        <v>ds_produto,</v>
+        <v>ds_ean,</v>
       </c>
       <c r="M15" t="s">
         <v>10</v>
@@ -7821,11 +9302,11 @@
     </row>
     <row r="16" spans="3:13">
       <c r="C16" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="0"/>
-        <v>nr_id_depto,</v>
+        <v>dt_emissao,</v>
       </c>
       <c r="M16" t="s">
         <v>11</v>
@@ -7833,11 +9314,11 @@
     </row>
     <row r="17" spans="3:13">
       <c r="C17" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="0"/>
-        <v>ds_depto,</v>
+        <v>dt_entrega,</v>
       </c>
       <c r="M17" t="s">
         <v>9</v>
@@ -7845,11 +9326,11 @@
     </row>
     <row r="18" spans="3:13">
       <c r="C18" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="0"/>
-        <v>qtd_liquidado,</v>
+        <v>ds_abc,</v>
       </c>
       <c r="M18" t="s">
         <v>12</v>
@@ -7857,11 +9338,11 @@
     </row>
     <row r="19" spans="3:13">
       <c r="C19" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="0"/>
-        <v>vl_liquidado,</v>
+        <v>qtd_estoque,</v>
       </c>
       <c r="M19" t="s">
         <v>14</v>
@@ -7869,11 +9350,11 @@
     </row>
     <row r="20" spans="3:13">
       <c r="C20" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="0"/>
-        <v>qtd_total,</v>
+        <v>ds_cobertura,</v>
       </c>
       <c r="M20" t="s">
         <v>15</v>
@@ -7881,11 +9362,11 @@
     </row>
     <row r="21" spans="3:13">
       <c r="C21" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
-        <v>vl_unit_ped,</v>
+        <v>ds_prioridade,</v>
       </c>
       <c r="M21" t="s">
         <v>31</v>
@@ -7893,11 +9374,11 @@
     </row>
     <row r="22" spans="3:13">
       <c r="C22" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
-        <v>vl_total,</v>
+        <v>ds_rascunho_consolidado,</v>
       </c>
       <c r="M22" t="s">
         <v>32</v>
@@ -7905,11 +9386,11 @@
     </row>
     <row r="23" spans="3:13">
       <c r="C23" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="0"/>
-        <v>qtd_saldo,</v>
+        <v>ds_sit_analise,</v>
       </c>
       <c r="M23" t="s">
         <v>33</v>
@@ -7917,11 +9398,11 @@
     </row>
     <row r="24" spans="3:13">
       <c r="C24" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="0"/>
-        <v>vl_saldo,</v>
+        <v>ds_nf_consolidado,</v>
       </c>
       <c r="M24" t="s">
         <v>34</v>
@@ -7929,11 +9410,11 @@
     </row>
     <row r="25" spans="3:13">
       <c r="C25" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="0"/>
-        <v>nr_id_natope,</v>
+        <v>ds_saldo_si_consolidado,</v>
       </c>
       <c r="M25" t="s">
         <v>242</v>
@@ -7941,11 +9422,11 @@
     </row>
     <row r="26" spans="3:13">
       <c r="C26" t="s">
-        <v>242</v>
+        <v>24</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="0"/>
-        <v>nr_seq_natope,</v>
+        <v>nr_soma_rascunho,</v>
       </c>
       <c r="M26" t="s">
         <v>16</v>
@@ -7953,11 +9434,11 @@
     </row>
     <row r="27" spans="3:13">
       <c r="C27" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="0"/>
-        <v>dt_entrega,</v>
+        <v>ds_quantidade_consolidado,</v>
       </c>
       <c r="M27" t="s">
         <v>35</v>
@@ -7965,11 +9446,11 @@
     </row>
     <row r="28" spans="3:13">
       <c r="C28" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="0"/>
-        <v>ds_status_rec,</v>
+        <v>ds_kit,</v>
       </c>
       <c r="M28" t="s">
         <v>36</v>
@@ -7977,11 +9458,11 @@
     </row>
     <row r="29" spans="3:13">
       <c r="C29" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" si="0"/>
-        <v>ds_abc,</v>
+        <v>nr_id_depto,</v>
       </c>
       <c r="M29" t="s">
         <v>37</v>
@@ -7989,11 +9470,11 @@
     </row>
     <row r="30" spans="3:13">
       <c r="C30" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="0"/>
-        <v>ds_chave,</v>
+        <v>nr_cnpj_fabricante,</v>
       </c>
       <c r="M30" t="s">
         <v>243</v>
@@ -8001,11 +9482,11 @@
     </row>
     <row r="31" spans="3:13">
       <c r="C31" t="s">
-        <v>244</v>
+        <v>29</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" si="0"/>
-        <v>nr_inedoneo,</v>
+        <v>ds_depto,</v>
       </c>
       <c r="M31" t="s">
         <v>38</v>
@@ -8013,11 +9494,11 @@
     </row>
     <row r="32" spans="3:13">
       <c r="C32" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" si="0"/>
-        <v>nr_cnpj_fabricante,</v>
+        <v>ds_fabricante,</v>
       </c>
       <c r="M32" t="s">
         <v>0</v>
@@ -8025,26 +9506,32 @@
     </row>
     <row r="33" spans="3:44">
       <c r="C33" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F33" t="str">
         <f t="shared" si="0"/>
-        <v>ds_fabricante,</v>
+        <v>ds_geracao,</v>
       </c>
       <c r="M33" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="34" spans="3:44">
+      <c r="C34" t="s">
+        <v>32</v>
+      </c>
       <c r="F34" t="str">
         <f t="shared" si="0"/>
-        <v>,</v>
+        <v>ds_situacao,</v>
       </c>
     </row>
     <row r="35" spans="3:44">
+      <c r="C35" t="s">
+        <v>33</v>
+      </c>
       <c r="F35" t="str">
         <f t="shared" si="0"/>
-        <v>,</v>
+        <v>ds_status_rec,</v>
       </c>
       <c r="M35" t="s">
         <v>1</v>
@@ -8144,87 +9631,129 @@
       </c>
     </row>
     <row r="36" spans="3:44">
+      <c r="C36" t="s">
+        <v>34</v>
+      </c>
       <c r="F36" t="str">
         <f t="shared" si="0"/>
-        <v>,</v>
+        <v>nr_id_natope,</v>
       </c>
     </row>
     <row r="37" spans="3:44">
+      <c r="C37" t="s">
+        <v>35</v>
+      </c>
       <c r="F37" t="str">
         <f t="shared" si="0"/>
-        <v>,</v>
+        <v>ds_observacao,</v>
       </c>
     </row>
     <row r="38" spans="3:44">
+      <c r="C38" t="s">
+        <v>36</v>
+      </c>
       <c r="F38" t="str">
         <f t="shared" si="0"/>
-        <v>,</v>
+        <v>dt_inclusao,</v>
       </c>
     </row>
     <row r="39" spans="3:44">
+      <c r="C39" t="s">
+        <v>37</v>
+      </c>
       <c r="F39" t="str">
         <f t="shared" si="0"/>
-        <v>,</v>
+        <v>ds_user_inclusao,</v>
       </c>
     </row>
     <row r="40" spans="3:44">
+      <c r="C40" t="s">
+        <v>38</v>
+      </c>
       <c r="F40" t="str">
         <f t="shared" si="0"/>
-        <v>,</v>
+        <v>ds_cond_pagto,</v>
       </c>
     </row>
     <row r="41" spans="3:44">
+      <c r="C41" t="s">
+        <v>39</v>
+      </c>
       <c r="F41" t="str">
         <f t="shared" si="0"/>
-        <v>,</v>
+        <v>vl_cmv_unitario,</v>
       </c>
     </row>
     <row r="42" spans="3:44">
+      <c r="C42" t="s">
+        <v>40</v>
+      </c>
       <c r="F42" t="str">
         <f t="shared" si="0"/>
-        <v>,</v>
+        <v>nr_qtd_divergencia,</v>
       </c>
     </row>
     <row r="43" spans="3:44">
+      <c r="C43" t="s">
+        <v>41</v>
+      </c>
       <c r="F43" t="str">
         <f t="shared" si="0"/>
-        <v>,</v>
+        <v>ds_atraso,</v>
       </c>
     </row>
     <row r="44" spans="3:44">
+      <c r="C44" t="s">
+        <v>42</v>
+      </c>
       <c r="F44" t="str">
         <f t="shared" si="0"/>
-        <v>,</v>
+        <v>vl_preco_custo,</v>
       </c>
     </row>
     <row r="45" spans="3:44">
+      <c r="C45" t="s">
+        <v>43</v>
+      </c>
       <c r="F45" t="str">
         <f t="shared" si="0"/>
-        <v>,</v>
+        <v>vl_divergencia_custo,</v>
       </c>
     </row>
     <row r="46" spans="3:44">
+      <c r="C46" t="s">
+        <v>44</v>
+      </c>
       <c r="F46" t="str">
         <f t="shared" si="0"/>
-        <v>,</v>
+        <v>ds_ok_fiscal,</v>
       </c>
     </row>
     <row r="47" spans="3:44">
+      <c r="C47" t="s">
+        <v>45</v>
+      </c>
       <c r="F47" t="str">
         <f t="shared" si="0"/>
-        <v>,</v>
+        <v>ds_sku_produzido,</v>
       </c>
     </row>
     <row r="48" spans="3:44">
+      <c r="C48" t="s">
+        <v>46</v>
+      </c>
       <c r="F48" t="str">
         <f t="shared" si="0"/>
-        <v>,</v>
-      </c>
-    </row>
-    <row r="49" spans="6:6">
+        <v>qtd_liquidado,</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6">
+      <c r="C49" t="s">
+        <v>47</v>
+      </c>
       <c r="F49" t="str">
         <f t="shared" si="0"/>
-        <v>,</v>
+        <v>vl_liquidado,</v>
       </c>
     </row>
   </sheetData>

--- a/Documentação/Planilhas/Conferencia_follow_Relatorio.xlsx
+++ b/Documentação/Planilhas/Conferencia_follow_Relatorio.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="stg_follow_rascunho" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1607" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1611" uniqueCount="420">
   <si>
     <t>ds_chave</t>
   </si>
@@ -1123,9 +1123,6 @@
     <t>Não tem dados. Na tabela MIS_SHARED_DIMENSION.dim.ods_produto o campo ds_item_ativo está como "Não" ou "Não se aplica"</t>
   </si>
   <si>
-    <t>Não consegui encontrar essas informações no LN</t>
-  </si>
-  <si>
     <t>Sessão "whwmd4500m000" (Itens Armazenamento"</t>
   </si>
   <si>
@@ -1286,6 +1283,21 @@
   </si>
   <si>
     <t>tem e registros na tabela MIS_SHARED_DIMENSION.dim.ods_produto, mas no LN só tem 1 registro na tabela de item</t>
+  </si>
+  <si>
+    <t>Sessão "tcibd0501m000" (Itens Geral)</t>
+  </si>
+  <si>
+    <t>Informar o nr_id_sku na segunda lacuna da coluna Item. Pedir o detalhamento do mesmo. Na aba superior "Dados do Agrupamento", seção "Seleção", pegar a informação do Fabricante.</t>
+  </si>
+  <si>
+    <t>Ir para a sessão "tcmcs0160m000" (Fabricantes), informar o Cód do Fabricante na primeira coluna Fabricante e pedir o detalhamento do mesmo</t>
+  </si>
+  <si>
+    <t>Na opção "Parceiro de Negócios Fornecedor", clicar na lupinha e pegar a informação da coluna "Entidade Fiscal" [sem considerar qualquer separador]</t>
+  </si>
+  <si>
+    <t>Informar o nr_id_sku na segunda lacuna da coluna Item. Pedir o detalhamento do mesmo. Na aba superior "Dados do Agrupamento", seção "Seleção", pegar a informação da segunda coluna do Fabricante.</t>
   </si>
 </sst>
 </file>
@@ -1502,7 +1514,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1558,6 +1570,21 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1591,33 +1618,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1648,6 +1648,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1657,20 +1666,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2245,128 +2245,128 @@
       <c r="F17" s="10"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="28" t="s">
         <v>235</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="23" t="s">
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="28" t="s">
         <v>236</v>
       </c>
-      <c r="F18" s="25"/>
+      <c r="F18" s="30"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="26"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="28"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="33"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="29"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="31"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="36"/>
     </row>
     <row r="21" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="27" t="s">
         <v>231</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="27" t="s">
         <v>232</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="26" t="s">
         <v>233</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="27" t="s">
         <v>234</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="E21" s="26" t="s">
         <v>237</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="F21" s="27" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="22"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="22"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="27"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="22"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="22"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="27"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="22"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="22"/>
+      <c r="A24" s="27"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="27"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="22"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="22"/>
+      <c r="A25" s="27"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="27"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="22"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="22"/>
+      <c r="A26" s="27"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="27"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="22"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="22"/>
+      <c r="A27" s="27"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="27"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="D28" s="22"/>
-      <c r="F28" s="22"/>
+      <c r="D28" s="27"/>
+      <c r="F28" s="27"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="D29" s="22"/>
-      <c r="F29" s="22"/>
+      <c r="D29" s="27"/>
+      <c r="F29" s="27"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="D30" s="22"/>
-      <c r="F30" s="22"/>
+      <c r="D30" s="27"/>
+      <c r="F30" s="27"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="D31" s="22"/>
-      <c r="F31" s="22"/>
+      <c r="D31" s="27"/>
+      <c r="F31" s="27"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="D32" s="22"/>
-      <c r="F32" s="22"/>
+      <c r="D32" s="27"/>
+      <c r="F32" s="27"/>
     </row>
     <row r="33" spans="4:6">
-      <c r="D33" s="22"/>
-      <c r="F33" s="22"/>
+      <c r="D33" s="27"/>
+      <c r="F33" s="27"/>
     </row>
     <row r="34" spans="4:6">
-      <c r="D34" s="22"/>
-      <c r="F34" s="22"/>
+      <c r="D34" s="27"/>
+      <c r="F34" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2391,8 +2391,8 @@
   </sheetPr>
   <dimension ref="A2:AF49"/>
   <sheetViews>
-    <sheetView topLeftCell="V4" workbookViewId="0">
-      <selection activeCell="X22" sqref="X22:X35"/>
+    <sheetView tabSelected="1" topLeftCell="Z4" workbookViewId="0">
+      <selection activeCell="AH41" sqref="AH41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -2426,7 +2426,7 @@
     <col min="28" max="28" width="18.42578125" style="10" customWidth="1"/>
     <col min="29" max="29" width="21.42578125" style="10" customWidth="1"/>
     <col min="30" max="30" width="31.7109375" style="10" customWidth="1"/>
-    <col min="31" max="31" width="13.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="21.85546875" style="10" customWidth="1"/>
     <col min="32" max="32" width="24.7109375" style="10" bestFit="1" customWidth="1"/>
     <col min="33" max="16384" width="9.140625" style="7"/>
   </cols>
@@ -2680,7 +2680,7 @@
         <v>250</v>
       </c>
       <c r="AD6" s="19" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AE6" s="19" t="s">
         <v>264</v>
@@ -2876,7 +2876,7 @@
         <v>250</v>
       </c>
       <c r="AD8" s="19" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AE8" s="19" t="s">
         <v>264</v>
@@ -3712,574 +3712,572 @@
       <c r="O18" s="10"/>
     </row>
     <row r="19" spans="1:32" ht="11.25" customHeight="1">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="37" t="s">
         <v>236</v>
       </c>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="42"/>
-      <c r="N19" s="42"/>
-      <c r="O19" s="42"/>
-      <c r="P19" s="42"/>
-      <c r="Q19" s="42"/>
-      <c r="R19" s="42"/>
-      <c r="S19" s="42"/>
-      <c r="T19" s="42"/>
-      <c r="U19" s="42"/>
-      <c r="V19" s="42"/>
-      <c r="W19" s="42"/>
-      <c r="X19" s="42"/>
-      <c r="Y19" s="42"/>
-      <c r="Z19" s="42"/>
-      <c r="AA19" s="42"/>
-      <c r="AB19" s="42"/>
-      <c r="AC19" s="43"/>
-      <c r="AD19" s="38" t="s">
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="38"/>
+      <c r="P19" s="38"/>
+      <c r="Q19" s="38"/>
+      <c r="R19" s="38"/>
+      <c r="S19" s="38"/>
+      <c r="T19" s="38"/>
+      <c r="U19" s="38"/>
+      <c r="V19" s="38"/>
+      <c r="W19" s="38"/>
+      <c r="X19" s="38"/>
+      <c r="Y19" s="38"/>
+      <c r="Z19" s="38"/>
+      <c r="AA19" s="38"/>
+      <c r="AB19" s="38"/>
+      <c r="AC19" s="39"/>
+      <c r="AD19" s="49" t="s">
+        <v>361</v>
+      </c>
+      <c r="AE19" s="53" t="s">
+        <v>415</v>
+      </c>
+      <c r="AF19" s="53"/>
+    </row>
+    <row r="20" spans="1:32" ht="11.25" customHeight="1">
+      <c r="A20" s="40"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="41"/>
+      <c r="P20" s="41"/>
+      <c r="Q20" s="41"/>
+      <c r="R20" s="41"/>
+      <c r="S20" s="41"/>
+      <c r="T20" s="41"/>
+      <c r="U20" s="41"/>
+      <c r="V20" s="41"/>
+      <c r="W20" s="41"/>
+      <c r="X20" s="41"/>
+      <c r="Y20" s="41"/>
+      <c r="Z20" s="41"/>
+      <c r="AA20" s="41"/>
+      <c r="AB20" s="41"/>
+      <c r="AC20" s="42"/>
+      <c r="AD20" s="49"/>
+      <c r="AE20" s="53"/>
+      <c r="AF20" s="53"/>
+    </row>
+    <row r="21" spans="1:32" ht="11.25" customHeight="1">
+      <c r="A21" s="43"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="44"/>
+      <c r="N21" s="44"/>
+      <c r="O21" s="44"/>
+      <c r="P21" s="44"/>
+      <c r="Q21" s="44"/>
+      <c r="R21" s="44"/>
+      <c r="S21" s="44"/>
+      <c r="T21" s="44"/>
+      <c r="U21" s="44"/>
+      <c r="V21" s="44"/>
+      <c r="W21" s="44"/>
+      <c r="X21" s="44"/>
+      <c r="Y21" s="44"/>
+      <c r="Z21" s="44"/>
+      <c r="AA21" s="44"/>
+      <c r="AB21" s="44"/>
+      <c r="AC21" s="45"/>
+      <c r="AD21" s="49"/>
+      <c r="AE21" s="53"/>
+      <c r="AF21" s="53"/>
+    </row>
+    <row r="22" spans="1:32" ht="11.25" customHeight="1">
+      <c r="A22" s="27" t="s">
+        <v>324</v>
+      </c>
+      <c r="B22" s="47" t="s">
+        <v>342</v>
+      </c>
+      <c r="C22" s="47" t="s">
+        <v>348</v>
+      </c>
+      <c r="D22" s="48" t="s">
+        <v>343</v>
+      </c>
+      <c r="E22" s="48" t="s">
+        <v>346</v>
+      </c>
+      <c r="F22" s="47" t="s">
+        <v>344</v>
+      </c>
+      <c r="G22" s="47" t="s">
+        <v>345</v>
+      </c>
+      <c r="H22" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="I22" s="27" t="s">
+        <v>325</v>
+      </c>
+      <c r="J22" s="27" t="s">
+        <v>326</v>
+      </c>
+      <c r="K22" s="27" t="s">
+        <v>351</v>
+      </c>
+      <c r="L22" s="46" t="s">
+        <v>327</v>
+      </c>
+      <c r="M22" s="47" t="s">
+        <v>347</v>
+      </c>
+      <c r="N22" s="47" t="s">
+        <v>352</v>
+      </c>
+      <c r="O22" s="27" t="s">
+        <v>328</v>
+      </c>
+      <c r="P22" s="27" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q22" s="27" t="s">
+        <v>330</v>
+      </c>
+      <c r="R22" s="27" t="s">
+        <v>331</v>
+      </c>
+      <c r="S22" s="27" t="s">
+        <v>332</v>
+      </c>
+      <c r="T22" s="48" t="s">
+        <v>333</v>
+      </c>
+      <c r="U22" s="48" t="s">
+        <v>338</v>
+      </c>
+      <c r="V22" s="48" t="s">
+        <v>337</v>
+      </c>
+      <c r="W22" s="48" t="s">
+        <v>339</v>
+      </c>
+      <c r="X22" s="27" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y22" s="27" t="s">
+        <v>335</v>
+      </c>
+      <c r="Z22" s="27" t="s">
+        <v>350</v>
+      </c>
+      <c r="AA22" s="27" t="s">
+        <v>340</v>
+      </c>
+      <c r="AB22" s="27" t="s">
+        <v>353</v>
+      </c>
+      <c r="AC22" s="27" t="s">
+        <v>341</v>
+      </c>
+      <c r="AD22" s="27" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="20" spans="1:32" ht="11.25" customHeight="1">
-      <c r="A20" s="44"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="45"/>
-      <c r="N20" s="45"/>
-      <c r="O20" s="45"/>
-      <c r="P20" s="45"/>
-      <c r="Q20" s="45"/>
-      <c r="R20" s="45"/>
-      <c r="S20" s="45"/>
-      <c r="T20" s="45"/>
-      <c r="U20" s="45"/>
-      <c r="V20" s="45"/>
-      <c r="W20" s="45"/>
-      <c r="X20" s="45"/>
-      <c r="Y20" s="45"/>
-      <c r="Z20" s="45"/>
-      <c r="AA20" s="45"/>
-      <c r="AB20" s="45"/>
-      <c r="AC20" s="46"/>
-      <c r="AD20" s="38"/>
-    </row>
-    <row r="21" spans="1:32" ht="11.25" customHeight="1">
-      <c r="A21" s="47"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="48"/>
-      <c r="N21" s="48"/>
-      <c r="O21" s="48"/>
-      <c r="P21" s="48"/>
-      <c r="Q21" s="48"/>
-      <c r="R21" s="48"/>
-      <c r="S21" s="48"/>
-      <c r="T21" s="48"/>
-      <c r="U21" s="48"/>
-      <c r="V21" s="48"/>
-      <c r="W21" s="48"/>
-      <c r="X21" s="48"/>
-      <c r="Y21" s="48"/>
-      <c r="Z21" s="48"/>
-      <c r="AA21" s="48"/>
-      <c r="AB21" s="48"/>
-      <c r="AC21" s="49"/>
-      <c r="AD21" s="38"/>
-    </row>
-    <row r="22" spans="1:32" ht="11.25" customHeight="1">
-      <c r="A22" s="22" t="s">
-        <v>324</v>
-      </c>
-      <c r="B22" s="39" t="s">
-        <v>342</v>
-      </c>
-      <c r="C22" s="39" t="s">
-        <v>348</v>
-      </c>
-      <c r="D22" s="40" t="s">
-        <v>343</v>
-      </c>
-      <c r="E22" s="40" t="s">
-        <v>346</v>
-      </c>
-      <c r="F22" s="39" t="s">
-        <v>344</v>
-      </c>
-      <c r="G22" s="39" t="s">
-        <v>345</v>
-      </c>
-      <c r="H22" s="22" t="s">
-        <v>197</v>
-      </c>
-      <c r="I22" s="22" t="s">
-        <v>325</v>
-      </c>
-      <c r="J22" s="22" t="s">
-        <v>326</v>
-      </c>
-      <c r="K22" s="22" t="s">
-        <v>351</v>
-      </c>
-      <c r="L22" s="50" t="s">
-        <v>327</v>
-      </c>
-      <c r="M22" s="39" t="s">
-        <v>347</v>
-      </c>
-      <c r="N22" s="39" t="s">
-        <v>352</v>
-      </c>
-      <c r="O22" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="P22" s="22" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q22" s="22" t="s">
-        <v>330</v>
-      </c>
-      <c r="R22" s="22" t="s">
-        <v>331</v>
-      </c>
-      <c r="S22" s="22" t="s">
-        <v>332</v>
-      </c>
-      <c r="T22" s="40" t="s">
-        <v>333</v>
-      </c>
-      <c r="U22" s="40" t="s">
-        <v>338</v>
-      </c>
-      <c r="V22" s="40" t="s">
-        <v>337</v>
-      </c>
-      <c r="W22" s="40" t="s">
-        <v>339</v>
-      </c>
-      <c r="X22" s="22" t="s">
-        <v>336</v>
-      </c>
-      <c r="Y22" s="22" t="s">
-        <v>335</v>
-      </c>
-      <c r="Z22" s="22" t="s">
-        <v>350</v>
-      </c>
-      <c r="AA22" s="22" t="s">
-        <v>340</v>
-      </c>
-      <c r="AB22" s="22" t="s">
-        <v>353</v>
-      </c>
-      <c r="AC22" s="22" t="s">
-        <v>341</v>
-      </c>
-      <c r="AD22" s="22" t="s">
-        <v>363</v>
-      </c>
-      <c r="AE22" s="32" t="s">
-        <v>361</v>
-      </c>
-      <c r="AF22" s="33"/>
+      <c r="AE22" s="27" t="s">
+        <v>416</v>
+      </c>
+      <c r="AF22" s="27" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="23" spans="1:32" ht="11.25" customHeight="1">
-      <c r="A23" s="22"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="50"/>
-      <c r="M23" s="39"/>
-      <c r="N23" s="39"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="22"/>
-      <c r="R23" s="22"/>
-      <c r="S23" s="22"/>
-      <c r="T23" s="40"/>
-      <c r="U23" s="40"/>
-      <c r="V23" s="40"/>
-      <c r="W23" s="40"/>
-      <c r="X23" s="22"/>
-      <c r="Y23" s="22"/>
-      <c r="Z23" s="22"/>
-      <c r="AA23" s="22"/>
-      <c r="AB23" s="22"/>
-      <c r="AC23" s="22"/>
-      <c r="AD23" s="22"/>
-      <c r="AE23" s="34"/>
-      <c r="AF23" s="35"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="47"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="27"/>
+      <c r="S23" s="27"/>
+      <c r="T23" s="48"/>
+      <c r="U23" s="48"/>
+      <c r="V23" s="48"/>
+      <c r="W23" s="48"/>
+      <c r="X23" s="27"/>
+      <c r="Y23" s="27"/>
+      <c r="Z23" s="27"/>
+      <c r="AA23" s="27"/>
+      <c r="AB23" s="27"/>
+      <c r="AC23" s="27"/>
+      <c r="AD23" s="27"/>
+      <c r="AE23" s="27"/>
+      <c r="AF23" s="27"/>
     </row>
     <row r="24" spans="1:32">
-      <c r="A24" s="22"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="39"/>
-      <c r="N24" s="39"/>
-      <c r="O24" s="22"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="22"/>
-      <c r="R24" s="22"/>
-      <c r="S24" s="22"/>
-      <c r="T24" s="40"/>
-      <c r="U24" s="40"/>
-      <c r="V24" s="40"/>
-      <c r="W24" s="40"/>
-      <c r="X24" s="22"/>
-      <c r="Y24" s="22"/>
-      <c r="Z24" s="22"/>
-      <c r="AA24" s="22"/>
-      <c r="AB24" s="22"/>
-      <c r="AC24" s="22"/>
-      <c r="AD24" s="22"/>
-      <c r="AE24" s="34"/>
-      <c r="AF24" s="35"/>
+      <c r="A24" s="27"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="47"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="27"/>
+      <c r="S24" s="27"/>
+      <c r="T24" s="48"/>
+      <c r="U24" s="48"/>
+      <c r="V24" s="48"/>
+      <c r="W24" s="48"/>
+      <c r="X24" s="27"/>
+      <c r="Y24" s="27"/>
+      <c r="Z24" s="27"/>
+      <c r="AA24" s="27"/>
+      <c r="AB24" s="27"/>
+      <c r="AC24" s="27"/>
+      <c r="AD24" s="27"/>
+      <c r="AE24" s="27"/>
+      <c r="AF24" s="27"/>
     </row>
     <row r="25" spans="1:32">
-      <c r="A25" s="22"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="39"/>
-      <c r="N25" s="39"/>
-      <c r="O25" s="22"/>
-      <c r="P25" s="22"/>
-      <c r="Q25" s="22"/>
-      <c r="R25" s="22"/>
-      <c r="S25" s="22"/>
-      <c r="T25" s="40"/>
-      <c r="U25" s="40"/>
-      <c r="V25" s="40"/>
-      <c r="W25" s="40"/>
-      <c r="X25" s="22"/>
-      <c r="Y25" s="22"/>
-      <c r="Z25" s="22"/>
-      <c r="AA25" s="22"/>
-      <c r="AB25" s="22"/>
-      <c r="AC25" s="22"/>
-      <c r="AD25" s="22"/>
-      <c r="AE25" s="34"/>
-      <c r="AF25" s="35"/>
+      <c r="A25" s="27"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="47"/>
+      <c r="N25" s="47"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="27"/>
+      <c r="R25" s="27"/>
+      <c r="S25" s="27"/>
+      <c r="T25" s="48"/>
+      <c r="U25" s="48"/>
+      <c r="V25" s="48"/>
+      <c r="W25" s="48"/>
+      <c r="X25" s="27"/>
+      <c r="Y25" s="27"/>
+      <c r="Z25" s="27"/>
+      <c r="AA25" s="27"/>
+      <c r="AB25" s="27"/>
+      <c r="AC25" s="27"/>
+      <c r="AD25" s="27"/>
+      <c r="AE25" s="27"/>
+      <c r="AF25" s="27"/>
     </row>
     <row r="26" spans="1:32">
-      <c r="A26" s="22"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="50"/>
-      <c r="M26" s="39"/>
-      <c r="N26" s="39"/>
-      <c r="O26" s="22"/>
-      <c r="P26" s="22"/>
-      <c r="Q26" s="22"/>
-      <c r="R26" s="22"/>
-      <c r="S26" s="22"/>
-      <c r="T26" s="40"/>
-      <c r="U26" s="40"/>
-      <c r="V26" s="40"/>
-      <c r="W26" s="40"/>
-      <c r="X26" s="22"/>
-      <c r="Y26" s="22"/>
-      <c r="Z26" s="22"/>
-      <c r="AA26" s="22"/>
-      <c r="AB26" s="22"/>
-      <c r="AC26" s="22"/>
-      <c r="AD26" s="22"/>
-      <c r="AE26" s="34"/>
-      <c r="AF26" s="35"/>
+      <c r="A26" s="27"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="46"/>
+      <c r="M26" s="47"/>
+      <c r="N26" s="47"/>
+      <c r="O26" s="27"/>
+      <c r="P26" s="27"/>
+      <c r="Q26" s="27"/>
+      <c r="R26" s="27"/>
+      <c r="S26" s="27"/>
+      <c r="T26" s="48"/>
+      <c r="U26" s="48"/>
+      <c r="V26" s="48"/>
+      <c r="W26" s="48"/>
+      <c r="X26" s="27"/>
+      <c r="Y26" s="27"/>
+      <c r="Z26" s="27"/>
+      <c r="AA26" s="27"/>
+      <c r="AB26" s="27"/>
+      <c r="AC26" s="27"/>
+      <c r="AD26" s="27"/>
+      <c r="AE26" s="27"/>
+      <c r="AF26" s="27"/>
     </row>
     <row r="27" spans="1:32">
-      <c r="A27" s="22"/>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="50"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="39"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="22"/>
-      <c r="Q27" s="22"/>
-      <c r="R27" s="22"/>
-      <c r="S27" s="22"/>
-      <c r="T27" s="40"/>
-      <c r="U27" s="40"/>
-      <c r="V27" s="40"/>
-      <c r="W27" s="40"/>
-      <c r="X27" s="22"/>
-      <c r="Y27" s="22"/>
-      <c r="Z27" s="22"/>
-      <c r="AA27" s="22"/>
-      <c r="AB27" s="22"/>
-      <c r="AC27" s="22"/>
-      <c r="AD27" s="22"/>
-      <c r="AE27" s="34"/>
-      <c r="AF27" s="35"/>
+      <c r="A27" s="27"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="47"/>
+      <c r="N27" s="47"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="27"/>
+      <c r="S27" s="27"/>
+      <c r="T27" s="48"/>
+      <c r="U27" s="48"/>
+      <c r="V27" s="48"/>
+      <c r="W27" s="48"/>
+      <c r="X27" s="27"/>
+      <c r="Y27" s="27"/>
+      <c r="Z27" s="27"/>
+      <c r="AA27" s="27"/>
+      <c r="AB27" s="27"/>
+      <c r="AC27" s="27"/>
+      <c r="AD27" s="27"/>
+      <c r="AE27" s="27"/>
+      <c r="AF27" s="27"/>
     </row>
     <row r="28" spans="1:32">
-      <c r="A28" s="22"/>
-      <c r="B28" s="39"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="50"/>
-      <c r="M28" s="39"/>
-      <c r="N28" s="39"/>
-      <c r="O28" s="22"/>
-      <c r="P28" s="22"/>
-      <c r="Q28" s="22"/>
-      <c r="R28" s="22"/>
-      <c r="S28" s="22"/>
-      <c r="T28" s="40"/>
-      <c r="U28" s="40"/>
-      <c r="V28" s="40"/>
-      <c r="W28" s="40"/>
-      <c r="X28" s="22"/>
-      <c r="Y28" s="22"/>
-      <c r="Z28" s="22"/>
-      <c r="AA28" s="22"/>
-      <c r="AB28" s="22"/>
-      <c r="AC28" s="22"/>
-      <c r="AD28" s="22"/>
-      <c r="AE28" s="34"/>
-      <c r="AF28" s="35"/>
+      <c r="A28" s="27"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="46"/>
+      <c r="M28" s="47"/>
+      <c r="N28" s="47"/>
+      <c r="O28" s="27"/>
+      <c r="P28" s="27"/>
+      <c r="Q28" s="27"/>
+      <c r="R28" s="27"/>
+      <c r="S28" s="27"/>
+      <c r="T28" s="48"/>
+      <c r="U28" s="48"/>
+      <c r="V28" s="48"/>
+      <c r="W28" s="48"/>
+      <c r="X28" s="27"/>
+      <c r="Y28" s="27"/>
+      <c r="Z28" s="27"/>
+      <c r="AA28" s="27"/>
+      <c r="AB28" s="27"/>
+      <c r="AC28" s="27"/>
+      <c r="AD28" s="27"/>
+      <c r="AE28" s="27"/>
+      <c r="AF28" s="27"/>
     </row>
     <row r="29" spans="1:32">
-      <c r="A29" s="22"/>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="50"/>
-      <c r="M29" s="39"/>
-      <c r="N29" s="39"/>
-      <c r="O29" s="22"/>
-      <c r="P29" s="22"/>
-      <c r="Q29" s="22"/>
-      <c r="R29" s="22"/>
-      <c r="S29" s="22"/>
-      <c r="T29" s="40"/>
-      <c r="U29" s="40"/>
-      <c r="V29" s="40"/>
-      <c r="W29" s="40"/>
-      <c r="X29" s="22"/>
-      <c r="Y29" s="22"/>
-      <c r="Z29" s="22"/>
-      <c r="AA29" s="22"/>
-      <c r="AB29" s="22"/>
-      <c r="AC29" s="22"/>
-      <c r="AD29" s="22"/>
-      <c r="AE29" s="34"/>
-      <c r="AF29" s="35"/>
+      <c r="A29" s="27"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="46"/>
+      <c r="M29" s="47"/>
+      <c r="N29" s="47"/>
+      <c r="O29" s="27"/>
+      <c r="P29" s="27"/>
+      <c r="Q29" s="27"/>
+      <c r="R29" s="27"/>
+      <c r="S29" s="27"/>
+      <c r="T29" s="48"/>
+      <c r="U29" s="48"/>
+      <c r="V29" s="48"/>
+      <c r="W29" s="48"/>
+      <c r="X29" s="27"/>
+      <c r="Y29" s="27"/>
+      <c r="Z29" s="27"/>
+      <c r="AA29" s="27"/>
+      <c r="AB29" s="27"/>
+      <c r="AC29" s="27"/>
+      <c r="AD29" s="27"/>
+      <c r="AE29" s="27"/>
+      <c r="AF29" s="27"/>
     </row>
     <row r="30" spans="1:32">
-      <c r="A30" s="22"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="50"/>
-      <c r="M30" s="39"/>
-      <c r="N30" s="39"/>
-      <c r="O30" s="22"/>
-      <c r="P30" s="22"/>
-      <c r="Q30" s="22"/>
-      <c r="R30" s="22"/>
-      <c r="S30" s="22"/>
-      <c r="T30" s="40"/>
-      <c r="U30" s="40"/>
-      <c r="V30" s="40"/>
-      <c r="W30" s="40"/>
-      <c r="X30" s="22"/>
-      <c r="Y30" s="22"/>
-      <c r="Z30" s="22"/>
-      <c r="AA30" s="22"/>
-      <c r="AB30" s="22"/>
-      <c r="AC30" s="22"/>
-      <c r="AD30" s="22"/>
-      <c r="AE30" s="36"/>
-      <c r="AF30" s="37"/>
+      <c r="A30" s="27"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="46"/>
+      <c r="M30" s="47"/>
+      <c r="N30" s="47"/>
+      <c r="O30" s="27"/>
+      <c r="P30" s="27"/>
+      <c r="Q30" s="27"/>
+      <c r="R30" s="27"/>
+      <c r="S30" s="27"/>
+      <c r="T30" s="48"/>
+      <c r="U30" s="48"/>
+      <c r="V30" s="48"/>
+      <c r="W30" s="48"/>
+      <c r="X30" s="27"/>
+      <c r="Y30" s="27"/>
+      <c r="Z30" s="27"/>
+      <c r="AA30" s="27"/>
+      <c r="AB30" s="27"/>
+      <c r="AC30" s="27"/>
+      <c r="AD30" s="27"/>
+      <c r="AE30" s="27"/>
+      <c r="AF30" s="27"/>
     </row>
     <row r="31" spans="1:32">
       <c r="K31" s="7"/>
-      <c r="L31" s="50"/>
-      <c r="X31" s="22"/>
-      <c r="Y31" s="22"/>
-      <c r="Z31" s="22"/>
+      <c r="L31" s="46"/>
+      <c r="X31" s="27"/>
+      <c r="Y31" s="27"/>
+      <c r="Z31" s="27"/>
       <c r="AE31" s="7"/>
       <c r="AF31" s="7"/>
     </row>
     <row r="32" spans="1:32">
       <c r="K32" s="7"/>
-      <c r="L32" s="50"/>
-      <c r="X32" s="22"/>
-      <c r="Y32" s="22"/>
-      <c r="Z32" s="22"/>
-      <c r="AE32" s="7"/>
-      <c r="AF32" s="7"/>
+      <c r="L32" s="46"/>
+      <c r="X32" s="27"/>
+      <c r="Y32" s="27"/>
+      <c r="Z32" s="27"/>
+      <c r="AE32" s="54" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="33" spans="11:32">
       <c r="K33" s="7"/>
-      <c r="X33" s="22"/>
-      <c r="Y33" s="22"/>
-      <c r="Z33" s="22"/>
-      <c r="AE33" s="7"/>
-      <c r="AF33" s="7"/>
+      <c r="X33" s="27"/>
+      <c r="Y33" s="27"/>
+      <c r="Z33" s="27"/>
+      <c r="AE33" s="54"/>
     </row>
     <row r="34" spans="11:32">
       <c r="K34" s="7"/>
-      <c r="X34" s="22"/>
-      <c r="Y34" s="22"/>
-      <c r="Z34" s="22"/>
-      <c r="AE34" s="7"/>
-      <c r="AF34" s="7"/>
+      <c r="X34" s="27"/>
+      <c r="Y34" s="27"/>
+      <c r="Z34" s="27"/>
+      <c r="AE34" s="54"/>
     </row>
     <row r="35" spans="11:32">
       <c r="K35" s="7"/>
-      <c r="X35" s="22"/>
-      <c r="Y35" s="22"/>
-      <c r="Z35" s="22"/>
-      <c r="AE35" s="7"/>
-      <c r="AF35" s="7"/>
+      <c r="X35" s="27"/>
+      <c r="Y35" s="27"/>
+      <c r="Z35" s="27"/>
+      <c r="AE35" s="54"/>
     </row>
     <row r="36" spans="11:32">
       <c r="K36" s="7"/>
-      <c r="AE36" s="7"/>
-      <c r="AF36" s="7"/>
+      <c r="AE36" s="54"/>
     </row>
     <row r="37" spans="11:32">
       <c r="K37" s="7"/>
-      <c r="AE37" s="7"/>
-      <c r="AF37" s="7"/>
+      <c r="AE37" s="54"/>
     </row>
     <row r="38" spans="11:32">
       <c r="K38" s="7"/>
-      <c r="AE38" s="7"/>
-      <c r="AF38" s="7"/>
+      <c r="AE38" s="54"/>
     </row>
     <row r="39" spans="11:32">
       <c r="K39" s="7"/>
       <c r="AE39" s="7"/>
-      <c r="AF39" s="7"/>
     </row>
     <row r="40" spans="11:32">
       <c r="K40" s="7"/>
-      <c r="AE40" s="7"/>
-      <c r="AF40" s="7"/>
+      <c r="AE40" s="54" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="41" spans="11:32">
       <c r="K41" s="7"/>
-      <c r="AE41" s="7"/>
-      <c r="AF41" s="7"/>
+      <c r="AE41" s="54"/>
     </row>
     <row r="42" spans="11:32">
       <c r="K42" s="7"/>
-      <c r="AE42" s="7"/>
-      <c r="AF42" s="7"/>
+      <c r="AE42" s="54"/>
     </row>
     <row r="43" spans="11:32">
       <c r="K43" s="7"/>
-      <c r="AE43" s="7"/>
-      <c r="AF43" s="7"/>
+      <c r="AE43" s="54"/>
     </row>
     <row r="44" spans="11:32">
       <c r="K44" s="7"/>
-      <c r="AE44" s="7"/>
-      <c r="AF44" s="7"/>
+      <c r="AE44" s="54"/>
     </row>
     <row r="45" spans="11:32">
       <c r="K45" s="7"/>
-      <c r="AE45" s="7"/>
-      <c r="AF45" s="7"/>
+      <c r="AE45" s="54"/>
     </row>
     <row r="46" spans="11:32">
       <c r="K46" s="7"/>
-      <c r="AE46" s="7"/>
-      <c r="AF46" s="7"/>
+      <c r="AE46" s="54"/>
     </row>
     <row r="47" spans="11:32">
       <c r="K47" s="7"/>
       <c r="AE47" s="7"/>
-      <c r="AF47" s="7"/>
     </row>
     <row r="48" spans="11:32">
       <c r="K48" s="7"/>
@@ -4292,7 +4290,28 @@
       <c r="AF49" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
+  <mergeCells count="37">
+    <mergeCell ref="U22:U30"/>
+    <mergeCell ref="AE19:AF21"/>
+    <mergeCell ref="AE22:AE30"/>
+    <mergeCell ref="AE32:AE38"/>
+    <mergeCell ref="AE40:AE46"/>
+    <mergeCell ref="AF22:AF30"/>
+    <mergeCell ref="N22:N30"/>
+    <mergeCell ref="AD19:AD21"/>
+    <mergeCell ref="AD22:AD30"/>
+    <mergeCell ref="C22:C30"/>
+    <mergeCell ref="D22:D30"/>
+    <mergeCell ref="F22:F30"/>
+    <mergeCell ref="G22:G30"/>
+    <mergeCell ref="E22:E30"/>
+    <mergeCell ref="S22:S30"/>
+    <mergeCell ref="P22:P30"/>
+    <mergeCell ref="O22:O30"/>
+    <mergeCell ref="Q22:Q30"/>
+    <mergeCell ref="R22:R30"/>
+    <mergeCell ref="Y22:Y35"/>
+    <mergeCell ref="V22:V30"/>
     <mergeCell ref="A19:AC21"/>
     <mergeCell ref="J22:J30"/>
     <mergeCell ref="A22:A30"/>
@@ -4309,23 +4328,6 @@
     <mergeCell ref="T22:T30"/>
     <mergeCell ref="Z22:Z35"/>
     <mergeCell ref="K22:K30"/>
-    <mergeCell ref="N22:N30"/>
-    <mergeCell ref="AE22:AF30"/>
-    <mergeCell ref="AD19:AD21"/>
-    <mergeCell ref="AD22:AD30"/>
-    <mergeCell ref="C22:C30"/>
-    <mergeCell ref="D22:D30"/>
-    <mergeCell ref="F22:F30"/>
-    <mergeCell ref="G22:G30"/>
-    <mergeCell ref="E22:E30"/>
-    <mergeCell ref="S22:S30"/>
-    <mergeCell ref="P22:P30"/>
-    <mergeCell ref="O22:O30"/>
-    <mergeCell ref="Q22:Q30"/>
-    <mergeCell ref="R22:R30"/>
-    <mergeCell ref="Y22:Y35"/>
-    <mergeCell ref="V22:V30"/>
-    <mergeCell ref="U22:U30"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4477,76 +4479,76 @@
     <row r="6" spans="1:32" s="17" customFormat="1">
       <c r="A6" s="16"/>
       <c r="B6" s="16"/>
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="50" t="s">
         <v>360</v>
       </c>
-      <c r="D6" s="51"/>
+      <c r="D6" s="50"/>
     </row>
     <row r="7" spans="1:32" s="17" customFormat="1">
       <c r="A7" s="16"/>
       <c r="B7" s="16"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
     </row>
     <row r="8" spans="1:32" s="17" customFormat="1">
       <c r="A8" s="16"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
     </row>
     <row r="9" spans="1:32" s="17" customFormat="1">
       <c r="A9" s="16"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
     </row>
     <row r="10" spans="1:32" s="17" customFormat="1">
       <c r="A10" s="16"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
     </row>
     <row r="11" spans="1:32" s="17" customFormat="1">
       <c r="A11" s="16"/>
       <c r="B11" s="16"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
     </row>
     <row r="12" spans="1:32" s="17" customFormat="1">
       <c r="A12" s="16"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
     </row>
     <row r="13" spans="1:32" s="17" customFormat="1">
       <c r="A13" s="16"/>
       <c r="B13" s="16"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
     </row>
     <row r="14" spans="1:32" s="17" customFormat="1">
       <c r="A14" s="16"/>
       <c r="B14" s="16"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
     </row>
     <row r="15" spans="1:32" s="17" customFormat="1">
       <c r="A15" s="16"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
     </row>
     <row r="16" spans="1:32" s="17" customFormat="1">
       <c r="A16" s="16"/>
       <c r="B16" s="16"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
     </row>
     <row r="17" spans="1:32" s="17" customFormat="1">
       <c r="A17" s="16"/>
       <c r="B17" s="16"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
     </row>
     <row r="18" spans="1:32">
       <c r="A18" s="10"/>
@@ -4577,10 +4579,10 @@
       <c r="AF18" s="7"/>
     </row>
     <row r="19" spans="1:32" ht="11.25" customHeight="1">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="28" t="s">
         <v>357</v>
       </c>
-      <c r="B19" s="25"/>
+      <c r="B19" s="30"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
@@ -4608,8 +4610,8 @@
       <c r="AF19" s="7"/>
     </row>
     <row r="20" spans="1:32" ht="11.25" customHeight="1">
-      <c r="A20" s="26"/>
-      <c r="B20" s="28"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="33"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
@@ -4637,8 +4639,8 @@
       <c r="AF20" s="7"/>
     </row>
     <row r="21" spans="1:32" ht="11.25" customHeight="1">
-      <c r="A21" s="29"/>
-      <c r="B21" s="31"/>
+      <c r="A21" s="34"/>
+      <c r="B21" s="36"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
@@ -4666,10 +4668,10 @@
       <c r="AF21" s="7"/>
     </row>
     <row r="22" spans="1:32" ht="11.25" customHeight="1">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="27" t="s">
         <v>358</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="27" t="s">
         <v>359</v>
       </c>
       <c r="C22" s="7"/>
@@ -4699,8 +4701,8 @@
       <c r="AF22" s="7"/>
     </row>
     <row r="23" spans="1:32" ht="11.25" customHeight="1">
-      <c r="A23" s="22"/>
-      <c r="B23" s="22"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
@@ -4728,8 +4730,8 @@
       <c r="AF23" s="7"/>
     </row>
     <row r="24" spans="1:32">
-      <c r="A24" s="22"/>
-      <c r="B24" s="22"/>
+      <c r="A24" s="27"/>
+      <c r="B24" s="27"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
@@ -4757,8 +4759,8 @@
       <c r="AF24" s="7"/>
     </row>
     <row r="25" spans="1:32">
-      <c r="A25" s="22"/>
-      <c r="B25" s="22"/>
+      <c r="A25" s="27"/>
+      <c r="B25" s="27"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
@@ -4786,8 +4788,8 @@
       <c r="AF25" s="7"/>
     </row>
     <row r="26" spans="1:32">
-      <c r="A26" s="22"/>
-      <c r="B26" s="22"/>
+      <c r="A26" s="27"/>
+      <c r="B26" s="27"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
@@ -4815,8 +4817,8 @@
       <c r="AF26" s="7"/>
     </row>
     <row r="27" spans="1:32">
-      <c r="A27" s="22"/>
-      <c r="B27" s="22"/>
+      <c r="A27" s="27"/>
+      <c r="B27" s="27"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
@@ -4844,8 +4846,8 @@
       <c r="AF27" s="7"/>
     </row>
     <row r="28" spans="1:32">
-      <c r="A28" s="22"/>
-      <c r="B28" s="22"/>
+      <c r="A28" s="27"/>
+      <c r="B28" s="27"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
@@ -4873,8 +4875,8 @@
       <c r="AF28" s="7"/>
     </row>
     <row r="29" spans="1:32">
-      <c r="A29" s="22"/>
-      <c r="B29" s="22"/>
+      <c r="A29" s="27"/>
+      <c r="B29" s="27"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
@@ -4902,8 +4904,8 @@
       <c r="AF29" s="7"/>
     </row>
     <row r="30" spans="1:32">
-      <c r="A30" s="22"/>
-      <c r="B30" s="22"/>
+      <c r="A30" s="27"/>
+      <c r="B30" s="27"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
@@ -5459,7 +5461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:AV30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -5517,7 +5519,7 @@
         <v>240</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
@@ -5548,7 +5550,7 @@
         <v>241</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
@@ -5722,13 +5724,13 @@
     </row>
     <row r="6" spans="1:48">
       <c r="A6" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B6" s="11">
         <v>2142</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D6" s="11">
         <v>1</v>
@@ -5737,40 +5739,40 @@
         <v>-199</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G6" s="10">
         <v>2</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I6" s="10" t="s">
         <v>48</v>
       </c>
       <c r="J6" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="K6" s="21">
+        <v>-199000000</v>
+      </c>
+      <c r="L6" s="21">
+        <v>1000000</v>
+      </c>
+      <c r="M6" s="21">
+        <v>1000000</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="O6" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="K6" s="54">
-        <v>-199000000</v>
-      </c>
-      <c r="L6" s="54">
-        <v>1000000</v>
-      </c>
-      <c r="M6" s="54">
-        <v>1000000</v>
-      </c>
-      <c r="N6" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="O6" s="10" t="s">
+      <c r="P6" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="P6" s="10" t="s">
+      <c r="Q6" s="10" t="s">
         <v>371</v>
-      </c>
-      <c r="Q6" s="10" t="s">
-        <v>372</v>
       </c>
       <c r="R6" s="10" t="s">
         <v>48</v>
@@ -5809,7 +5811,7 @@
         <v>0</v>
       </c>
       <c r="AD6" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AE6" s="10" t="s">
         <v>51</v>
@@ -5821,7 +5823,7 @@
         <v>349</v>
       </c>
       <c r="AH6" s="10" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AI6" s="10">
         <v>2403</v>
@@ -5829,7 +5831,7 @@
       <c r="AJ6" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="AK6" s="55">
+      <c r="AK6" s="22">
         <v>42024</v>
       </c>
       <c r="AL6" s="10" t="s">
@@ -5845,7 +5847,7 @@
         <v>48</v>
       </c>
       <c r="AP6" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AQ6" s="10" t="s">
         <v>48</v>
@@ -5862,19 +5864,19 @@
       <c r="AU6" s="10">
         <v>100</v>
       </c>
-      <c r="AV6" s="54">
+      <c r="AV6" s="21">
         <v>100000000</v>
       </c>
     </row>
     <row r="7" spans="1:48">
       <c r="A7" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B7" s="10">
         <v>2142</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D7" s="10">
         <v>10</v>
@@ -5883,40 +5885,40 @@
         <v>-6</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G7" s="10">
         <v>2</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I7" s="10" t="s">
         <v>48</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>369</v>
-      </c>
-      <c r="K7" s="54">
+        <v>368</v>
+      </c>
+      <c r="K7" s="21">
         <v>-3000000</v>
       </c>
-      <c r="L7" s="54">
+      <c r="L7" s="21">
         <v>500000</v>
       </c>
-      <c r="M7" s="54">
+      <c r="M7" s="21">
         <v>5000000</v>
       </c>
       <c r="N7" s="10" t="s">
         <v>48</v>
       </c>
       <c r="O7" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="P7" s="10" t="s">
         <v>379</v>
       </c>
-      <c r="P7" s="10" t="s">
-        <v>380</v>
-      </c>
       <c r="Q7" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="R7" s="10" t="s">
         <v>48</v>
@@ -5955,7 +5957,7 @@
         <v>0</v>
       </c>
       <c r="AD7" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AE7" s="10" t="s">
         <v>51</v>
@@ -5967,7 +5969,7 @@
         <v>53</v>
       </c>
       <c r="AH7" s="10" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AI7" s="10">
         <v>1403</v>
@@ -5975,11 +5977,11 @@
       <c r="AJ7" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="AK7" s="55">
+      <c r="AK7" s="22">
         <v>42026</v>
       </c>
       <c r="AL7" s="10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AM7" s="10" t="s">
         <v>56</v>
@@ -5991,7 +5993,7 @@
         <v>48</v>
       </c>
       <c r="AP7" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AQ7" s="10" t="s">
         <v>48</v>
@@ -6008,19 +6010,19 @@
       <c r="AU7" s="10">
         <v>8</v>
       </c>
-      <c r="AV7" s="54">
+      <c r="AV7" s="21">
         <v>4000000</v>
       </c>
     </row>
     <row r="8" spans="1:48">
       <c r="A8" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B8" s="10">
         <v>2142</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D8" s="10">
         <v>-1</v>
@@ -6035,34 +6037,34 @@
         <v>1</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I8" s="10" t="s">
         <v>48</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>369</v>
-      </c>
-      <c r="K8" s="54">
+        <v>368</v>
+      </c>
+      <c r="K8" s="21">
         <v>-100000</v>
       </c>
-      <c r="L8" s="54">
+      <c r="L8" s="21">
         <v>100000</v>
       </c>
-      <c r="M8" s="54">
+      <c r="M8" s="21">
         <v>-100000</v>
       </c>
       <c r="N8" s="10" t="s">
         <v>48</v>
       </c>
       <c r="O8" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="P8" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="P8" s="10" t="s">
-        <v>386</v>
-      </c>
       <c r="Q8" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="R8" s="10" t="s">
         <v>48</v>
@@ -6101,7 +6103,7 @@
         <v>0</v>
       </c>
       <c r="AD8" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AE8" s="10" t="s">
         <v>51</v>
@@ -6121,7 +6123,7 @@
       <c r="AJ8" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="AK8" s="55">
+      <c r="AK8" s="22">
         <v>42016</v>
       </c>
       <c r="AL8" s="10" t="s">
@@ -6137,7 +6139,7 @@
         <v>48</v>
       </c>
       <c r="AP8" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AQ8" s="10" t="s">
         <v>48</v>
@@ -6160,13 +6162,13 @@
     </row>
     <row r="9" spans="1:48">
       <c r="A9" s="10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B9" s="10">
         <v>2142</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D9" s="10">
         <v>1000</v>
@@ -6175,40 +6177,40 @@
         <v>-1000</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G9" s="10">
         <v>2</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I9" s="10" t="s">
         <v>48</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>369</v>
-      </c>
-      <c r="K9" s="54">
+        <v>368</v>
+      </c>
+      <c r="K9" s="21">
         <v>-500000000</v>
       </c>
-      <c r="L9" s="54">
+      <c r="L9" s="21">
         <v>500000</v>
       </c>
-      <c r="M9" s="54">
+      <c r="M9" s="21">
         <v>500000000</v>
       </c>
       <c r="N9" s="10" t="s">
         <v>48</v>
       </c>
       <c r="O9" s="10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="P9" s="10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Q9" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="R9" s="10" t="s">
         <v>48</v>
@@ -6247,7 +6249,7 @@
         <v>0</v>
       </c>
       <c r="AD9" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AE9" s="10" t="s">
         <v>51</v>
@@ -6259,7 +6261,7 @@
         <v>53</v>
       </c>
       <c r="AH9" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AI9" s="10">
         <v>1403</v>
@@ -6267,11 +6269,11 @@
       <c r="AJ9" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="AK9" s="55">
+      <c r="AK9" s="22">
         <v>41824</v>
       </c>
       <c r="AL9" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AM9" s="10" t="s">
         <v>56</v>
@@ -6300,19 +6302,19 @@
       <c r="AU9" s="10">
         <v>1000</v>
       </c>
-      <c r="AV9" s="54">
+      <c r="AV9" s="21">
         <v>500000000</v>
       </c>
     </row>
     <row r="10" spans="1:48">
       <c r="A10" s="10" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B10" s="10">
         <v>2142</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D10" s="10">
         <v>1000</v>
@@ -6321,40 +6323,40 @@
         <v>-1000</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G10" s="10">
         <v>2</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I10" s="10" t="s">
         <v>48</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>369</v>
-      </c>
-      <c r="K10" s="54">
+        <v>368</v>
+      </c>
+      <c r="K10" s="21">
         <v>-500000000</v>
       </c>
-      <c r="L10" s="54">
+      <c r="L10" s="21">
         <v>500000</v>
       </c>
-      <c r="M10" s="54">
+      <c r="M10" s="21">
         <v>500000000</v>
       </c>
       <c r="N10" s="10" t="s">
         <v>48</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="P10" s="10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="Q10" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="R10" s="10" t="s">
         <v>48</v>
@@ -6393,7 +6395,7 @@
         <v>0</v>
       </c>
       <c r="AD10" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AE10" s="10" t="s">
         <v>51</v>
@@ -6405,7 +6407,7 @@
         <v>53</v>
       </c>
       <c r="AH10" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AI10" s="10">
         <v>1403</v>
@@ -6413,11 +6415,11 @@
       <c r="AJ10" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="AK10" s="55">
+      <c r="AK10" s="22">
         <v>41824</v>
       </c>
       <c r="AL10" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AM10" s="10" t="s">
         <v>56</v>
@@ -6446,19 +6448,19 @@
       <c r="AU10" s="10">
         <v>1000</v>
       </c>
-      <c r="AV10" s="54">
+      <c r="AV10" s="21">
         <v>500000000</v>
       </c>
     </row>
     <row r="11" spans="1:48">
       <c r="A11" s="10" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B11" s="10">
         <v>2142</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D11" s="10">
         <v>100</v>
@@ -6467,40 +6469,40 @@
         <v>-100</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G11" s="10">
         <v>2</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I11" s="10" t="s">
         <v>48</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>369</v>
-      </c>
-      <c r="K11" s="54">
+        <v>368</v>
+      </c>
+      <c r="K11" s="21">
         <v>-50000000</v>
       </c>
-      <c r="L11" s="54">
+      <c r="L11" s="21">
         <v>500000</v>
       </c>
-      <c r="M11" s="54">
+      <c r="M11" s="21">
         <v>50000000</v>
       </c>
       <c r="N11" s="10" t="s">
         <v>48</v>
       </c>
       <c r="O11" s="10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P11" s="10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="Q11" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="R11" s="10" t="s">
         <v>48</v>
@@ -6539,7 +6541,7 @@
         <v>0</v>
       </c>
       <c r="AD11" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AE11" s="10" t="s">
         <v>51</v>
@@ -6551,7 +6553,7 @@
         <v>349</v>
       </c>
       <c r="AH11" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AI11" s="10">
         <v>1403</v>
@@ -6559,7 +6561,7 @@
       <c r="AJ11" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="AK11" s="55">
+      <c r="AK11" s="22">
         <v>41991</v>
       </c>
       <c r="AL11" s="10" t="s">
@@ -6592,12 +6594,12 @@
       <c r="AU11" s="10">
         <v>100</v>
       </c>
-      <c r="AV11" s="54">
+      <c r="AV11" s="21">
         <v>50000000</v>
       </c>
     </row>
     <row r="13" spans="1:48" ht="135">
-      <c r="A13" s="56" t="s">
+      <c r="A13" s="23" t="s">
         <v>207</v>
       </c>
       <c r="E13" s="20" t="s">
@@ -6612,12 +6614,12 @@
         <v>5</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="10" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B21" s="10">
         <v>68176</v>
@@ -6625,13 +6627,13 @@
       <c r="C21" s="10">
         <v>2</v>
       </c>
-      <c r="E21" s="58" t="s">
-        <v>414</v>
+      <c r="E21" s="25" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="10" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B22" s="10">
         <v>100035</v>
@@ -6639,13 +6641,13 @@
       <c r="C22" s="10">
         <v>2</v>
       </c>
-      <c r="E22" s="58" t="s">
-        <v>414</v>
+      <c r="E22" s="25" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="10" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B23" s="10">
         <v>2142</v>
@@ -6653,41 +6655,41 @@
       <c r="C23" s="10">
         <v>2</v>
       </c>
-      <c r="E23" s="58" t="s">
-        <v>414</v>
+      <c r="E23" s="25" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="57" t="s">
-        <v>408</v>
-      </c>
-      <c r="B24" s="57">
+      <c r="A24" s="24" t="s">
+        <v>407</v>
+      </c>
+      <c r="B24" s="24">
         <v>1806011</v>
       </c>
       <c r="C24" s="10">
         <v>2</v>
       </c>
-      <c r="E24" s="58" t="s">
-        <v>415</v>
+      <c r="E24" s="25" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="57" t="s">
-        <v>408</v>
-      </c>
-      <c r="B25" s="57">
+      <c r="A25" s="24" t="s">
+        <v>407</v>
+      </c>
+      <c r="B25" s="24">
         <v>1806012</v>
       </c>
       <c r="C25" s="10">
         <v>2</v>
       </c>
-      <c r="E25" s="58" t="s">
-        <v>415</v>
+      <c r="E25" s="25" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="10" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B26" s="10">
         <v>100003</v>
@@ -6695,13 +6697,13 @@
       <c r="C26" s="10">
         <v>2</v>
       </c>
-      <c r="E26" s="58" t="s">
-        <v>414</v>
+      <c r="E26" s="25" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B27" s="10">
         <v>8133</v>
@@ -6709,13 +6711,13 @@
       <c r="C27" s="10">
         <v>2</v>
       </c>
-      <c r="E27" s="58" t="s">
-        <v>414</v>
+      <c r="E27" s="25" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B28" s="10">
         <v>8133</v>
@@ -6723,13 +6725,13 @@
       <c r="C28" s="10">
         <v>2</v>
       </c>
-      <c r="E28" s="58" t="s">
-        <v>414</v>
+      <c r="E28" s="25" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B29" s="10">
         <v>8133</v>
@@ -6737,13 +6739,13 @@
       <c r="C29" s="10">
         <v>2</v>
       </c>
-      <c r="E29" s="58" t="s">
-        <v>414</v>
+      <c r="E29" s="25" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="10" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B30" s="10">
         <v>1687034</v>
@@ -6751,8 +6753,8 @@
       <c r="C30" s="10">
         <v>2</v>
       </c>
-      <c r="E30" s="58" t="s">
-        <v>414</v>
+      <c r="E30" s="25" t="s">
+        <v>413</v>
       </c>
     </row>
   </sheetData>
@@ -8872,136 +8874,136 @@
       </c>
     </row>
     <row r="20" spans="1:48">
-      <c r="A20" s="52" t="s">
+      <c r="A20" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="B20" s="52" t="s">
+      <c r="B20" s="51" t="s">
         <v>197</v>
       </c>
-      <c r="C20" s="52" t="s">
+      <c r="C20" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="D20" s="52" t="s">
+      <c r="D20" s="51" t="s">
         <v>199</v>
       </c>
-      <c r="E20" s="52" t="s">
+      <c r="E20" s="51" t="s">
         <v>201</v>
       </c>
-      <c r="F20" s="52" t="s">
+      <c r="F20" s="51" t="s">
         <v>203</v>
       </c>
-      <c r="G20" s="52" t="s">
+      <c r="G20" s="51" t="s">
         <v>204</v>
       </c>
-      <c r="H20" s="52" t="s">
+      <c r="H20" s="51" t="s">
         <v>205</v>
       </c>
-      <c r="I20" s="52" t="s">
+      <c r="I20" s="51" t="s">
         <v>206</v>
       </c>
-      <c r="J20" s="52" t="s">
+      <c r="J20" s="51" t="s">
         <v>208</v>
       </c>
-      <c r="K20" s="52" t="s">
+      <c r="K20" s="51" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="21" spans="1:48">
-      <c r="A21" s="52"/>
-      <c r="B21" s="52"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="52"/>
+      <c r="A21" s="51"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
     </row>
     <row r="22" spans="1:48">
-      <c r="A22" s="52"/>
-      <c r="B22" s="52"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="52"/>
+      <c r="A22" s="51"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="51"/>
     </row>
     <row r="23" spans="1:48">
-      <c r="A23" s="52"/>
-      <c r="B23" s="52"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="52"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="52"/>
+      <c r="A23" s="51"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="51"/>
     </row>
     <row r="24" spans="1:48">
-      <c r="A24" s="52"/>
-      <c r="B24" s="52"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="52"/>
+      <c r="A24" s="51"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="51"/>
     </row>
     <row r="25" spans="1:48">
-      <c r="A25" s="52"/>
-      <c r="B25" s="52"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="52"/>
+      <c r="A25" s="51"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="51"/>
     </row>
     <row r="27" spans="1:48">
-      <c r="D27" s="52" t="s">
+      <c r="D27" s="51" t="s">
         <v>200</v>
       </c>
-      <c r="E27" s="53" t="s">
+      <c r="E27" s="52" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="28" spans="1:48">
-      <c r="D28" s="52"/>
-      <c r="E28" s="53"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="52"/>
     </row>
     <row r="29" spans="1:48">
-      <c r="D29" s="52"/>
-      <c r="E29" s="53"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="52"/>
     </row>
     <row r="30" spans="1:48">
-      <c r="D30" s="52"/>
-      <c r="E30" s="53"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="52"/>
     </row>
     <row r="31" spans="1:48">
-      <c r="D31" s="52"/>
-      <c r="E31" s="53"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="52"/>
     </row>
     <row r="32" spans="1:48">
-      <c r="D32" s="52"/>
-      <c r="E32" s="53"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="52"/>
     </row>
     <row r="33" spans="1:32">
-      <c r="D33" s="52"/>
-      <c r="E33" s="53"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="52"/>
     </row>
     <row r="40" spans="1:32" ht="15">
       <c r="A40" t="s">

--- a/Documentação/Planilhas/Conferencia_follow_Relatorio.xlsx
+++ b/Documentação/Planilhas/Conferencia_follow_Relatorio.xlsx
@@ -4,22 +4,24 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="stg_follow_rascunho" sheetId="3" r:id="rId1"/>
-    <sheet name="stg_follow_compra" sheetId="4" r:id="rId2"/>
+    <sheet name="ods_follow (3)" sheetId="8" r:id="rId1"/>
+    <sheet name="stg_follow_rascunho" sheetId="3" r:id="rId2"/>
     <sheet name="stg_follow_kit_sige" sheetId="5" r:id="rId3"/>
-    <sheet name="ods_follow" sheetId="6" r:id="rId4"/>
-    <sheet name="Conf_antiga" sheetId="1" r:id="rId5"/>
-    <sheet name="Plan2" sheetId="2" r:id="rId6"/>
+    <sheet name="stg_follow_compra" sheetId="4" r:id="rId4"/>
+    <sheet name="ods_follow" sheetId="9" r:id="rId5"/>
+    <sheet name="ods_follow (2)" sheetId="7" r:id="rId6"/>
+    <sheet name="Conf_antiga" sheetId="1" r:id="rId7"/>
+    <sheet name="Plan2" sheetId="2" r:id="rId8"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1611" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1921" uniqueCount="407">
   <si>
     <t>ds_chave</t>
   </si>
@@ -674,33 +676,6 @@
   </si>
   <si>
     <t>348.16</t>
-  </si>
-  <si>
-    <t>7811.70</t>
-  </si>
-  <si>
-    <t>7611.40</t>
-  </si>
-  <si>
-    <t>8012.00</t>
-  </si>
-  <si>
-    <t>2603.90</t>
-  </si>
-  <si>
-    <t>C200012131640909</t>
-  </si>
-  <si>
-    <t>PR0001342</t>
-  </si>
-  <si>
-    <t>740.40</t>
-  </si>
-  <si>
-    <t>C200012131640912</t>
-  </si>
-  <si>
-    <t>1234.00</t>
   </si>
   <si>
     <t>100000041900002716</t>
@@ -762,21 +737,6 @@
     <t>com.stg_follow_compra</t>
   </si>
   <si>
-    <t>SARAIVA S/A LIVREIROS EDITORES</t>
-  </si>
-  <si>
-    <t>SG0000004</t>
-  </si>
-  <si>
-    <t>O QUE A VIDA ME ENSINOU</t>
-  </si>
-  <si>
-    <t>ED ECONOMIA ADMINISTRACAO NEG</t>
-  </si>
-  <si>
-    <t>2014-12-15 14:07:00.000</t>
-  </si>
-  <si>
     <t>Dev. Total - Compra p/ Revenda</t>
   </si>
   <si>
@@ -786,214 +746,10 @@
     <t>A VISTA</t>
   </si>
   <si>
-    <t>SG00000041948939</t>
-  </si>
-  <si>
-    <t>BULLYING E A PREVENCAO DA VIOLENCIA NAS ESCOLAS</t>
-  </si>
-  <si>
-    <t>EDITORA J CURSOS</t>
-  </si>
-  <si>
-    <t>SG00000042171017</t>
-  </si>
-  <si>
-    <t>DIREITO CIVIL 2 CONTRATOS EM ESPECIE DIREITO</t>
-  </si>
-  <si>
-    <t>J CURSOS</t>
-  </si>
-  <si>
-    <t>SG00000042177147</t>
-  </si>
-  <si>
-    <t>60500139000711</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
-    <t>1948939</t>
-  </si>
-  <si>
-    <t>60500139000126</t>
-  </si>
-  <si>
-    <t>-1</t>
-  </si>
-  <si>
-    <t>-17.9400</t>
-  </si>
-  <si>
-    <t>17.9400</t>
-  </si>
-  <si>
-    <t>6202</t>
-  </si>
-  <si>
-    <t>2014-12-15</t>
-  </si>
-  <si>
-    <t>2171017</t>
-  </si>
-  <si>
-    <t>-54.4000</t>
-  </si>
-  <si>
-    <t>54.4050</t>
-  </si>
-  <si>
-    <t>2177147</t>
-  </si>
-  <si>
-    <t>-2</t>
-  </si>
-  <si>
-    <t>-219.0500</t>
-  </si>
-  <si>
-    <t>109.5250</t>
-  </si>
-  <si>
-    <t>EDITORA ESCALA LTDA</t>
-  </si>
-  <si>
-    <t>SG0000002</t>
-  </si>
-  <si>
-    <t>BOTA SPIKES 01 BERGAMO PRETO 35 ZATS</t>
-  </si>
-  <si>
-    <t>INDUSTRIA COM CALCADOS ALA LTD</t>
-  </si>
-  <si>
-    <t>Moda</t>
-  </si>
-  <si>
-    <t>2014-12-11 13:57:00.000</t>
-  </si>
-  <si>
-    <t>SG00000022986305</t>
-  </si>
-  <si>
-    <t>BOTA SPIKES 04 BERGAMO MALBEC 35 ZATS</t>
-  </si>
-  <si>
-    <t>SG00000022986311</t>
-  </si>
-  <si>
-    <t>BOTA FIVELA C TACHAS WHISKY 35 PICCADILLY</t>
-  </si>
-  <si>
-    <t>A GRINGS S A</t>
-  </si>
-  <si>
-    <t>SG00000022996507</t>
-  </si>
-  <si>
-    <t>BOTA DUAS FIVELAS MICRO FIBRA MARROM 35 PICCADILLY</t>
-  </si>
-  <si>
-    <t>SG00000022996573</t>
-  </si>
-  <si>
-    <t>BOTA DUAS FIVELAS MICRO FIBRA PRETO 35 PICCADILLY</t>
-  </si>
-  <si>
-    <t>SG00000022996714</t>
-  </si>
-  <si>
-    <t>BOTA CANO ALTO LISA NAPA CASTOR 35 PICCADILLY</t>
-  </si>
-  <si>
-    <t>SG00000022996726</t>
-  </si>
-  <si>
-    <t>SAPATO FIVELA FRONTAL MICROF PR 35 PICCADILLY</t>
-  </si>
-  <si>
-    <t>SG00000022996778</t>
-  </si>
-  <si>
-    <t>SAPATILHA PEEP TOE MIC NOZNP TAUP 35 PICCADILLY</t>
-  </si>
-  <si>
-    <t>SG00000022996808</t>
-  </si>
-  <si>
     <t>1228546000167</t>
-  </si>
-  <si>
-    <t>2986305</t>
-  </si>
-  <si>
-    <t>78658846000100</t>
-  </si>
-  <si>
-    <t>1734</t>
-  </si>
-  <si>
-    <t>-70.0000</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>2014-12-11</t>
-  </si>
-  <si>
-    <t>2986311</t>
-  </si>
-  <si>
-    <t>2996507</t>
-  </si>
-  <si>
-    <t>97755177000300</t>
-  </si>
-  <si>
-    <t>-93.0100</t>
-  </si>
-  <si>
-    <t>93.0100</t>
-  </si>
-  <si>
-    <t>2996573</t>
-  </si>
-  <si>
-    <t>-89.2400</t>
-  </si>
-  <si>
-    <t>89.2400</t>
-  </si>
-  <si>
-    <t>2996714</t>
-  </si>
-  <si>
-    <t>2996726</t>
-  </si>
-  <si>
-    <t>-79.8600</t>
-  </si>
-  <si>
-    <t>79.8600</t>
-  </si>
-  <si>
-    <t>2996778</t>
-  </si>
-  <si>
-    <t>-61.1800</t>
-  </si>
-  <si>
-    <t>61.1800</t>
-  </si>
-  <si>
-    <t>2996808</t>
-  </si>
-  <si>
-    <t>-46.9700</t>
-  </si>
-  <si>
-    <t>46.9700</t>
   </si>
   <si>
     <t xml:space="preserve">Pegar a informação da coluna "Ordem de Compra" </t>
@@ -1025,12 +781,6 @@
   </si>
   <si>
     <t>Fazer o detalhamento do Pedido. Na aba inferior "Linha da Ordem", pegar a  informação da coluna "Preço" do item desejado. Ir para a aba inferior "Recebimentos" e multiplicar o Preço pelo resultado da soma de "Qtd Aprovada" + "Qtd Rejeitada"  para cada item desejado</t>
-  </si>
-  <si>
-    <t>Fazer o detalhamento da referência desejada. Na aba inferior "Linhas",  pegar a informação da coluna "Preço" de cada item.
-Ir para a aba inferior "Recebimento" e pegar as informações das colunas: Qtd Recebida, Qtd Rejeitada e Qtd Aprovada de cada item
-Executar a seguinte regra para compor o valor Saldo:
-Preço * (Qtd Ordenada - Qtd Recebida - Qtd Rejeitada - Qtd Aprovada)</t>
   </si>
   <si>
     <t>Fazer o detalhamento do Pedido desejado. Na aba inferior "Linhas da Ordem",  pegar as informações das colunas "Qtd Ordenada" e "Preço" de cada item.
@@ -1076,10 +826,6 @@
   </si>
   <si>
     <t>Fazer o detalhamento do pedido desejado. Na aba superior "Ordem",  seção "Controle", pegar a segunda informação do "Tipo Ordem Compra"</t>
-  </si>
-  <si>
-    <t>Pegar a primeira informação da coluna "Status" . 
-Se status &lt;&gt; 25 then "Aberto" else "Liquidado"</t>
   </si>
   <si>
     <t>Aberto</t>
@@ -1092,212 +838,429 @@
 </t>
   </si>
   <si>
+    <t>Concatenação do NR_PEDIDO + NR_ID_SKU</t>
+  </si>
+  <si>
+    <t>Não tem dados para a sequência da natureza da operação</t>
+  </si>
+  <si>
+    <t>com.stg_follow_kit_sige</t>
+  </si>
+  <si>
+    <t>nr_kit_sige</t>
+  </si>
+  <si>
+    <t>nr_item_sku</t>
+  </si>
+  <si>
+    <t>Sessão "tibom1110m000" (Lista de Material)</t>
+  </si>
+  <si>
+    <t>Na lupinha informar o Cód Item, limpando primeiramente todos os campos. Pegar a informação do Item no cabeçalho da tela</t>
+  </si>
+  <si>
+    <t>Na lupinha informar o Cód Item, limpando primeiramente todos os campos. Pegar a informação da segunda coluna do item no detalhe da tela</t>
+  </si>
+  <si>
+    <t>Não tem dados. Na tabela MIS_SHARED_DIMENSION.dim.ods_produto o campo ds_item_ativo está como "Não" ou "Não se aplica"</t>
+  </si>
+  <si>
+    <t>Informar o CD_ITEM na segunda lacuma da coluna "Item" e pedir o detalhamento do mesmo. Na aba superior "Inventário", seção "Dados de Baixa", pegar a informação de "Código ABC"</t>
+  </si>
+  <si>
+    <t>C200045902142</t>
+  </si>
+  <si>
+    <t>Whilpool S A</t>
+  </si>
+  <si>
+    <t>C20004590</t>
+  </si>
+  <si>
+    <t>SECADOR SMART 1300W PRETO 110</t>
+  </si>
+  <si>
+    <t>2015-01-20 15:01:00.000</t>
+  </si>
+  <si>
+    <t>2015-01-20 14:01:00.000</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Beleza &amp; Saúde</t>
+  </si>
+  <si>
+    <t>Rec.Parcial</t>
+  </si>
+  <si>
+    <t>ATÉ 60 DIAS</t>
+  </si>
+  <si>
+    <t>C200046332142</t>
+  </si>
+  <si>
+    <t>LG ELETRONICS DO BRASIL LTDA</t>
+  </si>
+  <si>
+    <t>C20004633</t>
+  </si>
+  <si>
+    <t>2015-01-22 16:52:00.000</t>
+  </si>
+  <si>
+    <t>2015-01-22 15:52:00.000</t>
+  </si>
+  <si>
+    <t>alynef</t>
+  </si>
+  <si>
+    <t>C100002582142</t>
+  </si>
+  <si>
+    <t>DIGISA COM TEC LTDA</t>
+  </si>
+  <si>
+    <t>C10000258</t>
+  </si>
+  <si>
+    <t>2015-01-12 16:19:00.000</t>
+  </si>
+  <si>
+    <t>2015-01-12 15:19:00.000</t>
+  </si>
+  <si>
+    <t>C200022932142</t>
+  </si>
+  <si>
+    <t>TAIFF-PROART DISTRIB PRODUTOS DE BE</t>
+  </si>
+  <si>
+    <t>C20002293</t>
+  </si>
+  <si>
+    <t>2014-07-04 14:58:00.000</t>
+  </si>
+  <si>
+    <t>Rec.Total</t>
+  </si>
+  <si>
+    <t>rsantos</t>
+  </si>
+  <si>
+    <t>C200022942142</t>
+  </si>
+  <si>
+    <t>C20002294</t>
+  </si>
+  <si>
+    <t>2014-07-04 15:43:00.000</t>
+  </si>
+  <si>
+    <t>C200045292142</t>
+  </si>
+  <si>
+    <t>C20004529</t>
+  </si>
+  <si>
+    <t>2014-11-10 10:00:00.000</t>
+  </si>
+  <si>
+    <t>59105999003959</t>
+  </si>
+  <si>
+    <t>1166372000155</t>
+  </si>
+  <si>
+    <t>4370561000303</t>
+  </si>
+  <si>
+    <t>MIS_RELATORIO</t>
+  </si>
+  <si>
+    <t>dbo.ods_follow</t>
+  </si>
+  <si>
+    <t>C20000732</t>
+  </si>
+  <si>
+    <t>C20004500</t>
+  </si>
+  <si>
+    <t>qtde</t>
+  </si>
+  <si>
+    <t>C20004507</t>
+  </si>
+  <si>
+    <t>C20004556</t>
+  </si>
+  <si>
+    <t>C20004587</t>
+  </si>
+  <si>
+    <t>C20004642</t>
+  </si>
+  <si>
+    <t>C20004649</t>
+  </si>
+  <si>
+    <t>C20004654</t>
+  </si>
+  <si>
+    <t>C20004655</t>
+  </si>
+  <si>
+    <t>realmente tem 2 registros no LN</t>
+  </si>
+  <si>
+    <t>tem e registros na tabela MIS_SHARED_DIMENSION.dim.ods_produto, mas no LN só tem 1 registro na tabela de item</t>
+  </si>
+  <si>
+    <t>Sessão "tcibd0501m000" (Itens Geral)</t>
+  </si>
+  <si>
+    <t>Informar o nr_id_sku na segunda lacuna da coluna Item. Pedir o detalhamento do mesmo. Na aba superior "Dados do Agrupamento", seção "Seleção", pegar a informação do Fabricante.</t>
+  </si>
+  <si>
+    <t>Ir para a sessão "tcmcs0160m000" (Fabricantes), informar o Cód do Fabricante na primeira coluna Fabricante e pedir o detalhamento do mesmo</t>
+  </si>
+  <si>
+    <t>Na opção "Parceiro de Negócios Fornecedor", clicar na lupinha e pegar a informação da coluna "Entidade Fiscal" [sem considerar qualquer separador]</t>
+  </si>
+  <si>
+    <t>Informar o nr_id_sku na segunda lacuna da coluna Item. Pedir o detalhamento do mesmo. Na aba superior "Dados do Agrupamento", seção "Seleção", pegar a informação da segunda coluna do Fabricante.</t>
+  </si>
+  <si>
+    <t>PR0002045</t>
+  </si>
+  <si>
+    <t>10000011713424173</t>
+  </si>
+  <si>
+    <t>77868.60</t>
+  </si>
+  <si>
+    <t>Fazer o detalhamento da Ordem desejada. Na aba inferior "Linhas",  pegar a informação da coluna "Preço" de cada item.
+Ir para a aba inferior "Recebimento" e pegar as informações das colunas: Qtd Recebida, Qtd Rejeitada e Qtd Aprovada de cada item
+Executar a seguinte regra para compor o valor Saldo:
+Preço * (Qtd Ordenada - Qtd Recebida - Qtd Rejeitada - Qtd Aprovada)</t>
+  </si>
+  <si>
+    <t>10000011713424174</t>
+  </si>
+  <si>
+    <t>5487.60</t>
+  </si>
+  <si>
+    <t>Pegar a informação da coluna "Status" . 
+Se status &lt;&gt; "Fechado" then "Aberto" else "Liquidado"</t>
+  </si>
+  <si>
+    <t>Sessão "whwmd4500m000" (Itens Armazenamento)</t>
+  </si>
+  <si>
+    <t>C30000145</t>
+  </si>
+  <si>
+    <t>jacquep</t>
+  </si>
+  <si>
+    <t>2015-02-28</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>2015-02-28 12:59:00.000</t>
+  </si>
+  <si>
+    <t>PANASONIC DO BRASIL LIMITADA</t>
+  </si>
+  <si>
+    <t>4403408000912</t>
+  </si>
+  <si>
+    <t>C300001452393830</t>
+  </si>
+  <si>
+    <t>2393830</t>
+  </si>
+  <si>
+    <t>REF FF 2P INVERT NRBT48PV1XA I</t>
+  </si>
+  <si>
+    <t>Eletrodomésticos</t>
+  </si>
+  <si>
+    <t>999</t>
+  </si>
+  <si>
+    <t>1677740.5800</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>1679.4200</t>
+  </si>
+  <si>
+    <t>167942.0000</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2016-01-01 12:00:00.000</t>
+  </si>
+  <si>
+    <t>PANASONIC DO BRA</t>
+  </si>
+  <si>
+    <t>C300001452393831</t>
+  </si>
+  <si>
+    <t>2393831</t>
+  </si>
+  <si>
+    <t>REF FF 2P INVERT NRBT48PV1XB I</t>
+  </si>
+  <si>
+    <t>C30000117</t>
+  </si>
+  <si>
+    <t>2015-02-28 12:41:00.000</t>
+  </si>
+  <si>
+    <t>C300001172393831</t>
+  </si>
+  <si>
+    <t>C300001172393830</t>
+  </si>
+  <si>
+    <t>C20005286</t>
+  </si>
+  <si>
+    <t>evertons</t>
+  </si>
+  <si>
+    <t>2015-03-24</t>
+  </si>
+  <si>
+    <t>2015-03-24 10:20:00.000</t>
+  </si>
+  <si>
+    <t>SodiBike Com de Artigos Esp Ltda</t>
+  </si>
+  <si>
+    <t>72334626000145</t>
+  </si>
+  <si>
+    <t>C2000528613423617</t>
+  </si>
+  <si>
+    <t>13423617</t>
+  </si>
+  <si>
+    <t>TELEVISOR EM CORES CRISTAL LIQ</t>
+  </si>
+  <si>
+    <t>1000.0000</t>
+  </si>
+  <si>
+    <t>82984287000104</t>
+  </si>
+  <si>
+    <t>IRMAOS FISCHER S</t>
+  </si>
+  <si>
+    <t>C20005254</t>
+  </si>
+  <si>
+    <t>2015-03-19</t>
+  </si>
+  <si>
+    <t>20 DIAS</t>
+  </si>
+  <si>
+    <t>2015-03-19 14:27:00.000</t>
+  </si>
+  <si>
+    <t>C2000525413422427</t>
+  </si>
+  <si>
+    <t>13422427</t>
+  </si>
+  <si>
+    <t>MOCHILA AUCKLAND 30L MA3000 VD</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>Esporte &amp; Lazer</t>
+  </si>
+  <si>
+    <t>88.4000</t>
+  </si>
+  <si>
+    <t>52221157000140</t>
+  </si>
+  <si>
+    <t>GUEPARD IMPORTAD</t>
+  </si>
+  <si>
+    <t>C20005100</t>
+  </si>
+  <si>
+    <t>2015-03-04</t>
+  </si>
+  <si>
+    <t>365</t>
+  </si>
+  <si>
+    <t>365 DIAS</t>
+  </si>
+  <si>
+    <t>2015-03-04 09:50:00.000</t>
+  </si>
+  <si>
+    <t>C2000510013423617</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>362.3400</t>
+  </si>
+  <si>
+    <t>18117.0000</t>
+  </si>
+  <si>
+    <t>2015-04-10 12:00:00.000</t>
+  </si>
+  <si>
     <t>Pegar a primeira informação da coluna "Parceiro de negócios Faturador". 
-Ir para a sessão "tccom4520m000" (Parceiro de Negócio Fornecedores) e informar o código na primeira coluna de "Parceiro de negócio fornecedor". Fazer o detalhamento do parceiro. No cabeçalho da tela, a opção OK Fiscal [1-Sim (está ticado), 2-Não (não está ticado)]</t>
-  </si>
-  <si>
-    <t>Concatenação do NR_PEDIDO + NR_ID_SKU</t>
-  </si>
-  <si>
-    <t>Não tem dados para a sequência da natureza da operação</t>
-  </si>
-  <si>
-    <t>com.stg_follow_kit_sige</t>
-  </si>
-  <si>
-    <t>nr_kit_sige</t>
-  </si>
-  <si>
-    <t>nr_item_sku</t>
-  </si>
-  <si>
-    <t>Sessão "tibom1110m000" (Lista de Material)</t>
-  </si>
-  <si>
-    <t>Na lupinha informar o Cód Item, limpando primeiramente todos os campos. Pegar a informação do Item no cabeçalho da tela</t>
-  </si>
-  <si>
-    <t>Na lupinha informar o Cód Item, limpando primeiramente todos os campos. Pegar a informação da segunda coluna do item no detalhe da tela</t>
-  </si>
-  <si>
-    <t>Não tem dados. Na tabela MIS_SHARED_DIMENSION.dim.ods_produto o campo ds_item_ativo está como "Não" ou "Não se aplica"</t>
-  </si>
-  <si>
-    <t>Sessão "whwmd4500m000" (Itens Armazenamento"</t>
-  </si>
-  <si>
-    <t>Informar o CD_ITEM na segunda lacuma da coluna "Item" e pedir o detalhamento do mesmo. Na aba superior "Inventário", seção "Dados de Baixa", pegar a informação de "Código ABC"</t>
-  </si>
-  <si>
-    <t>D / B</t>
-  </si>
-  <si>
-    <t>D / C</t>
-  </si>
-  <si>
-    <t>C200045902142</t>
-  </si>
-  <si>
-    <t>Whilpool S A</t>
-  </si>
-  <si>
-    <t>C20004590</t>
-  </si>
-  <si>
-    <t>SECADOR SMART 1300W PRETO 110</t>
-  </si>
-  <si>
-    <t>2015-01-20 15:01:00.000</t>
-  </si>
-  <si>
-    <t>2015-01-20 14:01:00.000</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Beleza &amp; Saúde</t>
-  </si>
-  <si>
-    <t>Rec.Parcial</t>
-  </si>
-  <si>
-    <t>ATÉ 60 DIAS</t>
-  </si>
-  <si>
-    <t>C200046332142</t>
-  </si>
-  <si>
-    <t>LG ELETRONICS DO BRASIL LTDA</t>
-  </si>
-  <si>
-    <t>C20004633</t>
-  </si>
-  <si>
-    <t>2015-01-22 16:52:00.000</t>
-  </si>
-  <si>
-    <t>2015-01-22 15:52:00.000</t>
-  </si>
-  <si>
-    <t>alynef</t>
-  </si>
-  <si>
-    <t>C100002582142</t>
-  </si>
-  <si>
-    <t>DIGISA COM TEC LTDA</t>
-  </si>
-  <si>
-    <t>C10000258</t>
-  </si>
-  <si>
-    <t>2015-01-12 16:19:00.000</t>
-  </si>
-  <si>
-    <t>2015-01-12 15:19:00.000</t>
-  </si>
-  <si>
-    <t>C200022932142</t>
-  </si>
-  <si>
-    <t>TAIFF-PROART DISTRIB PRODUTOS DE BE</t>
-  </si>
-  <si>
-    <t>C20002293</t>
-  </si>
-  <si>
-    <t>2014-07-04 14:58:00.000</t>
-  </si>
-  <si>
-    <t>Rec.Total</t>
-  </si>
-  <si>
-    <t>rsantos</t>
-  </si>
-  <si>
-    <t>C200022942142</t>
-  </si>
-  <si>
-    <t>C20002294</t>
-  </si>
-  <si>
-    <t>2014-07-04 15:43:00.000</t>
-  </si>
-  <si>
-    <t>C200045292142</t>
-  </si>
-  <si>
-    <t>C20004529</t>
-  </si>
-  <si>
-    <t>2014-11-10 10:00:00.000</t>
-  </si>
-  <si>
-    <t>59105999003959</t>
-  </si>
-  <si>
-    <t>1166372000155</t>
-  </si>
-  <si>
-    <t>4370561000303</t>
-  </si>
-  <si>
-    <t>MIS_RELATORIO</t>
-  </si>
-  <si>
-    <t>dbo.ods_follow</t>
-  </si>
-  <si>
-    <t>C20000732</t>
-  </si>
-  <si>
-    <t>C20004500</t>
-  </si>
-  <si>
-    <t>qtde</t>
-  </si>
-  <si>
-    <t>C20004507</t>
-  </si>
-  <si>
-    <t>C20004556</t>
-  </si>
-  <si>
-    <t>C20004587</t>
-  </si>
-  <si>
-    <t>C20004642</t>
-  </si>
-  <si>
-    <t>C20004649</t>
-  </si>
-  <si>
-    <t>C20004654</t>
-  </si>
-  <si>
-    <t>C20004655</t>
-  </si>
-  <si>
-    <t>realmente tem 2 registros no LN</t>
-  </si>
-  <si>
-    <t>tem e registros na tabela MIS_SHARED_DIMENSION.dim.ods_produto, mas no LN só tem 1 registro na tabela de item</t>
-  </si>
-  <si>
-    <t>Sessão "tcibd0501m000" (Itens Geral)</t>
-  </si>
-  <si>
-    <t>Informar o nr_id_sku na segunda lacuna da coluna Item. Pedir o detalhamento do mesmo. Na aba superior "Dados do Agrupamento", seção "Seleção", pegar a informação do Fabricante.</t>
-  </si>
-  <si>
-    <t>Ir para a sessão "tcmcs0160m000" (Fabricantes), informar o Cód do Fabricante na primeira coluna Fabricante e pedir o detalhamento do mesmo</t>
-  </si>
-  <si>
-    <t>Na opção "Parceiro de Negócios Fornecedor", clicar na lupinha e pegar a informação da coluna "Entidade Fiscal" [sem considerar qualquer separador]</t>
-  </si>
-  <si>
-    <t>Informar o nr_id_sku na segunda lacuna da coluna Item. Pedir o detalhamento do mesmo. Na aba superior "Dados do Agrupamento", seção "Seleção", pegar a informação da segunda coluna do Fabricante.</t>
+Ir para a sessão "tccom4500m000" (Parceiro de Negócios) e informar o código na primeira coluna de "Parceiro de negócio". Fazer o detalhamento do parceiro. No cabeçalho da tela, a opção OK Fiscal [1-Sim (está ticado), 2-Não (não está ticado)]</t>
+  </si>
+  <si>
+    <t>Se o resultado for menor que zero, retornará zero</t>
+  </si>
+  <si>
+    <t>PROGRAMAÇÃO</t>
+  </si>
+  <si>
+    <t>Sessão tdpur4100m000 (Ordens de Compra)</t>
+  </si>
+  <si>
+    <t>tratamento externo</t>
+  </si>
+  <si>
+    <t>Está buscando o NM_APELIDO. O Filipe pediu para deixar assim</t>
+  </si>
+  <si>
+    <t>Está truncando em 30 caracteres. O Marcus está alterando os processos para trazer o nome completo.</t>
   </si>
 </sst>
 </file>
@@ -1344,7 +1307,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1393,8 +1356,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1510,11 +1485,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1567,9 +1579,6 @@
     <xf numFmtId="49" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1585,10 +1594,35 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1618,6 +1652,15 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1645,20 +1688,50 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1666,11 +1739,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1680,7 +1750,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCCFFCC"/>
       <color rgb="FFFFFFCC"/>
+      <color rgb="FFFD8E6B"/>
       <color rgb="FFFF9F9F"/>
     </mruColors>
   </colors>
@@ -1972,13 +2044,1103 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:AV33"/>
+  <sheetViews>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25"/>
+  <cols>
+    <col min="1" max="1" width="15" style="10" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="25.5703125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="29.5703125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="24.140625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" style="10" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" style="10" customWidth="1"/>
+    <col min="9" max="9" width="27.5703125" style="10" customWidth="1"/>
+    <col min="10" max="12" width="27.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.28515625" style="10" customWidth="1"/>
+    <col min="14" max="14" width="24.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.85546875" style="10" customWidth="1"/>
+    <col min="17" max="17" width="9.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.7109375" style="10" customWidth="1"/>
+    <col min="19" max="20" width="18.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10" style="10" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="17.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="4.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="20" style="10" customWidth="1"/>
+    <col min="34" max="35" width="21" style="10" customWidth="1"/>
+    <col min="36" max="36" width="8.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="9.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="10.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="11.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="14" style="10" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="12.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="11" style="10" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="15" style="10" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="8.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="12.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="10.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="9.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="49" max="16384" width="9.140625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:48" s="14" customFormat="1" ht="18.75">
+      <c r="B2" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="18"/>
+      <c r="AA2" s="18"/>
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="18"/>
+      <c r="AD2" s="18"/>
+      <c r="AE2" s="18"/>
+      <c r="AF2" s="18"/>
+      <c r="AG2" s="18"/>
+      <c r="AH2" s="18"/>
+      <c r="AI2" s="18"/>
+    </row>
+    <row r="3" spans="1:48" s="14" customFormat="1" ht="18.75">
+      <c r="B3" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="18"/>
+      <c r="Z3" s="18"/>
+      <c r="AA3" s="18"/>
+      <c r="AB3" s="18"/>
+      <c r="AC3" s="18"/>
+      <c r="AD3" s="18"/>
+      <c r="AE3" s="18"/>
+      <c r="AF3" s="18"/>
+      <c r="AG3" s="18"/>
+      <c r="AH3" s="18"/>
+      <c r="AI3" s="18"/>
+    </row>
+    <row r="5" spans="1:48" ht="27" customHeight="1">
+      <c r="A5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="T5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="U5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="V5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="W5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="X5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AM5" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP5" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ5" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR5" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS5" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU5" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV5" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:48">
+      <c r="A6" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="F6" s="21">
+        <v>42063</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="H6" s="11">
+        <v>3</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="N6" s="10">
+        <v>0</v>
+      </c>
+      <c r="O6" s="10">
+        <v>100</v>
+      </c>
+      <c r="P6" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q6" s="20">
+        <v>16794200</v>
+      </c>
+      <c r="R6" s="20">
+        <v>1679420000</v>
+      </c>
+      <c r="S6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="T6" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="U6" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="V6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="W6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="X6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE6" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF6" s="10">
+        <v>13</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>4403408000912</v>
+      </c>
+      <c r="AH6" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="AI6" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="AJ6" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="AK6" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="AL6" s="10">
+        <v>2102</v>
+      </c>
+      <c r="AM6" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AO6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AP6" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="AQ6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AR6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AS6" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AU6" s="10">
+        <v>100</v>
+      </c>
+      <c r="AV6" s="20">
+        <v>1679420000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:48">
+      <c r="A7" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="F7" s="21">
+        <v>42063</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="H7" s="10">
+        <v>3</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="N7" s="10">
+        <v>0</v>
+      </c>
+      <c r="O7" s="10">
+        <v>100</v>
+      </c>
+      <c r="P7" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q7" s="20">
+        <v>16794200</v>
+      </c>
+      <c r="R7" s="20">
+        <v>1679420000</v>
+      </c>
+      <c r="S7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="T7" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="U7" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="V7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="W7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="X7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE7" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF7" s="10">
+        <v>13</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>4403408000912</v>
+      </c>
+      <c r="AH7" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="AI7" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="AJ7" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="AK7" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="AL7" s="10">
+        <v>2102</v>
+      </c>
+      <c r="AM7" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AO7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AP7" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="AQ7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AR7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AS7" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AU7" s="10">
+        <v>999</v>
+      </c>
+      <c r="AV7" s="20">
+        <v>16777405800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:48">
+      <c r="A8" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="F8" s="21">
+        <v>42063</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="H8" s="10">
+        <v>3</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="N8" s="10">
+        <v>100</v>
+      </c>
+      <c r="O8" s="10">
+        <v>100</v>
+      </c>
+      <c r="P8" s="20">
+        <v>1679420000</v>
+      </c>
+      <c r="Q8" s="20">
+        <v>16794200</v>
+      </c>
+      <c r="R8" s="20">
+        <v>1679420000</v>
+      </c>
+      <c r="S8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="T8" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="U8" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="V8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="W8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="X8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE8" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF8" s="10">
+        <v>13</v>
+      </c>
+      <c r="AG8" s="1">
+        <v>4403408000912</v>
+      </c>
+      <c r="AH8" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="AI8" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="AJ8" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="AK8" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL8" s="10">
+        <v>2102</v>
+      </c>
+      <c r="AM8" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AO8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AP8" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="AQ8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AR8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AS8" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AU8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:48">
+      <c r="A9" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="F9" s="21">
+        <v>42063</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="H9" s="10">
+        <v>3</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="N9" s="10">
+        <v>100</v>
+      </c>
+      <c r="O9" s="10">
+        <v>100</v>
+      </c>
+      <c r="P9" s="20">
+        <v>1679420000</v>
+      </c>
+      <c r="Q9" s="20">
+        <v>16794200</v>
+      </c>
+      <c r="R9" s="20">
+        <v>1679420000</v>
+      </c>
+      <c r="S9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="T9" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="U9" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="V9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="W9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="X9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE9" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF9" s="10">
+        <v>13</v>
+      </c>
+      <c r="AG9" s="1">
+        <v>4403408000912</v>
+      </c>
+      <c r="AH9" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="AI9" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="AJ9" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="AK9" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL9" s="10">
+        <v>2102</v>
+      </c>
+      <c r="AM9" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AO9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AP9" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="AQ9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AR9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AS9" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AU9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:48">
+      <c r="D10" s="1"/>
+      <c r="E10" s="21"/>
+      <c r="K10" s="1"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="AV10" s="20"/>
+    </row>
+    <row r="11" spans="1:48">
+      <c r="D11" s="1"/>
+      <c r="E11" s="21"/>
+      <c r="K11" s="1"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="AV11" s="20"/>
+    </row>
+    <row r="12" spans="1:48">
+      <c r="D12" s="1"/>
+      <c r="E12" s="21"/>
+      <c r="K12" s="1"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="AV12" s="20"/>
+    </row>
+    <row r="13" spans="1:48">
+      <c r="A13" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="21"/>
+      <c r="K13" s="1"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="AV13" s="20"/>
+    </row>
+    <row r="14" spans="1:48">
+      <c r="D14" s="1"/>
+      <c r="E14" s="21"/>
+      <c r="K14" s="1"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="AV14" s="20"/>
+    </row>
+    <row r="15" spans="1:48" ht="11.25" customHeight="1">
+      <c r="A15" s="33" t="s">
+        <v>242</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>243</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>244</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>263</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="H15" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="I15" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="K15" s="1"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="AV15" s="20"/>
+    </row>
+    <row r="16" spans="1:48">
+      <c r="A16" s="33"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="29"/>
+      <c r="K16" s="1"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="AM16" s="21"/>
+      <c r="AU16" s="20"/>
+      <c r="AV16" s="7"/>
+    </row>
+    <row r="17" spans="1:48">
+      <c r="A17" s="33"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="29"/>
+      <c r="K17" s="1"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="AM17" s="21"/>
+      <c r="AU17" s="20"/>
+      <c r="AV17" s="7"/>
+    </row>
+    <row r="18" spans="1:48">
+      <c r="A18" s="33"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="29"/>
+      <c r="K18" s="1"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="AM18" s="21"/>
+      <c r="AU18" s="20"/>
+      <c r="AV18" s="7"/>
+    </row>
+    <row r="19" spans="1:48">
+      <c r="A19" s="33"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="29"/>
+      <c r="AV19" s="7"/>
+    </row>
+    <row r="20" spans="1:48" ht="11.25" customHeight="1">
+      <c r="A20" s="33"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="22"/>
+      <c r="AV20" s="7"/>
+    </row>
+    <row r="21" spans="1:48">
+      <c r="A21" s="33"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="29"/>
+      <c r="AV21" s="7"/>
+    </row>
+    <row r="22" spans="1:48">
+      <c r="A22" s="33"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="29"/>
+      <c r="AV22" s="7"/>
+    </row>
+    <row r="23" spans="1:48">
+      <c r="A23" s="33"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="29"/>
+      <c r="AV23" s="7"/>
+    </row>
+    <row r="24" spans="1:48">
+      <c r="AV24" s="7"/>
+    </row>
+    <row r="25" spans="1:48">
+      <c r="AV25" s="7"/>
+    </row>
+    <row r="26" spans="1:48">
+      <c r="AV26" s="7"/>
+    </row>
+    <row r="27" spans="1:48">
+      <c r="AV27" s="7"/>
+    </row>
+    <row r="28" spans="1:48">
+      <c r="AV28" s="7"/>
+    </row>
+    <row r="29" spans="1:48">
+      <c r="AV29" s="7"/>
+    </row>
+    <row r="30" spans="1:48">
+      <c r="AV30" s="7"/>
+    </row>
+    <row r="31" spans="1:48">
+      <c r="AV31" s="7"/>
+    </row>
+    <row r="32" spans="1:48">
+      <c r="AV32" s="7"/>
+    </row>
+    <row r="33" spans="48:48">
+      <c r="AV33" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="G15:G23"/>
+    <mergeCell ref="H15:H23"/>
+    <mergeCell ref="I15:I23"/>
+    <mergeCell ref="A15:A23"/>
+    <mergeCell ref="B15:B23"/>
+    <mergeCell ref="C15:C23"/>
+    <mergeCell ref="D15:D23"/>
+    <mergeCell ref="E15:E23"/>
+    <mergeCell ref="F15:F23"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A2:F34"/>
+  <dimension ref="A2:F29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21:D34"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -1994,18 +3156,18 @@
   <sheetData>
     <row r="2" spans="1:6" s="14" customFormat="1" ht="18.75">
       <c r="B2" s="15" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="14" customFormat="1" ht="18.75">
       <c r="B3" s="15" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="27.75" customHeight="1">
@@ -2028,7 +3190,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" s="26" customFormat="1">
       <c r="A6" s="11" t="s">
         <v>213</v>
       </c>
@@ -2038,17 +3200,17 @@
       <c r="C6" s="11">
         <v>51821</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="E6" s="12">
+      <c r="D6" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="E6" s="11">
         <v>2</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="11" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" s="26" customFormat="1">
       <c r="A7" s="11" t="s">
         <v>213</v>
       </c>
@@ -2058,17 +3220,17 @@
       <c r="C7" s="11">
         <v>51821</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="E7" s="12">
+      <c r="D7" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="E7" s="11">
         <v>12</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="11" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" s="26" customFormat="1">
       <c r="A8" s="11" t="s">
         <v>213</v>
       </c>
@@ -2078,17 +3240,17 @@
       <c r="C8" s="11">
         <v>51821</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E8" s="12">
+      <c r="D8" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="E8" s="11">
         <v>35</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="11" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" s="26" customFormat="1">
       <c r="A9" s="11" t="s">
         <v>213</v>
       </c>
@@ -2098,2236 +3260,198 @@
       <c r="C9" s="11">
         <v>51821</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="E9" s="12">
+      <c r="D9" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="E9" s="11">
         <v>4</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="11" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" s="26" customFormat="1">
       <c r="A10" s="11" t="s">
-        <v>166</v>
+        <v>332</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>167</v>
       </c>
       <c r="C10" s="11">
-        <v>4999</v>
+        <v>3636002</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>156</v>
+        <v>333</v>
       </c>
       <c r="E10" s="11">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="26" customFormat="1">
       <c r="A11" s="11" t="s">
-        <v>166</v>
+        <v>332</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>167</v>
       </c>
       <c r="C11" s="11">
-        <v>4999</v>
+        <v>3636002</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>176</v>
+        <v>336</v>
       </c>
       <c r="E11" s="11">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="C12" s="11">
-        <v>4999</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="E12" s="11">
-        <v>40</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>220</v>
-      </c>
+        <v>337</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="26" customFormat="1">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="C13" s="11">
-        <v>4999</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="E13" s="11">
-        <v>13</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>221</v>
-      </c>
+      <c r="A13" s="36" t="s">
+        <v>226</v>
+      </c>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="F13" s="38"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="39"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="41"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="42"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="44"/>
+    </row>
+    <row r="16" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A16" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="B16" s="33" t="s">
         <v>223</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="C14" s="10">
-        <v>5606</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="E14" s="12">
-        <v>6</v>
-      </c>
-      <c r="F14" s="12" t="s">
+      <c r="C16" s="35" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="C15" s="10">
-        <v>5606</v>
-      </c>
-      <c r="D15" s="1" t="s">
+      <c r="D16" s="33" t="s">
         <v>225</v>
       </c>
-      <c r="E15" s="12">
-        <v>10</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
+      <c r="E16" s="35" t="s">
+        <v>228</v>
+      </c>
+      <c r="F16" s="33" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
+      <c r="A17" s="33"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="33"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="28" t="s">
-        <v>235</v>
-      </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="28" t="s">
-        <v>236</v>
-      </c>
-      <c r="F18" s="30"/>
+      <c r="A18" s="33"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="33"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="31"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
+      <c r="A19" s="33"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="35"/>
       <c r="D19" s="33"/>
-      <c r="E19" s="31"/>
+      <c r="E19" s="35"/>
       <c r="F19" s="33"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="34"/>
-      <c r="B20" s="35"/>
+      <c r="A20" s="33"/>
+      <c r="B20" s="33"/>
       <c r="C20" s="35"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="36"/>
-    </row>
-    <row r="21" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A21" s="27" t="s">
-        <v>231</v>
-      </c>
-      <c r="B21" s="27" t="s">
-        <v>232</v>
-      </c>
-      <c r="C21" s="26" t="s">
-        <v>233</v>
-      </c>
-      <c r="D21" s="27" t="s">
-        <v>234</v>
-      </c>
-      <c r="E21" s="26" t="s">
-        <v>237</v>
-      </c>
-      <c r="F21" s="27" t="s">
-        <v>334</v>
-      </c>
+      <c r="D20" s="33"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="33"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="33"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="33"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="27"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="27"/>
+      <c r="A22" s="33"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="33"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="27"/>
+      <c r="D23" s="33"/>
+      <c r="F23" s="33"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="27"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="27"/>
+      <c r="D24" s="33"/>
+      <c r="F24" s="33"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="27"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="27"/>
+      <c r="D25" s="33"/>
+      <c r="F25" s="33"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="27"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="27"/>
+      <c r="D26" s="33"/>
+      <c r="F26" s="33"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="27"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="27"/>
+      <c r="D27" s="33"/>
+      <c r="F27" s="33"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="D28" s="27"/>
-      <c r="F28" s="27"/>
+      <c r="D28" s="33"/>
+      <c r="F28" s="33"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="D29" s="27"/>
-      <c r="F29" s="27"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="D30" s="27"/>
-      <c r="F30" s="27"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="D31" s="27"/>
-      <c r="F31" s="27"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="D32" s="27"/>
-      <c r="F32" s="27"/>
-    </row>
-    <row r="33" spans="4:6">
-      <c r="D33" s="27"/>
-      <c r="F33" s="27"/>
-    </row>
-    <row r="34" spans="4:6">
-      <c r="D34" s="27"/>
-      <c r="F34" s="27"/>
+      <c r="D29" s="33"/>
+      <c r="F29" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="E21:E27"/>
-    <mergeCell ref="D21:D34"/>
-    <mergeCell ref="A18:D20"/>
-    <mergeCell ref="E18:F20"/>
-    <mergeCell ref="F21:F34"/>
-    <mergeCell ref="A21:A27"/>
-    <mergeCell ref="B21:B27"/>
-    <mergeCell ref="C21:C27"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
-  <dimension ref="A2:AF49"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z4" workbookViewId="0">
-      <selection activeCell="AH41" sqref="AH41"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
-  <cols>
-    <col min="1" max="1" width="22" style="7" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" style="10" customWidth="1"/>
-    <col min="6" max="7" width="18.42578125" style="10" customWidth="1"/>
-    <col min="8" max="8" width="27.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35" style="7" customWidth="1"/>
-    <col min="11" max="11" width="30.28515625" style="10" customWidth="1"/>
-    <col min="12" max="12" width="27.42578125" style="7" customWidth="1"/>
-    <col min="13" max="13" width="27.85546875" style="10" customWidth="1"/>
-    <col min="14" max="14" width="22" style="10" customWidth="1"/>
-    <col min="15" max="15" width="28.42578125" style="7" customWidth="1"/>
-    <col min="16" max="16" width="39.42578125" style="10" customWidth="1"/>
-    <col min="17" max="17" width="26" style="10" customWidth="1"/>
-    <col min="18" max="18" width="24.28515625" style="10" customWidth="1"/>
-    <col min="19" max="19" width="23.85546875" style="10" customWidth="1"/>
-    <col min="20" max="20" width="24.140625" style="10" customWidth="1"/>
-    <col min="21" max="21" width="18.42578125" style="10" customWidth="1"/>
-    <col min="22" max="22" width="24.85546875" style="10" customWidth="1"/>
-    <col min="23" max="23" width="18.42578125" style="10" customWidth="1"/>
-    <col min="24" max="24" width="27" style="10" customWidth="1"/>
-    <col min="25" max="25" width="27.42578125" style="10" customWidth="1"/>
-    <col min="26" max="26" width="32.28515625" style="10" customWidth="1"/>
-    <col min="27" max="27" width="20.7109375" style="10" customWidth="1"/>
-    <col min="28" max="28" width="18.42578125" style="10" customWidth="1"/>
-    <col min="29" max="29" width="21.42578125" style="10" customWidth="1"/>
-    <col min="30" max="30" width="31.7109375" style="10" customWidth="1"/>
-    <col min="31" max="31" width="21.85546875" style="10" customWidth="1"/>
-    <col min="32" max="32" width="24.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="33" max="16384" width="9.140625" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:32" s="14" customFormat="1" ht="18.75">
-      <c r="B2" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="18"/>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="18"/>
-      <c r="AD2" s="18"/>
-      <c r="AE2" s="18"/>
-      <c r="AF2" s="18"/>
-    </row>
-    <row r="3" spans="1:32" s="14" customFormat="1" ht="18.75">
-      <c r="B3" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
-      <c r="X3" s="18"/>
-      <c r="Y3" s="18"/>
-      <c r="Z3" s="18"/>
-      <c r="AA3" s="18"/>
-      <c r="AB3" s="18"/>
-      <c r="AC3" s="18"/>
-      <c r="AD3" s="18"/>
-      <c r="AE3" s="18"/>
-      <c r="AF3" s="18"/>
-    </row>
-    <row r="5" spans="1:32" ht="27.75" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="N5" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="O5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="P5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q5" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R5" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="S5" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="T5" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="U5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="V5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="W5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="X5" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z5" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA5" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB5" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="AC5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE5" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF5" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" s="17" customFormat="1">
-      <c r="A6" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>349</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="L6" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="M6" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="N6" s="13" t="s">
-        <v>254</v>
-      </c>
-      <c r="O6" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="P6" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q6" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="R6" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="S6" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="T6" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="U6" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="V6" s="13" t="s">
-        <v>267</v>
-      </c>
-      <c r="W6" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="X6" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="Y6" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="Z6" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA6" s="13" t="s">
-        <v>268</v>
-      </c>
-      <c r="AB6" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC6" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="AD6" s="19" t="s">
-        <v>364</v>
-      </c>
-      <c r="AE6" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="AF6" s="19" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" s="17" customFormat="1">
-      <c r="A7" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>349</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="K7" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="L7" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="M7" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="N7" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="O7" s="13" t="s">
-        <v>270</v>
-      </c>
-      <c r="P7" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q7" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="R7" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="S7" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="T7" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="U7" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="V7" s="13" t="s">
-        <v>272</v>
-      </c>
-      <c r="W7" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="X7" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="Y7" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="Z7" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA7" s="13" t="s">
-        <v>268</v>
-      </c>
-      <c r="AB7" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC7" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="AD7" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="AE7" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="AF7" s="19" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" s="17" customFormat="1">
-      <c r="A8" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>349</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="K8" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="L8" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="M8" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="N8" s="13" t="s">
-        <v>260</v>
-      </c>
-      <c r="O8" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="P8" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q8" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="R8" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="S8" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="T8" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="U8" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="V8" s="13" t="s">
-        <v>276</v>
-      </c>
-      <c r="W8" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="X8" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="Y8" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="Z8" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA8" s="13" t="s">
-        <v>268</v>
-      </c>
-      <c r="AB8" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC8" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="AD8" s="19" t="s">
-        <v>363</v>
-      </c>
-      <c r="AE8" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="AF8" s="19" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" s="17" customFormat="1">
-      <c r="A9" s="16" t="s">
-        <v>278</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>349</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>252</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>282</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>277</v>
-      </c>
-      <c r="J9" s="16" t="s">
-        <v>299</v>
-      </c>
-      <c r="K9" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="L9" s="16" t="s">
-        <v>262</v>
-      </c>
-      <c r="M9" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="N9" s="16" t="s">
-        <v>283</v>
-      </c>
-      <c r="O9" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="P9" s="16" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q9" s="16" t="s">
-        <v>302</v>
-      </c>
-      <c r="R9" s="16" t="s">
-        <v>281</v>
-      </c>
-      <c r="S9" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="T9" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="U9" s="16" t="s">
-        <v>265</v>
-      </c>
-      <c r="V9" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="W9" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="X9" s="16" t="s">
-        <v>265</v>
-      </c>
-      <c r="Y9" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="Z9" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA9" s="16" t="s">
-        <v>268</v>
-      </c>
-      <c r="AB9" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC9" s="16" t="s">
-        <v>282</v>
-      </c>
-      <c r="AD9" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE9" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="AF9" s="16" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="10" spans="1:32" s="17" customFormat="1">
-      <c r="A10" s="16" t="s">
-        <v>278</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>349</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>252</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>282</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>277</v>
-      </c>
-      <c r="J10" s="16" t="s">
-        <v>299</v>
-      </c>
-      <c r="K10" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="L10" s="16" t="s">
-        <v>262</v>
-      </c>
-      <c r="M10" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="N10" s="16" t="s">
-        <v>285</v>
-      </c>
-      <c r="O10" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="P10" s="16" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q10" s="16" t="s">
-        <v>302</v>
-      </c>
-      <c r="R10" s="16" t="s">
-        <v>281</v>
-      </c>
-      <c r="S10" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="T10" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="U10" s="16" t="s">
-        <v>265</v>
-      </c>
-      <c r="V10" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="W10" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="X10" s="16" t="s">
-        <v>265</v>
-      </c>
-      <c r="Y10" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="Z10" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA10" s="16" t="s">
-        <v>268</v>
-      </c>
-      <c r="AB10" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC10" s="16" t="s">
-        <v>282</v>
-      </c>
-      <c r="AD10" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE10" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="AF10" s="16" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32" s="17" customFormat="1">
-      <c r="A11" s="16" t="s">
-        <v>278</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>349</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>252</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>282</v>
-      </c>
-      <c r="I11" s="16" t="s">
-        <v>277</v>
-      </c>
-      <c r="J11" s="16" t="s">
-        <v>299</v>
-      </c>
-      <c r="K11" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="L11" s="16" t="s">
-        <v>262</v>
-      </c>
-      <c r="M11" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="N11" s="16" t="s">
-        <v>288</v>
-      </c>
-      <c r="O11" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="P11" s="16" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q11" s="16" t="s">
-        <v>302</v>
-      </c>
-      <c r="R11" s="16" t="s">
-        <v>281</v>
-      </c>
-      <c r="S11" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="T11" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="U11" s="16" t="s">
-        <v>265</v>
-      </c>
-      <c r="V11" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="W11" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="X11" s="16" t="s">
-        <v>265</v>
-      </c>
-      <c r="Y11" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="Z11" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA11" s="16" t="s">
-        <v>268</v>
-      </c>
-      <c r="AB11" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC11" s="16" t="s">
-        <v>282</v>
-      </c>
-      <c r="AD11" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE11" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="AF11" s="16" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="12" spans="1:32" s="17" customFormat="1">
-      <c r="A12" s="16" t="s">
-        <v>278</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>349</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>252</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>282</v>
-      </c>
-      <c r="I12" s="16" t="s">
-        <v>277</v>
-      </c>
-      <c r="J12" s="16" t="s">
-        <v>299</v>
-      </c>
-      <c r="K12" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="L12" s="16" t="s">
-        <v>262</v>
-      </c>
-      <c r="M12" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="N12" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="O12" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="P12" s="16" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q12" s="16" t="s">
-        <v>302</v>
-      </c>
-      <c r="R12" s="16" t="s">
-        <v>281</v>
-      </c>
-      <c r="S12" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="T12" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="U12" s="16" t="s">
-        <v>265</v>
-      </c>
-      <c r="V12" s="16" t="s">
-        <v>313</v>
-      </c>
-      <c r="W12" s="16" t="s">
-        <v>312</v>
-      </c>
-      <c r="X12" s="16" t="s">
-        <v>265</v>
-      </c>
-      <c r="Y12" s="16" t="s">
-        <v>312</v>
-      </c>
-      <c r="Z12" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA12" s="16" t="s">
-        <v>268</v>
-      </c>
-      <c r="AB12" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC12" s="16" t="s">
-        <v>282</v>
-      </c>
-      <c r="AD12" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE12" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="AF12" s="16" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32" s="17" customFormat="1">
-      <c r="A13" s="16" t="s">
-        <v>278</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>349</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>252</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>282</v>
-      </c>
-      <c r="I13" s="16" t="s">
-        <v>277</v>
-      </c>
-      <c r="J13" s="16" t="s">
-        <v>299</v>
-      </c>
-      <c r="K13" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="L13" s="16" t="s">
-        <v>262</v>
-      </c>
-      <c r="M13" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="N13" s="16" t="s">
-        <v>292</v>
-      </c>
-      <c r="O13" s="16" t="s">
-        <v>314</v>
-      </c>
-      <c r="P13" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q13" s="16" t="s">
-        <v>302</v>
-      </c>
-      <c r="R13" s="16" t="s">
-        <v>281</v>
-      </c>
-      <c r="S13" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="T13" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="U13" s="16" t="s">
-        <v>265</v>
-      </c>
-      <c r="V13" s="16" t="s">
-        <v>313</v>
-      </c>
-      <c r="W13" s="16" t="s">
-        <v>312</v>
-      </c>
-      <c r="X13" s="16" t="s">
-        <v>265</v>
-      </c>
-      <c r="Y13" s="16" t="s">
-        <v>312</v>
-      </c>
-      <c r="Z13" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA13" s="16" t="s">
-        <v>268</v>
-      </c>
-      <c r="AB13" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC13" s="16" t="s">
-        <v>282</v>
-      </c>
-      <c r="AD13" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE13" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="AF13" s="16" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="14" spans="1:32" s="17" customFormat="1">
-      <c r="A14" s="16" t="s">
-        <v>278</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>349</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>252</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>282</v>
-      </c>
-      <c r="I14" s="16" t="s">
-        <v>277</v>
-      </c>
-      <c r="J14" s="16" t="s">
-        <v>299</v>
-      </c>
-      <c r="K14" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="L14" s="16" t="s">
-        <v>262</v>
-      </c>
-      <c r="M14" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="N14" s="16" t="s">
-        <v>294</v>
-      </c>
-      <c r="O14" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="P14" s="16" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q14" s="16" t="s">
-        <v>302</v>
-      </c>
-      <c r="R14" s="16" t="s">
-        <v>281</v>
-      </c>
-      <c r="S14" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="T14" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="U14" s="16" t="s">
-        <v>265</v>
-      </c>
-      <c r="V14" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="W14" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="X14" s="16" t="s">
-        <v>265</v>
-      </c>
-      <c r="Y14" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="Z14" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA14" s="16" t="s">
-        <v>268</v>
-      </c>
-      <c r="AB14" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC14" s="16" t="s">
-        <v>282</v>
-      </c>
-      <c r="AD14" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE14" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="AF14" s="16" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32" s="17" customFormat="1">
-      <c r="A15" s="16" t="s">
-        <v>278</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>349</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>252</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>282</v>
-      </c>
-      <c r="I15" s="16" t="s">
-        <v>277</v>
-      </c>
-      <c r="J15" s="16" t="s">
-        <v>299</v>
-      </c>
-      <c r="K15" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="L15" s="16" t="s">
-        <v>262</v>
-      </c>
-      <c r="M15" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="N15" s="16" t="s">
-        <v>296</v>
-      </c>
-      <c r="O15" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="P15" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q15" s="16" t="s">
-        <v>302</v>
-      </c>
-      <c r="R15" s="16" t="s">
-        <v>281</v>
-      </c>
-      <c r="S15" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="T15" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="U15" s="16" t="s">
-        <v>265</v>
-      </c>
-      <c r="V15" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="W15" s="16" t="s">
-        <v>319</v>
-      </c>
-      <c r="X15" s="16" t="s">
-        <v>265</v>
-      </c>
-      <c r="Y15" s="16" t="s">
-        <v>319</v>
-      </c>
-      <c r="Z15" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA15" s="16" t="s">
-        <v>268</v>
-      </c>
-      <c r="AB15" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC15" s="16" t="s">
-        <v>282</v>
-      </c>
-      <c r="AD15" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE15" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="AF15" s="16" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="16" spans="1:32" s="17" customFormat="1">
-      <c r="A16" s="16" t="s">
-        <v>278</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>349</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>252</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="H16" s="16" t="s">
-        <v>282</v>
-      </c>
-      <c r="I16" s="16" t="s">
-        <v>277</v>
-      </c>
-      <c r="J16" s="16" t="s">
-        <v>299</v>
-      </c>
-      <c r="K16" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="L16" s="16" t="s">
-        <v>262</v>
-      </c>
-      <c r="M16" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="N16" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="O16" s="16" t="s">
-        <v>321</v>
-      </c>
-      <c r="P16" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q16" s="16" t="s">
-        <v>302</v>
-      </c>
-      <c r="R16" s="16" t="s">
-        <v>281</v>
-      </c>
-      <c r="S16" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="T16" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="U16" s="16" t="s">
-        <v>265</v>
-      </c>
-      <c r="V16" s="16" t="s">
-        <v>323</v>
-      </c>
-      <c r="W16" s="16" t="s">
-        <v>322</v>
-      </c>
-      <c r="X16" s="16" t="s">
-        <v>265</v>
-      </c>
-      <c r="Y16" s="16" t="s">
-        <v>322</v>
-      </c>
-      <c r="Z16" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA16" s="16" t="s">
-        <v>268</v>
-      </c>
-      <c r="AB16" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC16" s="16" t="s">
-        <v>282</v>
-      </c>
-      <c r="AD16" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE16" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="AF16" s="16" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="17" spans="1:32" s="17" customFormat="1">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="16"/>
-      <c r="S17" s="16"/>
-      <c r="T17" s="16"/>
-      <c r="U17" s="16"/>
-      <c r="V17" s="16"/>
-      <c r="W17" s="16"/>
-      <c r="X17" s="16"/>
-      <c r="Y17" s="16"/>
-      <c r="Z17" s="16"/>
-      <c r="AA17" s="16"/>
-      <c r="AB17" s="16"/>
-      <c r="AC17" s="16"/>
-      <c r="AD17" s="16"/>
-      <c r="AE17" s="16"/>
-      <c r="AF17" s="16"/>
-    </row>
-    <row r="18" spans="1:32">
-      <c r="A18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="1"/>
-      <c r="L18" s="10"/>
-      <c r="O18" s="10"/>
-    </row>
-    <row r="19" spans="1:32" ht="11.25" customHeight="1">
-      <c r="A19" s="37" t="s">
-        <v>236</v>
-      </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="38"/>
-      <c r="O19" s="38"/>
-      <c r="P19" s="38"/>
-      <c r="Q19" s="38"/>
-      <c r="R19" s="38"/>
-      <c r="S19" s="38"/>
-      <c r="T19" s="38"/>
-      <c r="U19" s="38"/>
-      <c r="V19" s="38"/>
-      <c r="W19" s="38"/>
-      <c r="X19" s="38"/>
-      <c r="Y19" s="38"/>
-      <c r="Z19" s="38"/>
-      <c r="AA19" s="38"/>
-      <c r="AB19" s="38"/>
-      <c r="AC19" s="39"/>
-      <c r="AD19" s="49" t="s">
-        <v>361</v>
-      </c>
-      <c r="AE19" s="53" t="s">
-        <v>415</v>
-      </c>
-      <c r="AF19" s="53"/>
-    </row>
-    <row r="20" spans="1:32" ht="11.25" customHeight="1">
-      <c r="A20" s="40"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="41"/>
-      <c r="O20" s="41"/>
-      <c r="P20" s="41"/>
-      <c r="Q20" s="41"/>
-      <c r="R20" s="41"/>
-      <c r="S20" s="41"/>
-      <c r="T20" s="41"/>
-      <c r="U20" s="41"/>
-      <c r="V20" s="41"/>
-      <c r="W20" s="41"/>
-      <c r="X20" s="41"/>
-      <c r="Y20" s="41"/>
-      <c r="Z20" s="41"/>
-      <c r="AA20" s="41"/>
-      <c r="AB20" s="41"/>
-      <c r="AC20" s="42"/>
-      <c r="AD20" s="49"/>
-      <c r="AE20" s="53"/>
-      <c r="AF20" s="53"/>
-    </row>
-    <row r="21" spans="1:32" ht="11.25" customHeight="1">
-      <c r="A21" s="43"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="44"/>
-      <c r="M21" s="44"/>
-      <c r="N21" s="44"/>
-      <c r="O21" s="44"/>
-      <c r="P21" s="44"/>
-      <c r="Q21" s="44"/>
-      <c r="R21" s="44"/>
-      <c r="S21" s="44"/>
-      <c r="T21" s="44"/>
-      <c r="U21" s="44"/>
-      <c r="V21" s="44"/>
-      <c r="W21" s="44"/>
-      <c r="X21" s="44"/>
-      <c r="Y21" s="44"/>
-      <c r="Z21" s="44"/>
-      <c r="AA21" s="44"/>
-      <c r="AB21" s="44"/>
-      <c r="AC21" s="45"/>
-      <c r="AD21" s="49"/>
-      <c r="AE21" s="53"/>
-      <c r="AF21" s="53"/>
-    </row>
-    <row r="22" spans="1:32" ht="11.25" customHeight="1">
-      <c r="A22" s="27" t="s">
-        <v>324</v>
-      </c>
-      <c r="B22" s="47" t="s">
-        <v>342</v>
-      </c>
-      <c r="C22" s="47" t="s">
-        <v>348</v>
-      </c>
-      <c r="D22" s="48" t="s">
-        <v>343</v>
-      </c>
-      <c r="E22" s="48" t="s">
-        <v>346</v>
-      </c>
-      <c r="F22" s="47" t="s">
-        <v>344</v>
-      </c>
-      <c r="G22" s="47" t="s">
-        <v>345</v>
-      </c>
-      <c r="H22" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="I22" s="27" t="s">
-        <v>325</v>
-      </c>
-      <c r="J22" s="27" t="s">
-        <v>326</v>
-      </c>
-      <c r="K22" s="27" t="s">
-        <v>351</v>
-      </c>
-      <c r="L22" s="46" t="s">
-        <v>327</v>
-      </c>
-      <c r="M22" s="47" t="s">
-        <v>347</v>
-      </c>
-      <c r="N22" s="47" t="s">
-        <v>352</v>
-      </c>
-      <c r="O22" s="27" t="s">
-        <v>328</v>
-      </c>
-      <c r="P22" s="27" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q22" s="27" t="s">
-        <v>330</v>
-      </c>
-      <c r="R22" s="27" t="s">
-        <v>331</v>
-      </c>
-      <c r="S22" s="27" t="s">
-        <v>332</v>
-      </c>
-      <c r="T22" s="48" t="s">
-        <v>333</v>
-      </c>
-      <c r="U22" s="48" t="s">
-        <v>338</v>
-      </c>
-      <c r="V22" s="48" t="s">
-        <v>337</v>
-      </c>
-      <c r="W22" s="48" t="s">
-        <v>339</v>
-      </c>
-      <c r="X22" s="27" t="s">
-        <v>336</v>
-      </c>
-      <c r="Y22" s="27" t="s">
-        <v>335</v>
-      </c>
-      <c r="Z22" s="27" t="s">
-        <v>350</v>
-      </c>
-      <c r="AA22" s="27" t="s">
-        <v>340</v>
-      </c>
-      <c r="AB22" s="27" t="s">
-        <v>353</v>
-      </c>
-      <c r="AC22" s="27" t="s">
-        <v>341</v>
-      </c>
-      <c r="AD22" s="27" t="s">
-        <v>362</v>
-      </c>
-      <c r="AE22" s="27" t="s">
-        <v>416</v>
-      </c>
-      <c r="AF22" s="27" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="23" spans="1:32" ht="11.25" customHeight="1">
-      <c r="A23" s="27"/>
-      <c r="B23" s="47"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="47"/>
-      <c r="N23" s="47"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="27"/>
-      <c r="R23" s="27"/>
-      <c r="S23" s="27"/>
-      <c r="T23" s="48"/>
-      <c r="U23" s="48"/>
-      <c r="V23" s="48"/>
-      <c r="W23" s="48"/>
-      <c r="X23" s="27"/>
-      <c r="Y23" s="27"/>
-      <c r="Z23" s="27"/>
-      <c r="AA23" s="27"/>
-      <c r="AB23" s="27"/>
-      <c r="AC23" s="27"/>
-      <c r="AD23" s="27"/>
-      <c r="AE23" s="27"/>
-      <c r="AF23" s="27"/>
-    </row>
-    <row r="24" spans="1:32">
-      <c r="A24" s="27"/>
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="46"/>
-      <c r="M24" s="47"/>
-      <c r="N24" s="47"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="27"/>
-      <c r="R24" s="27"/>
-      <c r="S24" s="27"/>
-      <c r="T24" s="48"/>
-      <c r="U24" s="48"/>
-      <c r="V24" s="48"/>
-      <c r="W24" s="48"/>
-      <c r="X24" s="27"/>
-      <c r="Y24" s="27"/>
-      <c r="Z24" s="27"/>
-      <c r="AA24" s="27"/>
-      <c r="AB24" s="27"/>
-      <c r="AC24" s="27"/>
-      <c r="AD24" s="27"/>
-      <c r="AE24" s="27"/>
-      <c r="AF24" s="27"/>
-    </row>
-    <row r="25" spans="1:32">
-      <c r="A25" s="27"/>
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="47"/>
-      <c r="N25" s="47"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="27"/>
-      <c r="R25" s="27"/>
-      <c r="S25" s="27"/>
-      <c r="T25" s="48"/>
-      <c r="U25" s="48"/>
-      <c r="V25" s="48"/>
-      <c r="W25" s="48"/>
-      <c r="X25" s="27"/>
-      <c r="Y25" s="27"/>
-      <c r="Z25" s="27"/>
-      <c r="AA25" s="27"/>
-      <c r="AB25" s="27"/>
-      <c r="AC25" s="27"/>
-      <c r="AD25" s="27"/>
-      <c r="AE25" s="27"/>
-      <c r="AF25" s="27"/>
-    </row>
-    <row r="26" spans="1:32">
-      <c r="A26" s="27"/>
-      <c r="B26" s="47"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="46"/>
-      <c r="M26" s="47"/>
-      <c r="N26" s="47"/>
-      <c r="O26" s="27"/>
-      <c r="P26" s="27"/>
-      <c r="Q26" s="27"/>
-      <c r="R26" s="27"/>
-      <c r="S26" s="27"/>
-      <c r="T26" s="48"/>
-      <c r="U26" s="48"/>
-      <c r="V26" s="48"/>
-      <c r="W26" s="48"/>
-      <c r="X26" s="27"/>
-      <c r="Y26" s="27"/>
-      <c r="Z26" s="27"/>
-      <c r="AA26" s="27"/>
-      <c r="AB26" s="27"/>
-      <c r="AC26" s="27"/>
-      <c r="AD26" s="27"/>
-      <c r="AE26" s="27"/>
-      <c r="AF26" s="27"/>
-    </row>
-    <row r="27" spans="1:32">
-      <c r="A27" s="27"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="46"/>
-      <c r="M27" s="47"/>
-      <c r="N27" s="47"/>
-      <c r="O27" s="27"/>
-      <c r="P27" s="27"/>
-      <c r="Q27" s="27"/>
-      <c r="R27" s="27"/>
-      <c r="S27" s="27"/>
-      <c r="T27" s="48"/>
-      <c r="U27" s="48"/>
-      <c r="V27" s="48"/>
-      <c r="W27" s="48"/>
-      <c r="X27" s="27"/>
-      <c r="Y27" s="27"/>
-      <c r="Z27" s="27"/>
-      <c r="AA27" s="27"/>
-      <c r="AB27" s="27"/>
-      <c r="AC27" s="27"/>
-      <c r="AD27" s="27"/>
-      <c r="AE27" s="27"/>
-      <c r="AF27" s="27"/>
-    </row>
-    <row r="28" spans="1:32">
-      <c r="A28" s="27"/>
-      <c r="B28" s="47"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="46"/>
-      <c r="M28" s="47"/>
-      <c r="N28" s="47"/>
-      <c r="O28" s="27"/>
-      <c r="P28" s="27"/>
-      <c r="Q28" s="27"/>
-      <c r="R28" s="27"/>
-      <c r="S28" s="27"/>
-      <c r="T28" s="48"/>
-      <c r="U28" s="48"/>
-      <c r="V28" s="48"/>
-      <c r="W28" s="48"/>
-      <c r="X28" s="27"/>
-      <c r="Y28" s="27"/>
-      <c r="Z28" s="27"/>
-      <c r="AA28" s="27"/>
-      <c r="AB28" s="27"/>
-      <c r="AC28" s="27"/>
-      <c r="AD28" s="27"/>
-      <c r="AE28" s="27"/>
-      <c r="AF28" s="27"/>
-    </row>
-    <row r="29" spans="1:32">
-      <c r="A29" s="27"/>
-      <c r="B29" s="47"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="47"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="46"/>
-      <c r="M29" s="47"/>
-      <c r="N29" s="47"/>
-      <c r="O29" s="27"/>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="27"/>
-      <c r="R29" s="27"/>
-      <c r="S29" s="27"/>
-      <c r="T29" s="48"/>
-      <c r="U29" s="48"/>
-      <c r="V29" s="48"/>
-      <c r="W29" s="48"/>
-      <c r="X29" s="27"/>
-      <c r="Y29" s="27"/>
-      <c r="Z29" s="27"/>
-      <c r="AA29" s="27"/>
-      <c r="AB29" s="27"/>
-      <c r="AC29" s="27"/>
-      <c r="AD29" s="27"/>
-      <c r="AE29" s="27"/>
-      <c r="AF29" s="27"/>
-    </row>
-    <row r="30" spans="1:32">
-      <c r="A30" s="27"/>
-      <c r="B30" s="47"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="46"/>
-      <c r="M30" s="47"/>
-      <c r="N30" s="47"/>
-      <c r="O30" s="27"/>
-      <c r="P30" s="27"/>
-      <c r="Q30" s="27"/>
-      <c r="R30" s="27"/>
-      <c r="S30" s="27"/>
-      <c r="T30" s="48"/>
-      <c r="U30" s="48"/>
-      <c r="V30" s="48"/>
-      <c r="W30" s="48"/>
-      <c r="X30" s="27"/>
-      <c r="Y30" s="27"/>
-      <c r="Z30" s="27"/>
-      <c r="AA30" s="27"/>
-      <c r="AB30" s="27"/>
-      <c r="AC30" s="27"/>
-      <c r="AD30" s="27"/>
-      <c r="AE30" s="27"/>
-      <c r="AF30" s="27"/>
-    </row>
-    <row r="31" spans="1:32">
-      <c r="K31" s="7"/>
-      <c r="L31" s="46"/>
-      <c r="X31" s="27"/>
-      <c r="Y31" s="27"/>
-      <c r="Z31" s="27"/>
-      <c r="AE31" s="7"/>
-      <c r="AF31" s="7"/>
-    </row>
-    <row r="32" spans="1:32">
-      <c r="K32" s="7"/>
-      <c r="L32" s="46"/>
-      <c r="X32" s="27"/>
-      <c r="Y32" s="27"/>
-      <c r="Z32" s="27"/>
-      <c r="AE32" s="54" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="33" spans="11:32">
-      <c r="K33" s="7"/>
-      <c r="X33" s="27"/>
-      <c r="Y33" s="27"/>
-      <c r="Z33" s="27"/>
-      <c r="AE33" s="54"/>
-    </row>
-    <row r="34" spans="11:32">
-      <c r="K34" s="7"/>
-      <c r="X34" s="27"/>
-      <c r="Y34" s="27"/>
-      <c r="Z34" s="27"/>
-      <c r="AE34" s="54"/>
-    </row>
-    <row r="35" spans="11:32">
-      <c r="K35" s="7"/>
-      <c r="X35" s="27"/>
-      <c r="Y35" s="27"/>
-      <c r="Z35" s="27"/>
-      <c r="AE35" s="54"/>
-    </row>
-    <row r="36" spans="11:32">
-      <c r="K36" s="7"/>
-      <c r="AE36" s="54"/>
-    </row>
-    <row r="37" spans="11:32">
-      <c r="K37" s="7"/>
-      <c r="AE37" s="54"/>
-    </row>
-    <row r="38" spans="11:32">
-      <c r="K38" s="7"/>
-      <c r="AE38" s="54"/>
-    </row>
-    <row r="39" spans="11:32">
-      <c r="K39" s="7"/>
-      <c r="AE39" s="7"/>
-    </row>
-    <row r="40" spans="11:32">
-      <c r="K40" s="7"/>
-      <c r="AE40" s="54" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="41" spans="11:32">
-      <c r="K41" s="7"/>
-      <c r="AE41" s="54"/>
-    </row>
-    <row r="42" spans="11:32">
-      <c r="K42" s="7"/>
-      <c r="AE42" s="54"/>
-    </row>
-    <row r="43" spans="11:32">
-      <c r="K43" s="7"/>
-      <c r="AE43" s="54"/>
-    </row>
-    <row r="44" spans="11:32">
-      <c r="K44" s="7"/>
-      <c r="AE44" s="54"/>
-    </row>
-    <row r="45" spans="11:32">
-      <c r="K45" s="7"/>
-      <c r="AE45" s="54"/>
-    </row>
-    <row r="46" spans="11:32">
-      <c r="K46" s="7"/>
-      <c r="AE46" s="54"/>
-    </row>
-    <row r="47" spans="11:32">
-      <c r="K47" s="7"/>
-      <c r="AE47" s="7"/>
-    </row>
-    <row r="48" spans="11:32">
-      <c r="K48" s="7"/>
-      <c r="AE48" s="7"/>
-      <c r="AF48" s="7"/>
-    </row>
-    <row r="49" spans="11:32">
-      <c r="K49" s="7"/>
-      <c r="AE49" s="7"/>
-      <c r="AF49" s="7"/>
-    </row>
-  </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="U22:U30"/>
-    <mergeCell ref="AE19:AF21"/>
-    <mergeCell ref="AE22:AE30"/>
-    <mergeCell ref="AE32:AE38"/>
-    <mergeCell ref="AE40:AE46"/>
-    <mergeCell ref="AF22:AF30"/>
-    <mergeCell ref="N22:N30"/>
-    <mergeCell ref="AD19:AD21"/>
-    <mergeCell ref="AD22:AD30"/>
-    <mergeCell ref="C22:C30"/>
-    <mergeCell ref="D22:D30"/>
-    <mergeCell ref="F22:F30"/>
-    <mergeCell ref="G22:G30"/>
-    <mergeCell ref="E22:E30"/>
-    <mergeCell ref="S22:S30"/>
-    <mergeCell ref="P22:P30"/>
-    <mergeCell ref="O22:O30"/>
-    <mergeCell ref="Q22:Q30"/>
-    <mergeCell ref="R22:R30"/>
-    <mergeCell ref="Y22:Y35"/>
-    <mergeCell ref="V22:V30"/>
-    <mergeCell ref="A19:AC21"/>
-    <mergeCell ref="J22:J30"/>
-    <mergeCell ref="A22:A30"/>
-    <mergeCell ref="H22:H30"/>
-    <mergeCell ref="I22:I30"/>
-    <mergeCell ref="L22:L32"/>
-    <mergeCell ref="M22:M30"/>
-    <mergeCell ref="AA22:AA30"/>
-    <mergeCell ref="AB22:AB30"/>
-    <mergeCell ref="AC22:AC30"/>
-    <mergeCell ref="B22:B30"/>
-    <mergeCell ref="X22:X35"/>
-    <mergeCell ref="W22:W30"/>
-    <mergeCell ref="T22:T30"/>
-    <mergeCell ref="Z22:Z35"/>
-    <mergeCell ref="K22:K30"/>
+    <mergeCell ref="E16:E22"/>
+    <mergeCell ref="D16:D29"/>
+    <mergeCell ref="A13:D15"/>
+    <mergeCell ref="E13:F15"/>
+    <mergeCell ref="F16:F29"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="B16:B22"/>
+    <mergeCell ref="C16:C22"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4342,7 +3466,7 @@
   <dimension ref="A2:AF49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -4383,10 +3507,10 @@
   <sheetData>
     <row r="2" spans="1:32" s="14" customFormat="1" ht="18.75">
       <c r="B2" s="15" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E2" s="18"/>
       <c r="F2" s="18"/>
@@ -4414,10 +3538,10 @@
     </row>
     <row r="3" spans="1:32" s="14" customFormat="1" ht="18.75">
       <c r="B3" s="15" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>354</v>
+        <v>269</v>
       </c>
       <c r="E3" s="18"/>
       <c r="F3" s="18"/>
@@ -4445,10 +3569,10 @@
     </row>
     <row r="5" spans="1:32" ht="27.75" customHeight="1">
       <c r="A5" s="8" t="s">
-        <v>355</v>
+        <v>270</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>356</v>
+        <v>271</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -4479,76 +3603,76 @@
     <row r="6" spans="1:32" s="17" customFormat="1">
       <c r="A6" s="16"/>
       <c r="B6" s="16"/>
-      <c r="C6" s="50" t="s">
-        <v>360</v>
-      </c>
-      <c r="D6" s="50"/>
+      <c r="C6" s="45" t="s">
+        <v>275</v>
+      </c>
+      <c r="D6" s="45"/>
     </row>
     <row r="7" spans="1:32" s="17" customFormat="1">
       <c r="A7" s="16"/>
       <c r="B7" s="16"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
     </row>
     <row r="8" spans="1:32" s="17" customFormat="1">
       <c r="A8" s="16"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
     </row>
     <row r="9" spans="1:32" s="17" customFormat="1">
       <c r="A9" s="16"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
     </row>
     <row r="10" spans="1:32" s="17" customFormat="1">
       <c r="A10" s="16"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
     </row>
     <row r="11" spans="1:32" s="17" customFormat="1">
       <c r="A11" s="16"/>
       <c r="B11" s="16"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
     </row>
     <row r="12" spans="1:32" s="17" customFormat="1">
       <c r="A12" s="16"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
     </row>
     <row r="13" spans="1:32" s="17" customFormat="1">
       <c r="A13" s="16"/>
       <c r="B13" s="16"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
     </row>
     <row r="14" spans="1:32" s="17" customFormat="1">
       <c r="A14" s="16"/>
       <c r="B14" s="16"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
     </row>
     <row r="15" spans="1:32" s="17" customFormat="1">
       <c r="A15" s="16"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
     </row>
     <row r="16" spans="1:32" s="17" customFormat="1">
       <c r="A16" s="16"/>
       <c r="B16" s="16"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
     </row>
     <row r="17" spans="1:32" s="17" customFormat="1">
       <c r="A17" s="16"/>
       <c r="B17" s="16"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
     </row>
     <row r="18" spans="1:32">
       <c r="A18" s="10"/>
@@ -4579,10 +3703,10 @@
       <c r="AF18" s="7"/>
     </row>
     <row r="19" spans="1:32" ht="11.25" customHeight="1">
-      <c r="A19" s="28" t="s">
-        <v>357</v>
-      </c>
-      <c r="B19" s="30"/>
+      <c r="A19" s="36" t="s">
+        <v>272</v>
+      </c>
+      <c r="B19" s="38"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
@@ -4610,8 +3734,8 @@
       <c r="AF19" s="7"/>
     </row>
     <row r="20" spans="1:32" ht="11.25" customHeight="1">
-      <c r="A20" s="31"/>
-      <c r="B20" s="33"/>
+      <c r="A20" s="39"/>
+      <c r="B20" s="41"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
@@ -4639,8 +3763,8 @@
       <c r="AF20" s="7"/>
     </row>
     <row r="21" spans="1:32" ht="11.25" customHeight="1">
-      <c r="A21" s="34"/>
-      <c r="B21" s="36"/>
+      <c r="A21" s="42"/>
+      <c r="B21" s="44"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
@@ -4668,11 +3792,11 @@
       <c r="AF21" s="7"/>
     </row>
     <row r="22" spans="1:32" ht="11.25" customHeight="1">
-      <c r="A22" s="27" t="s">
-        <v>358</v>
-      </c>
-      <c r="B22" s="27" t="s">
-        <v>359</v>
+      <c r="A22" s="33" t="s">
+        <v>273</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>274</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -4701,8 +3825,8 @@
       <c r="AF22" s="7"/>
     </row>
     <row r="23" spans="1:32" ht="11.25" customHeight="1">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
+      <c r="A23" s="33"/>
+      <c r="B23" s="33"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
@@ -4730,8 +3854,8 @@
       <c r="AF23" s="7"/>
     </row>
     <row r="24" spans="1:32">
-      <c r="A24" s="27"/>
-      <c r="B24" s="27"/>
+      <c r="A24" s="33"/>
+      <c r="B24" s="33"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
@@ -4759,8 +3883,8 @@
       <c r="AF24" s="7"/>
     </row>
     <row r="25" spans="1:32">
-      <c r="A25" s="27"/>
-      <c r="B25" s="27"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="33"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
@@ -4788,8 +3912,8 @@
       <c r="AF25" s="7"/>
     </row>
     <row r="26" spans="1:32">
-      <c r="A26" s="27"/>
-      <c r="B26" s="27"/>
+      <c r="A26" s="33"/>
+      <c r="B26" s="33"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
@@ -4817,8 +3941,8 @@
       <c r="AF26" s="7"/>
     </row>
     <row r="27" spans="1:32">
-      <c r="A27" s="27"/>
-      <c r="B27" s="27"/>
+      <c r="A27" s="33"/>
+      <c r="B27" s="33"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
@@ -4846,8 +3970,8 @@
       <c r="AF27" s="7"/>
     </row>
     <row r="28" spans="1:32">
-      <c r="A28" s="27"/>
-      <c r="B28" s="27"/>
+      <c r="A28" s="33"/>
+      <c r="B28" s="33"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
@@ -4875,8 +3999,8 @@
       <c r="AF28" s="7"/>
     </row>
     <row r="29" spans="1:32">
-      <c r="A29" s="27"/>
-      <c r="B29" s="27"/>
+      <c r="A29" s="33"/>
+      <c r="B29" s="33"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
@@ -4904,8 +4028,8 @@
       <c r="AF29" s="7"/>
     </row>
     <row r="30" spans="1:32">
-      <c r="A30" s="27"/>
-      <c r="B30" s="27"/>
+      <c r="A30" s="33"/>
+      <c r="B30" s="33"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
@@ -5459,10 +4583,3047 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:AF45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18:O26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25"/>
+  <cols>
+    <col min="1" max="1" width="22" style="7" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" style="10" customWidth="1"/>
+    <col min="6" max="7" width="18.42578125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="27.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35" style="7" customWidth="1"/>
+    <col min="11" max="11" width="30.28515625" style="10" customWidth="1"/>
+    <col min="12" max="12" width="27.42578125" style="7" customWidth="1"/>
+    <col min="13" max="13" width="27.85546875" style="10" customWidth="1"/>
+    <col min="14" max="14" width="22" style="10" customWidth="1"/>
+    <col min="15" max="15" width="28.42578125" style="7" customWidth="1"/>
+    <col min="16" max="16" width="39.42578125" style="10" customWidth="1"/>
+    <col min="17" max="17" width="26" style="10" customWidth="1"/>
+    <col min="18" max="18" width="24.28515625" style="10" customWidth="1"/>
+    <col min="19" max="19" width="23.85546875" style="10" customWidth="1"/>
+    <col min="20" max="20" width="24.140625" style="10" customWidth="1"/>
+    <col min="21" max="21" width="18.42578125" style="10" customWidth="1"/>
+    <col min="22" max="22" width="24.85546875" style="10" customWidth="1"/>
+    <col min="23" max="23" width="18.42578125" style="10" customWidth="1"/>
+    <col min="24" max="24" width="27" style="10" customWidth="1"/>
+    <col min="25" max="25" width="27.42578125" style="10" customWidth="1"/>
+    <col min="26" max="26" width="32.28515625" style="10" customWidth="1"/>
+    <col min="27" max="27" width="20.7109375" style="10" customWidth="1"/>
+    <col min="28" max="28" width="18.42578125" style="10" customWidth="1"/>
+    <col min="29" max="29" width="21.42578125" style="10" customWidth="1"/>
+    <col min="30" max="30" width="31.7109375" style="10" customWidth="1"/>
+    <col min="31" max="31" width="27.42578125" style="10" customWidth="1"/>
+    <col min="32" max="32" width="40.42578125" style="10" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" ht="18.75" customHeight="1">
+      <c r="P1" s="74" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" s="14" customFormat="1" ht="18.75">
+      <c r="B2" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="P2" s="74"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="18"/>
+      <c r="AA2" s="18"/>
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="18"/>
+      <c r="AD2" s="18"/>
+      <c r="AE2" s="18"/>
+      <c r="AF2" s="74" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" s="14" customFormat="1" ht="18.75">
+      <c r="B3" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="P3" s="74"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="18"/>
+      <c r="Z3" s="18"/>
+      <c r="AA3" s="18"/>
+      <c r="AB3" s="18"/>
+      <c r="AC3" s="18"/>
+      <c r="AD3" s="18"/>
+      <c r="AE3" s="18"/>
+      <c r="AF3" s="74"/>
+    </row>
+    <row r="5" spans="1:32" ht="27.75" customHeight="1">
+      <c r="A5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="S5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="T5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="U5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="V5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="W5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="X5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB5" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="AC5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF5" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" s="17" customFormat="1">
+      <c r="A6" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="N6" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="O6" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="P6" s="19" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q6" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="R6" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="S6" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="T6" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="U6" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="V6" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="W6" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="X6" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y6" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z6" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="AA6" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="AB6" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC6" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="AD6" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="AE6" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="AF6" s="19" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" s="17" customFormat="1">
+      <c r="A7" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="N7" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="O7" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="P7" s="19" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q7" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="R7" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="S7" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="T7" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="U7" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="V7" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="W7" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="X7" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y7" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z7" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="AA7" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="AB7" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC7" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="AD7" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="AE7" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="AF7" s="19" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" s="17" customFormat="1">
+      <c r="A8" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="M8" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="N8" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="O8" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="P8" s="19" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q8" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="R8" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="S8" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="T8" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="U8" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="V8" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="W8" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="X8" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y8" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="Z8" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA8" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="AB8" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC8" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="AD8" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="AE8" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="AF8" s="19" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" s="17" customFormat="1">
+      <c r="A9" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="N9" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="O9" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="P9" s="19" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q9" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="R9" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="S9" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="T9" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="U9" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="V9" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="W9" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="X9" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y9" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="Z9" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA9" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="AB9" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC9" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="AD9" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="AE9" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="AF9" s="19" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" s="17" customFormat="1">
+      <c r="A10" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>368</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="M10" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>372</v>
+      </c>
+      <c r="O10" s="16" t="s">
+        <v>373</v>
+      </c>
+      <c r="P10" s="16" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q10" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="R10" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="S10" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="T10" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U10" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="V10" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="W10" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="X10" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y10" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="Z10" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA10" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB10" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC10" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="AD10" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE10" s="16" t="s">
+        <v>376</v>
+      </c>
+      <c r="AF10" s="16" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" s="17" customFormat="1">
+      <c r="A11" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>379</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="J11" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="M11" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="N11" s="16" t="s">
+        <v>382</v>
+      </c>
+      <c r="O11" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="P11" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q11" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="R11" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="S11" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="T11" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U11" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="V11" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="W11" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="X11" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y11" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="Z11" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA11" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB11" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC11" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="AD11" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE11" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="AF11" s="16" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" s="17" customFormat="1">
+      <c r="A12" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>391</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="J12" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="K12" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="L12" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="M12" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="N12" s="16" t="s">
+        <v>395</v>
+      </c>
+      <c r="O12" s="16" t="s">
+        <v>373</v>
+      </c>
+      <c r="P12" s="16" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q12" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="R12" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="S12" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="T12" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U12" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="V12" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="W12" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="X12" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="Y12" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="Z12" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA12" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB12" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC12" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="AD12" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE12" s="16" t="s">
+        <v>376</v>
+      </c>
+      <c r="AF12" s="16" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" s="17" customFormat="1">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="16"/>
+      <c r="W13" s="16"/>
+      <c r="X13" s="16"/>
+      <c r="Y13" s="16"/>
+      <c r="Z13" s="16"/>
+      <c r="AA13" s="16"/>
+      <c r="AB13" s="16"/>
+      <c r="AC13" s="16"/>
+      <c r="AD13" s="16"/>
+      <c r="AE13" s="16"/>
+      <c r="AF13" s="16"/>
+    </row>
+    <row r="14" spans="1:32">
+      <c r="A14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="1"/>
+      <c r="L14" s="10"/>
+      <c r="O14" s="10"/>
+    </row>
+    <row r="15" spans="1:32" ht="11.25" customHeight="1">
+      <c r="A15" s="48" t="s">
+        <v>227</v>
+      </c>
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="49"/>
+      <c r="Q15" s="49"/>
+      <c r="R15" s="49"/>
+      <c r="S15" s="49"/>
+      <c r="T15" s="49"/>
+      <c r="U15" s="49"/>
+      <c r="V15" s="49"/>
+      <c r="W15" s="49"/>
+      <c r="X15" s="49"/>
+      <c r="Y15" s="49"/>
+      <c r="Z15" s="49"/>
+      <c r="AA15" s="49"/>
+      <c r="AB15" s="49"/>
+      <c r="AC15" s="50"/>
+      <c r="AD15" s="47" t="s">
+        <v>339</v>
+      </c>
+      <c r="AE15" s="57" t="s">
+        <v>327</v>
+      </c>
+      <c r="AF15" s="57"/>
+    </row>
+    <row r="16" spans="1:32" ht="11.25" customHeight="1">
+      <c r="A16" s="51"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="52"/>
+      <c r="P16" s="52"/>
+      <c r="Q16" s="52"/>
+      <c r="R16" s="52"/>
+      <c r="S16" s="52"/>
+      <c r="T16" s="52"/>
+      <c r="U16" s="52"/>
+      <c r="V16" s="52"/>
+      <c r="W16" s="52"/>
+      <c r="X16" s="52"/>
+      <c r="Y16" s="52"/>
+      <c r="Z16" s="52"/>
+      <c r="AA16" s="52"/>
+      <c r="AB16" s="52"/>
+      <c r="AC16" s="53"/>
+      <c r="AD16" s="47"/>
+      <c r="AE16" s="57"/>
+      <c r="AF16" s="57"/>
+    </row>
+    <row r="17" spans="1:32" ht="11.25" customHeight="1">
+      <c r="A17" s="54"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="55"/>
+      <c r="N17" s="55"/>
+      <c r="O17" s="55"/>
+      <c r="P17" s="55"/>
+      <c r="Q17" s="55"/>
+      <c r="R17" s="55"/>
+      <c r="S17" s="55"/>
+      <c r="T17" s="55"/>
+      <c r="U17" s="55"/>
+      <c r="V17" s="55"/>
+      <c r="W17" s="55"/>
+      <c r="X17" s="55"/>
+      <c r="Y17" s="55"/>
+      <c r="Z17" s="55"/>
+      <c r="AA17" s="55"/>
+      <c r="AB17" s="55"/>
+      <c r="AC17" s="56"/>
+      <c r="AD17" s="47"/>
+      <c r="AE17" s="57"/>
+      <c r="AF17" s="57"/>
+    </row>
+    <row r="18" spans="1:32" ht="11.25" customHeight="1">
+      <c r="A18" s="33" t="s">
+        <v>242</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>338</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>263</v>
+      </c>
+      <c r="F18" s="29" t="s">
+        <v>261</v>
+      </c>
+      <c r="G18" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="H18" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="I18" s="33" t="s">
+        <v>243</v>
+      </c>
+      <c r="J18" s="33" t="s">
+        <v>244</v>
+      </c>
+      <c r="K18" s="33" t="s">
+        <v>400</v>
+      </c>
+      <c r="L18" s="46" t="s">
+        <v>245</v>
+      </c>
+      <c r="M18" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="N18" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="O18" s="33" t="s">
+        <v>246</v>
+      </c>
+      <c r="P18" s="33" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q18" s="33" t="s">
+        <v>248</v>
+      </c>
+      <c r="R18" s="33" t="s">
+        <v>249</v>
+      </c>
+      <c r="S18" s="33" t="s">
+        <v>250</v>
+      </c>
+      <c r="T18" s="34" t="s">
+        <v>251</v>
+      </c>
+      <c r="U18" s="34" t="s">
+        <v>255</v>
+      </c>
+      <c r="V18" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="W18" s="34" t="s">
+        <v>256</v>
+      </c>
+      <c r="X18" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y18" s="33" t="s">
+        <v>252</v>
+      </c>
+      <c r="Z18" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="AA18" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="AB18" s="33" t="s">
+        <v>268</v>
+      </c>
+      <c r="AC18" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="AD18" s="33" t="s">
+        <v>276</v>
+      </c>
+      <c r="AE18" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="AF18" s="33" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" ht="11.25" customHeight="1">
+      <c r="A19" s="33"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="33"/>
+      <c r="R19" s="33"/>
+      <c r="S19" s="33"/>
+      <c r="T19" s="34"/>
+      <c r="U19" s="34"/>
+      <c r="V19" s="34"/>
+      <c r="W19" s="34"/>
+      <c r="X19" s="33"/>
+      <c r="Y19" s="33"/>
+      <c r="Z19" s="33"/>
+      <c r="AA19" s="33"/>
+      <c r="AB19" s="33"/>
+      <c r="AC19" s="33"/>
+      <c r="AD19" s="33"/>
+      <c r="AE19" s="33"/>
+      <c r="AF19" s="33"/>
+    </row>
+    <row r="20" spans="1:32">
+      <c r="A20" s="33"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="33"/>
+      <c r="P20" s="33"/>
+      <c r="Q20" s="33"/>
+      <c r="R20" s="33"/>
+      <c r="S20" s="33"/>
+      <c r="T20" s="34"/>
+      <c r="U20" s="34"/>
+      <c r="V20" s="34"/>
+      <c r="W20" s="34"/>
+      <c r="X20" s="33"/>
+      <c r="Y20" s="33"/>
+      <c r="Z20" s="33"/>
+      <c r="AA20" s="33"/>
+      <c r="AB20" s="33"/>
+      <c r="AC20" s="33"/>
+      <c r="AD20" s="33"/>
+      <c r="AE20" s="33"/>
+      <c r="AF20" s="33"/>
+    </row>
+    <row r="21" spans="1:32">
+      <c r="A21" s="33"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="33"/>
+      <c r="P21" s="33"/>
+      <c r="Q21" s="33"/>
+      <c r="R21" s="33"/>
+      <c r="S21" s="33"/>
+      <c r="T21" s="34"/>
+      <c r="U21" s="34"/>
+      <c r="V21" s="34"/>
+      <c r="W21" s="34"/>
+      <c r="X21" s="33"/>
+      <c r="Y21" s="33"/>
+      <c r="Z21" s="33"/>
+      <c r="AA21" s="33"/>
+      <c r="AB21" s="33"/>
+      <c r="AC21" s="33"/>
+      <c r="AD21" s="33"/>
+      <c r="AE21" s="33"/>
+      <c r="AF21" s="33"/>
+    </row>
+    <row r="22" spans="1:32">
+      <c r="A22" s="33"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="33"/>
+      <c r="P22" s="33"/>
+      <c r="Q22" s="33"/>
+      <c r="R22" s="33"/>
+      <c r="S22" s="33"/>
+      <c r="T22" s="34"/>
+      <c r="U22" s="34"/>
+      <c r="V22" s="34"/>
+      <c r="W22" s="34"/>
+      <c r="X22" s="33"/>
+      <c r="Y22" s="33"/>
+      <c r="Z22" s="33"/>
+      <c r="AA22" s="33"/>
+      <c r="AB22" s="33"/>
+      <c r="AC22" s="33"/>
+      <c r="AD22" s="33"/>
+      <c r="AE22" s="33"/>
+      <c r="AF22" s="33"/>
+    </row>
+    <row r="23" spans="1:32">
+      <c r="A23" s="33"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="33"/>
+      <c r="P23" s="33"/>
+      <c r="Q23" s="33"/>
+      <c r="R23" s="33"/>
+      <c r="S23" s="33"/>
+      <c r="T23" s="34"/>
+      <c r="U23" s="34"/>
+      <c r="V23" s="34"/>
+      <c r="W23" s="34"/>
+      <c r="X23" s="33"/>
+      <c r="Y23" s="33"/>
+      <c r="Z23" s="33"/>
+      <c r="AA23" s="33"/>
+      <c r="AB23" s="33"/>
+      <c r="AC23" s="33"/>
+      <c r="AD23" s="33"/>
+      <c r="AE23" s="33"/>
+      <c r="AF23" s="33"/>
+    </row>
+    <row r="24" spans="1:32">
+      <c r="A24" s="33"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="33"/>
+      <c r="R24" s="33"/>
+      <c r="S24" s="33"/>
+      <c r="T24" s="34"/>
+      <c r="U24" s="34"/>
+      <c r="V24" s="34"/>
+      <c r="W24" s="34"/>
+      <c r="X24" s="33"/>
+      <c r="Y24" s="33"/>
+      <c r="Z24" s="33"/>
+      <c r="AA24" s="33"/>
+      <c r="AB24" s="33"/>
+      <c r="AC24" s="33"/>
+      <c r="AD24" s="33"/>
+      <c r="AE24" s="33"/>
+      <c r="AF24" s="33"/>
+    </row>
+    <row r="25" spans="1:32">
+      <c r="A25" s="33"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="33"/>
+      <c r="Q25" s="33"/>
+      <c r="R25" s="33"/>
+      <c r="S25" s="33"/>
+      <c r="T25" s="34"/>
+      <c r="U25" s="34"/>
+      <c r="V25" s="34"/>
+      <c r="W25" s="34"/>
+      <c r="X25" s="33"/>
+      <c r="Y25" s="33"/>
+      <c r="Z25" s="33"/>
+      <c r="AA25" s="33"/>
+      <c r="AB25" s="33"/>
+      <c r="AC25" s="33"/>
+      <c r="AD25" s="33"/>
+      <c r="AE25" s="33"/>
+      <c r="AF25" s="33"/>
+    </row>
+    <row r="26" spans="1:32">
+      <c r="A26" s="33"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="46"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="33"/>
+      <c r="P26" s="33"/>
+      <c r="Q26" s="33"/>
+      <c r="R26" s="33"/>
+      <c r="S26" s="33"/>
+      <c r="T26" s="34"/>
+      <c r="U26" s="34"/>
+      <c r="V26" s="34"/>
+      <c r="W26" s="34"/>
+      <c r="X26" s="33"/>
+      <c r="Y26" s="33"/>
+      <c r="Z26" s="33"/>
+      <c r="AA26" s="33"/>
+      <c r="AB26" s="33"/>
+      <c r="AC26" s="33"/>
+      <c r="AD26" s="33"/>
+      <c r="AE26" s="33"/>
+      <c r="AF26" s="33"/>
+    </row>
+    <row r="27" spans="1:32">
+      <c r="K27" s="7"/>
+      <c r="L27" s="46"/>
+      <c r="X27" s="33"/>
+      <c r="Y27" s="33"/>
+      <c r="Z27" s="33"/>
+      <c r="AE27" s="7"/>
+      <c r="AF27" s="7"/>
+    </row>
+    <row r="28" spans="1:32">
+      <c r="K28" s="7"/>
+      <c r="L28" s="46"/>
+      <c r="X28" s="33"/>
+      <c r="Y28" s="33"/>
+      <c r="Z28" s="33"/>
+      <c r="AE28" s="58" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32">
+      <c r="K29" s="7"/>
+      <c r="X29" s="33"/>
+      <c r="Y29" s="33"/>
+      <c r="Z29" s="33"/>
+      <c r="AE29" s="59"/>
+    </row>
+    <row r="30" spans="1:32">
+      <c r="K30" s="7"/>
+      <c r="X30" s="33"/>
+      <c r="Y30" s="33"/>
+      <c r="Z30" s="33"/>
+      <c r="AE30" s="59"/>
+    </row>
+    <row r="31" spans="1:32">
+      <c r="K31" s="7"/>
+      <c r="X31" s="33"/>
+      <c r="Y31" s="33"/>
+      <c r="Z31" s="33"/>
+      <c r="AE31" s="59"/>
+    </row>
+    <row r="32" spans="1:32">
+      <c r="K32" s="7"/>
+      <c r="AE32" s="59"/>
+    </row>
+    <row r="33" spans="11:32">
+      <c r="K33" s="7"/>
+      <c r="X33" s="58" t="s">
+        <v>401</v>
+      </c>
+      <c r="Y33" s="58" t="s">
+        <v>401</v>
+      </c>
+      <c r="AE33" s="59"/>
+    </row>
+    <row r="34" spans="11:32">
+      <c r="K34" s="7"/>
+      <c r="X34" s="59"/>
+      <c r="Y34" s="59"/>
+      <c r="AE34" s="60"/>
+    </row>
+    <row r="35" spans="11:32">
+      <c r="K35" s="7"/>
+      <c r="X35" s="59"/>
+      <c r="Y35" s="59"/>
+      <c r="AE35" s="7"/>
+    </row>
+    <row r="36" spans="11:32">
+      <c r="K36" s="7"/>
+      <c r="X36" s="60"/>
+      <c r="Y36" s="60"/>
+      <c r="AE36" s="58" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="37" spans="11:32">
+      <c r="K37" s="7"/>
+      <c r="AE37" s="59"/>
+    </row>
+    <row r="38" spans="11:32">
+      <c r="K38" s="7"/>
+      <c r="AE38" s="59"/>
+    </row>
+    <row r="39" spans="11:32">
+      <c r="K39" s="7"/>
+      <c r="AE39" s="59"/>
+    </row>
+    <row r="40" spans="11:32">
+      <c r="K40" s="7"/>
+      <c r="AE40" s="59"/>
+    </row>
+    <row r="41" spans="11:32">
+      <c r="K41" s="7"/>
+      <c r="AE41" s="59"/>
+    </row>
+    <row r="42" spans="11:32">
+      <c r="K42" s="7"/>
+      <c r="AE42" s="60"/>
+    </row>
+    <row r="43" spans="11:32">
+      <c r="K43" s="7"/>
+      <c r="AE43" s="7"/>
+    </row>
+    <row r="44" spans="11:32">
+      <c r="K44" s="7"/>
+      <c r="AE44" s="7"/>
+      <c r="AF44" s="7"/>
+    </row>
+    <row r="45" spans="11:32">
+      <c r="K45" s="7"/>
+      <c r="AE45" s="7"/>
+      <c r="AF45" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="41">
+    <mergeCell ref="X33:X36"/>
+    <mergeCell ref="Y33:Y36"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="P1:P3"/>
+    <mergeCell ref="AE15:AF17"/>
+    <mergeCell ref="AE18:AE26"/>
+    <mergeCell ref="AE28:AE34"/>
+    <mergeCell ref="AE36:AE42"/>
+    <mergeCell ref="AF18:AF26"/>
+    <mergeCell ref="AD15:AD17"/>
+    <mergeCell ref="AD18:AD26"/>
+    <mergeCell ref="C18:C26"/>
+    <mergeCell ref="D18:D26"/>
+    <mergeCell ref="F18:F26"/>
+    <mergeCell ref="G18:G26"/>
+    <mergeCell ref="E18:E26"/>
+    <mergeCell ref="S18:S26"/>
+    <mergeCell ref="P18:P26"/>
+    <mergeCell ref="O18:O26"/>
+    <mergeCell ref="Q18:Q26"/>
+    <mergeCell ref="R18:R26"/>
+    <mergeCell ref="Y18:Y31"/>
+    <mergeCell ref="V18:V26"/>
+    <mergeCell ref="A15:AC17"/>
+    <mergeCell ref="U18:U26"/>
+    <mergeCell ref="A18:A26"/>
+    <mergeCell ref="H18:H26"/>
+    <mergeCell ref="I18:I26"/>
+    <mergeCell ref="L18:L28"/>
+    <mergeCell ref="N18:N26"/>
+    <mergeCell ref="M18:M26"/>
+    <mergeCell ref="AA18:AA26"/>
+    <mergeCell ref="AB18:AB26"/>
+    <mergeCell ref="AC18:AC26"/>
+    <mergeCell ref="B18:B26"/>
+    <mergeCell ref="X18:X31"/>
+    <mergeCell ref="W18:W26"/>
+    <mergeCell ref="T18:T26"/>
+    <mergeCell ref="Z18:Z31"/>
+    <mergeCell ref="K18:K26"/>
+    <mergeCell ref="J18:J26"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:AV39"/>
+  <sheetViews>
+    <sheetView topLeftCell="J4" workbookViewId="0">
+      <selection activeCell="AD1" sqref="AD1:AF1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="10" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" style="10" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" style="10" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="24.140625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="24.85546875" style="10" customWidth="1"/>
+    <col min="10" max="10" width="35.28515625" style="10" customWidth="1"/>
+    <col min="11" max="11" width="27.5703125" style="10" customWidth="1"/>
+    <col min="12" max="12" width="21.28515625" style="10" customWidth="1"/>
+    <col min="13" max="13" width="18.42578125" style="10" customWidth="1"/>
+    <col min="14" max="14" width="27.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.28515625" style="10" customWidth="1"/>
+    <col min="16" max="16" width="24.42578125" style="10" customWidth="1"/>
+    <col min="17" max="17" width="18.7109375" style="10" customWidth="1"/>
+    <col min="18" max="18" width="23.7109375" style="10" customWidth="1"/>
+    <col min="19" max="19" width="19.28515625" style="10" customWidth="1"/>
+    <col min="20" max="20" width="20.140625" style="10" customWidth="1"/>
+    <col min="21" max="21" width="19" style="10" customWidth="1"/>
+    <col min="22" max="22" width="24.7109375" style="10" customWidth="1"/>
+    <col min="23" max="23" width="27" style="10" customWidth="1"/>
+    <col min="24" max="24" width="32" style="10" customWidth="1"/>
+    <col min="25" max="25" width="22.42578125" style="10" customWidth="1"/>
+    <col min="26" max="26" width="21.42578125" style="10" customWidth="1"/>
+    <col min="27" max="27" width="28" style="10" customWidth="1"/>
+    <col min="28" max="28" width="26.5703125" style="10" customWidth="1"/>
+    <col min="29" max="29" width="27.5703125" style="10" customWidth="1"/>
+    <col min="30" max="30" width="19.42578125" style="10" customWidth="1"/>
+    <col min="31" max="31" width="17" style="10" customWidth="1"/>
+    <col min="32" max="32" width="15.140625" style="10" customWidth="1"/>
+    <col min="33" max="33" width="10.28515625" style="10" customWidth="1"/>
+    <col min="34" max="34" width="16.140625" style="10" customWidth="1"/>
+    <col min="35" max="35" width="13.85546875" style="10" customWidth="1"/>
+    <col min="36" max="41" width="15.140625" style="10" customWidth="1"/>
+    <col min="42" max="42" width="19.85546875" style="10" customWidth="1"/>
+    <col min="43" max="43" width="19.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="44" max="48" width="15.140625" style="10" customWidth="1"/>
+    <col min="49" max="16384" width="9.140625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:48" s="14" customFormat="1" ht="18.75">
+      <c r="B2" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="Z2" s="18"/>
+      <c r="AA2" s="18"/>
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="18"/>
+      <c r="AD2" s="18"/>
+      <c r="AE2" s="18"/>
+      <c r="AF2" s="18"/>
+      <c r="AG2" s="18"/>
+      <c r="AJ2" s="18"/>
+      <c r="AL2" s="18"/>
+      <c r="AM2" s="18"/>
+      <c r="AN2" s="18"/>
+      <c r="AO2" s="18"/>
+      <c r="AP2" s="18"/>
+      <c r="AQ2" s="18"/>
+    </row>
+    <row r="3" spans="1:48" s="14" customFormat="1" ht="18.75">
+      <c r="B3" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="Z3" s="18"/>
+      <c r="AA3" s="18"/>
+      <c r="AB3" s="18"/>
+      <c r="AC3" s="18"/>
+      <c r="AD3" s="18"/>
+      <c r="AE3" s="18"/>
+      <c r="AF3" s="18"/>
+      <c r="AG3" s="18"/>
+      <c r="AJ3" s="18"/>
+      <c r="AL3" s="18"/>
+      <c r="AM3" s="18"/>
+      <c r="AN3" s="18"/>
+      <c r="AO3" s="18"/>
+      <c r="AP3" s="18"/>
+      <c r="AQ3" s="18"/>
+    </row>
+    <row r="5" spans="1:48" ht="27" customHeight="1">
+      <c r="A5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="S5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="T5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="U5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="V5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="W5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="X5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH5" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI5" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AJ5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AL5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="AM5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AO5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="AP5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="AQ5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="AR5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AT5" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AU5" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AV5" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:48">
+      <c r="A6" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="E6" s="21">
+        <v>42063</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="J6" s="11">
+        <v>3</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="O6" s="10">
+        <v>13</v>
+      </c>
+      <c r="P6" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>100</v>
+      </c>
+      <c r="R6" s="1">
+        <v>1679420000</v>
+      </c>
+      <c r="S6" s="1">
+        <v>100</v>
+      </c>
+      <c r="T6" s="1">
+        <v>16794200</v>
+      </c>
+      <c r="U6" s="1">
+        <v>1679420000</v>
+      </c>
+      <c r="V6" s="10">
+        <v>0</v>
+      </c>
+      <c r="W6" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="X6" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y6" s="10">
+        <v>2102</v>
+      </c>
+      <c r="Z6" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="AA6" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>4403408000912</v>
+      </c>
+      <c r="AC6" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="AD6" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE6" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF6" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG6" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH6" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="AI6" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AK6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AN6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AO6" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="AP6" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="AQ6" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="AR6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AS6" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="AT6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AU6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AV6" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:48">
+      <c r="A7" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="E7" s="21">
+        <v>42063</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="J7" s="10">
+        <v>3</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="O7" s="10">
+        <v>13</v>
+      </c>
+      <c r="P7" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>999</v>
+      </c>
+      <c r="R7" s="1">
+        <v>16777405800</v>
+      </c>
+      <c r="S7" s="1">
+        <v>100</v>
+      </c>
+      <c r="T7" s="1">
+        <v>16794200</v>
+      </c>
+      <c r="U7" s="1">
+        <v>1679420000</v>
+      </c>
+      <c r="V7" s="10">
+        <v>0</v>
+      </c>
+      <c r="W7" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="X7" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y7" s="10">
+        <v>2102</v>
+      </c>
+      <c r="Z7" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="AA7" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>4403408000912</v>
+      </c>
+      <c r="AC7" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="AD7" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE7" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF7" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG7" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH7" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="AI7" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AK7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AN7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AO7" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="AP7" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="AQ7" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="AR7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AS7" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="AT7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AU7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AV7" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:48">
+      <c r="A8" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="E8" s="21">
+        <v>42063</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="J8" s="10">
+        <v>3</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="O8" s="10">
+        <v>13</v>
+      </c>
+      <c r="P8" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>0</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S8" s="1">
+        <v>100</v>
+      </c>
+      <c r="T8" s="1">
+        <v>16794200</v>
+      </c>
+      <c r="U8" s="1">
+        <v>1679420000</v>
+      </c>
+      <c r="V8" s="10">
+        <v>100</v>
+      </c>
+      <c r="W8" s="20">
+        <v>1679420000</v>
+      </c>
+      <c r="X8" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y8" s="10">
+        <v>2102</v>
+      </c>
+      <c r="Z8" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="AA8" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>4403408000912</v>
+      </c>
+      <c r="AC8" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="AD8" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE8" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF8" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG8" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH8" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="AI8" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AK8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AN8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AO8" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="AP8" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="AQ8" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="AR8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AS8" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="AT8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AU8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AV8" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:48">
+      <c r="A9" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="E9" s="21">
+        <v>42063</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="J9" s="10">
+        <v>3</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="O9" s="10">
+        <v>13</v>
+      </c>
+      <c r="P9" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>0</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S9" s="1">
+        <v>100</v>
+      </c>
+      <c r="T9" s="1">
+        <v>16794200</v>
+      </c>
+      <c r="U9" s="1">
+        <v>1679420000</v>
+      </c>
+      <c r="V9" s="10">
+        <v>100</v>
+      </c>
+      <c r="W9" s="20">
+        <v>1679420000</v>
+      </c>
+      <c r="X9" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y9" s="10">
+        <v>2102</v>
+      </c>
+      <c r="Z9" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="AA9" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>4403408000912</v>
+      </c>
+      <c r="AC9" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="AD9" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE9" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF9" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG9" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH9" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="AI9" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AK9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AN9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AO9" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="AP9" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="AQ9" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="AR9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AS9" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="AT9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AU9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AV9" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:48">
+      <c r="D10" s="21"/>
+      <c r="I10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="R10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+      <c r="W10" s="20"/>
+    </row>
+    <row r="11" spans="1:48">
+      <c r="D11" s="21"/>
+      <c r="I11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="R11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
+      <c r="W11" s="20"/>
+    </row>
+    <row r="12" spans="1:48">
+      <c r="A12" s="61" t="s">
+        <v>403</v>
+      </c>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="62"/>
+      <c r="N12" s="62"/>
+      <c r="O12" s="62"/>
+      <c r="P12" s="62"/>
+      <c r="Q12" s="62"/>
+      <c r="R12" s="62"/>
+      <c r="S12" s="62"/>
+      <c r="T12" s="62"/>
+      <c r="U12" s="62"/>
+      <c r="V12" s="62"/>
+      <c r="W12" s="62"/>
+      <c r="X12" s="62"/>
+      <c r="Y12" s="62"/>
+      <c r="Z12" s="63"/>
+      <c r="AA12" s="47" t="s">
+        <v>339</v>
+      </c>
+      <c r="AB12" s="57" t="s">
+        <v>327</v>
+      </c>
+      <c r="AC12" s="57"/>
+      <c r="AD12" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="AG12" s="70" t="s">
+        <v>404</v>
+      </c>
+      <c r="AH12" s="71"/>
+    </row>
+    <row r="13" spans="1:48">
+      <c r="A13" s="64"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="65"/>
+      <c r="L13" s="65"/>
+      <c r="M13" s="65"/>
+      <c r="N13" s="65"/>
+      <c r="O13" s="65"/>
+      <c r="P13" s="65"/>
+      <c r="Q13" s="65"/>
+      <c r="R13" s="65"/>
+      <c r="S13" s="65"/>
+      <c r="T13" s="65"/>
+      <c r="U13" s="65"/>
+      <c r="V13" s="65"/>
+      <c r="W13" s="65"/>
+      <c r="X13" s="65"/>
+      <c r="Y13" s="65"/>
+      <c r="Z13" s="66"/>
+      <c r="AA13" s="47"/>
+      <c r="AB13" s="57"/>
+      <c r="AC13" s="57"/>
+    </row>
+    <row r="14" spans="1:48">
+      <c r="A14" s="67"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="68"/>
+      <c r="N14" s="68"/>
+      <c r="O14" s="68"/>
+      <c r="P14" s="68"/>
+      <c r="Q14" s="68"/>
+      <c r="R14" s="68"/>
+      <c r="S14" s="68"/>
+      <c r="T14" s="68"/>
+      <c r="U14" s="68"/>
+      <c r="V14" s="68"/>
+      <c r="W14" s="68"/>
+      <c r="X14" s="68"/>
+      <c r="Y14" s="68"/>
+      <c r="Z14" s="69"/>
+      <c r="AA14" s="47"/>
+      <c r="AB14" s="57"/>
+      <c r="AC14" s="57"/>
+    </row>
+    <row r="15" spans="1:48" ht="11.25" customHeight="1">
+      <c r="A15" s="33" t="s">
+        <v>242</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>338</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>263</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="G15" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="H15" s="33" t="s">
+        <v>243</v>
+      </c>
+      <c r="I15" s="33" t="s">
+        <v>244</v>
+      </c>
+      <c r="J15" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="K15" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="L15" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="M15" s="33" t="s">
+        <v>246</v>
+      </c>
+      <c r="N15" s="58" t="s">
+        <v>247</v>
+      </c>
+      <c r="O15" s="33" t="s">
+        <v>248</v>
+      </c>
+      <c r="P15" s="33" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q15" s="33" t="s">
+        <v>250</v>
+      </c>
+      <c r="R15" s="34" t="s">
+        <v>251</v>
+      </c>
+      <c r="S15" s="34" t="s">
+        <v>255</v>
+      </c>
+      <c r="T15" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="U15" s="34" t="s">
+        <v>256</v>
+      </c>
+      <c r="V15" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="W15" s="33" t="s">
+        <v>252</v>
+      </c>
+      <c r="X15" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y15" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="Z15" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="AA15" s="33" t="s">
+        <v>276</v>
+      </c>
+      <c r="AB15" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="AC15" s="33" t="s">
+        <v>331</v>
+      </c>
+      <c r="AD15" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE15" s="33" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="16" spans="1:48">
+      <c r="A16" s="33"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="59"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="34"/>
+      <c r="S16" s="34"/>
+      <c r="T16" s="34"/>
+      <c r="U16" s="34"/>
+      <c r="V16" s="33"/>
+      <c r="W16" s="33"/>
+      <c r="X16" s="33"/>
+      <c r="Y16" s="33"/>
+      <c r="Z16" s="33"/>
+      <c r="AA16" s="33"/>
+      <c r="AB16" s="33"/>
+      <c r="AC16" s="33"/>
+      <c r="AD16" s="33"/>
+      <c r="AE16" s="33"/>
+    </row>
+    <row r="17" spans="1:31">
+      <c r="A17" s="33"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="59"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="33"/>
+      <c r="Q17" s="33"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="34"/>
+      <c r="T17" s="34"/>
+      <c r="U17" s="34"/>
+      <c r="V17" s="33"/>
+      <c r="W17" s="33"/>
+      <c r="X17" s="33"/>
+      <c r="Y17" s="33"/>
+      <c r="Z17" s="33"/>
+      <c r="AA17" s="33"/>
+      <c r="AB17" s="33"/>
+      <c r="AC17" s="33"/>
+      <c r="AD17" s="33"/>
+      <c r="AE17" s="33"/>
+    </row>
+    <row r="18" spans="1:31">
+      <c r="A18" s="33"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="59"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="33"/>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="34"/>
+      <c r="S18" s="34"/>
+      <c r="T18" s="34"/>
+      <c r="U18" s="34"/>
+      <c r="V18" s="33"/>
+      <c r="W18" s="33"/>
+      <c r="X18" s="33"/>
+      <c r="Y18" s="33"/>
+      <c r="Z18" s="33"/>
+      <c r="AA18" s="33"/>
+      <c r="AB18" s="33"/>
+      <c r="AC18" s="33"/>
+      <c r="AD18" s="33"/>
+      <c r="AE18" s="33"/>
+    </row>
+    <row r="19" spans="1:31">
+      <c r="A19" s="33"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="59"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="33"/>
+      <c r="R19" s="34"/>
+      <c r="S19" s="34"/>
+      <c r="T19" s="34"/>
+      <c r="U19" s="34"/>
+      <c r="V19" s="33"/>
+      <c r="W19" s="33"/>
+      <c r="X19" s="33"/>
+      <c r="Y19" s="33"/>
+      <c r="Z19" s="33"/>
+      <c r="AA19" s="33"/>
+      <c r="AB19" s="33"/>
+      <c r="AC19" s="33"/>
+      <c r="AD19" s="33"/>
+      <c r="AE19" s="33"/>
+    </row>
+    <row r="20" spans="1:31" ht="11.25" customHeight="1">
+      <c r="A20" s="33"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="59"/>
+      <c r="O20" s="33"/>
+      <c r="P20" s="33"/>
+      <c r="Q20" s="33"/>
+      <c r="R20" s="34"/>
+      <c r="S20" s="34"/>
+      <c r="T20" s="34"/>
+      <c r="U20" s="34"/>
+      <c r="V20" s="33"/>
+      <c r="W20" s="33"/>
+      <c r="X20" s="33"/>
+      <c r="Y20" s="33"/>
+      <c r="Z20" s="33"/>
+      <c r="AA20" s="33"/>
+      <c r="AB20" s="33"/>
+      <c r="AC20" s="33"/>
+      <c r="AD20" s="33"/>
+      <c r="AE20" s="33"/>
+    </row>
+    <row r="21" spans="1:31">
+      <c r="A21" s="33"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="59"/>
+      <c r="O21" s="33"/>
+      <c r="P21" s="33"/>
+      <c r="Q21" s="33"/>
+      <c r="R21" s="34"/>
+      <c r="S21" s="34"/>
+      <c r="T21" s="34"/>
+      <c r="U21" s="34"/>
+      <c r="V21" s="33"/>
+      <c r="W21" s="33"/>
+      <c r="X21" s="33"/>
+      <c r="Y21" s="33"/>
+      <c r="Z21" s="33"/>
+      <c r="AA21" s="33"/>
+      <c r="AB21" s="33"/>
+      <c r="AC21" s="33"/>
+      <c r="AD21" s="33"/>
+      <c r="AE21" s="33"/>
+    </row>
+    <row r="22" spans="1:31">
+      <c r="A22" s="33"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="59"/>
+      <c r="O22" s="33"/>
+      <c r="P22" s="33"/>
+      <c r="Q22" s="33"/>
+      <c r="R22" s="34"/>
+      <c r="S22" s="34"/>
+      <c r="T22" s="34"/>
+      <c r="U22" s="34"/>
+      <c r="V22" s="33"/>
+      <c r="W22" s="33"/>
+      <c r="X22" s="33"/>
+      <c r="Y22" s="33"/>
+      <c r="Z22" s="33"/>
+      <c r="AA22" s="33"/>
+      <c r="AB22" s="33"/>
+      <c r="AC22" s="33"/>
+    </row>
+    <row r="23" spans="1:31">
+      <c r="A23" s="33"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="60"/>
+      <c r="O23" s="33"/>
+      <c r="P23" s="33"/>
+      <c r="Q23" s="33"/>
+      <c r="R23" s="34"/>
+      <c r="S23" s="34"/>
+      <c r="T23" s="34"/>
+      <c r="U23" s="34"/>
+      <c r="V23" s="33"/>
+      <c r="W23" s="33"/>
+      <c r="X23" s="33"/>
+      <c r="Y23" s="33"/>
+      <c r="Z23" s="33"/>
+      <c r="AA23" s="33"/>
+      <c r="AB23" s="33"/>
+      <c r="AC23" s="33"/>
+    </row>
+    <row r="24" spans="1:31">
+      <c r="R24" s="7"/>
+      <c r="V24" s="33"/>
+      <c r="W24" s="33"/>
+      <c r="X24" s="33"/>
+    </row>
+    <row r="25" spans="1:31">
+      <c r="R25" s="7"/>
+      <c r="V25" s="33"/>
+      <c r="W25" s="33"/>
+      <c r="X25" s="33"/>
+      <c r="AB25" s="58" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31">
+      <c r="R26" s="7"/>
+      <c r="V26" s="33"/>
+      <c r="W26" s="33"/>
+      <c r="X26" s="33"/>
+      <c r="AB26" s="59"/>
+    </row>
+    <row r="27" spans="1:31">
+      <c r="R27" s="7"/>
+      <c r="V27" s="33"/>
+      <c r="W27" s="33"/>
+      <c r="X27" s="33"/>
+      <c r="AB27" s="59"/>
+    </row>
+    <row r="28" spans="1:31">
+      <c r="R28" s="7"/>
+      <c r="V28" s="33"/>
+      <c r="W28" s="33"/>
+      <c r="X28" s="33"/>
+      <c r="AB28" s="59"/>
+    </row>
+    <row r="29" spans="1:31">
+      <c r="R29" s="7"/>
+      <c r="AB29" s="59"/>
+    </row>
+    <row r="30" spans="1:31">
+      <c r="R30" s="7"/>
+      <c r="V30" s="58" t="s">
+        <v>401</v>
+      </c>
+      <c r="W30" s="58" t="s">
+        <v>401</v>
+      </c>
+      <c r="AB30" s="59"/>
+    </row>
+    <row r="31" spans="1:31">
+      <c r="R31" s="7"/>
+      <c r="V31" s="59"/>
+      <c r="W31" s="59"/>
+      <c r="AB31" s="60"/>
+    </row>
+    <row r="32" spans="1:31">
+      <c r="R32" s="7"/>
+      <c r="V32" s="59"/>
+      <c r="W32" s="59"/>
+      <c r="AB32" s="7"/>
+    </row>
+    <row r="33" spans="18:28">
+      <c r="R33" s="7"/>
+      <c r="V33" s="60"/>
+      <c r="W33" s="60"/>
+      <c r="AB33" s="58" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="34" spans="18:28">
+      <c r="AB34" s="59"/>
+    </row>
+    <row r="35" spans="18:28">
+      <c r="AB35" s="59"/>
+    </row>
+    <row r="36" spans="18:28">
+      <c r="AB36" s="59"/>
+    </row>
+    <row r="37" spans="18:28">
+      <c r="AB37" s="59"/>
+    </row>
+    <row r="38" spans="18:28">
+      <c r="AB38" s="59"/>
+    </row>
+    <row r="39" spans="18:28">
+      <c r="AB39" s="60"/>
+    </row>
+  </sheetData>
+  <mergeCells count="39">
+    <mergeCell ref="F15:F23"/>
+    <mergeCell ref="G15:G23"/>
+    <mergeCell ref="H15:H23"/>
+    <mergeCell ref="A15:A23"/>
+    <mergeCell ref="B15:B23"/>
+    <mergeCell ref="C15:C23"/>
+    <mergeCell ref="D15:D23"/>
+    <mergeCell ref="E15:E23"/>
+    <mergeCell ref="L15:L23"/>
+    <mergeCell ref="M15:M23"/>
+    <mergeCell ref="N15:N23"/>
+    <mergeCell ref="AA12:AA14"/>
+    <mergeCell ref="AB12:AC14"/>
+    <mergeCell ref="AB25:AB31"/>
+    <mergeCell ref="V30:V33"/>
+    <mergeCell ref="W30:W33"/>
+    <mergeCell ref="AB33:AB39"/>
+    <mergeCell ref="U15:U23"/>
+    <mergeCell ref="V15:V28"/>
+    <mergeCell ref="W15:W28"/>
+    <mergeCell ref="X15:X28"/>
+    <mergeCell ref="Y15:Y23"/>
+    <mergeCell ref="Z15:Z23"/>
+    <mergeCell ref="A12:Z14"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AD15:AD21"/>
+    <mergeCell ref="AE15:AE21"/>
+    <mergeCell ref="AA15:AA23"/>
+    <mergeCell ref="AB15:AB23"/>
+    <mergeCell ref="AC15:AC23"/>
+    <mergeCell ref="O15:O23"/>
+    <mergeCell ref="P15:P23"/>
+    <mergeCell ref="Q15:Q23"/>
+    <mergeCell ref="R15:R23"/>
+    <mergeCell ref="S15:S23"/>
+    <mergeCell ref="T15:T23"/>
+    <mergeCell ref="I15:I23"/>
+    <mergeCell ref="J15:J23"/>
+    <mergeCell ref="K15:K23"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:AV30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -5516,10 +7677,10 @@
   <sheetData>
     <row r="2" spans="1:48" s="14" customFormat="1" ht="18.75">
       <c r="B2" s="15" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>401</v>
+        <v>313</v>
       </c>
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
@@ -5547,10 +7708,10 @@
     </row>
     <row r="3" spans="1:48" s="14" customFormat="1" ht="18.75">
       <c r="B3" s="15" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>402</v>
+        <v>314</v>
       </c>
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
@@ -5724,13 +7885,13 @@
     </row>
     <row r="6" spans="1:48">
       <c r="A6" s="11" t="s">
-        <v>367</v>
+        <v>279</v>
       </c>
       <c r="B6" s="11">
         <v>2142</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>365</v>
+        <v>277</v>
       </c>
       <c r="D6" s="11">
         <v>1</v>
@@ -5739,40 +7900,40 @@
         <v>-199</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>398</v>
+        <v>310</v>
       </c>
       <c r="G6" s="10">
         <v>2</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>366</v>
+        <v>278</v>
       </c>
       <c r="I6" s="10" t="s">
         <v>48</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>368</v>
-      </c>
-      <c r="K6" s="21">
+        <v>280</v>
+      </c>
+      <c r="K6" s="20">
         <v>-199000000</v>
       </c>
-      <c r="L6" s="21">
+      <c r="L6" s="20">
         <v>1000000</v>
       </c>
-      <c r="M6" s="21">
+      <c r="M6" s="20">
         <v>1000000</v>
       </c>
       <c r="N6" s="10" t="s">
         <v>48</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>369</v>
+        <v>281</v>
       </c>
       <c r="P6" s="10" t="s">
-        <v>370</v>
+        <v>282</v>
       </c>
       <c r="Q6" s="10" t="s">
-        <v>371</v>
+        <v>283</v>
       </c>
       <c r="R6" s="10" t="s">
         <v>48</v>
@@ -5811,7 +7972,7 @@
         <v>0</v>
       </c>
       <c r="AD6" s="10" t="s">
-        <v>372</v>
+        <v>284</v>
       </c>
       <c r="AE6" s="10" t="s">
         <v>51</v>
@@ -5820,10 +7981,10 @@
         <v>60</v>
       </c>
       <c r="AG6" s="10" t="s">
-        <v>349</v>
+        <v>265</v>
       </c>
       <c r="AH6" s="10" t="s">
-        <v>373</v>
+        <v>285</v>
       </c>
       <c r="AI6" s="10">
         <v>2403</v>
@@ -5831,11 +7992,11 @@
       <c r="AJ6" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="AK6" s="22">
+      <c r="AK6" s="21">
         <v>42024</v>
       </c>
       <c r="AL6" s="10" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="AM6" s="10" t="s">
         <v>56</v>
@@ -5847,7 +8008,7 @@
         <v>48</v>
       </c>
       <c r="AP6" s="10" t="s">
-        <v>374</v>
+        <v>286</v>
       </c>
       <c r="AQ6" s="10" t="s">
         <v>48</v>
@@ -5864,19 +8025,19 @@
       <c r="AU6" s="10">
         <v>100</v>
       </c>
-      <c r="AV6" s="21">
+      <c r="AV6" s="20">
         <v>100000000</v>
       </c>
     </row>
     <row r="7" spans="1:48">
       <c r="A7" s="10" t="s">
-        <v>377</v>
+        <v>289</v>
       </c>
       <c r="B7" s="10">
         <v>2142</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>375</v>
+        <v>287</v>
       </c>
       <c r="D7" s="10">
         <v>10</v>
@@ -5885,40 +8046,40 @@
         <v>-6</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>399</v>
+        <v>311</v>
       </c>
       <c r="G7" s="10">
         <v>2</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>376</v>
+        <v>288</v>
       </c>
       <c r="I7" s="10" t="s">
         <v>48</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>368</v>
-      </c>
-      <c r="K7" s="21">
+        <v>280</v>
+      </c>
+      <c r="K7" s="20">
         <v>-3000000</v>
       </c>
-      <c r="L7" s="21">
+      <c r="L7" s="20">
         <v>500000</v>
       </c>
-      <c r="M7" s="21">
+      <c r="M7" s="20">
         <v>5000000</v>
       </c>
       <c r="N7" s="10" t="s">
         <v>48</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>378</v>
+        <v>290</v>
       </c>
       <c r="P7" s="10" t="s">
-        <v>379</v>
+        <v>291</v>
       </c>
       <c r="Q7" s="10" t="s">
-        <v>371</v>
+        <v>283</v>
       </c>
       <c r="R7" s="10" t="s">
         <v>48</v>
@@ -5957,7 +8118,7 @@
         <v>0</v>
       </c>
       <c r="AD7" s="10" t="s">
-        <v>372</v>
+        <v>284</v>
       </c>
       <c r="AE7" s="10" t="s">
         <v>51</v>
@@ -5969,7 +8130,7 @@
         <v>53</v>
       </c>
       <c r="AH7" s="10" t="s">
-        <v>373</v>
+        <v>285</v>
       </c>
       <c r="AI7" s="10">
         <v>1403</v>
@@ -5977,11 +8138,11 @@
       <c r="AJ7" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="AK7" s="22">
+      <c r="AK7" s="21">
         <v>42026</v>
       </c>
       <c r="AL7" s="10" t="s">
-        <v>380</v>
+        <v>292</v>
       </c>
       <c r="AM7" s="10" t="s">
         <v>56</v>
@@ -5993,7 +8154,7 @@
         <v>48</v>
       </c>
       <c r="AP7" s="10" t="s">
-        <v>374</v>
+        <v>286</v>
       </c>
       <c r="AQ7" s="10" t="s">
         <v>48</v>
@@ -6010,19 +8171,19 @@
       <c r="AU7" s="10">
         <v>8</v>
       </c>
-      <c r="AV7" s="21">
+      <c r="AV7" s="20">
         <v>4000000</v>
       </c>
     </row>
     <row r="8" spans="1:48">
       <c r="A8" s="10" t="s">
-        <v>383</v>
+        <v>295</v>
       </c>
       <c r="B8" s="10">
         <v>2142</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>381</v>
+        <v>293</v>
       </c>
       <c r="D8" s="10">
         <v>-1</v>
@@ -6031,40 +8192,40 @@
         <v>-1</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>299</v>
+        <v>241</v>
       </c>
       <c r="G8" s="10">
         <v>1</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>382</v>
+        <v>294</v>
       </c>
       <c r="I8" s="10" t="s">
         <v>48</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>368</v>
-      </c>
-      <c r="K8" s="21">
+        <v>280</v>
+      </c>
+      <c r="K8" s="20">
         <v>-100000</v>
       </c>
-      <c r="L8" s="21">
+      <c r="L8" s="20">
         <v>100000</v>
       </c>
-      <c r="M8" s="21">
+      <c r="M8" s="20">
         <v>-100000</v>
       </c>
       <c r="N8" s="10" t="s">
         <v>48</v>
       </c>
       <c r="O8" s="10" t="s">
-        <v>384</v>
+        <v>296</v>
       </c>
       <c r="P8" s="10" t="s">
-        <v>385</v>
+        <v>297</v>
       </c>
       <c r="Q8" s="10" t="s">
-        <v>371</v>
+        <v>283</v>
       </c>
       <c r="R8" s="10" t="s">
         <v>48</v>
@@ -6103,16 +8264,16 @@
         <v>0</v>
       </c>
       <c r="AD8" s="10" t="s">
-        <v>372</v>
+        <v>284</v>
       </c>
       <c r="AE8" s="10" t="s">
         <v>51</v>
       </c>
       <c r="AF8" s="10" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="AG8" s="10" t="s">
-        <v>349</v>
+        <v>265</v>
       </c>
       <c r="AH8" s="10" t="s">
         <v>54</v>
@@ -6123,14 +8284,14 @@
       <c r="AJ8" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="AK8" s="22">
+      <c r="AK8" s="21">
         <v>42016</v>
       </c>
       <c r="AL8" s="10" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="AM8" s="10" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="AN8" s="10" t="s">
         <v>48</v>
@@ -6139,7 +8300,7 @@
         <v>48</v>
       </c>
       <c r="AP8" s="10" t="s">
-        <v>374</v>
+        <v>286</v>
       </c>
       <c r="AQ8" s="10" t="s">
         <v>48</v>
@@ -6162,13 +8323,13 @@
     </row>
     <row r="9" spans="1:48">
       <c r="A9" s="10" t="s">
-        <v>388</v>
+        <v>300</v>
       </c>
       <c r="B9" s="10">
         <v>2142</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>386</v>
+        <v>298</v>
       </c>
       <c r="D9" s="10">
         <v>1000</v>
@@ -6177,40 +8338,40 @@
         <v>-1000</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>400</v>
+        <v>312</v>
       </c>
       <c r="G9" s="10">
         <v>2</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>387</v>
+        <v>299</v>
       </c>
       <c r="I9" s="10" t="s">
         <v>48</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>368</v>
-      </c>
-      <c r="K9" s="21">
+        <v>280</v>
+      </c>
+      <c r="K9" s="20">
         <v>-500000000</v>
       </c>
-      <c r="L9" s="21">
+      <c r="L9" s="20">
         <v>500000</v>
       </c>
-      <c r="M9" s="21">
+      <c r="M9" s="20">
         <v>500000000</v>
       </c>
       <c r="N9" s="10" t="s">
         <v>48</v>
       </c>
       <c r="O9" s="10" t="s">
-        <v>389</v>
+        <v>301</v>
       </c>
       <c r="P9" s="10" t="s">
-        <v>389</v>
+        <v>301</v>
       </c>
       <c r="Q9" s="10" t="s">
-        <v>371</v>
+        <v>283</v>
       </c>
       <c r="R9" s="10" t="s">
         <v>48</v>
@@ -6249,7 +8410,7 @@
         <v>0</v>
       </c>
       <c r="AD9" s="10" t="s">
-        <v>372</v>
+        <v>284</v>
       </c>
       <c r="AE9" s="10" t="s">
         <v>51</v>
@@ -6261,7 +8422,7 @@
         <v>53</v>
       </c>
       <c r="AH9" s="10" t="s">
-        <v>390</v>
+        <v>302</v>
       </c>
       <c r="AI9" s="10">
         <v>1403</v>
@@ -6269,11 +8430,11 @@
       <c r="AJ9" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="AK9" s="22">
+      <c r="AK9" s="21">
         <v>41824</v>
       </c>
       <c r="AL9" s="10" t="s">
-        <v>391</v>
+        <v>303</v>
       </c>
       <c r="AM9" s="10" t="s">
         <v>56</v>
@@ -6302,19 +8463,19 @@
       <c r="AU9" s="10">
         <v>1000</v>
       </c>
-      <c r="AV9" s="21">
+      <c r="AV9" s="20">
         <v>500000000</v>
       </c>
     </row>
     <row r="10" spans="1:48">
       <c r="A10" s="10" t="s">
-        <v>393</v>
+        <v>305</v>
       </c>
       <c r="B10" s="10">
         <v>2142</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>392</v>
+        <v>304</v>
       </c>
       <c r="D10" s="10">
         <v>1000</v>
@@ -6323,40 +8484,40 @@
         <v>-1000</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>400</v>
+        <v>312</v>
       </c>
       <c r="G10" s="10">
         <v>2</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>387</v>
+        <v>299</v>
       </c>
       <c r="I10" s="10" t="s">
         <v>48</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>368</v>
-      </c>
-      <c r="K10" s="21">
+        <v>280</v>
+      </c>
+      <c r="K10" s="20">
         <v>-500000000</v>
       </c>
-      <c r="L10" s="21">
+      <c r="L10" s="20">
         <v>500000</v>
       </c>
-      <c r="M10" s="21">
+      <c r="M10" s="20">
         <v>500000000</v>
       </c>
       <c r="N10" s="10" t="s">
         <v>48</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>394</v>
+        <v>306</v>
       </c>
       <c r="P10" s="10" t="s">
-        <v>394</v>
+        <v>306</v>
       </c>
       <c r="Q10" s="10" t="s">
-        <v>371</v>
+        <v>283</v>
       </c>
       <c r="R10" s="10" t="s">
         <v>48</v>
@@ -6395,7 +8556,7 @@
         <v>0</v>
       </c>
       <c r="AD10" s="10" t="s">
-        <v>372</v>
+        <v>284</v>
       </c>
       <c r="AE10" s="10" t="s">
         <v>51</v>
@@ -6407,7 +8568,7 @@
         <v>53</v>
       </c>
       <c r="AH10" s="10" t="s">
-        <v>390</v>
+        <v>302</v>
       </c>
       <c r="AI10" s="10">
         <v>1403</v>
@@ -6415,11 +8576,11 @@
       <c r="AJ10" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="AK10" s="22">
+      <c r="AK10" s="21">
         <v>41824</v>
       </c>
       <c r="AL10" s="10" t="s">
-        <v>391</v>
+        <v>303</v>
       </c>
       <c r="AM10" s="10" t="s">
         <v>56</v>
@@ -6448,19 +8609,19 @@
       <c r="AU10" s="10">
         <v>1000</v>
       </c>
-      <c r="AV10" s="21">
+      <c r="AV10" s="20">
         <v>500000000</v>
       </c>
     </row>
     <row r="11" spans="1:48">
       <c r="A11" s="10" t="s">
-        <v>396</v>
+        <v>308</v>
       </c>
       <c r="B11" s="10">
         <v>2142</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>395</v>
+        <v>307</v>
       </c>
       <c r="D11" s="10">
         <v>100</v>
@@ -6469,40 +8630,40 @@
         <v>-100</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>399</v>
+        <v>311</v>
       </c>
       <c r="G11" s="10">
         <v>2</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>376</v>
+        <v>288</v>
       </c>
       <c r="I11" s="10" t="s">
         <v>48</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>368</v>
-      </c>
-      <c r="K11" s="21">
+        <v>280</v>
+      </c>
+      <c r="K11" s="20">
         <v>-50000000</v>
       </c>
-      <c r="L11" s="21">
+      <c r="L11" s="20">
         <v>500000</v>
       </c>
-      <c r="M11" s="21">
+      <c r="M11" s="20">
         <v>50000000</v>
       </c>
       <c r="N11" s="10" t="s">
         <v>48</v>
       </c>
       <c r="O11" s="10" t="s">
-        <v>397</v>
+        <v>309</v>
       </c>
       <c r="P11" s="10" t="s">
-        <v>397</v>
+        <v>309</v>
       </c>
       <c r="Q11" s="10" t="s">
-        <v>371</v>
+        <v>283</v>
       </c>
       <c r="R11" s="10" t="s">
         <v>48</v>
@@ -6541,7 +8702,7 @@
         <v>0</v>
       </c>
       <c r="AD11" s="10" t="s">
-        <v>372</v>
+        <v>284</v>
       </c>
       <c r="AE11" s="10" t="s">
         <v>51</v>
@@ -6550,10 +8711,10 @@
         <v>60</v>
       </c>
       <c r="AG11" s="10" t="s">
-        <v>349</v>
+        <v>265</v>
       </c>
       <c r="AH11" s="10" t="s">
-        <v>390</v>
+        <v>302</v>
       </c>
       <c r="AI11" s="10">
         <v>1403</v>
@@ -6561,7 +8722,7 @@
       <c r="AJ11" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="AK11" s="22">
+      <c r="AK11" s="21">
         <v>41991</v>
       </c>
       <c r="AL11" s="10" t="s">
@@ -6594,16 +8755,16 @@
       <c r="AU11" s="10">
         <v>100</v>
       </c>
-      <c r="AV11" s="21">
+      <c r="AV11" s="20">
         <v>50000000</v>
       </c>
     </row>
     <row r="13" spans="1:48" ht="135">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="22" t="s">
         <v>207</v>
       </c>
-      <c r="E13" s="20" t="s">
-        <v>336</v>
+      <c r="E13" s="25" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -6614,12 +8775,12 @@
         <v>5</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>405</v>
+        <v>317</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="10" t="s">
-        <v>403</v>
+        <v>315</v>
       </c>
       <c r="B21" s="10">
         <v>68176</v>
@@ -6627,13 +8788,13 @@
       <c r="C21" s="10">
         <v>2</v>
       </c>
-      <c r="E21" s="25" t="s">
-        <v>413</v>
+      <c r="E21" s="24" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="10" t="s">
-        <v>404</v>
+        <v>316</v>
       </c>
       <c r="B22" s="10">
         <v>100035</v>
@@ -6641,13 +8802,13 @@
       <c r="C22" s="10">
         <v>2</v>
       </c>
-      <c r="E22" s="25" t="s">
-        <v>413</v>
+      <c r="E22" s="24" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="10" t="s">
-        <v>406</v>
+        <v>318</v>
       </c>
       <c r="B23" s="10">
         <v>2142</v>
@@ -6655,41 +8816,41 @@
       <c r="C23" s="10">
         <v>2</v>
       </c>
-      <c r="E23" s="25" t="s">
-        <v>413</v>
+      <c r="E23" s="24" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="24" t="s">
-        <v>407</v>
-      </c>
-      <c r="B24" s="24">
+      <c r="A24" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="B24" s="23">
         <v>1806011</v>
       </c>
       <c r="C24" s="10">
         <v>2</v>
       </c>
-      <c r="E24" s="25" t="s">
-        <v>414</v>
+      <c r="E24" s="24" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="24" t="s">
-        <v>407</v>
-      </c>
-      <c r="B25" s="24">
+      <c r="A25" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="B25" s="23">
         <v>1806012</v>
       </c>
       <c r="C25" s="10">
         <v>2</v>
       </c>
-      <c r="E25" s="25" t="s">
-        <v>414</v>
+      <c r="E25" s="24" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="10" t="s">
-        <v>408</v>
+        <v>320</v>
       </c>
       <c r="B26" s="10">
         <v>100003</v>
@@ -6697,13 +8858,13 @@
       <c r="C26" s="10">
         <v>2</v>
       </c>
-      <c r="E26" s="25" t="s">
-        <v>413</v>
+      <c r="E26" s="24" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="10" t="s">
-        <v>409</v>
+        <v>321</v>
       </c>
       <c r="B27" s="10">
         <v>8133</v>
@@ -6711,13 +8872,13 @@
       <c r="C27" s="10">
         <v>2</v>
       </c>
-      <c r="E27" s="25" t="s">
-        <v>413</v>
+      <c r="E27" s="24" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="10" t="s">
-        <v>410</v>
+        <v>322</v>
       </c>
       <c r="B28" s="10">
         <v>8133</v>
@@ -6725,13 +8886,13 @@
       <c r="C28" s="10">
         <v>2</v>
       </c>
-      <c r="E28" s="25" t="s">
-        <v>413</v>
+      <c r="E28" s="24" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="10" t="s">
-        <v>411</v>
+        <v>323</v>
       </c>
       <c r="B29" s="10">
         <v>8133</v>
@@ -6739,13 +8900,13 @@
       <c r="C29" s="10">
         <v>2</v>
       </c>
-      <c r="E29" s="25" t="s">
-        <v>413</v>
+      <c r="E29" s="24" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="10" t="s">
-        <v>412</v>
+        <v>324</v>
       </c>
       <c r="B30" s="10">
         <v>1687034</v>
@@ -6753,8 +8914,8 @@
       <c r="C30" s="10">
         <v>2</v>
       </c>
-      <c r="E30" s="25" t="s">
-        <v>413</v>
+      <c r="E30" s="24" t="s">
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -6763,7 +8924,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:AV40"/>
   <sheetViews>
@@ -8874,136 +11035,136 @@
       </c>
     </row>
     <row r="20" spans="1:48">
-      <c r="A20" s="51" t="s">
+      <c r="A20" s="72" t="s">
         <v>196</v>
       </c>
-      <c r="B20" s="51" t="s">
+      <c r="B20" s="72" t="s">
         <v>197</v>
       </c>
-      <c r="C20" s="51" t="s">
+      <c r="C20" s="72" t="s">
         <v>198</v>
       </c>
-      <c r="D20" s="51" t="s">
+      <c r="D20" s="72" t="s">
         <v>199</v>
       </c>
-      <c r="E20" s="51" t="s">
+      <c r="E20" s="72" t="s">
         <v>201</v>
       </c>
-      <c r="F20" s="51" t="s">
+      <c r="F20" s="72" t="s">
         <v>203</v>
       </c>
-      <c r="G20" s="51" t="s">
+      <c r="G20" s="72" t="s">
         <v>204</v>
       </c>
-      <c r="H20" s="51" t="s">
+      <c r="H20" s="72" t="s">
         <v>205</v>
       </c>
-      <c r="I20" s="51" t="s">
+      <c r="I20" s="72" t="s">
         <v>206</v>
       </c>
-      <c r="J20" s="51" t="s">
+      <c r="J20" s="72" t="s">
         <v>208</v>
       </c>
-      <c r="K20" s="51" t="s">
+      <c r="K20" s="72" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="21" spans="1:48">
-      <c r="A21" s="51"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51"/>
+      <c r="A21" s="72"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="72"/>
+      <c r="J21" s="72"/>
+      <c r="K21" s="72"/>
     </row>
     <row r="22" spans="1:48">
-      <c r="A22" s="51"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="51"/>
+      <c r="A22" s="72"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="72"/>
+      <c r="J22" s="72"/>
+      <c r="K22" s="72"/>
     </row>
     <row r="23" spans="1:48">
-      <c r="A23" s="51"/>
-      <c r="B23" s="51"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="51"/>
+      <c r="A23" s="72"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="72"/>
+      <c r="J23" s="72"/>
+      <c r="K23" s="72"/>
     </row>
     <row r="24" spans="1:48">
-      <c r="A24" s="51"/>
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="51"/>
+      <c r="A24" s="72"/>
+      <c r="B24" s="72"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="72"/>
+      <c r="J24" s="72"/>
+      <c r="K24" s="72"/>
     </row>
     <row r="25" spans="1:48">
-      <c r="A25" s="51"/>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="51"/>
+      <c r="A25" s="72"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="72"/>
+      <c r="J25" s="72"/>
+      <c r="K25" s="72"/>
     </row>
     <row r="27" spans="1:48">
-      <c r="D27" s="51" t="s">
+      <c r="D27" s="72" t="s">
         <v>200</v>
       </c>
-      <c r="E27" s="52" t="s">
+      <c r="E27" s="73" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="28" spans="1:48">
-      <c r="D28" s="51"/>
-      <c r="E28" s="52"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="73"/>
     </row>
     <row r="29" spans="1:48">
-      <c r="D29" s="51"/>
-      <c r="E29" s="52"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="73"/>
     </row>
     <row r="30" spans="1:48">
-      <c r="D30" s="51"/>
-      <c r="E30" s="52"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="73"/>
     </row>
     <row r="31" spans="1:48">
-      <c r="D31" s="51"/>
-      <c r="E31" s="52"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="73"/>
     </row>
     <row r="32" spans="1:48">
-      <c r="D32" s="51"/>
-      <c r="E32" s="52"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="73"/>
     </row>
     <row r="33" spans="1:32">
-      <c r="D33" s="51"/>
-      <c r="E33" s="52"/>
+      <c r="D33" s="72"/>
+      <c r="E33" s="73"/>
     </row>
     <row r="40" spans="1:32" ht="15">
       <c r="A40" t="s">
@@ -9076,7 +11237,7 @@
         <v>34</v>
       </c>
       <c r="X40" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="Y40" t="s">
         <v>16</v>
@@ -9091,7 +11252,7 @@
         <v>37</v>
       </c>
       <c r="AC40" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="AD40" t="s">
         <v>38</v>
@@ -9100,7 +11261,7 @@
         <v>0</v>
       </c>
       <c r="AF40" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -9124,12 +11285,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C2:AR49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F49" sqref="F2:F49"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9148,11 +11309,11 @@
     </row>
     <row r="3" spans="3:13">
       <c r="C3" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" ref="F3:F49" si="0">CONCATENATE(C3,",")</f>
-        <v>nr_id_sku,</v>
+        <v>ds_chave,</v>
       </c>
       <c r="M3" t="s">
         <v>3</v>
@@ -9160,11 +11321,11 @@
     </row>
     <row r="4" spans="3:13">
       <c r="C4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="0"/>
-        <v>ds_chave,</v>
+        <v>nr_id_fornecedor,</v>
       </c>
       <c r="M4" t="s">
         <v>2</v>
@@ -9172,11 +11333,11 @@
     </row>
     <row r="5" spans="3:13">
       <c r="C5" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
-        <v>qtd_total,</v>
+        <v>nr_id_filial,</v>
       </c>
       <c r="M5" t="s">
         <v>4</v>
@@ -9184,11 +11345,11 @@
     </row>
     <row r="6" spans="3:13">
       <c r="C6" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
-        <v>qtd_saldo,</v>
+        <v>ds_cliente,</v>
       </c>
       <c r="M6" t="s">
         <v>5</v>
@@ -9196,11 +11357,11 @@
     </row>
     <row r="7" spans="3:13">
       <c r="C7" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
-        <v>nr_id_fornecedor,</v>
+        <v>nr_id_sku,</v>
       </c>
       <c r="M7" t="s">
         <v>7</v>
@@ -9208,11 +11369,11 @@
     </row>
     <row r="8" spans="3:13">
       <c r="C8" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
-        <v>nr_id_filial,</v>
+        <v>ds_cod_fornecedor,</v>
       </c>
       <c r="M8" t="s">
         <v>28</v>
@@ -9220,11 +11381,11 @@
     </row>
     <row r="9" spans="3:13">
       <c r="C9" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
-        <v>ds_cliente,</v>
+        <v>ds_produto,</v>
       </c>
       <c r="M9" t="s">
         <v>30</v>
@@ -9232,11 +11393,11 @@
     </row>
     <row r="10" spans="3:13">
       <c r="C10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
-        <v>ds_cod_fornecedor,</v>
+        <v>qtd_saldo,</v>
       </c>
       <c r="M10" t="s">
         <v>27</v>
@@ -9244,11 +11405,11 @@
     </row>
     <row r="11" spans="3:13">
       <c r="C11" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
-        <v>ds_produto,</v>
+        <v>qtd_total,</v>
       </c>
       <c r="M11" t="s">
         <v>29</v>
@@ -9419,7 +11580,7 @@
         <v>ds_saldo_si_consolidado,</v>
       </c>
       <c r="M25" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
     </row>
     <row r="26" spans="3:13">
@@ -9479,7 +11640,7 @@
         <v>nr_cnpj_fabricante,</v>
       </c>
       <c r="M30" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
     </row>
     <row r="31" spans="3:13">
@@ -9515,7 +11676,7 @@
         <v>ds_geracao,</v>
       </c>
       <c r="M33" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
     </row>
     <row r="34" spans="3:44">
@@ -9605,7 +11766,7 @@
         <v>34</v>
       </c>
       <c r="AJ35" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="AK35" t="s">
         <v>16</v>
@@ -9620,7 +11781,7 @@
         <v>37</v>
       </c>
       <c r="AO35" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="AP35" t="s">
         <v>38</v>
@@ -9629,7 +11790,7 @@
         <v>0</v>
       </c>
       <c r="AR35" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
     </row>
     <row r="36" spans="3:44">
